--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R120"/>
+  <dimension ref="A1:R122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K51" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L51" t="n">
         <v>14000</v>
       </c>
-      <c r="L51" t="n">
-        <v>15000</v>
-      </c>
       <c r="M51" t="n">
-        <v>14455</v>
+        <v>13762</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="Q51" t="n">
         <v>50</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K52" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L52" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="M52" t="n">
-        <v>15483</v>
+        <v>14227</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="Q52" t="n">
         <v>30</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K53" t="n">
         <v>14000</v>
       </c>
       <c r="L53" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M53" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q53" t="n">
         <v>50</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="K54" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="L54" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M54" t="n">
-        <v>14750</v>
+        <v>15483</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="Q54" t="n">
         <v>30</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K55" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L55" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M55" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q55" t="n">
         <v>50</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44383</v>
+        <v>44400</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
@@ -4380,29 +4380,29 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K56" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="L56" t="n">
         <v>15000</v>
       </c>
       <c r="M56" t="n">
-        <v>15000</v>
+        <v>14750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>300</v>
+        <v>492</v>
       </c>
       <c r="Q56" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -4452,29 +4452,29 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K57" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L57" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M57" t="n">
-        <v>17478</v>
+        <v>15000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>583</v>
+        <v>300</v>
       </c>
       <c r="Q57" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -4524,41 +4524,41 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>3800</v>
+        <v>90</v>
       </c>
       <c r="K58" t="n">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="L58" t="n">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="M58" t="n">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
@@ -4601,36 +4601,36 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>3500</v>
+        <v>115</v>
       </c>
       <c r="K59" t="n">
-        <v>250</v>
+        <v>17000</v>
       </c>
       <c r="L59" t="n">
-        <v>250</v>
+        <v>18000</v>
       </c>
       <c r="M59" t="n">
-        <v>250</v>
+        <v>17478</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>250</v>
+        <v>583</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -4668,41 +4668,41 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>250</v>
+        <v>3800</v>
       </c>
       <c r="K60" t="n">
-        <v>13000</v>
+        <v>350</v>
       </c>
       <c r="L60" t="n">
-        <v>13500</v>
+        <v>350</v>
       </c>
       <c r="M60" t="n">
-        <v>13240</v>
+        <v>350</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="Q60" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -4745,36 +4745,36 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>120</v>
+        <v>3500</v>
       </c>
       <c r="K61" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L61" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M61" t="n">
-        <v>13750</v>
+        <v>250</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q61" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="K62" t="n">
         <v>13000</v>
       </c>
       <c r="L62" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M62" t="n">
-        <v>13000</v>
+        <v>13240</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q62" t="n">
         <v>50</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K63" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L63" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M63" t="n">
-        <v>13231</v>
+        <v>13750</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="Q63" t="n">
         <v>30</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K64" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L64" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M64" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q64" t="n">
         <v>50</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K65" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L65" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M65" t="n">
-        <v>14474</v>
+        <v>13231</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="Q65" t="n">
         <v>30</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -5100,41 +5100,41 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="K66" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L66" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M66" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P66" t="n">
         <v>300</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5177,36 +5177,36 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>3800</v>
+        <v>95</v>
       </c>
       <c r="K67" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L67" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M67" t="n">
-        <v>250</v>
+        <v>14474</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>250</v>
+        <v>482</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44371</v>
+        <v>44172</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5244,41 +5244,41 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>95</v>
+        <v>3500</v>
       </c>
       <c r="K68" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L68" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M68" t="n">
-        <v>13474</v>
+        <v>300</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Q68" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44371</v>
+        <v>44172</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5321,36 +5321,36 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>110</v>
+        <v>3800</v>
       </c>
       <c r="K69" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L69" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M69" t="n">
-        <v>14455</v>
+        <v>250</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>482</v>
+        <v>250</v>
       </c>
       <c r="Q69" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K70" t="n">
         <v>13000</v>
       </c>
       <c r="L70" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M70" t="n">
-        <v>13238</v>
+        <v>13474</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q70" t="n">
         <v>50</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K71" t="n">
         <v>14000</v>
@@ -5478,7 +5478,7 @@
         <v>15000</v>
       </c>
       <c r="M71" t="n">
-        <v>14476</v>
+        <v>14455</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q71" t="n">
         <v>30</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K72" t="n">
         <v>13000</v>
       </c>
       <c r="L72" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M72" t="n">
-        <v>13000</v>
+        <v>13238</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q72" t="n">
         <v>50</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5616,13 +5616,13 @@
         <v>105</v>
       </c>
       <c r="K73" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L73" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M73" t="n">
-        <v>13762</v>
+        <v>14476</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="Q73" t="n">
         <v>30</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -5676,29 +5676,29 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K74" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L74" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M74" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q74" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44330</v>
+        <v>44405</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K75" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L75" t="n">
         <v>14000</v>
       </c>
-      <c r="L75" t="n">
-        <v>14500</v>
-      </c>
       <c r="M75" t="n">
-        <v>14265</v>
+        <v>13762</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="Q75" t="n">
         <v>30</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -5820,16 +5820,16 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K76" t="n">
         <v>15000</v>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q76" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -5901,20 +5901,20 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="K77" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L77" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="M77" t="n">
-        <v>16545</v>
+        <v>14265</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>331</v>
+        <v>476</v>
       </c>
       <c r="Q77" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -5964,29 +5964,29 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K78" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L78" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M78" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>474</v>
+        <v>300</v>
       </c>
       <c r="Q78" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6036,25 +6036,25 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K79" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="L79" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M79" t="n">
-        <v>13739</v>
+        <v>16545</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="Q79" t="n">
         <v>50</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K80" t="n">
         <v>14000</v>
@@ -6126,7 +6126,7 @@
         <v>14500</v>
       </c>
       <c r="M80" t="n">
-        <v>14261</v>
+        <v>14227</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q80" t="n">
         <v>30</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K81" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L81" t="n">
         <v>14000</v>
       </c>
-      <c r="L81" t="n">
-        <v>14500</v>
-      </c>
       <c r="M81" t="n">
-        <v>14227</v>
+        <v>13739</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q81" t="n">
         <v>50</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K82" t="n">
         <v>14000</v>
       </c>
       <c r="L82" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M82" t="n">
-        <v>14000</v>
+        <v>14261</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="Q82" t="n">
         <v>30</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K83" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L83" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M83" t="n">
-        <v>15000</v>
+        <v>14227</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="Q83" t="n">
         <v>50</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="K84" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L84" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M84" t="n">
-        <v>15528</v>
+        <v>14000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="Q84" t="n">
         <v>30</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -6477,20 +6477,20 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K85" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L85" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M85" t="n">
-        <v>13545</v>
+        <v>15000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>452</v>
+        <v>300</v>
       </c>
       <c r="Q85" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="K86" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L86" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M86" t="n">
-        <v>10000</v>
+        <v>15528</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>200</v>
+        <v>518</v>
       </c>
       <c r="Q86" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6612,25 +6612,25 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
         <v>110</v>
       </c>
       <c r="K87" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L87" t="n">
         <v>14000</v>
       </c>
-      <c r="L87" t="n">
-        <v>15000</v>
-      </c>
       <c r="M87" t="n">
-        <v>14455</v>
+        <v>13545</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="Q87" t="n">
         <v>30</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>615</v>
+        <v>80</v>
       </c>
       <c r="K88" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L88" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M88" t="n">
-        <v>13951</v>
+        <v>10000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="Q88" t="n">
         <v>50</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K89" t="n">
         <v>14000</v>
@@ -6774,7 +6774,7 @@
         <v>15000</v>
       </c>
       <c r="M89" t="n">
-        <v>14462</v>
+        <v>14455</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6828,41 +6828,41 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>3800</v>
+        <v>615</v>
       </c>
       <c r="K90" t="n">
-        <v>300</v>
+        <v>13500</v>
       </c>
       <c r="L90" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="M90" t="n">
-        <v>300</v>
+        <v>13951</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6905,36 +6905,36 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>4200</v>
+        <v>130</v>
       </c>
       <c r="K91" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="L91" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="M91" t="n">
-        <v>200</v>
+        <v>14462</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>200</v>
+        <v>482</v>
       </c>
       <c r="Q91" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6981,32 +6981,32 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>85</v>
+        <v>3800</v>
       </c>
       <c r="K92" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="L92" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="M92" t="n">
-        <v>11471</v>
+        <v>300</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="Q92" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="K93" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L93" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="M93" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7121,36 +7121,36 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>3200</v>
+        <v>85</v>
       </c>
       <c r="K94" t="n">
-        <v>200</v>
+        <v>11000</v>
       </c>
       <c r="L94" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>11471</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>200</v>
+        <v>382</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7197,32 +7197,32 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>45</v>
+        <v>2800</v>
       </c>
       <c r="K95" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="L95" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="M95" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q95" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44309</v>
+        <v>44159</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,32 +7269,32 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>65</v>
+        <v>3200</v>
       </c>
       <c r="K96" t="n">
-        <v>11000</v>
+        <v>200</v>
       </c>
       <c r="L96" t="n">
-        <v>11000</v>
+        <v>200</v>
       </c>
       <c r="M96" t="n">
-        <v>11000</v>
+        <v>200</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="Q96" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44344</v>
+        <v>44333</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7332,29 +7332,29 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K97" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L97" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M97" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="Q97" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7404,29 +7404,29 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K98" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L98" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M98" t="n">
-        <v>14444</v>
+        <v>11000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>481</v>
+        <v>220</v>
       </c>
       <c r="Q98" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7476,41 +7476,41 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>3200</v>
+        <v>60</v>
       </c>
       <c r="K99" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L99" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="M99" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q99" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7553,36 +7553,36 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>3000</v>
+        <v>90</v>
       </c>
       <c r="K100" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L100" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M100" t="n">
-        <v>250</v>
+        <v>14444</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>250</v>
+        <v>481</v>
       </c>
       <c r="Q100" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K101" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L101" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M101" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,32 +7701,32 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="K102" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="L102" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M102" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q102" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7769,36 +7769,36 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>110</v>
+        <v>2800</v>
       </c>
       <c r="K103" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L103" t="n">
-        <v>15000</v>
+        <v>180</v>
       </c>
       <c r="M103" t="n">
-        <v>14455</v>
+        <v>180</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>482</v>
+        <v>180</v>
       </c>
       <c r="Q103" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7841,11 +7841,11 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K104" t="n">
         <v>15000</v>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q104" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7908,29 +7908,29 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K105" t="n">
         <v>14000</v>
       </c>
       <c r="L105" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M105" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>280</v>
+        <v>482</v>
       </c>
       <c r="Q105" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7985,24 +7985,24 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="K106" t="n">
         <v>15000</v>
       </c>
       <c r="L106" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M106" t="n">
-        <v>15389</v>
+        <v>15000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>308</v>
+        <v>500</v>
       </c>
       <c r="Q106" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8052,29 +8052,29 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="K107" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L107" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M107" t="n">
-        <v>17556</v>
+        <v>14000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>585</v>
+        <v>280</v>
       </c>
       <c r="Q107" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K108" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L108" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M108" t="n">
-        <v>14520</v>
+        <v>15389</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="Q108" t="n">
         <v>50</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K109" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L109" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M109" t="n">
-        <v>15455</v>
+        <v>17556</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>515</v>
+        <v>585</v>
       </c>
       <c r="Q109" t="n">
         <v>30</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8268,29 +8268,29 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="K110" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L110" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M110" t="n">
-        <v>12000</v>
+        <v>14520</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="Q110" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8340,29 +8340,29 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K111" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L111" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M111" t="n">
-        <v>14000</v>
+        <v>15455</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>280</v>
+        <v>515</v>
       </c>
       <c r="Q111" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K112" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L112" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M112" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q112" t="n">
         <v>30</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K113" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L113" t="n">
         <v>14000</v>
       </c>
       <c r="M113" t="n">
-        <v>13455</v>
+        <v>14000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q113" t="n">
         <v>50</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8561,11 +8561,11 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K114" t="n">
         <v>14000</v>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>280</v>
+        <v>467</v>
       </c>
       <c r="Q114" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K115" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L115" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M115" t="n">
-        <v>15000</v>
+        <v>13455</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="Q115" t="n">
         <v>50</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8705,24 +8705,24 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K116" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L116" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="M116" t="n">
-        <v>16238</v>
+        <v>14000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>541</v>
+        <v>280</v>
       </c>
       <c r="Q116" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44284</v>
+        <v>44376</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K117" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L117" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M117" t="n">
-        <v>12808</v>
+        <v>15000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="Q117" t="n">
         <v>50</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K118" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L118" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M118" t="n">
-        <v>14000</v>
+        <v>16238</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q118" t="n">
         <v>30</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44168</v>
+        <v>44284</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8916,41 +8916,41 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>3800</v>
+        <v>130</v>
       </c>
       <c r="K119" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L119" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M119" t="n">
-        <v>300</v>
+        <v>12808</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="Q119" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,58 +8973,202 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>50</v>
+      </c>
+      <c r="K120" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L120" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M120" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>30</v>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E120" t="n">
-        <v>5</v>
-      </c>
-      <c r="F120" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="E121" t="n">
+        <v>5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
         <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K121" t="n">
+        <v>300</v>
+      </c>
+      <c r="L121" t="n">
+        <v>300</v>
+      </c>
+      <c r="M121" t="n">
+        <v>300</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Llay Llay</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>1</v>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J120" t="n">
+      <c r="J122" t="n">
         <v>7000</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K122" t="n">
         <v>230</v>
       </c>
-      <c r="L120" t="n">
+      <c r="L122" t="n">
         <v>250</v>
       </c>
-      <c r="M120" t="n">
+      <c r="M122" t="n">
         <v>240</v>
       </c>
-      <c r="N120" t="inlineStr">
+      <c r="N122" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="O122" t="inlineStr">
         <is>
           <t>Llay Llay</t>
         </is>
       </c>
-      <c r="P120" t="n">
+      <c r="P122" t="n">
         <v>240</v>
       </c>
-      <c r="Q120" t="n">
+      <c r="Q122" t="n">
         <v>1</v>
       </c>
-      <c r="R120" t="inlineStr">
+      <c r="R122" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:R124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44403</v>
+        <v>44414</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2373,16 +2373,16 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L28" t="n">
         <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>13000</v>
+        <v>12762</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q28" t="n">
         <v>50</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44403</v>
+        <v>44414</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K29" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L29" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M29" t="n">
-        <v>13750</v>
+        <v>14238</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="Q29" t="n">
         <v>30</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M30" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q30" t="n">
         <v>50</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K31" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="L31" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="M31" t="n">
-        <v>16231</v>
+        <v>13750</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="Q31" t="n">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L32" t="n">
         <v>15000</v>
       </c>
       <c r="M32" t="n">
-        <v>14474</v>
+        <v>15000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="Q32" t="n">
         <v>50</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L33" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="M33" t="n">
-        <v>14526</v>
+        <v>16231</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="Q33" t="n">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K34" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L34" t="n">
         <v>15000</v>
       </c>
-      <c r="L34" t="n">
-        <v>16000</v>
-      </c>
       <c r="M34" t="n">
-        <v>15524</v>
+        <v>14474</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="Q34" t="n">
         <v>50</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K35" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L35" t="n">
         <v>15000</v>
       </c>
-      <c r="L35" t="n">
-        <v>16000</v>
-      </c>
       <c r="M35" t="n">
-        <v>15524</v>
+        <v>14526</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="Q35" t="n">
         <v>30</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K36" t="n">
         <v>15000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M36" t="n">
-        <v>15000</v>
+        <v>15524</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q36" t="n">
         <v>50</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="K37" t="n">
         <v>15000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M37" t="n">
-        <v>15000</v>
+        <v>15524</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3093,32 +3093,32 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="K38" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L38" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P38" t="n">
         <v>300</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3161,36 +3161,36 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>3300</v>
+        <v>45</v>
       </c>
       <c r="K39" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="L39" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44162</v>
+        <v>44174</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K40" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L40" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M40" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44342</v>
+        <v>44174</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3300,41 +3300,41 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>50</v>
+        <v>3300</v>
       </c>
       <c r="K41" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="L41" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="M41" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="Q41" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,32 +3381,32 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>50</v>
+        <v>3800</v>
       </c>
       <c r="K42" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L42" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M42" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="Q42" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3444,29 +3444,29 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M43" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M44" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q44" t="n">
         <v>50</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L45" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M45" t="n">
-        <v>17524</v>
+        <v>15000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>584</v>
+        <v>500</v>
       </c>
       <c r="Q45" t="n">
         <v>30</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K46" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L46" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M46" t="n">
-        <v>13750</v>
+        <v>15000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q46" t="n">
         <v>50</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K47" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L47" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M47" t="n">
-        <v>14500</v>
+        <v>17524</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>483</v>
+        <v>584</v>
       </c>
       <c r="Q47" t="n">
         <v>30</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44349</v>
+        <v>44363</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3804,29 +3804,29 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="K48" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="L48" t="n">
         <v>14000</v>
       </c>
       <c r="M48" t="n">
-        <v>14000</v>
+        <v>13750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>467</v>
+        <v>275</v>
       </c>
       <c r="Q48" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3876,29 +3876,29 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K49" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L49" t="n">
         <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>300</v>
+        <v>483</v>
       </c>
       <c r="Q49" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="K50" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L50" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M50" t="n">
-        <v>17538</v>
+        <v>14000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>585</v>
+        <v>467</v>
       </c>
       <c r="Q50" t="n">
         <v>30</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L51" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M51" t="n">
-        <v>13762</v>
+        <v>15000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q51" t="n">
         <v>50</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K52" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L52" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="M52" t="n">
-        <v>14227</v>
+        <v>17538</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>474</v>
+        <v>585</v>
       </c>
       <c r="Q52" t="n">
         <v>30</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K53" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L53" t="n">
         <v>14000</v>
       </c>
-      <c r="L53" t="n">
-        <v>15000</v>
-      </c>
       <c r="M53" t="n">
-        <v>14455</v>
+        <v>13762</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="Q53" t="n">
         <v>50</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K54" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L54" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="M54" t="n">
-        <v>15483</v>
+        <v>14227</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="Q54" t="n">
         <v>30</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K55" t="n">
         <v>14000</v>
       </c>
       <c r="L55" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M55" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q55" t="n">
         <v>50</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44400</v>
+        <v>44377</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="K56" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="L56" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M56" t="n">
-        <v>14750</v>
+        <v>15483</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="Q56" t="n">
         <v>30</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K57" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L57" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M57" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q57" t="n">
         <v>50</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44383</v>
+        <v>44400</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -4524,29 +4524,29 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K58" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="L58" t="n">
         <v>15000</v>
       </c>
       <c r="M58" t="n">
-        <v>15000</v>
+        <v>14750</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>300</v>
+        <v>492</v>
       </c>
       <c r="Q58" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
@@ -4596,29 +4596,29 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K59" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L59" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M59" t="n">
-        <v>17478</v>
+        <v>15000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>583</v>
+        <v>300</v>
       </c>
       <c r="Q59" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -4668,41 +4668,41 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>3800</v>
+        <v>90</v>
       </c>
       <c r="K60" t="n">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="L60" t="n">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="M60" t="n">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -4745,36 +4745,36 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>3500</v>
+        <v>115</v>
       </c>
       <c r="K61" t="n">
-        <v>250</v>
+        <v>17000</v>
       </c>
       <c r="L61" t="n">
-        <v>250</v>
+        <v>18000</v>
       </c>
       <c r="M61" t="n">
-        <v>250</v>
+        <v>17478</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>250</v>
+        <v>583</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -4812,41 +4812,41 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>250</v>
+        <v>3800</v>
       </c>
       <c r="K62" t="n">
-        <v>13000</v>
+        <v>350</v>
       </c>
       <c r="L62" t="n">
-        <v>13500</v>
+        <v>350</v>
       </c>
       <c r="M62" t="n">
-        <v>13240</v>
+        <v>350</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>265</v>
+        <v>350</v>
       </c>
       <c r="Q62" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -4889,36 +4889,36 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>120</v>
+        <v>3500</v>
       </c>
       <c r="K63" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L63" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M63" t="n">
-        <v>13750</v>
+        <v>250</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q63" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="K64" t="n">
         <v>13000</v>
       </c>
       <c r="L64" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M64" t="n">
-        <v>13000</v>
+        <v>13240</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q64" t="n">
         <v>50</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K65" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L65" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M65" t="n">
-        <v>13231</v>
+        <v>13750</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="Q65" t="n">
         <v>30</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K66" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L66" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M66" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q66" t="n">
         <v>50</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K67" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L67" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M67" t="n">
-        <v>14474</v>
+        <v>13231</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="Q67" t="n">
         <v>30</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5244,41 +5244,41 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="K68" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L68" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M68" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P68" t="n">
         <v>300</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5321,36 +5321,36 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>3800</v>
+        <v>95</v>
       </c>
       <c r="K69" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L69" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M69" t="n">
-        <v>250</v>
+        <v>14474</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>250</v>
+        <v>482</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44371</v>
+        <v>44172</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5388,41 +5388,41 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>95</v>
+        <v>3500</v>
       </c>
       <c r="K70" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L70" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M70" t="n">
-        <v>13474</v>
+        <v>300</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Q70" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44371</v>
+        <v>44172</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -5465,36 +5465,36 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>110</v>
+        <v>3800</v>
       </c>
       <c r="K71" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L71" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M71" t="n">
-        <v>14455</v>
+        <v>250</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>482</v>
+        <v>250</v>
       </c>
       <c r="Q71" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K72" t="n">
         <v>13000</v>
       </c>
       <c r="L72" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M72" t="n">
-        <v>13238</v>
+        <v>13474</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q72" t="n">
         <v>50</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44364</v>
+        <v>44371</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K73" t="n">
         <v>14000</v>
@@ -5622,7 +5622,7 @@
         <v>15000</v>
       </c>
       <c r="M73" t="n">
-        <v>14476</v>
+        <v>14455</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q73" t="n">
         <v>30</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K74" t="n">
         <v>13000</v>
       </c>
       <c r="L74" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M74" t="n">
-        <v>13000</v>
+        <v>13238</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q74" t="n">
         <v>50</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -5760,13 +5760,13 @@
         <v>105</v>
       </c>
       <c r="K75" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L75" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M75" t="n">
-        <v>13762</v>
+        <v>14476</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="Q75" t="n">
         <v>30</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -5820,29 +5820,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K76" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L76" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M76" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="Q76" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44330</v>
+        <v>44405</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K77" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L77" t="n">
         <v>14000</v>
       </c>
-      <c r="L77" t="n">
-        <v>14500</v>
-      </c>
       <c r="M77" t="n">
-        <v>14265</v>
+        <v>13762</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="Q77" t="n">
         <v>30</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -5964,16 +5964,16 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K78" t="n">
         <v>15000</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q78" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="K79" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L79" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="M79" t="n">
-        <v>16545</v>
+        <v>14265</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>331</v>
+        <v>476</v>
       </c>
       <c r="Q79" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6108,29 +6108,29 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K80" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L80" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M80" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>474</v>
+        <v>300</v>
       </c>
       <c r="Q80" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6180,25 +6180,25 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K81" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="L81" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M81" t="n">
-        <v>13739</v>
+        <v>16545</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="Q81" t="n">
         <v>50</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6261,7 +6261,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K82" t="n">
         <v>14000</v>
@@ -6270,7 +6270,7 @@
         <v>14500</v>
       </c>
       <c r="M82" t="n">
-        <v>14261</v>
+        <v>14227</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q82" t="n">
         <v>30</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K83" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L83" t="n">
         <v>14000</v>
       </c>
-      <c r="L83" t="n">
-        <v>14500</v>
-      </c>
       <c r="M83" t="n">
-        <v>14227</v>
+        <v>13739</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q83" t="n">
         <v>50</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K84" t="n">
         <v>14000</v>
       </c>
       <c r="L84" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M84" t="n">
-        <v>14000</v>
+        <v>14261</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="Q84" t="n">
         <v>30</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K85" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L85" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M85" t="n">
-        <v>15000</v>
+        <v>14227</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="Q85" t="n">
         <v>50</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="K86" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L86" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M86" t="n">
-        <v>15528</v>
+        <v>14000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="Q86" t="n">
         <v>30</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -6621,20 +6621,20 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K87" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L87" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M87" t="n">
-        <v>13545</v>
+        <v>15000</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>452</v>
+        <v>300</v>
       </c>
       <c r="Q87" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6684,29 +6684,29 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="K88" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L88" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M88" t="n">
-        <v>10000</v>
+        <v>15528</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>200</v>
+        <v>518</v>
       </c>
       <c r="Q88" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
         <v>110</v>
       </c>
       <c r="K89" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L89" t="n">
         <v>14000</v>
       </c>
-      <c r="L89" t="n">
-        <v>15000</v>
-      </c>
       <c r="M89" t="n">
-        <v>14455</v>
+        <v>13545</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="Q89" t="n">
         <v>30</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>615</v>
+        <v>80</v>
       </c>
       <c r="K90" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L90" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M90" t="n">
-        <v>13951</v>
+        <v>10000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="Q90" t="n">
         <v>50</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6909,7 +6909,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K91" t="n">
         <v>14000</v>
@@ -6918,7 +6918,7 @@
         <v>15000</v>
       </c>
       <c r="M91" t="n">
-        <v>14462</v>
+        <v>14455</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6972,41 +6972,41 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>3800</v>
+        <v>615</v>
       </c>
       <c r="K92" t="n">
-        <v>300</v>
+        <v>13500</v>
       </c>
       <c r="L92" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="M92" t="n">
-        <v>300</v>
+        <v>13951</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7049,36 +7049,36 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>4200</v>
+        <v>130</v>
       </c>
       <c r="K93" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="L93" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="M93" t="n">
-        <v>200</v>
+        <v>14462</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>200</v>
+        <v>482</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7125,32 +7125,32 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>85</v>
+        <v>3800</v>
       </c>
       <c r="K94" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="L94" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="M94" t="n">
-        <v>11471</v>
+        <v>300</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="Q94" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="K95" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L95" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="M95" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7265,36 +7265,36 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>3200</v>
+        <v>85</v>
       </c>
       <c r="K96" t="n">
-        <v>200</v>
+        <v>11000</v>
       </c>
       <c r="L96" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="M96" t="n">
-        <v>200</v>
+        <v>11471</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>200</v>
+        <v>382</v>
       </c>
       <c r="Q96" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7341,32 +7341,32 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>45</v>
+        <v>2800</v>
       </c>
       <c r="K97" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="L97" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="M97" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q97" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44309</v>
+        <v>44159</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,32 +7413,32 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>65</v>
+        <v>3200</v>
       </c>
       <c r="K98" t="n">
-        <v>11000</v>
+        <v>200</v>
       </c>
       <c r="L98" t="n">
-        <v>11000</v>
+        <v>200</v>
       </c>
       <c r="M98" t="n">
-        <v>11000</v>
+        <v>200</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="Q98" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44344</v>
+        <v>44333</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7476,29 +7476,29 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K99" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L99" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M99" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="Q99" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7548,29 +7548,29 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K100" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L100" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M100" t="n">
-        <v>14444</v>
+        <v>11000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>481</v>
+        <v>220</v>
       </c>
       <c r="Q100" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7620,41 +7620,41 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>3200</v>
+        <v>60</v>
       </c>
       <c r="K101" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L101" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="M101" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7697,36 +7697,36 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>3000</v>
+        <v>90</v>
       </c>
       <c r="K102" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L102" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M102" t="n">
-        <v>250</v>
+        <v>14444</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>250</v>
+        <v>481</v>
       </c>
       <c r="Q102" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7769,20 +7769,20 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K103" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L103" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M103" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,32 +7845,32 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="K104" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="L104" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M104" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q104" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7913,36 +7913,36 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>110</v>
+        <v>2800</v>
       </c>
       <c r="K105" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L105" t="n">
-        <v>15000</v>
+        <v>180</v>
       </c>
       <c r="M105" t="n">
-        <v>14455</v>
+        <v>180</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>482</v>
+        <v>180</v>
       </c>
       <c r="Q105" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7985,11 +7985,11 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K106" t="n">
         <v>15000</v>
@@ -8002,7 +8002,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q106" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8052,29 +8052,29 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K107" t="n">
         <v>14000</v>
       </c>
       <c r="L107" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M107" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>280</v>
+        <v>482</v>
       </c>
       <c r="Q107" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8129,24 +8129,24 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="K108" t="n">
         <v>15000</v>
       </c>
       <c r="L108" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M108" t="n">
-        <v>15389</v>
+        <v>15000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>308</v>
+        <v>500</v>
       </c>
       <c r="Q108" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8196,29 +8196,29 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="K109" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L109" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M109" t="n">
-        <v>17556</v>
+        <v>14000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>585</v>
+        <v>280</v>
       </c>
       <c r="Q109" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K110" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L110" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M110" t="n">
-        <v>14520</v>
+        <v>15389</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="Q110" t="n">
         <v>50</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K111" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L111" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M111" t="n">
-        <v>15455</v>
+        <v>17556</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>515</v>
+        <v>585</v>
       </c>
       <c r="Q111" t="n">
         <v>30</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8412,29 +8412,29 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="K112" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L112" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M112" t="n">
-        <v>12000</v>
+        <v>14520</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="Q112" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8484,29 +8484,29 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K113" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L113" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M113" t="n">
-        <v>14000</v>
+        <v>15455</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>280</v>
+        <v>515</v>
       </c>
       <c r="Q113" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K114" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L114" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M114" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q114" t="n">
         <v>30</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K115" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L115" t="n">
         <v>14000</v>
       </c>
       <c r="M115" t="n">
-        <v>13455</v>
+        <v>14000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q115" t="n">
         <v>50</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8705,11 +8705,11 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K116" t="n">
         <v>14000</v>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>280</v>
+        <v>467</v>
       </c>
       <c r="Q116" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K117" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L117" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M117" t="n">
-        <v>15000</v>
+        <v>13455</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="Q117" t="n">
         <v>50</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8849,24 +8849,24 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K118" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L118" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="M118" t="n">
-        <v>16238</v>
+        <v>14000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>541</v>
+        <v>280</v>
       </c>
       <c r="Q118" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44284</v>
+        <v>44376</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K119" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L119" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M119" t="n">
-        <v>12808</v>
+        <v>15000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="Q119" t="n">
         <v>50</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8988,7 +8988,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K120" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L120" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M120" t="n">
-        <v>14000</v>
+        <v>16238</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q120" t="n">
         <v>30</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44168</v>
+        <v>44284</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9060,41 +9060,41 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>3800</v>
+        <v>130</v>
       </c>
       <c r="K121" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L121" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M121" t="n">
-        <v>300</v>
+        <v>12808</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="Q121" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,58 +9117,202 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>50</v>
+      </c>
+      <c r="K122" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L122" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M122" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>30</v>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E122" t="n">
-        <v>5</v>
-      </c>
-      <c r="F122" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="E123" t="n">
+        <v>5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
         <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K123" t="n">
+        <v>300</v>
+      </c>
+      <c r="L123" t="n">
+        <v>300</v>
+      </c>
+      <c r="M123" t="n">
+        <v>300</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>Llay Llay</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1</v>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J122" t="n">
+      <c r="J124" t="n">
         <v>7000</v>
       </c>
-      <c r="K122" t="n">
+      <c r="K124" t="n">
         <v>230</v>
       </c>
-      <c r="L122" t="n">
+      <c r="L124" t="n">
         <v>250</v>
       </c>
-      <c r="M122" t="n">
+      <c r="M124" t="n">
         <v>240</v>
       </c>
-      <c r="N122" t="inlineStr">
+      <c r="N124" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>Llay Llay</t>
         </is>
       </c>
-      <c r="P122" t="n">
+      <c r="P124" t="n">
         <v>240</v>
       </c>
-      <c r="Q122" t="n">
+      <c r="Q124" t="n">
         <v>1</v>
       </c>
-      <c r="R122" t="inlineStr">
+      <c r="R124" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R124"/>
+  <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44392</v>
+        <v>44425</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K19" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M19" t="n">
-        <v>15000</v>
+        <v>12773</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q19" t="n">
         <v>50</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44392</v>
+        <v>44425</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K20" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="M20" t="n">
-        <v>15524</v>
+        <v>12240</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>517</v>
+        <v>408</v>
       </c>
       <c r="Q20" t="n">
         <v>30</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44411</v>
+        <v>44392</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K21" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L21" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>12727</v>
+        <v>15000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="Q21" t="n">
         <v>50</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44411</v>
+        <v>44392</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K22" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L22" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M22" t="n">
-        <v>13500</v>
+        <v>15524</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="Q22" t="n">
         <v>30</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L23" t="n">
         <v>13000</v>
       </c>
       <c r="M23" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K24" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="L24" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M24" t="n">
-        <v>14778</v>
+        <v>13500</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="Q24" t="n">
         <v>30</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44167</v>
+        <v>44411</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2153,36 +2153,36 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2800</v>
+        <v>60</v>
       </c>
       <c r="K25" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M25" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>300</v>
+        <v>433</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44407</v>
+        <v>44329</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,41 +2220,41 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L26" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>13262</v>
+        <v>14778</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>265</v>
+        <v>493</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44407</v>
+        <v>44424</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,29 +2292,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="K27" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L27" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="M27" t="n">
-        <v>13500</v>
+        <v>12234</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>450</v>
+        <v>245</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44414</v>
+        <v>44424</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2364,29 +2364,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L28" t="n">
         <v>13000</v>
       </c>
       <c r="M28" t="n">
-        <v>12762</v>
+        <v>13000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>255</v>
+        <v>433</v>
       </c>
       <c r="Q28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44414</v>
+        <v>44167</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2445,32 +2445,32 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>105</v>
+        <v>2800</v>
       </c>
       <c r="K29" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L29" t="n">
-        <v>14500</v>
+        <v>300</v>
       </c>
       <c r="M29" t="n">
-        <v>14238</v>
+        <v>300</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44403</v>
+        <v>44407</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K30" t="n">
         <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M30" t="n">
-        <v>13000</v>
+        <v>13262</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q30" t="n">
         <v>50</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44403</v>
+        <v>44407</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K31" t="n">
         <v>13500</v>
       </c>
       <c r="L31" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M31" t="n">
-        <v>13750</v>
+        <v>13500</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q31" t="n">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K32" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L32" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M32" t="n">
-        <v>15000</v>
+        <v>12762</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q32" t="n">
         <v>50</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44379</v>
+        <v>44414</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K33" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L33" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="M33" t="n">
-        <v>16231</v>
+        <v>14238</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>541</v>
+        <v>475</v>
       </c>
       <c r="Q33" t="n">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44356</v>
+        <v>44403</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="K34" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M34" t="n">
-        <v>14474</v>
+        <v>13000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="Q34" t="n">
         <v>50</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44356</v>
+        <v>44403</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K35" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L35" t="n">
         <v>14000</v>
       </c>
-      <c r="L35" t="n">
-        <v>15000</v>
-      </c>
       <c r="M35" t="n">
-        <v>14526</v>
+        <v>13750</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="Q35" t="n">
         <v>30</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44396</v>
+        <v>44379</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K36" t="n">
         <v>15000</v>
       </c>
       <c r="L36" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M36" t="n">
-        <v>15524</v>
+        <v>15000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q36" t="n">
         <v>50</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44396</v>
+        <v>44379</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K37" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L37" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="M37" t="n">
-        <v>15524</v>
+        <v>16231</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44340</v>
+        <v>44356</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K38" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L38" t="n">
         <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>15000</v>
+        <v>14474</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q38" t="n">
         <v>50</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44340</v>
+        <v>44356</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="K39" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
         <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>15000</v>
+        <v>14526</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="Q39" t="n">
         <v>30</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44174</v>
+        <v>44396</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3237,32 +3237,32 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>3500</v>
+        <v>105</v>
       </c>
       <c r="K40" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L40" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="M40" t="n">
-        <v>300</v>
+        <v>15524</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44174</v>
+        <v>44396</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3305,36 +3305,36 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>3300</v>
+        <v>105</v>
       </c>
       <c r="K41" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="L41" t="n">
-        <v>200</v>
+        <v>16000</v>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>15524</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>200</v>
+        <v>517</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44162</v>
+        <v>44340</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3381,32 +3381,32 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>3800</v>
+        <v>50</v>
       </c>
       <c r="K42" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="L42" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M42" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44342</v>
+        <v>44340</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3444,29 +3444,29 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K43" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L43" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="Q43" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44362</v>
+        <v>44174</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>3500</v>
       </c>
       <c r="K44" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L44" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M44" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q44" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44362</v>
+        <v>44174</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3593,36 +3593,36 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>80</v>
+        <v>3300</v>
       </c>
       <c r="K45" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="L45" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="M45" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44384</v>
+        <v>44162</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,32 +3669,32 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>60</v>
+        <v>3800</v>
       </c>
       <c r="K46" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="L46" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M46" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44384</v>
+        <v>44342</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K47" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L47" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M47" t="n">
-        <v>17524</v>
+        <v>14000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>584</v>
+        <v>280</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L48" t="n">
         <v>14000</v>
       </c>
       <c r="M48" t="n">
-        <v>13750</v>
+        <v>14000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q48" t="n">
         <v>50</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K49" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L49" t="n">
         <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="Q49" t="n">
         <v>30</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44349</v>
+        <v>44384</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K50" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L50" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M50" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="Q50" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4020,29 +4020,29 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K51" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L51" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M51" t="n">
-        <v>15000</v>
+        <v>17524</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>300</v>
+        <v>584</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4092,29 +4092,29 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K52" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="L52" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M52" t="n">
-        <v>17538</v>
+        <v>13750</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>585</v>
+        <v>275</v>
       </c>
       <c r="Q52" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44413</v>
+        <v>44363</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K53" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L53" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M53" t="n">
-        <v>13762</v>
+        <v>14500</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>275</v>
+        <v>483</v>
       </c>
       <c r="Q53" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44413</v>
+        <v>44349</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K54" t="n">
         <v>14000</v>
       </c>
       <c r="L54" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="M54" t="n">
-        <v>14227</v>
+        <v>14000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="Q54" t="n">
         <v>30</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44377</v>
+        <v>44385</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K55" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L55" t="n">
         <v>15000</v>
       </c>
       <c r="M55" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="Q55" t="n">
         <v>50</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44377</v>
+        <v>44385</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K56" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L56" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M56" t="n">
-        <v>15483</v>
+        <v>17538</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="Q56" t="n">
         <v>30</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44400</v>
+        <v>44427</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K57" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L57" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M57" t="n">
-        <v>14000</v>
+        <v>12739</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q57" t="n">
         <v>50</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44400</v>
+        <v>44427</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K58" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L58" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M58" t="n">
-        <v>14750</v>
+        <v>12760</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="Q58" t="n">
         <v>30</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44390</v>
+        <v>44413</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="K59" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L59" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M59" t="n">
-        <v>15000</v>
+        <v>13762</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q59" t="n">
         <v>50</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44383</v>
+        <v>44413</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -4668,29 +4668,29 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K60" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L60" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M60" t="n">
-        <v>15000</v>
+        <v>14227</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>300</v>
+        <v>474</v>
       </c>
       <c r="Q60" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -4740,29 +4740,29 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K61" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L61" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="M61" t="n">
-        <v>17478</v>
+        <v>13238</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>583</v>
+        <v>265</v>
       </c>
       <c r="Q61" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44169</v>
+        <v>44421</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -4821,32 +4821,32 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>3800</v>
+        <v>115</v>
       </c>
       <c r="K62" t="n">
-        <v>350</v>
+        <v>13000</v>
       </c>
       <c r="L62" t="n">
-        <v>350</v>
+        <v>14000</v>
       </c>
       <c r="M62" t="n">
-        <v>350</v>
+        <v>13522</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>350</v>
+        <v>451</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44169</v>
+        <v>44377</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4893,32 +4893,32 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>3500</v>
+        <v>110</v>
       </c>
       <c r="K63" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L63" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M63" t="n">
-        <v>250</v>
+        <v>14455</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44410</v>
+        <v>44377</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -4956,29 +4956,29 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="K64" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L64" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M64" t="n">
-        <v>13240</v>
+        <v>15483</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>265</v>
+        <v>516</v>
       </c>
       <c r="Q64" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44410</v>
+        <v>44400</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K65" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L65" t="n">
         <v>14000</v>
       </c>
       <c r="M65" t="n">
-        <v>13750</v>
+        <v>14000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>458</v>
+        <v>280</v>
       </c>
       <c r="Q65" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44412</v>
+        <v>44400</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -5100,29 +5100,29 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K66" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="L66" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M66" t="n">
-        <v>13000</v>
+        <v>14750</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>260</v>
+        <v>492</v>
       </c>
       <c r="Q66" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44412</v>
+        <v>44426</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5172,29 +5172,29 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K67" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L67" t="n">
         <v>13000</v>
       </c>
-      <c r="L67" t="n">
-        <v>13500</v>
-      </c>
       <c r="M67" t="n">
-        <v>13231</v>
+        <v>12739</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>441</v>
+        <v>255</v>
       </c>
       <c r="Q67" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44336</v>
+        <v>44426</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K68" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L68" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M68" t="n">
-        <v>15000</v>
+        <v>12761</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="Q68" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44336</v>
+        <v>44390</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5316,29 +5316,29 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K69" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L69" t="n">
         <v>15000</v>
       </c>
       <c r="M69" t="n">
-        <v>14474</v>
+        <v>15000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="Q69" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44172</v>
+        <v>44383</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5388,41 +5388,41 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>3500</v>
+        <v>90</v>
       </c>
       <c r="K70" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L70" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M70" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P70" t="n">
         <v>300</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44172</v>
+        <v>44383</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -5465,36 +5465,36 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>3800</v>
+        <v>115</v>
       </c>
       <c r="K71" t="n">
-        <v>250</v>
+        <v>17000</v>
       </c>
       <c r="L71" t="n">
-        <v>250</v>
+        <v>18000</v>
       </c>
       <c r="M71" t="n">
-        <v>250</v>
+        <v>17478</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>250</v>
+        <v>583</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44371</v>
+        <v>44169</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -5532,41 +5532,41 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>95</v>
+        <v>3800</v>
       </c>
       <c r="K72" t="n">
-        <v>13000</v>
+        <v>350</v>
       </c>
       <c r="L72" t="n">
-        <v>14000</v>
+        <v>350</v>
       </c>
       <c r="M72" t="n">
-        <v>13474</v>
+        <v>350</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="Q72" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44371</v>
+        <v>44169</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5609,36 +5609,36 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="K73" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L73" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M73" t="n">
-        <v>14455</v>
+        <v>250</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>482</v>
+        <v>250</v>
       </c>
       <c r="Q73" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44364</v>
+        <v>44410</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="K74" t="n">
         <v>13000</v>
@@ -5694,7 +5694,7 @@
         <v>13500</v>
       </c>
       <c r="M74" t="n">
-        <v>13238</v>
+        <v>13240</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44364</v>
+        <v>44410</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K75" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L75" t="n">
         <v>14000</v>
       </c>
-      <c r="L75" t="n">
-        <v>15000</v>
-      </c>
       <c r="M75" t="n">
-        <v>14476</v>
+        <v>13750</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="Q75" t="n">
         <v>30</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -5829,7 +5829,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K76" t="n">
         <v>13000</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44405</v>
+        <v>44412</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K77" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L77" t="n">
         <v>13500</v>
       </c>
-      <c r="L77" t="n">
-        <v>14000</v>
-      </c>
       <c r="M77" t="n">
-        <v>13762</v>
+        <v>13231</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="Q77" t="n">
         <v>30</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44327</v>
+        <v>44336</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -5964,16 +5964,16 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K78" t="n">
         <v>15000</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q78" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44330</v>
+        <v>44336</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K79" t="n">
         <v>14000</v>
       </c>
       <c r="L79" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M79" t="n">
-        <v>14265</v>
+        <v>14474</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="Q79" t="n">
         <v>30</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44391</v>
+        <v>44172</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6108,41 +6108,41 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>60</v>
+        <v>3500</v>
       </c>
       <c r="K80" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="L80" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="M80" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P80" t="n">
         <v>300</v>
       </c>
       <c r="Q80" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44391</v>
+        <v>44172</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6185,36 +6185,36 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>110</v>
+        <v>3800</v>
       </c>
       <c r="K81" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="L81" t="n">
-        <v>17000</v>
+        <v>250</v>
       </c>
       <c r="M81" t="n">
-        <v>16545</v>
+        <v>250</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="Q81" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44351</v>
+        <v>44371</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6252,29 +6252,29 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K82" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L82" t="n">
         <v>14000</v>
       </c>
-      <c r="L82" t="n">
-        <v>14500</v>
-      </c>
       <c r="M82" t="n">
-        <v>14227</v>
+        <v>13474</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>474</v>
+        <v>269</v>
       </c>
       <c r="Q82" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44350</v>
+        <v>44371</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K83" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L83" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M83" t="n">
-        <v>13739</v>
+        <v>14455</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>275</v>
+        <v>482</v>
       </c>
       <c r="Q83" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44350</v>
+        <v>44364</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6396,29 +6396,29 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K84" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L84" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="M84" t="n">
-        <v>14261</v>
+        <v>13238</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>475</v>
+        <v>265</v>
       </c>
       <c r="Q84" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44358</v>
+        <v>44364</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -6468,29 +6468,29 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K85" t="n">
         <v>14000</v>
       </c>
       <c r="L85" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M85" t="n">
-        <v>14227</v>
+        <v>14476</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>285</v>
+        <v>483</v>
       </c>
       <c r="Q85" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44358</v>
+        <v>44405</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K86" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L86" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M86" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>467</v>
+        <v>260</v>
       </c>
       <c r="Q86" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44389</v>
+        <v>44405</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -6612,29 +6612,29 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K87" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L87" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M87" t="n">
-        <v>15000</v>
+        <v>13762</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>300</v>
+        <v>459</v>
       </c>
       <c r="Q87" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44389</v>
+        <v>44327</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="K88" t="n">
         <v>15000</v>
       </c>
       <c r="L88" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M88" t="n">
-        <v>15528</v>
+        <v>15000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="Q88" t="n">
         <v>30</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44399</v>
+        <v>44330</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6756,25 +6756,25 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="K89" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L89" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M89" t="n">
-        <v>13545</v>
+        <v>14265</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="Q89" t="n">
         <v>30</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K90" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L90" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M90" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q90" t="n">
         <v>50</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6912,17 +6912,17 @@
         <v>110</v>
       </c>
       <c r="K91" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L91" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M91" t="n">
-        <v>14455</v>
+        <v>16545</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>482</v>
+        <v>331</v>
       </c>
       <c r="Q91" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6972,29 +6972,29 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>615</v>
+        <v>110</v>
       </c>
       <c r="K92" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L92" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M92" t="n">
-        <v>13951</v>
+        <v>14227</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>279</v>
+        <v>474</v>
       </c>
       <c r="Q92" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44369</v>
+        <v>44350</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7044,29 +7044,29 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K93" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L93" t="n">
         <v>14000</v>
       </c>
-      <c r="L93" t="n">
-        <v>15000</v>
-      </c>
       <c r="M93" t="n">
-        <v>14462</v>
+        <v>13739</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>482</v>
+        <v>275</v>
       </c>
       <c r="Q93" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44161</v>
+        <v>44350</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7125,32 +7125,32 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>3800</v>
+        <v>115</v>
       </c>
       <c r="K94" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L94" t="n">
-        <v>300</v>
+        <v>14500</v>
       </c>
       <c r="M94" t="n">
-        <v>300</v>
+        <v>14261</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>300</v>
+        <v>475</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44161</v>
+        <v>44358</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,32 +7197,32 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>4200</v>
+        <v>110</v>
       </c>
       <c r="K95" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="L95" t="n">
-        <v>200</v>
+        <v>14500</v>
       </c>
       <c r="M95" t="n">
-        <v>200</v>
+        <v>14227</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44195</v>
+        <v>44358</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="K96" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L96" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M96" t="n">
-        <v>11471</v>
+        <v>14000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>382</v>
+        <v>467</v>
       </c>
       <c r="Q96" t="n">
         <v>30</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44159</v>
+        <v>44389</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7332,41 +7332,41 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>2800</v>
+        <v>90</v>
       </c>
       <c r="K97" t="n">
-        <v>270</v>
+        <v>15000</v>
       </c>
       <c r="L97" t="n">
-        <v>270</v>
+        <v>15000</v>
       </c>
       <c r="M97" t="n">
-        <v>270</v>
+        <v>15000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q97" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44159</v>
+        <v>44389</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7413,32 +7413,32 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>3200</v>
+        <v>127</v>
       </c>
       <c r="K98" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="L98" t="n">
-        <v>200</v>
+        <v>16000</v>
       </c>
       <c r="M98" t="n">
-        <v>200</v>
+        <v>15528</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>200</v>
+        <v>518</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44333</v>
+        <v>44399</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7476,25 +7476,25 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="K99" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L99" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M99" t="n">
-        <v>15000</v>
+        <v>13545</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>500</v>
+        <v>452</v>
       </c>
       <c r="Q99" t="n">
         <v>30</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44309</v>
+        <v>44399</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7553,20 +7553,20 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K100" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L100" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M100" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="Q100" t="n">
         <v>50</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44344</v>
+        <v>44399</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7620,29 +7620,29 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K101" t="n">
         <v>14000</v>
       </c>
       <c r="L101" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M101" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>280</v>
+        <v>482</v>
       </c>
       <c r="Q101" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44344</v>
+        <v>44417</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7692,29 +7692,29 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K102" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L102" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M102" t="n">
-        <v>14444</v>
+        <v>13238</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>481</v>
+        <v>265</v>
       </c>
       <c r="Q102" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44160</v>
+        <v>44417</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7773,32 +7773,32 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>3200</v>
+        <v>110</v>
       </c>
       <c r="K103" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L103" t="n">
-        <v>300</v>
+        <v>13500</v>
       </c>
       <c r="M103" t="n">
-        <v>300</v>
+        <v>13273</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>300</v>
+        <v>442</v>
       </c>
       <c r="Q103" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44160</v>
+        <v>44419</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,32 +7845,32 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>3000</v>
+        <v>110</v>
       </c>
       <c r="K104" t="n">
-        <v>250</v>
+        <v>13500</v>
       </c>
       <c r="L104" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="M104" t="n">
-        <v>250</v>
+        <v>13773</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44160</v>
+        <v>44419</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7913,36 +7913,36 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>2800</v>
+        <v>110</v>
       </c>
       <c r="K105" t="n">
-        <v>180</v>
+        <v>13000</v>
       </c>
       <c r="L105" t="n">
-        <v>180</v>
+        <v>13500</v>
       </c>
       <c r="M105" t="n">
-        <v>180</v>
+        <v>13273</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>180</v>
+        <v>442</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K106" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L106" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M106" t="n">
-        <v>15000</v>
+        <v>13231</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q106" t="n">
         <v>50</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K107" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L107" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M107" t="n">
-        <v>14455</v>
+        <v>13222</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="Q107" t="n">
         <v>30</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44326</v>
+        <v>44369</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8129,24 +8129,24 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>55</v>
+        <v>615</v>
       </c>
       <c r="K108" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L108" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M108" t="n">
-        <v>15000</v>
+        <v>13951</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>500</v>
+        <v>279</v>
       </c>
       <c r="Q108" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44326</v>
+        <v>44369</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8196,29 +8196,29 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K109" t="n">
         <v>14000</v>
       </c>
       <c r="L109" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M109" t="n">
-        <v>14000</v>
+        <v>14462</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>280</v>
+        <v>482</v>
       </c>
       <c r="Q109" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44382</v>
+        <v>44161</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8268,41 +8268,41 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>90</v>
+        <v>3800</v>
       </c>
       <c r="K110" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="L110" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="M110" t="n">
-        <v>15389</v>
+        <v>300</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="Q110" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44382</v>
+        <v>44161</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8345,36 +8345,36 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>135</v>
+        <v>4200</v>
       </c>
       <c r="K111" t="n">
-        <v>17000</v>
+        <v>200</v>
       </c>
       <c r="L111" t="n">
-        <v>18000</v>
+        <v>200</v>
       </c>
       <c r="M111" t="n">
-        <v>17556</v>
+        <v>200</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>585</v>
+        <v>200</v>
       </c>
       <c r="Q111" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44398</v>
+        <v>44195</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8412,29 +8412,29 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="K112" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L112" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M112" t="n">
-        <v>14520</v>
+        <v>11471</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>290</v>
+        <v>382</v>
       </c>
       <c r="Q112" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44398</v>
+        <v>44159</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8493,32 +8493,32 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>110</v>
+        <v>2800</v>
       </c>
       <c r="K113" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="L113" t="n">
-        <v>16000</v>
+        <v>270</v>
       </c>
       <c r="M113" t="n">
-        <v>15455</v>
+        <v>270</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>515</v>
+        <v>270</v>
       </c>
       <c r="Q113" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44270</v>
+        <v>44159</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8561,36 +8561,36 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>40</v>
+        <v>3200</v>
       </c>
       <c r="K114" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L114" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="M114" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q114" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44355</v>
+        <v>44333</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8628,29 +8628,29 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K115" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L115" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M115" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="Q115" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44355</v>
+        <v>44309</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8700,29 +8700,29 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K116" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L116" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M116" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>467</v>
+        <v>220</v>
       </c>
       <c r="Q116" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K117" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L117" t="n">
         <v>14000</v>
       </c>
       <c r="M117" t="n">
-        <v>13455</v>
+        <v>14000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q117" t="n">
         <v>50</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8849,24 +8849,24 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K118" t="n">
         <v>14000</v>
       </c>
       <c r="L118" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M118" t="n">
-        <v>14000</v>
+        <v>14444</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>280</v>
+        <v>481</v>
       </c>
       <c r="Q118" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44376</v>
+        <v>44160</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8916,41 +8916,41 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>60</v>
+        <v>3200</v>
       </c>
       <c r="K119" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="L119" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="M119" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P119" t="n">
         <v>300</v>
       </c>
       <c r="Q119" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44376</v>
+        <v>44160</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8993,36 +8993,36 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>105</v>
+        <v>3000</v>
       </c>
       <c r="K120" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="L120" t="n">
-        <v>16500</v>
+        <v>250</v>
       </c>
       <c r="M120" t="n">
-        <v>16238</v>
+        <v>250</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>541</v>
+        <v>250</v>
       </c>
       <c r="Q120" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44284</v>
+        <v>44160</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9060,41 +9060,41 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>130</v>
+        <v>2800</v>
       </c>
       <c r="K121" t="n">
-        <v>12500</v>
+        <v>180</v>
       </c>
       <c r="L121" t="n">
-        <v>13000</v>
+        <v>180</v>
       </c>
       <c r="M121" t="n">
-        <v>12808</v>
+        <v>180</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="Q121" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44334</v>
+        <v>44370</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9137,36 +9137,36 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
+        <v>80</v>
+      </c>
+      <c r="K122" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L122" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M122" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q122" t="n">
         <v>50</v>
-      </c>
-      <c r="K122" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L122" t="n">
-        <v>14000</v>
-      </c>
-      <c r="M122" t="n">
-        <v>14000</v>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P122" t="n">
-        <v>467</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>30</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9213,32 +9213,32 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>3800</v>
+        <v>110</v>
       </c>
       <c r="K123" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L123" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M123" t="n">
-        <v>300</v>
+        <v>14455</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="Q123" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,58 +9261,1354 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>55</v>
+      </c>
+      <c r="K124" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L124" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M124" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>30</v>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>3</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>60</v>
+      </c>
+      <c r="K125" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L125" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M125" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>50</v>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>3</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>90</v>
+      </c>
+      <c r="K126" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L126" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M126" t="n">
+        <v>15389</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>308</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>50</v>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>3</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>44382</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>135</v>
+      </c>
+      <c r="K127" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L127" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M127" t="n">
+        <v>17556</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>585</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>30</v>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>3</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>125</v>
+      </c>
+      <c r="K128" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L128" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M128" t="n">
+        <v>14520</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>290</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>50</v>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>3</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>110</v>
+      </c>
+      <c r="K129" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L129" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M129" t="n">
+        <v>15455</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>515</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>30</v>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>3</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>40</v>
+      </c>
+      <c r="K130" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L130" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M130" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>30</v>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>3</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>50</v>
+      </c>
+      <c r="K131" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L131" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M131" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>50</v>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>3</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>60</v>
+      </c>
+      <c r="K132" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L132" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M132" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>30</v>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>3</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>110</v>
+      </c>
+      <c r="K133" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L133" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M133" t="n">
+        <v>13455</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>269</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>50</v>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>3</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>50</v>
+      </c>
+      <c r="K134" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L134" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M134" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>50</v>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>3</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>60</v>
+      </c>
+      <c r="K135" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L135" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M135" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>50</v>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>3</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E136" t="n">
+        <v>5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>105</v>
+      </c>
+      <c r="K136" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L136" t="n">
+        <v>16500</v>
+      </c>
+      <c r="M136" t="n">
+        <v>16238</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>541</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>30</v>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>3</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>130</v>
+      </c>
+      <c r="K137" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L137" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M137" t="n">
+        <v>12808</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>256</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>50</v>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>3</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>50</v>
+      </c>
+      <c r="K138" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L138" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M138" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>30</v>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>3</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E124" t="n">
-        <v>5</v>
-      </c>
-      <c r="F124" t="n">
-        <v>100112013</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Alcachofa</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="E139" t="n">
+        <v>5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
         <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J139" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K139" t="n">
+        <v>300</v>
+      </c>
+      <c r="L139" t="n">
+        <v>300</v>
+      </c>
+      <c r="M139" t="n">
+        <v>300</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>Llay Llay</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>1</v>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>3</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J124" t="n">
+      <c r="J140" t="n">
         <v>7000</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K140" t="n">
         <v>230</v>
       </c>
-      <c r="L124" t="n">
+      <c r="L140" t="n">
         <v>250</v>
       </c>
-      <c r="M124" t="n">
+      <c r="M140" t="n">
         <v>240</v>
       </c>
-      <c r="N124" t="inlineStr">
+      <c r="N140" t="inlineStr">
         <is>
           <t>$/unidad</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr">
+      <c r="O140" t="inlineStr">
         <is>
           <t>Llay Llay</t>
         </is>
       </c>
-      <c r="P124" t="n">
+      <c r="P140" t="n">
         <v>240</v>
       </c>
-      <c r="Q124" t="n">
+      <c r="Q140" t="n">
         <v>1</v>
       </c>
-      <c r="R124" t="inlineStr">
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>3</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>120</v>
+      </c>
+      <c r="K141" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L141" t="n">
+        <v>13500</v>
+      </c>
+      <c r="M141" t="n">
+        <v>13250</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>50</v>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>3</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>110</v>
+      </c>
+      <c r="K142" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L142" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M142" t="n">
+        <v>13455</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>448</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>30</v>
+      </c>
+      <c r="R142" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R142"/>
+  <dimension ref="A1:R154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K42" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L42" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M42" t="n">
-        <v>15000</v>
+        <v>12731</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q42" t="n">
         <v>50</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="K43" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M43" t="n">
-        <v>15000</v>
+        <v>13239</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="Q43" t="n">
         <v>30</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L44" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M44" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
         <v>300</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3593,36 +3593,36 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>3300</v>
+        <v>45</v>
       </c>
       <c r="K45" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="L45" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="M45" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44162</v>
+        <v>44174</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3669,16 +3669,16 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K46" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L46" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M46" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44342</v>
+        <v>44174</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3732,41 +3732,41 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>50</v>
+        <v>3300</v>
       </c>
       <c r="K47" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="L47" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="M47" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="Q47" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K48" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L48" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M48" t="n">
-        <v>14000</v>
+        <v>12738</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q48" t="n">
         <v>50</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K49" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L49" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M49" t="n">
-        <v>15000</v>
+        <v>12740</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="Q49" t="n">
         <v>30</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44384</v>
+        <v>44162</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,32 +3957,32 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>60</v>
+        <v>3800</v>
       </c>
       <c r="K50" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="L50" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M50" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q50" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44384</v>
+        <v>44342</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4020,29 +4020,29 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K51" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L51" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M51" t="n">
-        <v>17524</v>
+        <v>14000</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>584</v>
+        <v>280</v>
       </c>
       <c r="Q51" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K52" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L52" t="n">
         <v>14000</v>
       </c>
       <c r="M52" t="n">
-        <v>13750</v>
+        <v>14000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q52" t="n">
         <v>50</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44363</v>
+        <v>44362</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K53" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L53" t="n">
         <v>15000</v>
       </c>
       <c r="M53" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="Q53" t="n">
         <v>30</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44349</v>
+        <v>44384</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4236,29 +4236,29 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K54" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L54" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M54" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="Q54" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44385</v>
+        <v>44384</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
@@ -4308,29 +4308,29 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K55" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L55" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M55" t="n">
-        <v>15000</v>
+        <v>17524</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>300</v>
+        <v>584</v>
       </c>
       <c r="Q55" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
@@ -4380,29 +4380,29 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K56" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="L56" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M56" t="n">
-        <v>17538</v>
+        <v>13750</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>585</v>
+        <v>275</v>
       </c>
       <c r="Q56" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44427</v>
+        <v>44363</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -4452,29 +4452,29 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K57" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L57" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M57" t="n">
-        <v>12739</v>
+        <v>14500</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>255</v>
+        <v>483</v>
       </c>
       <c r="Q57" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44427</v>
+        <v>44349</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="K58" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L58" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M58" t="n">
-        <v>12760</v>
+        <v>14000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="Q58" t="n">
         <v>30</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K59" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L59" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M59" t="n">
-        <v>13762</v>
+        <v>15000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q59" t="n">
         <v>50</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K60" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L60" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="M60" t="n">
-        <v>14227</v>
+        <v>17538</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>474</v>
+        <v>585</v>
       </c>
       <c r="Q60" t="n">
         <v>30</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K61" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L61" t="n">
         <v>13000</v>
       </c>
-      <c r="L61" t="n">
-        <v>13500</v>
-      </c>
       <c r="M61" t="n">
-        <v>13238</v>
+        <v>12739</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q61" t="n">
         <v>50</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K62" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L62" t="n">
         <v>13000</v>
       </c>
-      <c r="L62" t="n">
-        <v>14000</v>
-      </c>
       <c r="M62" t="n">
-        <v>13522</v>
+        <v>12760</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="Q62" t="n">
         <v>30</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K63" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L63" t="n">
         <v>14000</v>
       </c>
-      <c r="L63" t="n">
-        <v>15000</v>
-      </c>
       <c r="M63" t="n">
-        <v>14455</v>
+        <v>13762</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="Q63" t="n">
         <v>50</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44377</v>
+        <v>44413</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K64" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L64" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="M64" t="n">
-        <v>15483</v>
+        <v>14227</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>516</v>
+        <v>474</v>
       </c>
       <c r="Q64" t="n">
         <v>30</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44400</v>
+        <v>44421</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K65" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L65" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M65" t="n">
-        <v>14000</v>
+        <v>13238</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="Q65" t="n">
         <v>50</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44400</v>
+        <v>44421</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K66" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="L66" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M66" t="n">
-        <v>14750</v>
+        <v>13522</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="Q66" t="n">
         <v>30</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K67" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L67" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M67" t="n">
-        <v>12739</v>
+        <v>14455</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="Q67" t="n">
         <v>50</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="K68" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L68" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M68" t="n">
-        <v>12761</v>
+        <v>15483</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="Q68" t="n">
         <v>30</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K69" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L69" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M69" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q69" t="n">
         <v>50</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44383</v>
+        <v>44400</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5388,29 +5388,29 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K70" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="L70" t="n">
         <v>15000</v>
       </c>
       <c r="M70" t="n">
-        <v>15000</v>
+        <v>14750</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>300</v>
+        <v>492</v>
       </c>
       <c r="Q70" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44383</v>
+        <v>44426</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -5460,29 +5460,29 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
         <v>115</v>
       </c>
       <c r="K71" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="L71" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M71" t="n">
-        <v>17478</v>
+        <v>12739</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>583</v>
+        <v>255</v>
       </c>
       <c r="Q71" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44169</v>
+        <v>44426</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -5541,32 +5541,32 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>3800</v>
+        <v>115</v>
       </c>
       <c r="K72" t="n">
-        <v>350</v>
+        <v>12500</v>
       </c>
       <c r="L72" t="n">
-        <v>350</v>
+        <v>13000</v>
       </c>
       <c r="M72" t="n">
-        <v>350</v>
+        <v>12761</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>350</v>
+        <v>425</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44169</v>
+        <v>44390</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,32 +5613,32 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>3500</v>
+        <v>65</v>
       </c>
       <c r="K73" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="L73" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M73" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K74" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L74" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M74" t="n">
-        <v>13240</v>
+        <v>15000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Q74" t="n">
         <v>50</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K75" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="L75" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M75" t="n">
-        <v>13750</v>
+        <v>17478</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>458</v>
+        <v>583</v>
       </c>
       <c r="Q75" t="n">
         <v>30</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -5820,41 +5820,41 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>60</v>
+        <v>3800</v>
       </c>
       <c r="K76" t="n">
-        <v>13000</v>
+        <v>350</v>
       </c>
       <c r="L76" t="n">
-        <v>13000</v>
+        <v>350</v>
       </c>
       <c r="M76" t="n">
-        <v>13000</v>
+        <v>350</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q76" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -5897,36 +5897,36 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>130</v>
+        <v>3500</v>
       </c>
       <c r="K77" t="n">
-        <v>13000</v>
+        <v>250</v>
       </c>
       <c r="L77" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="M77" t="n">
-        <v>13231</v>
+        <v>250</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>441</v>
+        <v>250</v>
       </c>
       <c r="Q77" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K78" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L78" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M78" t="n">
-        <v>15000</v>
+        <v>13240</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q78" t="n">
         <v>50</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K79" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L79" t="n">
         <v>14000</v>
       </c>
-      <c r="L79" t="n">
-        <v>15000</v>
-      </c>
       <c r="M79" t="n">
-        <v>14474</v>
+        <v>13750</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="Q79" t="n">
         <v>30</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44172</v>
+        <v>44412</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6108,41 +6108,41 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>3500</v>
+        <v>60</v>
       </c>
       <c r="K80" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L80" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M80" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44172</v>
+        <v>44412</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6185,36 +6185,36 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>3800</v>
+        <v>130</v>
       </c>
       <c r="K81" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="L81" t="n">
-        <v>250</v>
+        <v>13500</v>
       </c>
       <c r="M81" t="n">
-        <v>250</v>
+        <v>13231</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>250</v>
+        <v>441</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K82" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L82" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M82" t="n">
-        <v>13474</v>
+        <v>15000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Q82" t="n">
         <v>50</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44371</v>
+        <v>44336</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K83" t="n">
         <v>14000</v>
@@ -6342,7 +6342,7 @@
         <v>15000</v>
       </c>
       <c r="M83" t="n">
-        <v>14455</v>
+        <v>14474</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44364</v>
+        <v>44172</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6396,41 +6396,41 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>105</v>
+        <v>3500</v>
       </c>
       <c r="K84" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L84" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="M84" t="n">
-        <v>13238</v>
+        <v>300</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Q84" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44364</v>
+        <v>44172</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -6473,36 +6473,36 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>105</v>
+        <v>3800</v>
       </c>
       <c r="K85" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L85" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M85" t="n">
-        <v>14476</v>
+        <v>250</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>483</v>
+        <v>250</v>
       </c>
       <c r="Q85" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44405</v>
+        <v>44371</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K86" t="n">
         <v>13000</v>
       </c>
       <c r="L86" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M86" t="n">
-        <v>13000</v>
+        <v>13474</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q86" t="n">
         <v>50</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44405</v>
+        <v>44371</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K87" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L87" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M87" t="n">
-        <v>13762</v>
+        <v>14455</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="Q87" t="n">
         <v>30</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44327</v>
+        <v>44364</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6684,29 +6684,29 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K88" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L88" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M88" t="n">
-        <v>15000</v>
+        <v>13238</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>500</v>
+        <v>265</v>
       </c>
       <c r="Q88" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44330</v>
+        <v>44364</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K89" t="n">
         <v>14000</v>
       </c>
       <c r="L89" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M89" t="n">
-        <v>14265</v>
+        <v>14476</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="Q89" t="n">
         <v>30</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>60</v>
+        <v>555</v>
       </c>
       <c r="K90" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L90" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M90" t="n">
-        <v>15000</v>
+        <v>12788</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="Q90" t="n">
         <v>50</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44391</v>
+        <v>44435</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6909,20 +6909,20 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>110</v>
+        <v>610</v>
       </c>
       <c r="K91" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L91" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="M91" t="n">
-        <v>16545</v>
+        <v>12906</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>331</v>
+        <v>430</v>
       </c>
       <c r="Q91" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44351</v>
+        <v>44431</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6972,29 +6972,29 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K92" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L92" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="M92" t="n">
-        <v>14227</v>
+        <v>13237</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>474</v>
+        <v>265</v>
       </c>
       <c r="Q92" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44350</v>
+        <v>44431</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7044,29 +7044,29 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K93" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L93" t="n">
         <v>13500</v>
       </c>
-      <c r="L93" t="n">
-        <v>14000</v>
-      </c>
       <c r="M93" t="n">
-        <v>13739</v>
+        <v>13262</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>275</v>
+        <v>442</v>
       </c>
       <c r="Q93" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44350</v>
+        <v>44405</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7116,29 +7116,29 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K94" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L94" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="M94" t="n">
-        <v>14261</v>
+        <v>13000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>475</v>
+        <v>260</v>
       </c>
       <c r="Q94" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44358</v>
+        <v>44405</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7188,29 +7188,29 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K95" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L95" t="n">
         <v>14000</v>
       </c>
-      <c r="L95" t="n">
-        <v>14500</v>
-      </c>
       <c r="M95" t="n">
-        <v>14227</v>
+        <v>13762</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>285</v>
+        <v>459</v>
       </c>
       <c r="Q95" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44358</v>
+        <v>44327</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K96" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L96" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M96" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q96" t="n">
         <v>30</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44389</v>
+        <v>44330</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7332,29 +7332,29 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K97" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L97" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M97" t="n">
-        <v>15000</v>
+        <v>14265</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>300</v>
+        <v>476</v>
       </c>
       <c r="Q97" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7413,20 +7413,20 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="K98" t="n">
         <v>15000</v>
       </c>
       <c r="L98" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M98" t="n">
-        <v>15528</v>
+        <v>15000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>518</v>
+        <v>300</v>
       </c>
       <c r="Q98" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44399</v>
+        <v>44391</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7476,29 +7476,29 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J99" t="n">
         <v>110</v>
       </c>
       <c r="K99" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L99" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M99" t="n">
-        <v>13545</v>
+        <v>16545</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>452</v>
+        <v>331</v>
       </c>
       <c r="Q99" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44399</v>
+        <v>44351</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7548,29 +7548,29 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K100" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L100" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="M100" t="n">
-        <v>10000</v>
+        <v>14227</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>200</v>
+        <v>474</v>
       </c>
       <c r="Q100" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44399</v>
+        <v>44350</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7620,29 +7620,29 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K101" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L101" t="n">
         <v>14000</v>
       </c>
-      <c r="L101" t="n">
-        <v>15000</v>
-      </c>
       <c r="M101" t="n">
-        <v>14455</v>
+        <v>13739</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>482</v>
+        <v>275</v>
       </c>
       <c r="Q101" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44417</v>
+        <v>44350</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7692,29 +7692,29 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K102" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L102" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M102" t="n">
-        <v>13238</v>
+        <v>14261</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>265</v>
+        <v>475</v>
       </c>
       <c r="Q102" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44417</v>
+        <v>44358</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7764,29 +7764,29 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
         <v>110</v>
       </c>
       <c r="K103" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L103" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M103" t="n">
-        <v>13273</v>
+        <v>14227</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>442</v>
+        <v>285</v>
       </c>
       <c r="Q103" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44419</v>
+        <v>44358</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7836,29 +7836,29 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K104" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L104" t="n">
         <v>14000</v>
       </c>
       <c r="M104" t="n">
-        <v>13773</v>
+        <v>14000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>275</v>
+        <v>467</v>
       </c>
       <c r="Q104" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44419</v>
+        <v>44389</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7908,29 +7908,29 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K105" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L105" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M105" t="n">
-        <v>13273</v>
+        <v>15000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>442</v>
+        <v>300</v>
       </c>
       <c r="Q105" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44420</v>
+        <v>44389</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7989,20 +7989,20 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K106" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L106" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M106" t="n">
-        <v>13231</v>
+        <v>15528</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>265</v>
+        <v>518</v>
       </c>
       <c r="Q106" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44420</v>
+        <v>44399</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8052,25 +8052,25 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K107" t="n">
         <v>13000</v>
       </c>
       <c r="L107" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M107" t="n">
-        <v>13222</v>
+        <v>13545</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="Q107" t="n">
         <v>30</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>615</v>
+        <v>80</v>
       </c>
       <c r="K108" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="L108" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M108" t="n">
-        <v>13951</v>
+        <v>10000</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="Q108" t="n">
         <v>50</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44369</v>
+        <v>44399</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K109" t="n">
         <v>14000</v>
@@ -8214,7 +8214,7 @@
         <v>15000</v>
       </c>
       <c r="M109" t="n">
-        <v>14462</v>
+        <v>14455</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44161</v>
+        <v>44417</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8268,41 +8268,41 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>3800</v>
+        <v>105</v>
       </c>
       <c r="K110" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L110" t="n">
-        <v>300</v>
+        <v>13500</v>
       </c>
       <c r="M110" t="n">
-        <v>300</v>
+        <v>13238</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q110" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44161</v>
+        <v>44417</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8345,36 +8345,36 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>4200</v>
+        <v>110</v>
       </c>
       <c r="K111" t="n">
-        <v>200</v>
+        <v>13000</v>
       </c>
       <c r="L111" t="n">
-        <v>200</v>
+        <v>13500</v>
       </c>
       <c r="M111" t="n">
-        <v>200</v>
+        <v>13273</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>200</v>
+        <v>442</v>
       </c>
       <c r="Q111" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44195</v>
+        <v>44419</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8412,29 +8412,29 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="K112" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L112" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M112" t="n">
-        <v>11471</v>
+        <v>13773</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>382</v>
+        <v>275</v>
       </c>
       <c r="Q112" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44159</v>
+        <v>44419</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8493,32 +8493,32 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>2800</v>
+        <v>110</v>
       </c>
       <c r="K113" t="n">
-        <v>270</v>
+        <v>13000</v>
       </c>
       <c r="L113" t="n">
-        <v>270</v>
+        <v>13500</v>
       </c>
       <c r="M113" t="n">
-        <v>270</v>
+        <v>13273</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>270</v>
+        <v>442</v>
       </c>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44159</v>
+        <v>44420</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8565,32 +8565,32 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>3200</v>
+        <v>130</v>
       </c>
       <c r="K114" t="n">
-        <v>200</v>
+        <v>13000</v>
       </c>
       <c r="L114" t="n">
-        <v>200</v>
+        <v>13500</v>
       </c>
       <c r="M114" t="n">
-        <v>200</v>
+        <v>13231</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="Q114" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44333</v>
+        <v>44420</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K115" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L115" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M115" t="n">
-        <v>15000</v>
+        <v>13222</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>500</v>
+        <v>441</v>
       </c>
       <c r="Q115" t="n">
         <v>30</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44309</v>
+        <v>44369</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>65</v>
+        <v>615</v>
       </c>
       <c r="K116" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L116" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M116" t="n">
-        <v>11000</v>
+        <v>13951</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="Q116" t="n">
         <v>50</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44344</v>
+        <v>44369</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8772,29 +8772,29 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K117" t="n">
         <v>14000</v>
       </c>
       <c r="L117" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M117" t="n">
-        <v>14000</v>
+        <v>14462</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8803,10 +8803,10 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>280</v>
+        <v>482</v>
       </c>
       <c r="Q117" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R117" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44344</v>
+        <v>44161</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8853,32 +8853,32 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>90</v>
+        <v>3800</v>
       </c>
       <c r="K118" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L118" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="M118" t="n">
-        <v>14444</v>
+        <v>300</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>481</v>
+        <v>300</v>
       </c>
       <c r="Q118" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>3200</v>
+        <v>4200</v>
       </c>
       <c r="K119" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L119" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M119" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44160</v>
+        <v>44195</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8993,36 +8993,36 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>3000</v>
+        <v>85</v>
       </c>
       <c r="K120" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="L120" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M120" t="n">
-        <v>250</v>
+        <v>11471</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="Q120" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
         <v>2800</v>
       </c>
       <c r="K121" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="L121" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="M121" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44370</v>
+        <v>44159</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,32 +9141,32 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>80</v>
+        <v>3200</v>
       </c>
       <c r="K122" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="L122" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="M122" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q122" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44370</v>
+        <v>44333</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K123" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L123" t="n">
         <v>15000</v>
       </c>
       <c r="M123" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="Q123" t="n">
         <v>30</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44326</v>
+        <v>44433</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9281,24 +9281,24 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="K124" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L124" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M124" t="n">
-        <v>15000</v>
+        <v>12762</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="Q124" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44326</v>
+        <v>44433</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9348,29 +9348,29 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K125" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L125" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M125" t="n">
-        <v>14000</v>
+        <v>13250</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="Q125" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44382</v>
+        <v>44309</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K126" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L126" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M126" t="n">
-        <v>15389</v>
+        <v>11000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="Q126" t="n">
         <v>50</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44382</v>
+        <v>44344</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9492,29 +9492,29 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="K127" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L127" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M127" t="n">
-        <v>17556</v>
+        <v>14000</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>585</v>
+        <v>280</v>
       </c>
       <c r="Q127" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44398</v>
+        <v>44344</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9564,16 +9564,16 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K128" t="n">
         <v>14000</v>
@@ -9582,11 +9582,11 @@
         <v>15000</v>
       </c>
       <c r="M128" t="n">
-        <v>14520</v>
+        <v>14444</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>290</v>
+        <v>481</v>
       </c>
       <c r="Q128" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44398</v>
+        <v>44160</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9645,32 +9645,32 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>110</v>
+        <v>3200</v>
       </c>
       <c r="K129" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="L129" t="n">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="M129" t="n">
-        <v>15455</v>
+        <v>300</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>515</v>
+        <v>300</v>
       </c>
       <c r="Q129" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44270</v>
+        <v>44160</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9713,36 +9713,36 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>40</v>
+        <v>3000</v>
       </c>
       <c r="K130" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="L130" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="M130" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="Q130" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44355</v>
+        <v>44160</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9780,41 +9780,41 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="K131" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L131" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="M131" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="Q131" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44355</v>
+        <v>44370</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9852,29 +9852,29 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K132" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L132" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M132" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="Q132" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44343</v>
+        <v>44370</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9924,29 +9924,29 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J133" t="n">
         <v>110</v>
       </c>
       <c r="K133" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L133" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M133" t="n">
-        <v>13455</v>
+        <v>14455</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>269</v>
+        <v>482</v>
       </c>
       <c r="Q133" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44343</v>
+        <v>44326</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -9996,29 +9996,29 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K134" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L134" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M134" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="Q134" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44376</v>
+        <v>44326</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10080,13 +10080,13 @@
         <v>60</v>
       </c>
       <c r="K135" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L135" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M135" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q135" t="n">
         <v>50</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44376</v>
+        <v>44382</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10140,29 +10140,29 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K136" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L136" t="n">
         <v>16000</v>
       </c>
-      <c r="L136" t="n">
-        <v>16500</v>
-      </c>
       <c r="M136" t="n">
-        <v>16238</v>
+        <v>15389</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>541</v>
+        <v>308</v>
       </c>
       <c r="Q136" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44284</v>
+        <v>44382</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10212,29 +10212,29 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K137" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="L137" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M137" t="n">
-        <v>12808</v>
+        <v>17556</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>256</v>
+        <v>585</v>
       </c>
       <c r="Q137" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44334</v>
+        <v>44398</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10289,24 +10289,24 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K138" t="n">
         <v>14000</v>
       </c>
       <c r="L138" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M138" t="n">
-        <v>14000</v>
+        <v>14520</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>467</v>
+        <v>290</v>
       </c>
       <c r="Q138" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44168</v>
+        <v>44398</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10365,32 +10365,32 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>3800</v>
+        <v>110</v>
       </c>
       <c r="K139" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L139" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="M139" t="n">
-        <v>300</v>
+        <v>15455</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>300</v>
+        <v>515</v>
       </c>
       <c r="Q139" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44168</v>
+        <v>44270</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10433,36 +10433,36 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>7000</v>
+        <v>40</v>
       </c>
       <c r="K140" t="n">
-        <v>230</v>
+        <v>12000</v>
       </c>
       <c r="L140" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M140" t="n">
-        <v>240</v>
+        <v>12000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="Q140" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44418</v>
+        <v>44355</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K141" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L141" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M141" t="n">
-        <v>13250</v>
+        <v>14000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Q141" t="n">
         <v>50</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44418</v>
+        <v>44355</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K142" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L142" t="n">
         <v>14000</v>
       </c>
       <c r="M142" t="n">
-        <v>13455</v>
+        <v>14000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,12 +10603,876 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="Q142" t="n">
         <v>30</v>
       </c>
       <c r="R142" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>3</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>110</v>
+      </c>
+      <c r="K143" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L143" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M143" t="n">
+        <v>13455</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>269</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>50</v>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>3</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>50</v>
+      </c>
+      <c r="K144" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L144" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M144" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>50</v>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>3</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>60</v>
+      </c>
+      <c r="K145" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L145" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M145" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>50</v>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>3</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>105</v>
+      </c>
+      <c r="K146" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L146" t="n">
+        <v>16500</v>
+      </c>
+      <c r="M146" t="n">
+        <v>16238</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>541</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>30</v>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>3</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>130</v>
+      </c>
+      <c r="K147" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L147" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M147" t="n">
+        <v>12808</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>256</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>50</v>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>3</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>50</v>
+      </c>
+      <c r="K148" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L148" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M148" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>467</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>30</v>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>3</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K149" t="n">
+        <v>300</v>
+      </c>
+      <c r="L149" t="n">
+        <v>300</v>
+      </c>
+      <c r="M149" t="n">
+        <v>300</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Llay Llay</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>1</v>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>3</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>7000</v>
+      </c>
+      <c r="K150" t="n">
+        <v>230</v>
+      </c>
+      <c r="L150" t="n">
+        <v>250</v>
+      </c>
+      <c r="M150" t="n">
+        <v>240</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Llay Llay</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>240</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>1</v>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>3</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>120</v>
+      </c>
+      <c r="K151" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L151" t="n">
+        <v>13500</v>
+      </c>
+      <c r="M151" t="n">
+        <v>13250</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>50</v>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>3</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>110</v>
+      </c>
+      <c r="K152" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L152" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M152" t="n">
+        <v>13455</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>448</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>30</v>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>3</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>105</v>
+      </c>
+      <c r="K153" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L153" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M153" t="n">
+        <v>12238</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>245</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>50</v>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>3</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>130</v>
+      </c>
+      <c r="K154" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L154" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M154" t="n">
+        <v>12250</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>408</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>30</v>
+      </c>
+      <c r="R154" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R154"/>
+  <dimension ref="A1:R156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44327</v>
+        <v>44438</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7260,29 +7260,29 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K96" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L96" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="M96" t="n">
-        <v>15000</v>
+        <v>11286</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>500</v>
+        <v>226</v>
       </c>
       <c r="Q96" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44330</v>
+        <v>44438</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="K97" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L97" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M97" t="n">
-        <v>14265</v>
+        <v>12231</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>476</v>
+        <v>408</v>
       </c>
       <c r="Q97" t="n">
         <v>30</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44391</v>
+        <v>44327</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7404,16 +7404,16 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K98" t="n">
         <v>15000</v>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q98" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7485,20 +7485,20 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="K99" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L99" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="M99" t="n">
-        <v>16545</v>
+        <v>14265</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>331</v>
+        <v>476</v>
       </c>
       <c r="Q99" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7548,29 +7548,29 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K100" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L100" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M100" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>474</v>
+        <v>300</v>
       </c>
       <c r="Q100" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44350</v>
+        <v>44391</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7620,25 +7620,25 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K101" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="L101" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M101" t="n">
-        <v>13739</v>
+        <v>16545</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="Q101" t="n">
         <v>50</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K102" t="n">
         <v>14000</v>
@@ -7710,7 +7710,7 @@
         <v>14500</v>
       </c>
       <c r="M102" t="n">
-        <v>14261</v>
+        <v>14227</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q102" t="n">
         <v>30</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K103" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L103" t="n">
         <v>14000</v>
       </c>
-      <c r="L103" t="n">
-        <v>14500</v>
-      </c>
       <c r="M103" t="n">
-        <v>14227</v>
+        <v>13739</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q103" t="n">
         <v>50</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K104" t="n">
         <v>14000</v>
       </c>
       <c r="L104" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M104" t="n">
-        <v>14000</v>
+        <v>14261</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="Q104" t="n">
         <v>30</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K105" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L105" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M105" t="n">
-        <v>15000</v>
+        <v>14227</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="Q105" t="n">
         <v>50</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="K106" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L106" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M106" t="n">
-        <v>15528</v>
+        <v>14000</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="Q106" t="n">
         <v>30</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8061,20 +8061,20 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K107" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L107" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M107" t="n">
-        <v>13545</v>
+        <v>15000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>452</v>
+        <v>300</v>
       </c>
       <c r="Q107" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8124,29 +8124,29 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="K108" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L108" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M108" t="n">
-        <v>10000</v>
+        <v>15528</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>200</v>
+        <v>518</v>
       </c>
       <c r="Q108" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8196,25 +8196,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
         <v>110</v>
       </c>
       <c r="K109" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L109" t="n">
         <v>14000</v>
       </c>
-      <c r="L109" t="n">
-        <v>15000</v>
-      </c>
       <c r="M109" t="n">
-        <v>14455</v>
+        <v>13545</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="Q109" t="n">
         <v>30</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44417</v>
+        <v>44399</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K110" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L110" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="M110" t="n">
-        <v>13238</v>
+        <v>10000</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="Q110" t="n">
         <v>50</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44417</v>
+        <v>44399</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8352,13 +8352,13 @@
         <v>110</v>
       </c>
       <c r="K111" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L111" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M111" t="n">
-        <v>13273</v>
+        <v>14455</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Q111" t="n">
         <v>30</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K112" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L112" t="n">
         <v>13500</v>
       </c>
-      <c r="L112" t="n">
-        <v>14000</v>
-      </c>
       <c r="M112" t="n">
-        <v>13773</v>
+        <v>13238</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="Q112" t="n">
         <v>50</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K114" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L114" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M114" t="n">
-        <v>13231</v>
+        <v>13773</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q114" t="n">
         <v>50</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8637,7 +8637,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K115" t="n">
         <v>13000</v>
@@ -8646,7 +8646,7 @@
         <v>13500</v>
       </c>
       <c r="M115" t="n">
-        <v>13222</v>
+        <v>13273</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q115" t="n">
         <v>30</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>615</v>
+        <v>130</v>
       </c>
       <c r="K116" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L116" t="n">
         <v>13500</v>
       </c>
-      <c r="L116" t="n">
-        <v>14000</v>
-      </c>
       <c r="M116" t="n">
-        <v>13951</v>
+        <v>13231</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="Q116" t="n">
         <v>50</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44369</v>
+        <v>44420</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K117" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L117" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M117" t="n">
-        <v>14462</v>
+        <v>13222</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="Q117" t="n">
         <v>30</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8844,41 +8844,41 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>3800</v>
+        <v>615</v>
       </c>
       <c r="K118" t="n">
-        <v>300</v>
+        <v>13500</v>
       </c>
       <c r="L118" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="M118" t="n">
-        <v>300</v>
+        <v>13951</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="Q118" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8921,36 +8921,36 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>4200</v>
+        <v>130</v>
       </c>
       <c r="K119" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="L119" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="M119" t="n">
-        <v>200</v>
+        <v>14462</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>200</v>
+        <v>482</v>
       </c>
       <c r="Q119" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R119" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8997,32 +8997,32 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>85</v>
+        <v>3800</v>
       </c>
       <c r="K120" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="L120" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="M120" t="n">
-        <v>11471</v>
+        <v>300</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="Q120" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44159</v>
+        <v>44161</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>2800</v>
+        <v>4200</v>
       </c>
       <c r="K121" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L121" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="M121" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9137,36 +9137,36 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>3200</v>
+        <v>85</v>
       </c>
       <c r="K122" t="n">
-        <v>200</v>
+        <v>11000</v>
       </c>
       <c r="L122" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="M122" t="n">
-        <v>200</v>
+        <v>11471</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>200</v>
+        <v>382</v>
       </c>
       <c r="Q122" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9213,32 +9213,32 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>45</v>
+        <v>2800</v>
       </c>
       <c r="K123" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="L123" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="M123" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q123" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44433</v>
+        <v>44159</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9285,32 +9285,32 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>105</v>
+        <v>3200</v>
       </c>
       <c r="K124" t="n">
-        <v>12500</v>
+        <v>200</v>
       </c>
       <c r="L124" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="M124" t="n">
-        <v>12762</v>
+        <v>200</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="Q124" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="K125" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L125" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M125" t="n">
-        <v>13250</v>
+        <v>15000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="Q125" t="n">
         <v>30</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="K126" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L126" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M126" t="n">
-        <v>11000</v>
+        <v>12762</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="Q126" t="n">
         <v>50</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44344</v>
+        <v>44433</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9492,29 +9492,29 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K127" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L127" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M127" t="n">
-        <v>14000</v>
+        <v>13250</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="Q127" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9564,29 +9564,29 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="K128" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L128" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M128" t="n">
-        <v>14444</v>
+        <v>11000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>481</v>
+        <v>220</v>
       </c>
       <c r="Q128" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9636,41 +9636,41 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>3200</v>
+        <v>60</v>
       </c>
       <c r="K129" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L129" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="M129" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q129" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44160</v>
+        <v>44344</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9713,36 +9713,36 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>3000</v>
+        <v>90</v>
       </c>
       <c r="K130" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L130" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M130" t="n">
-        <v>250</v>
+        <v>14444</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>250</v>
+        <v>481</v>
       </c>
       <c r="Q130" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K131" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L131" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M131" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,32 +9861,32 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="K132" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="L132" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M132" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q132" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9929,36 +9929,36 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>110</v>
+        <v>2800</v>
       </c>
       <c r="K133" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L133" t="n">
-        <v>15000</v>
+        <v>180</v>
       </c>
       <c r="M133" t="n">
-        <v>14455</v>
+        <v>180</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>482</v>
+        <v>180</v>
       </c>
       <c r="Q133" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10001,11 +10001,11 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K134" t="n">
         <v>15000</v>
@@ -10018,7 +10018,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q134" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10068,29 +10068,29 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K135" t="n">
         <v>14000</v>
       </c>
       <c r="L135" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M135" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>280</v>
+        <v>482</v>
       </c>
       <c r="Q135" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10145,24 +10145,24 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="K136" t="n">
         <v>15000</v>
       </c>
       <c r="L136" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M136" t="n">
-        <v>15389</v>
+        <v>15000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>308</v>
+        <v>500</v>
       </c>
       <c r="Q136" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10212,29 +10212,29 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="K137" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L137" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M137" t="n">
-        <v>17556</v>
+        <v>14000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>585</v>
+        <v>280</v>
       </c>
       <c r="Q137" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K138" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L138" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M138" t="n">
-        <v>14520</v>
+        <v>15389</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="Q138" t="n">
         <v>50</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K139" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L139" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M139" t="n">
-        <v>15455</v>
+        <v>17556</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>515</v>
+        <v>585</v>
       </c>
       <c r="Q139" t="n">
         <v>30</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10428,29 +10428,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="K140" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L140" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M140" t="n">
-        <v>12000</v>
+        <v>14520</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="Q140" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10500,29 +10500,29 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K141" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L141" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M141" t="n">
-        <v>14000</v>
+        <v>15455</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>280</v>
+        <v>515</v>
       </c>
       <c r="Q141" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K142" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L142" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M142" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>467</v>
+        <v>400</v>
       </c>
       <c r="Q142" t="n">
         <v>30</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K143" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L143" t="n">
         <v>14000</v>
       </c>
       <c r="M143" t="n">
-        <v>13455</v>
+        <v>14000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q143" t="n">
         <v>50</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10721,11 +10721,11 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K144" t="n">
         <v>14000</v>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>280</v>
+        <v>467</v>
       </c>
       <c r="Q144" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K145" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L145" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M145" t="n">
-        <v>15000</v>
+        <v>13455</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="Q145" t="n">
         <v>50</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10865,24 +10865,24 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K146" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L146" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="M146" t="n">
-        <v>16238</v>
+        <v>14000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>541</v>
+        <v>280</v>
       </c>
       <c r="Q146" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44284</v>
+        <v>44376</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K147" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L147" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M147" t="n">
-        <v>12808</v>
+        <v>15000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="Q147" t="n">
         <v>50</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11004,7 +11004,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K148" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L148" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M148" t="n">
-        <v>14000</v>
+        <v>16238</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q148" t="n">
         <v>30</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44168</v>
+        <v>44284</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11076,41 +11076,41 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>3800</v>
+        <v>130</v>
       </c>
       <c r="K149" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L149" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M149" t="n">
-        <v>300</v>
+        <v>12808</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="Q149" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11148,41 +11148,41 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>7000</v>
+        <v>50</v>
       </c>
       <c r="K150" t="n">
-        <v>230</v>
+        <v>14000</v>
       </c>
       <c r="L150" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="M150" t="n">
-        <v>240</v>
+        <v>14000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>240</v>
+        <v>467</v>
       </c>
       <c r="Q150" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11220,41 +11220,41 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>120</v>
+        <v>3800</v>
       </c>
       <c r="K151" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L151" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="M151" t="n">
-        <v>13250</v>
+        <v>300</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Q151" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,36 +11297,36 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>110</v>
+        <v>7000</v>
       </c>
       <c r="K152" t="n">
-        <v>13000</v>
+        <v>230</v>
       </c>
       <c r="L152" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M152" t="n">
-        <v>13455</v>
+        <v>240</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>448</v>
+        <v>240</v>
       </c>
       <c r="Q152" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K153" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L153" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="M153" t="n">
-        <v>12238</v>
+        <v>13250</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="Q153" t="n">
         <v>50</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K154" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L154" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M154" t="n">
-        <v>12250</v>
+        <v>13455</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,12 +11467,156 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
       </c>
       <c r="R154" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>3</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E155" t="n">
+        <v>5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>105</v>
+      </c>
+      <c r="K155" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L155" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M155" t="n">
+        <v>12238</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>245</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>50</v>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>3</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>130</v>
+      </c>
+      <c r="K156" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L156" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M156" t="n">
+        <v>12250</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>408</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>30</v>
+      </c>
+      <c r="R156" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R156"/>
+  <dimension ref="A1:R164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44348</v>
+        <v>44357</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="K2" t="n">
         <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>14478</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>467</v>
+        <v>483</v>
       </c>
       <c r="Q2" t="n">
         <v>30</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44365</v>
+        <v>44424</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M3" t="n">
-        <v>14550</v>
+        <v>12234</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="Q3" t="n">
         <v>50</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44365</v>
+        <v>44424</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
         <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>13481</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="Q4" t="n">
         <v>30</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44372</v>
+        <v>44377</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>13522</v>
+        <v>14455</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="Q5" t="n">
         <v>50</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44372</v>
+        <v>44377</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>14261</v>
+        <v>15483</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="Q6" t="n">
         <v>30</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44357</v>
+        <v>44350</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J7" t="n">
         <v>115</v>
       </c>
       <c r="K7" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L7" t="n">
         <v>14000</v>
       </c>
-      <c r="L7" t="n">
-        <v>15000</v>
-      </c>
       <c r="M7" t="n">
-        <v>14478</v>
+        <v>13739</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="Q7" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44165</v>
+        <v>44350</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -933,32 +933,32 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2000</v>
+        <v>115</v>
       </c>
       <c r="K8" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>300</v>
+        <v>14500</v>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>14261</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>300</v>
+        <v>475</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44165</v>
+        <v>44356</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,32 +1005,32 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1800</v>
+        <v>95</v>
       </c>
       <c r="K9" t="n">
-        <v>220</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>220</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>220</v>
+        <v>14474</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44341</v>
+        <v>44356</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1068,29 +1068,29 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K10" t="n">
         <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>14526</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>280</v>
+        <v>484</v>
       </c>
       <c r="Q10" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44397</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1145,24 +1145,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="K11" t="n">
         <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>15476</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44397</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>15478</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>516</v>
+        <v>280</v>
       </c>
       <c r="Q12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44210</v>
+        <v>44349</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K13" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>367</v>
+        <v>467</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44406</v>
+        <v>44327</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K14" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L14" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M14" t="n">
-        <v>13200</v>
+        <v>15000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>264</v>
+        <v>500</v>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44406</v>
+        <v>44383</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1433,24 +1433,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K15" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L15" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M15" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44406</v>
+        <v>44383</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K16" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L16" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="M16" t="n">
-        <v>13250</v>
+        <v>17478</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>442</v>
+        <v>583</v>
       </c>
       <c r="Q16" t="n">
         <v>30</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44386</v>
+        <v>44270</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K17" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L17" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M17" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q17" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44386</v>
+        <v>44364</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1644,29 +1644,29 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K18" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L18" t="n">
-        <v>17000</v>
+        <v>13500</v>
       </c>
       <c r="M18" t="n">
-        <v>16529</v>
+        <v>13238</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>551</v>
+        <v>265</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44425</v>
+        <v>44364</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1716,29 +1716,29 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K19" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L19" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M19" t="n">
-        <v>12773</v>
+        <v>14476</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>255</v>
+        <v>483</v>
       </c>
       <c r="Q19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44425</v>
+        <v>44336</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L20" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M20" t="n">
-        <v>12240</v>
+        <v>15000</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>408</v>
+        <v>300</v>
       </c>
       <c r="Q20" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44392</v>
+        <v>44336</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1860,29 +1860,29 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="K21" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L21" t="n">
         <v>15000</v>
       </c>
       <c r="M21" t="n">
-        <v>15000</v>
+        <v>14474</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="Q21" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44392</v>
+        <v>44389</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1932,29 +1932,29 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K22" t="n">
         <v>15000</v>
       </c>
       <c r="L22" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>15524</v>
+        <v>15000</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>517</v>
+        <v>300</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44411</v>
+        <v>44389</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K23" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L23" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>12727</v>
+        <v>15528</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,10 +2035,10 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>255</v>
+        <v>518</v>
       </c>
       <c r="Q23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44411</v>
+        <v>44382</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2076,29 +2076,29 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K24" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L24" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M24" t="n">
-        <v>13500</v>
+        <v>15389</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2107,10 +2107,10 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>450</v>
+        <v>308</v>
       </c>
       <c r="Q24" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44411</v>
+        <v>44382</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2153,20 +2153,20 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L25" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M25" t="n">
-        <v>13000</v>
+        <v>17556</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>433</v>
+        <v>585</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44329</v>
+        <v>44160</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2229,20 +2229,20 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>90</v>
+        <v>3200</v>
       </c>
       <c r="K26" t="n">
-        <v>14500</v>
+        <v>300</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="M26" t="n">
-        <v>14778</v>
+        <v>300</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>493</v>
+        <v>300</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44424</v>
+        <v>44160</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2301,32 +2301,32 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>128</v>
+        <v>3000</v>
       </c>
       <c r="K27" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="L27" t="n">
-        <v>12500</v>
+        <v>250</v>
       </c>
       <c r="M27" t="n">
-        <v>12234</v>
+        <v>250</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q27" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44424</v>
+        <v>44160</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2369,36 +2369,36 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="K28" t="n">
-        <v>13000</v>
+        <v>180</v>
       </c>
       <c r="L28" t="n">
-        <v>13000</v>
+        <v>180</v>
       </c>
       <c r="M28" t="n">
-        <v>13000</v>
+        <v>180</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>433</v>
+        <v>180</v>
       </c>
       <c r="Q28" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44167</v>
+        <v>44390</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2436,41 +2436,41 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2800</v>
+        <v>65</v>
       </c>
       <c r="K29" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L29" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M29" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P29" t="n">
         <v>300</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44407</v>
+        <v>44445</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2517,16 +2517,16 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K30" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L30" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="M30" t="n">
-        <v>13262</v>
+        <v>11714</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="Q30" t="n">
         <v>50</v>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44407</v>
+        <v>44445</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2589,16 +2589,16 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="K31" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L31" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="M31" t="n">
-        <v>13500</v>
+        <v>12759</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="Q31" t="n">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44414</v>
+        <v>44425</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K32" t="n">
         <v>12500</v>
@@ -2670,7 +2670,7 @@
         <v>13000</v>
       </c>
       <c r="M32" t="n">
-        <v>12762</v>
+        <v>12773</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44414</v>
+        <v>44425</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K33" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L33" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M33" t="n">
-        <v>14238</v>
+        <v>12240</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="Q33" t="n">
         <v>30</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44403</v>
+        <v>44386</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L34" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M34" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q34" t="n">
         <v>50</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44403</v>
+        <v>44386</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="K35" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="L35" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M35" t="n">
-        <v>13750</v>
+        <v>16529</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>458</v>
+        <v>551</v>
       </c>
       <c r="Q35" t="n">
         <v>30</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M36" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q36" t="n">
         <v>50</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44379</v>
+        <v>44403</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K37" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="L37" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="M37" t="n">
-        <v>16231</v>
+        <v>13750</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K38" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L38" t="n">
         <v>15000</v>
       </c>
       <c r="M38" t="n">
-        <v>14474</v>
+        <v>15000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>289</v>
+        <v>500</v>
       </c>
       <c r="Q38" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44356</v>
+        <v>44162</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3161,36 +3161,36 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>95</v>
+        <v>3800</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M39" t="n">
-        <v>14526</v>
+        <v>250</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>484</v>
+        <v>250</v>
       </c>
       <c r="Q39" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44396</v>
+        <v>44413</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3240,13 +3240,13 @@
         <v>105</v>
       </c>
       <c r="K40" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L40" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M40" t="n">
-        <v>15524</v>
+        <v>13762</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3255,11 +3255,11 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="Q40" t="n">
         <v>50</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44396</v>
+        <v>44413</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3309,16 +3309,16 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K41" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L41" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="M41" t="n">
-        <v>15524</v>
+        <v>14227</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>517</v>
+        <v>474</v>
       </c>
       <c r="Q41" t="n">
         <v>30</v>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44434</v>
+        <v>44165</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3372,41 +3372,41 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>130</v>
+        <v>2000</v>
       </c>
       <c r="K42" t="n">
-        <v>12500</v>
+        <v>300</v>
       </c>
       <c r="L42" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M42" t="n">
-        <v>12731</v>
+        <v>300</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="Q42" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44434</v>
+        <v>44165</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3449,36 +3449,36 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>115</v>
+        <v>1800</v>
       </c>
       <c r="K43" t="n">
-        <v>13000</v>
+        <v>220</v>
       </c>
       <c r="L43" t="n">
-        <v>13500</v>
+        <v>220</v>
       </c>
       <c r="M43" t="n">
-        <v>13239</v>
+        <v>220</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>441</v>
+        <v>220</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44340</v>
+        <v>44169</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3516,41 +3516,41 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>3800</v>
       </c>
       <c r="K44" t="n">
-        <v>15000</v>
+        <v>350</v>
       </c>
       <c r="L44" t="n">
-        <v>15000</v>
+        <v>350</v>
       </c>
       <c r="M44" t="n">
-        <v>15000</v>
+        <v>350</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q44" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44340</v>
+        <v>44169</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3593,36 +3593,36 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>45</v>
+        <v>3500</v>
       </c>
       <c r="K45" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="L45" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M45" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44174</v>
+        <v>44405</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,32 +3669,32 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="K46" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L46" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M46" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44174</v>
+        <v>44405</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3737,36 +3737,36 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>3300</v>
+        <v>105</v>
       </c>
       <c r="K47" t="n">
-        <v>200</v>
+        <v>13500</v>
       </c>
       <c r="L47" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="M47" t="n">
-        <v>200</v>
+        <v>13762</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>200</v>
+        <v>459</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44428</v>
+        <v>44363</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K48" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L48" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M48" t="n">
-        <v>12738</v>
+        <v>13750</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="Q48" t="n">
         <v>50</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44428</v>
+        <v>44363</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K49" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L49" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M49" t="n">
-        <v>12740</v>
+        <v>14500</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="Q49" t="n">
         <v>30</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44162</v>
+        <v>44431</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,32 +3957,32 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>3800</v>
+        <v>95</v>
       </c>
       <c r="K50" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="L50" t="n">
-        <v>250</v>
+        <v>13500</v>
       </c>
       <c r="M50" t="n">
-        <v>250</v>
+        <v>13237</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44342</v>
+        <v>44431</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4020,29 +4020,29 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K51" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L51" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M51" t="n">
-        <v>14000</v>
+        <v>13262</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44362</v>
+        <v>44355</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44362</v>
+        <v>44355</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K53" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L53" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M53" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q53" t="n">
         <v>30</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K54" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L54" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M54" t="n">
-        <v>15000</v>
+        <v>13522</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="Q54" t="n">
         <v>50</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44384</v>
+        <v>44372</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K55" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L55" t="n">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="M55" t="n">
-        <v>17524</v>
+        <v>14261</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>584</v>
+        <v>475</v>
       </c>
       <c r="Q55" t="n">
         <v>30</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44363</v>
+        <v>44418</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
@@ -4392,13 +4392,13 @@
         <v>120</v>
       </c>
       <c r="K56" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L56" t="n">
         <v>13500</v>
       </c>
-      <c r="L56" t="n">
-        <v>14000</v>
-      </c>
       <c r="M56" t="n">
-        <v>13750</v>
+        <v>13250</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="Q56" t="n">
         <v>50</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44363</v>
+        <v>44418</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K57" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L57" t="n">
         <v>14000</v>
       </c>
-      <c r="L57" t="n">
-        <v>15000</v>
-      </c>
       <c r="M57" t="n">
-        <v>14500</v>
+        <v>13455</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="Q57" t="n">
         <v>30</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44349</v>
+        <v>44172</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -4533,32 +4533,32 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>45</v>
+        <v>3500</v>
       </c>
       <c r="K58" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L58" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M58" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="Q58" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44385</v>
+        <v>44172</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4605,32 +4605,32 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>80</v>
+        <v>3800</v>
       </c>
       <c r="K59" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="L59" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M59" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q59" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44385</v>
+        <v>44174</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -4673,36 +4673,36 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>130</v>
+        <v>3500</v>
       </c>
       <c r="K60" t="n">
-        <v>17000</v>
+        <v>300</v>
       </c>
       <c r="L60" t="n">
-        <v>18000</v>
+        <v>300</v>
       </c>
       <c r="M60" t="n">
-        <v>17538</v>
+        <v>300</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>585</v>
+        <v>300</v>
       </c>
       <c r="Q60" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44427</v>
+        <v>44174</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -4740,41 +4740,41 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>115</v>
+        <v>3300</v>
       </c>
       <c r="K61" t="n">
-        <v>12500</v>
+        <v>200</v>
       </c>
       <c r="L61" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="M61" t="n">
-        <v>12739</v>
+        <v>200</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="Q61" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44427</v>
+        <v>44407</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K62" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L62" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M62" t="n">
-        <v>12760</v>
+        <v>13262</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>425</v>
+        <v>265</v>
       </c>
       <c r="Q62" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44413</v>
+        <v>44407</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -4884,29 +4884,29 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K63" t="n">
         <v>13500</v>
       </c>
       <c r="L63" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M63" t="n">
-        <v>13762</v>
+        <v>13500</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>275</v>
+        <v>450</v>
       </c>
       <c r="Q63" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44413</v>
+        <v>44410</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -4956,29 +4956,29 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K64" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L64" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="M64" t="n">
-        <v>14227</v>
+        <v>13240</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>474</v>
+        <v>265</v>
       </c>
       <c r="Q64" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44421</v>
+        <v>44410</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K65" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L65" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M65" t="n">
-        <v>13238</v>
+        <v>13750</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>265</v>
+        <v>458</v>
       </c>
       <c r="Q65" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44421</v>
+        <v>44284</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -5100,29 +5100,29 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K66" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L66" t="n">
         <v>13000</v>
       </c>
-      <c r="L66" t="n">
-        <v>14000</v>
-      </c>
       <c r="M66" t="n">
-        <v>13522</v>
+        <v>12808</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>451</v>
+        <v>256</v>
       </c>
       <c r="Q66" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44377</v>
+        <v>44159</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5172,41 +5172,41 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>110</v>
+        <v>2800</v>
       </c>
       <c r="K67" t="n">
-        <v>14000</v>
+        <v>270</v>
       </c>
       <c r="L67" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="M67" t="n">
-        <v>14455</v>
+        <v>270</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="Q67" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44377</v>
+        <v>44159</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5249,36 +5249,36 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>145</v>
+        <v>3200</v>
       </c>
       <c r="K68" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="L68" t="n">
-        <v>16000</v>
+        <v>200</v>
       </c>
       <c r="M68" t="n">
-        <v>15483</v>
+        <v>200</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>516</v>
+        <v>200</v>
       </c>
       <c r="Q68" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44400</v>
+        <v>44330</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5316,29 +5316,29 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="K69" t="n">
         <v>14000</v>
       </c>
       <c r="L69" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M69" t="n">
-        <v>14000</v>
+        <v>14265</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>280</v>
+        <v>476</v>
       </c>
       <c r="Q69" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44400</v>
+        <v>44343</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5388,29 +5388,29 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K70" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="L70" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M70" t="n">
-        <v>14750</v>
+        <v>13455</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>492</v>
+        <v>269</v>
       </c>
       <c r="Q70" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44426</v>
+        <v>44343</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K71" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L71" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M71" t="n">
-        <v>12739</v>
+        <v>14000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="Q71" t="n">
         <v>50</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44426</v>
+        <v>44344</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -5532,29 +5532,29 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K72" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L72" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M72" t="n">
-        <v>12761</v>
+        <v>14000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>425</v>
+        <v>280</v>
       </c>
       <c r="Q72" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44390</v>
+        <v>44344</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5604,29 +5604,29 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="K73" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L73" t="n">
         <v>15000</v>
       </c>
       <c r="M73" t="n">
-        <v>15000</v>
+        <v>14444</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>300</v>
+        <v>481</v>
       </c>
       <c r="Q73" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44383</v>
+        <v>44195</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -5676,29 +5676,29 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K74" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L74" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M74" t="n">
-        <v>15000</v>
+        <v>11471</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="Q74" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44383</v>
+        <v>44396</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -5748,41 +5748,41 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K75" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L75" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M75" t="n">
-        <v>17478</v>
+        <v>15524</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>583</v>
+        <v>310</v>
       </c>
       <c r="Q75" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44169</v>
+        <v>44396</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -5829,32 +5829,32 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>3800</v>
+        <v>105</v>
       </c>
       <c r="K76" t="n">
-        <v>350</v>
+        <v>15000</v>
       </c>
       <c r="L76" t="n">
-        <v>350</v>
+        <v>16000</v>
       </c>
       <c r="M76" t="n">
-        <v>350</v>
+        <v>15524</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>350</v>
+        <v>517</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44169</v>
+        <v>44406</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5901,32 +5901,32 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="K77" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="L77" t="n">
-        <v>250</v>
+        <v>13500</v>
       </c>
       <c r="M77" t="n">
-        <v>250</v>
+        <v>13200</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44410</v>
+        <v>44406</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -5969,24 +5969,24 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="K78" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L78" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="M78" t="n">
-        <v>13240</v>
+        <v>10000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="Q78" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44410</v>
+        <v>44406</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6048,13 +6048,13 @@
         <v>120</v>
       </c>
       <c r="K79" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L79" t="n">
         <v>13500</v>
       </c>
-      <c r="L79" t="n">
-        <v>14000</v>
-      </c>
       <c r="M79" t="n">
-        <v>13750</v>
+        <v>13250</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="Q79" t="n">
         <v>30</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44412</v>
+        <v>44385</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K80" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L80" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M80" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q80" t="n">
         <v>50</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44412</v>
+        <v>44385</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6192,13 +6192,13 @@
         <v>130</v>
       </c>
       <c r="K81" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L81" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="M81" t="n">
-        <v>13231</v>
+        <v>17538</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>441</v>
+        <v>585</v>
       </c>
       <c r="Q81" t="n">
         <v>30</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44336</v>
+        <v>44334</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6257,24 +6257,24 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J82" t="n">
         <v>50</v>
       </c>
       <c r="K82" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L82" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M82" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>300</v>
+        <v>467</v>
       </c>
       <c r="Q82" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44336</v>
+        <v>44340</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K83" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L83" t="n">
         <v>15000</v>
       </c>
       <c r="M83" t="n">
-        <v>14474</v>
+        <v>15000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="Q83" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44172</v>
+        <v>44340</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6405,32 +6405,32 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>3500</v>
+        <v>45</v>
       </c>
       <c r="K84" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L84" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M84" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44172</v>
+        <v>44371</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6477,32 +6477,32 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>3800</v>
+        <v>95</v>
       </c>
       <c r="K85" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="L85" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="M85" t="n">
-        <v>250</v>
+        <v>13474</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q85" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K86" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L86" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M86" t="n">
-        <v>13474</v>
+        <v>14455</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>269</v>
+        <v>482</v>
       </c>
       <c r="Q86" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44371</v>
+        <v>44419</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -6612,29 +6612,29 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
         <v>110</v>
       </c>
       <c r="K87" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L87" t="n">
         <v>14000</v>
       </c>
-      <c r="L87" t="n">
-        <v>15000</v>
-      </c>
       <c r="M87" t="n">
-        <v>14455</v>
+        <v>13773</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>482</v>
+        <v>275</v>
       </c>
       <c r="Q87" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44364</v>
+        <v>44419</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6684,16 +6684,16 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K88" t="n">
         <v>13000</v>
@@ -6702,11 +6702,11 @@
         <v>13500</v>
       </c>
       <c r="M88" t="n">
-        <v>13238</v>
+        <v>13273</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>265</v>
+        <v>442</v>
       </c>
       <c r="Q88" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44364</v>
+        <v>44370</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6756,29 +6756,29 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K89" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L89" t="n">
         <v>15000</v>
       </c>
       <c r="M89" t="n">
-        <v>14476</v>
+        <v>15000</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>483</v>
+        <v>300</v>
       </c>
       <c r="Q89" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44435</v>
+        <v>44370</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6828,29 +6828,29 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>555</v>
+        <v>110</v>
       </c>
       <c r="K90" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L90" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M90" t="n">
-        <v>12788</v>
+        <v>14455</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6859,10 +6859,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>256</v>
+        <v>482</v>
       </c>
       <c r="Q90" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44435</v>
+        <v>44392</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6900,29 +6900,29 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>610</v>
+        <v>60</v>
       </c>
       <c r="K91" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L91" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M91" t="n">
-        <v>12906</v>
+        <v>15000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6931,10 +6931,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="Q91" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44431</v>
+        <v>44392</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6972,29 +6972,29 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K92" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L92" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M92" t="n">
-        <v>13237</v>
+        <v>15524</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>265</v>
+        <v>517</v>
       </c>
       <c r="Q92" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44431</v>
+        <v>44362</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7044,29 +7044,29 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K93" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L93" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M93" t="n">
-        <v>13262</v>
+        <v>14000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>442</v>
+        <v>280</v>
       </c>
       <c r="Q93" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44405</v>
+        <v>44362</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7116,29 +7116,29 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K94" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L94" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M94" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="Q94" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44405</v>
+        <v>44309</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7188,29 +7188,29 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="K95" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="L95" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M95" t="n">
-        <v>13762</v>
+        <v>11000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>459</v>
+        <v>220</v>
       </c>
       <c r="Q95" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44438</v>
+        <v>44384</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="K96" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L96" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="M96" t="n">
-        <v>11286</v>
+        <v>15000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="Q96" t="n">
         <v>50</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44438</v>
+        <v>44384</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K97" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L97" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="M97" t="n">
-        <v>12231</v>
+        <v>17524</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>408</v>
+        <v>584</v>
       </c>
       <c r="Q97" t="n">
         <v>30</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44327</v>
+        <v>44168</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7413,32 +7413,32 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>80</v>
+        <v>3800</v>
       </c>
       <c r="K98" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="L98" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="M98" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q98" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44330</v>
+        <v>44168</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7481,36 +7481,36 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>85</v>
+        <v>7000</v>
       </c>
       <c r="K99" t="n">
-        <v>14000</v>
+        <v>230</v>
       </c>
       <c r="L99" t="n">
-        <v>14500</v>
+        <v>250</v>
       </c>
       <c r="M99" t="n">
-        <v>14265</v>
+        <v>240</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>476</v>
+        <v>240</v>
       </c>
       <c r="Q99" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44391</v>
+        <v>44365</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K100" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L100" t="n">
         <v>15000</v>
       </c>
       <c r="M100" t="n">
-        <v>15000</v>
+        <v>14550</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="Q100" t="n">
         <v>50</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44391</v>
+        <v>44365</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7629,20 +7629,20 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K101" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L101" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M101" t="n">
-        <v>16545</v>
+        <v>13481</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>331</v>
+        <v>449</v>
       </c>
       <c r="Q101" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44351</v>
+        <v>44358</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7692,12 +7692,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>474</v>
+        <v>285</v>
       </c>
       <c r="Q102" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44350</v>
+        <v>44358</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7764,29 +7764,29 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K103" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L103" t="n">
         <v>14000</v>
       </c>
       <c r="M103" t="n">
-        <v>13739</v>
+        <v>14000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>275</v>
+        <v>467</v>
       </c>
       <c r="Q103" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44350</v>
+        <v>44433</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7836,29 +7836,29 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K104" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L104" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="M104" t="n">
-        <v>14261</v>
+        <v>12762</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>475</v>
+        <v>255</v>
       </c>
       <c r="Q104" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44358</v>
+        <v>44433</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7908,29 +7908,29 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K105" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L105" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="M105" t="n">
-        <v>14227</v>
+        <v>13250</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>285</v>
+        <v>442</v>
       </c>
       <c r="Q105" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44358</v>
+        <v>44397</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7980,29 +7980,29 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K106" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L106" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M106" t="n">
-        <v>14000</v>
+        <v>15476</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>467</v>
+        <v>310</v>
       </c>
       <c r="Q106" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44389</v>
+        <v>44397</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8061,20 +8061,20 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="K107" t="n">
         <v>15000</v>
       </c>
       <c r="L107" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M107" t="n">
-        <v>15000</v>
+        <v>15478</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>300</v>
+        <v>516</v>
       </c>
       <c r="Q107" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44389</v>
+        <v>44426</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8133,20 +8133,20 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="K108" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L108" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M108" t="n">
-        <v>15528</v>
+        <v>12739</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>518</v>
+        <v>255</v>
       </c>
       <c r="Q108" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44399</v>
+        <v>44426</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8196,25 +8196,25 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K109" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L109" t="n">
         <v>13000</v>
       </c>
-      <c r="L109" t="n">
-        <v>14000</v>
-      </c>
       <c r="M109" t="n">
-        <v>13545</v>
+        <v>12761</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="Q109" t="n">
         <v>30</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44399</v>
+        <v>44421</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K110" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L110" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="M110" t="n">
-        <v>10000</v>
+        <v>13238</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="Q110" t="n">
         <v>50</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44399</v>
+        <v>44421</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K111" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L111" t="n">
         <v>14000</v>
       </c>
-      <c r="L111" t="n">
-        <v>15000</v>
-      </c>
       <c r="M111" t="n">
-        <v>14455</v>
+        <v>13522</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="Q111" t="n">
         <v>30</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44417</v>
+        <v>44434</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K112" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L112" t="n">
         <v>13000</v>
       </c>
-      <c r="L112" t="n">
-        <v>13500</v>
-      </c>
       <c r="M112" t="n">
-        <v>13238</v>
+        <v>12731</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q112" t="n">
         <v>50</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44417</v>
+        <v>44434</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8493,7 +8493,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K113" t="n">
         <v>13000</v>
@@ -8502,7 +8502,7 @@
         <v>13500</v>
       </c>
       <c r="M113" t="n">
-        <v>13273</v>
+        <v>13239</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q113" t="n">
         <v>30</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44419</v>
+        <v>44398</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K114" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L114" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M114" t="n">
-        <v>13773</v>
+        <v>14520</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q114" t="n">
         <v>50</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44419</v>
+        <v>44398</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8640,13 +8640,13 @@
         <v>110</v>
       </c>
       <c r="K115" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L115" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M115" t="n">
-        <v>13273</v>
+        <v>15455</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>442</v>
+        <v>515</v>
       </c>
       <c r="Q115" t="n">
         <v>30</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44369</v>
+        <v>44348</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8844,29 +8844,29 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>615</v>
+        <v>55</v>
       </c>
       <c r="K118" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L118" t="n">
         <v>14000</v>
       </c>
       <c r="M118" t="n">
-        <v>13951</v>
+        <v>14000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>279</v>
+        <v>467</v>
       </c>
       <c r="Q118" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44369</v>
+        <v>44210</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="K119" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L119" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M119" t="n">
-        <v>14462</v>
+        <v>11000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>482</v>
+        <v>367</v>
       </c>
       <c r="Q119" t="n">
         <v>30</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44161</v>
+        <v>44427</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8988,41 +8988,41 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>3800</v>
+        <v>115</v>
       </c>
       <c r="K120" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L120" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M120" t="n">
-        <v>300</v>
+        <v>12739</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q120" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44161</v>
+        <v>44427</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9065,36 +9065,36 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>4200</v>
+        <v>125</v>
       </c>
       <c r="K121" t="n">
-        <v>200</v>
+        <v>12500</v>
       </c>
       <c r="L121" t="n">
-        <v>200</v>
+        <v>13000</v>
       </c>
       <c r="M121" t="n">
-        <v>200</v>
+        <v>12760</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>200</v>
+        <v>425</v>
       </c>
       <c r="Q121" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44195</v>
+        <v>44341</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9132,29 +9132,29 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="K122" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L122" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M122" t="n">
-        <v>11471</v>
+        <v>14000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="Q122" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44159</v>
+        <v>44414</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9204,41 +9204,41 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>2800</v>
+        <v>105</v>
       </c>
       <c r="K123" t="n">
-        <v>270</v>
+        <v>12500</v>
       </c>
       <c r="L123" t="n">
-        <v>270</v>
+        <v>13000</v>
       </c>
       <c r="M123" t="n">
-        <v>270</v>
+        <v>12762</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="Q123" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44159</v>
+        <v>44414</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9281,36 +9281,36 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>3200</v>
+        <v>105</v>
       </c>
       <c r="K124" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="L124" t="n">
-        <v>200</v>
+        <v>14500</v>
       </c>
       <c r="M124" t="n">
-        <v>200</v>
+        <v>14238</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>200</v>
+        <v>475</v>
       </c>
       <c r="Q124" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44333</v>
+        <v>44417</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9348,29 +9348,29 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="K125" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L125" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M125" t="n">
-        <v>15000</v>
+        <v>13238</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>500</v>
+        <v>265</v>
       </c>
       <c r="Q125" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44433</v>
+        <v>44417</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9420,29 +9420,29 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K126" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L126" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M126" t="n">
-        <v>12762</v>
+        <v>13273</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="Q126" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44433</v>
+        <v>44441</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9492,41 +9492,41 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K127" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L127" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M127" t="n">
-        <v>13250</v>
+        <v>10520</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>442</v>
+        <v>210</v>
       </c>
       <c r="Q127" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44309</v>
+        <v>44441</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9564,41 +9564,41 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="K128" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L128" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="M128" t="n">
-        <v>11000</v>
+        <v>12234</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>220</v>
+        <v>408</v>
       </c>
       <c r="Q128" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44344</v>
+        <v>44432</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K129" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L129" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M129" t="n">
-        <v>14000</v>
+        <v>12238</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="Q129" t="n">
         <v>50</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44344</v>
+        <v>44432</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="K130" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L130" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M130" t="n">
-        <v>14444</v>
+        <v>12250</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>481</v>
+        <v>408</v>
       </c>
       <c r="Q130" t="n">
         <v>30</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44160</v>
+        <v>44351</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9789,32 +9789,32 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>3200</v>
+        <v>110</v>
       </c>
       <c r="K131" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L131" t="n">
-        <v>300</v>
+        <v>14500</v>
       </c>
       <c r="M131" t="n">
-        <v>300</v>
+        <v>14227</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>300</v>
+        <v>474</v>
       </c>
       <c r="Q131" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44160</v>
+        <v>44369</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,32 +9861,32 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>3000</v>
+        <v>615</v>
       </c>
       <c r="K132" t="n">
-        <v>250</v>
+        <v>13500</v>
       </c>
       <c r="L132" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="M132" t="n">
-        <v>250</v>
+        <v>13951</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="Q132" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44160</v>
+        <v>44369</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9929,36 +9929,36 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>2800</v>
+        <v>130</v>
       </c>
       <c r="K133" t="n">
-        <v>180</v>
+        <v>14000</v>
       </c>
       <c r="L133" t="n">
-        <v>180</v>
+        <v>15000</v>
       </c>
       <c r="M133" t="n">
-        <v>180</v>
+        <v>14462</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>180</v>
+        <v>482</v>
       </c>
       <c r="Q133" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44370</v>
+        <v>44342</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K134" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L134" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M134" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q134" t="n">
         <v>50</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44370</v>
+        <v>44379</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10068,29 +10068,29 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K135" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L135" t="n">
         <v>15000</v>
       </c>
       <c r="M135" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="Q135" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44326</v>
+        <v>44379</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="K136" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L136" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="M136" t="n">
-        <v>15000</v>
+        <v>16231</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="Q136" t="n">
         <v>30</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44326</v>
+        <v>44391</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10224,13 +10224,13 @@
         <v>60</v>
       </c>
       <c r="K137" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L137" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M137" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q137" t="n">
         <v>50</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44382</v>
+        <v>44391</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10284,25 +10284,25 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K138" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L138" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M138" t="n">
-        <v>15389</v>
+        <v>16545</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="Q138" t="n">
         <v>50</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44382</v>
+        <v>44446</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10356,29 +10356,29 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="K139" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L139" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M139" t="n">
-        <v>17556</v>
+        <v>11000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>585</v>
+        <v>220</v>
       </c>
       <c r="Q139" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44398</v>
+        <v>44446</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10428,29 +10428,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K140" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L140" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M140" t="n">
-        <v>14520</v>
+        <v>12227</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>290</v>
+        <v>408</v>
       </c>
       <c r="Q140" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44398</v>
+        <v>44411</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10500,29 +10500,29 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
         <v>110</v>
       </c>
       <c r="K141" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L141" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M141" t="n">
-        <v>15455</v>
+        <v>12727</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>515</v>
+        <v>255</v>
       </c>
       <c r="Q141" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44270</v>
+        <v>44411</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K142" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="L142" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M142" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q142" t="n">
         <v>30</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44355</v>
+        <v>44411</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,20 +10653,20 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K143" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L143" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M143" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>280</v>
+        <v>433</v>
       </c>
       <c r="Q143" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44355</v>
+        <v>44329</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K144" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L144" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M144" t="n">
-        <v>14000</v>
+        <v>14778</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="Q144" t="n">
         <v>30</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44343</v>
+        <v>44161</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10788,41 +10788,41 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>110</v>
+        <v>3800</v>
       </c>
       <c r="K145" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L145" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M145" t="n">
-        <v>13455</v>
+        <v>300</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Q145" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44343</v>
+        <v>44161</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10869,32 +10869,32 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>50</v>
+        <v>4200</v>
       </c>
       <c r="K146" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="L146" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="M146" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="Q146" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44376</v>
+        <v>44438</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K147" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L147" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="M147" t="n">
-        <v>15000</v>
+        <v>11286</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="Q147" t="n">
         <v>50</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44376</v>
+        <v>44438</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K148" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L148" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="M148" t="n">
-        <v>16238</v>
+        <v>12231</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>541</v>
+        <v>408</v>
       </c>
       <c r="Q148" t="n">
         <v>30</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44284</v>
+        <v>44428</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K149" t="n">
         <v>12500</v>
@@ -11094,7 +11094,7 @@
         <v>13000</v>
       </c>
       <c r="M149" t="n">
-        <v>12808</v>
+        <v>12738</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q149" t="n">
         <v>50</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44334</v>
+        <v>44428</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K150" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L150" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M150" t="n">
-        <v>14000</v>
+        <v>12740</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="Q150" t="n">
         <v>30</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44168</v>
+        <v>44442</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11220,41 +11220,41 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>3800</v>
+        <v>145</v>
       </c>
       <c r="K151" t="n">
-        <v>300</v>
+        <v>10500</v>
       </c>
       <c r="L151" t="n">
-        <v>300</v>
+        <v>11000</v>
       </c>
       <c r="M151" t="n">
-        <v>300</v>
+        <v>10741</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="Q151" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44168</v>
+        <v>44442</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,36 +11297,36 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>7000</v>
+        <v>130</v>
       </c>
       <c r="K152" t="n">
-        <v>230</v>
+        <v>12500</v>
       </c>
       <c r="L152" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="M152" t="n">
-        <v>240</v>
+        <v>12731</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>240</v>
+        <v>424</v>
       </c>
       <c r="Q152" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>120</v>
+        <v>555</v>
       </c>
       <c r="K153" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L153" t="n">
         <v>13500</v>
       </c>
       <c r="M153" t="n">
-        <v>13250</v>
+        <v>12788</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Q153" t="n">
         <v>50</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>110</v>
+        <v>610</v>
       </c>
       <c r="K154" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L154" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M154" t="n">
-        <v>13455</v>
+        <v>12906</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44432</v>
+        <v>44376</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K155" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L155" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M155" t="n">
-        <v>12238</v>
+        <v>15000</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="Q155" t="n">
         <v>50</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44432</v>
+        <v>44376</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K156" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L156" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="M156" t="n">
-        <v>12250</v>
+        <v>16238</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,12 +11611,588 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>408</v>
+        <v>541</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
       </c>
       <c r="R156" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>3</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="E157" t="n">
+        <v>5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>60</v>
+      </c>
+      <c r="K157" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L157" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M157" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>50</v>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>3</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="E158" t="n">
+        <v>5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>130</v>
+      </c>
+      <c r="K158" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L158" t="n">
+        <v>13500</v>
+      </c>
+      <c r="M158" t="n">
+        <v>13231</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>441</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>30</v>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>3</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>44167</v>
+      </c>
+      <c r="E159" t="n">
+        <v>5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K159" t="n">
+        <v>300</v>
+      </c>
+      <c r="L159" t="n">
+        <v>300</v>
+      </c>
+      <c r="M159" t="n">
+        <v>300</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>$/unidad</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Llay Llay</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>1</v>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>3</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E160" t="n">
+        <v>5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>110</v>
+      </c>
+      <c r="K160" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L160" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M160" t="n">
+        <v>13545</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>452</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>30</v>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>3</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>80</v>
+      </c>
+      <c r="K161" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L161" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M161" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>200</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>50</v>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>3</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J162" t="n">
+        <v>110</v>
+      </c>
+      <c r="K162" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L162" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M162" t="n">
+        <v>14455</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>482</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>30</v>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>3</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>60</v>
+      </c>
+      <c r="K163" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L163" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M163" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>50</v>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>3</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>120</v>
+      </c>
+      <c r="K164" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L164" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M164" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>30</v>
+      </c>
+      <c r="R164" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R164"/>
+  <dimension ref="A1:R166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44392</v>
+        <v>44447</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K91" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L91" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M91" t="n">
-        <v>15000</v>
+        <v>10559</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="Q91" t="n">
         <v>50</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44392</v>
+        <v>44447</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="K92" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L92" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="M92" t="n">
-        <v>15524</v>
+        <v>12260</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>517</v>
+        <v>409</v>
       </c>
       <c r="Q92" t="n">
         <v>30</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44362</v>
+        <v>44392</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K93" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L93" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M93" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q93" t="n">
         <v>50</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44362</v>
+        <v>44392</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K94" t="n">
         <v>15000</v>
       </c>
       <c r="L94" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M94" t="n">
-        <v>15000</v>
+        <v>15524</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="Q94" t="n">
         <v>30</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K95" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L95" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M95" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="Q95" t="n">
         <v>50</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7260,16 +7260,16 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K96" t="n">
         <v>15000</v>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q96" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7332,29 +7332,29 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="K97" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L97" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M97" t="n">
-        <v>17524</v>
+        <v>11000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>584</v>
+        <v>220</v>
       </c>
       <c r="Q97" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7404,41 +7404,41 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>3800</v>
+        <v>60</v>
       </c>
       <c r="K98" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L98" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M98" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P98" t="n">
         <v>300</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7481,36 +7481,36 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>7000</v>
+        <v>105</v>
       </c>
       <c r="K99" t="n">
-        <v>230</v>
+        <v>17000</v>
       </c>
       <c r="L99" t="n">
-        <v>250</v>
+        <v>18000</v>
       </c>
       <c r="M99" t="n">
-        <v>240</v>
+        <v>17524</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>240</v>
+        <v>584</v>
       </c>
       <c r="Q99" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44365</v>
+        <v>44168</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7548,41 +7548,41 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>100</v>
+        <v>3800</v>
       </c>
       <c r="K100" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L100" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="M100" t="n">
-        <v>14550</v>
+        <v>300</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q100" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44365</v>
+        <v>44168</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7625,36 +7625,36 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>135</v>
+        <v>7000</v>
       </c>
       <c r="K101" t="n">
-        <v>13000</v>
+        <v>230</v>
       </c>
       <c r="L101" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M101" t="n">
-        <v>13481</v>
+        <v>240</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>449</v>
+        <v>240</v>
       </c>
       <c r="Q101" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K102" t="n">
         <v>14000</v>
       </c>
       <c r="L102" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M102" t="n">
-        <v>14227</v>
+        <v>14550</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q102" t="n">
         <v>50</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44358</v>
+        <v>44365</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="K103" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L103" t="n">
         <v>14000</v>
       </c>
       <c r="M103" t="n">
-        <v>14000</v>
+        <v>13481</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="Q103" t="n">
         <v>30</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K104" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L104" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M104" t="n">
-        <v>12762</v>
+        <v>14227</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q104" t="n">
         <v>50</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K105" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L105" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M105" t="n">
-        <v>13250</v>
+        <v>14000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="Q105" t="n">
         <v>30</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7992,13 +7992,13 @@
         <v>105</v>
       </c>
       <c r="K106" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L106" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M106" t="n">
-        <v>15476</v>
+        <v>12762</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="Q106" t="n">
         <v>50</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K107" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L107" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M107" t="n">
-        <v>15478</v>
+        <v>13250</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>516</v>
+        <v>442</v>
       </c>
       <c r="Q107" t="n">
         <v>30</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44426</v>
+        <v>44397</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K108" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L108" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M108" t="n">
-        <v>12739</v>
+        <v>15476</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="Q108" t="n">
         <v>50</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44426</v>
+        <v>44397</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
         <v>115</v>
       </c>
       <c r="K109" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L109" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M109" t="n">
-        <v>12761</v>
+        <v>15478</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="Q109" t="n">
         <v>30</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K110" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L110" t="n">
         <v>13000</v>
       </c>
-      <c r="L110" t="n">
-        <v>13500</v>
-      </c>
       <c r="M110" t="n">
-        <v>13238</v>
+        <v>12739</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q110" t="n">
         <v>50</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8352,13 +8352,13 @@
         <v>115</v>
       </c>
       <c r="K111" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L111" t="n">
         <v>13000</v>
       </c>
-      <c r="L111" t="n">
-        <v>14000</v>
-      </c>
       <c r="M111" t="n">
-        <v>13522</v>
+        <v>12761</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="Q111" t="n">
         <v>30</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K112" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L112" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M112" t="n">
-        <v>12731</v>
+        <v>13238</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q112" t="n">
         <v>50</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8499,10 +8499,10 @@
         <v>13000</v>
       </c>
       <c r="L113" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M113" t="n">
-        <v>13239</v>
+        <v>13522</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="Q113" t="n">
         <v>30</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K114" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L114" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M114" t="n">
-        <v>14520</v>
+        <v>12731</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="Q114" t="n">
         <v>50</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K115" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L115" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M115" t="n">
-        <v>15455</v>
+        <v>13239</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="Q115" t="n">
         <v>30</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K116" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L116" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M116" t="n">
-        <v>13231</v>
+        <v>14520</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="Q116" t="n">
         <v>50</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K117" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L117" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M117" t="n">
-        <v>13222</v>
+        <v>15455</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="Q117" t="n">
         <v>30</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8844,29 +8844,29 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="K118" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L118" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M118" t="n">
-        <v>14000</v>
+        <v>13231</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -8875,10 +8875,10 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>467</v>
+        <v>265</v>
       </c>
       <c r="Q118" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="K119" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L119" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M119" t="n">
-        <v>11000</v>
+        <v>13222</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="Q119" t="n">
         <v>30</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44427</v>
+        <v>44348</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8988,29 +8988,29 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="K120" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L120" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M120" t="n">
-        <v>12739</v>
+        <v>14000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>255</v>
+        <v>467</v>
       </c>
       <c r="Q120" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K121" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L121" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M121" t="n">
-        <v>12760</v>
+        <v>11000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="Q121" t="n">
         <v>30</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K122" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L122" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M122" t="n">
-        <v>14000</v>
+        <v>12739</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q122" t="n">
         <v>50</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9204,16 +9204,16 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K123" t="n">
         <v>12500</v>
@@ -9222,11 +9222,11 @@
         <v>13000</v>
       </c>
       <c r="M123" t="n">
-        <v>12762</v>
+        <v>12760</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>255</v>
+        <v>425</v>
       </c>
       <c r="Q123" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9276,29 +9276,29 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K124" t="n">
         <v>14000</v>
       </c>
       <c r="L124" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="M124" t="n">
-        <v>14238</v>
+        <v>14000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>475</v>
+        <v>280</v>
       </c>
       <c r="Q124" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9360,13 +9360,13 @@
         <v>105</v>
       </c>
       <c r="K125" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L125" t="n">
         <v>13000</v>
       </c>
-      <c r="L125" t="n">
-        <v>13500</v>
-      </c>
       <c r="M125" t="n">
-        <v>13238</v>
+        <v>12762</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q125" t="n">
         <v>50</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K126" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L126" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M126" t="n">
-        <v>13273</v>
+        <v>14238</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="Q126" t="n">
         <v>30</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K127" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L127" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M127" t="n">
-        <v>10520</v>
+        <v>13238</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Q127" t="n">
         <v>50</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K128" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L128" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="M128" t="n">
-        <v>12234</v>
+        <v>13273</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="Q128" t="n">
         <v>30</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K129" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L129" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="M129" t="n">
-        <v>12238</v>
+        <v>10520</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="Q129" t="n">
         <v>50</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9717,7 +9717,7 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K130" t="n">
         <v>12000</v>
@@ -9726,7 +9726,7 @@
         <v>12500</v>
       </c>
       <c r="M130" t="n">
-        <v>12250</v>
+        <v>12234</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9780,29 +9780,29 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K131" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L131" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M131" t="n">
-        <v>14227</v>
+        <v>12238</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>474</v>
+        <v>245</v>
       </c>
       <c r="Q131" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9852,29 +9852,29 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>615</v>
+        <v>130</v>
       </c>
       <c r="K132" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L132" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M132" t="n">
-        <v>13951</v>
+        <v>12250</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>279</v>
+        <v>408</v>
       </c>
       <c r="Q132" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K133" t="n">
         <v>14000</v>
       </c>
       <c r="L133" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M133" t="n">
-        <v>14462</v>
+        <v>14227</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="Q133" t="n">
         <v>30</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44342</v>
+        <v>44369</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>50</v>
+        <v>615</v>
       </c>
       <c r="K134" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="L134" t="n">
         <v>14000</v>
       </c>
       <c r="M134" t="n">
-        <v>14000</v>
+        <v>13951</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q134" t="n">
         <v>50</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44379</v>
+        <v>44369</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10068,29 +10068,29 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K135" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L135" t="n">
         <v>15000</v>
       </c>
       <c r="M135" t="n">
-        <v>15000</v>
+        <v>14462</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="Q135" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10140,29 +10140,29 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K136" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L136" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="M136" t="n">
-        <v>16231</v>
+        <v>14000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>541</v>
+        <v>280</v>
       </c>
       <c r="Q136" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K137" t="n">
         <v>15000</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10293,20 +10293,20 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K138" t="n">
         <v>16000</v>
       </c>
       <c r="L138" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="M138" t="n">
-        <v>16545</v>
+        <v>16231</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>331</v>
+        <v>541</v>
       </c>
       <c r="Q138" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10368,13 +10368,13 @@
         <v>60</v>
       </c>
       <c r="K139" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L139" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M139" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="Q139" t="n">
         <v>50</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10440,17 +10440,17 @@
         <v>110</v>
       </c>
       <c r="K140" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L140" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="M140" t="n">
-        <v>12227</v>
+        <v>16545</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="Q140" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K141" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L141" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M141" t="n">
-        <v>12727</v>
+        <v>11000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="Q141" t="n">
         <v>50</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K142" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L142" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="M142" t="n">
-        <v>13500</v>
+        <v>12227</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="Q142" t="n">
         <v>30</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10653,20 +10653,20 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K143" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L143" t="n">
         <v>13000</v>
       </c>
       <c r="M143" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q143" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K144" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="L144" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M144" t="n">
-        <v>14778</v>
+        <v>13500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10743,11 +10743,11 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="Q144" t="n">
         <v>30</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44161</v>
+        <v>44411</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10793,36 +10793,36 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>3800</v>
+        <v>60</v>
       </c>
       <c r="K145" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L145" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M145" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>300</v>
+        <v>433</v>
       </c>
       <c r="Q145" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10865,24 +10865,24 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>4200</v>
+        <v>90</v>
       </c>
       <c r="K146" t="n">
-        <v>200</v>
+        <v>14500</v>
       </c>
       <c r="L146" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="M146" t="n">
-        <v>200</v>
+        <v>14778</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>200</v>
+        <v>493</v>
       </c>
       <c r="Q146" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10932,41 +10932,41 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>140</v>
+        <v>3800</v>
       </c>
       <c r="K147" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="L147" t="n">
-        <v>11500</v>
+        <v>300</v>
       </c>
       <c r="M147" t="n">
-        <v>11286</v>
+        <v>300</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="Q147" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11009,36 +11009,36 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>130</v>
+        <v>4200</v>
       </c>
       <c r="K148" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L148" t="n">
-        <v>12500</v>
+        <v>200</v>
       </c>
       <c r="M148" t="n">
-        <v>12231</v>
+        <v>200</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>408</v>
+        <v>200</v>
       </c>
       <c r="Q148" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K149" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L149" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="M149" t="n">
-        <v>12738</v>
+        <v>11286</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="Q149" t="n">
         <v>50</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K150" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L150" t="n">
         <v>12500</v>
       </c>
-      <c r="L150" t="n">
-        <v>13000</v>
-      </c>
       <c r="M150" t="n">
-        <v>12740</v>
+        <v>12231</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="Q150" t="n">
         <v>30</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K151" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L151" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M151" t="n">
-        <v>10741</v>
+        <v>12738</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="Q151" t="n">
         <v>50</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K152" t="n">
         <v>12500</v>
@@ -11310,7 +11310,7 @@
         <v>13000</v>
       </c>
       <c r="M152" t="n">
-        <v>12731</v>
+        <v>12740</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q152" t="n">
         <v>30</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>555</v>
+        <v>145</v>
       </c>
       <c r="K153" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L153" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M153" t="n">
-        <v>12788</v>
+        <v>10741</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="Q153" t="n">
         <v>50</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>610</v>
+        <v>130</v>
       </c>
       <c r="K154" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L154" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="M154" t="n">
-        <v>12906</v>
+        <v>12731</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>60</v>
+        <v>555</v>
       </c>
       <c r="K155" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L155" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M155" t="n">
-        <v>15000</v>
+        <v>12788</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="Q155" t="n">
         <v>50</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>105</v>
+        <v>610</v>
       </c>
       <c r="K156" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L156" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="M156" t="n">
-        <v>16238</v>
+        <v>12906</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>541</v>
+        <v>430</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11664,13 +11664,13 @@
         <v>60</v>
       </c>
       <c r="K157" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L157" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M157" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K158" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L158" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="M158" t="n">
-        <v>13231</v>
+        <v>16238</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>441</v>
+        <v>541</v>
       </c>
       <c r="Q158" t="n">
         <v>30</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44167</v>
+        <v>44412</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11796,41 +11796,41 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>2800</v>
+        <v>60</v>
       </c>
       <c r="K159" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L159" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M159" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q159" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44399</v>
+        <v>44412</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11868,25 +11868,25 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K160" t="n">
         <v>13000</v>
       </c>
       <c r="L160" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M160" t="n">
-        <v>13545</v>
+        <v>13231</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11940,41 +11940,41 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>80</v>
+        <v>2800</v>
       </c>
       <c r="K161" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="L161" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="M161" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q161" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -12012,25 +12012,25 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
         <v>110</v>
       </c>
       <c r="K162" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L162" t="n">
         <v>14000</v>
       </c>
-      <c r="L162" t="n">
-        <v>15000</v>
-      </c>
       <c r="M162" t="n">
-        <v>14455</v>
+        <v>13545</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K163" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L163" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M163" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="Q163" t="n">
         <v>50</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K164" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L164" t="n">
         <v>15000</v>
       </c>
       <c r="M164" t="n">
-        <v>14750</v>
+        <v>14455</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,12 +12187,156 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
       </c>
       <c r="R164" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>3</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>60</v>
+      </c>
+      <c r="K165" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L165" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M165" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>50</v>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>3</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5</v>
+      </c>
+      <c r="F166" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>120</v>
+      </c>
+      <c r="K166" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L166" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M166" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>30</v>
+      </c>
+      <c r="R166" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R166"/>
+  <dimension ref="A1:R168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11940,41 +11940,41 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>2800</v>
+        <v>150</v>
       </c>
       <c r="K161" t="n">
-        <v>300</v>
+        <v>10500</v>
       </c>
       <c r="L161" t="n">
-        <v>300</v>
+        <v>11000</v>
       </c>
       <c r="M161" t="n">
-        <v>300</v>
+        <v>10733</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="Q161" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12012,25 +12012,25 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="K162" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L162" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M162" t="n">
-        <v>13545</v>
+        <v>11765</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12084,41 +12084,41 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>80</v>
+        <v>2800</v>
       </c>
       <c r="K163" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="L163" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="M163" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q163" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12156,25 +12156,25 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
         <v>110</v>
       </c>
       <c r="K164" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L164" t="n">
         <v>14000</v>
       </c>
-      <c r="L164" t="n">
-        <v>15000</v>
-      </c>
       <c r="M164" t="n">
-        <v>14455</v>
+        <v>13545</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K165" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L165" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M165" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="Q165" t="n">
         <v>50</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K166" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L166" t="n">
         <v>15000</v>
       </c>
       <c r="M166" t="n">
-        <v>14750</v>
+        <v>14455</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,12 +12331,156 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="Q166" t="n">
         <v>30</v>
       </c>
       <c r="R166" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>3</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>60</v>
+      </c>
+      <c r="K167" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L167" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M167" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>50</v>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>3</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>120</v>
+      </c>
+      <c r="K168" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L168" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M168" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>30</v>
+      </c>
+      <c r="R168" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R168"/>
+  <dimension ref="A1:R170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10932,41 +10932,41 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>3800</v>
+        <v>135</v>
       </c>
       <c r="K147" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="L147" t="n">
-        <v>300</v>
+        <v>11000</v>
       </c>
       <c r="M147" t="n">
-        <v>300</v>
+        <v>10444</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="Q147" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11009,36 +11009,36 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>4200</v>
+        <v>125</v>
       </c>
       <c r="K148" t="n">
-        <v>200</v>
+        <v>11500</v>
       </c>
       <c r="L148" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="M148" t="n">
-        <v>200</v>
+        <v>11760</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>200</v>
+        <v>392</v>
       </c>
       <c r="Q148" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11076,41 +11076,41 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>140</v>
+        <v>3800</v>
       </c>
       <c r="K149" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="L149" t="n">
-        <v>11500</v>
+        <v>300</v>
       </c>
       <c r="M149" t="n">
-        <v>11286</v>
+        <v>300</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="Q149" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11153,36 +11153,36 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>130</v>
+        <v>4200</v>
       </c>
       <c r="K150" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L150" t="n">
-        <v>12500</v>
+        <v>200</v>
       </c>
       <c r="M150" t="n">
-        <v>12231</v>
+        <v>200</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>408</v>
+        <v>200</v>
       </c>
       <c r="Q150" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K151" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L151" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="M151" t="n">
-        <v>12738</v>
+        <v>11286</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="Q151" t="n">
         <v>50</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K152" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L152" t="n">
         <v>12500</v>
       </c>
-      <c r="L152" t="n">
-        <v>13000</v>
-      </c>
       <c r="M152" t="n">
-        <v>12740</v>
+        <v>12231</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="Q152" t="n">
         <v>30</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K153" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L153" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M153" t="n">
-        <v>10741</v>
+        <v>12738</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="Q153" t="n">
         <v>50</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11445,7 +11445,7 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K154" t="n">
         <v>12500</v>
@@ -11454,7 +11454,7 @@
         <v>13000</v>
       </c>
       <c r="M154" t="n">
-        <v>12731</v>
+        <v>12740</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>555</v>
+        <v>145</v>
       </c>
       <c r="K155" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L155" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M155" t="n">
-        <v>12788</v>
+        <v>10741</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="Q155" t="n">
         <v>50</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>610</v>
+        <v>130</v>
       </c>
       <c r="K156" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L156" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="M156" t="n">
-        <v>12906</v>
+        <v>12731</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>60</v>
+        <v>555</v>
       </c>
       <c r="K157" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L157" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M157" t="n">
-        <v>15000</v>
+        <v>12788</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>105</v>
+        <v>610</v>
       </c>
       <c r="K158" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L158" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="M158" t="n">
-        <v>16238</v>
+        <v>12906</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>541</v>
+        <v>430</v>
       </c>
       <c r="Q158" t="n">
         <v>30</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11808,13 +11808,13 @@
         <v>60</v>
       </c>
       <c r="K159" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L159" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M159" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q159" t="n">
         <v>50</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K160" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L160" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="M160" t="n">
-        <v>13231</v>
+        <v>16238</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>441</v>
+        <v>541</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K161" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="L161" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M161" t="n">
-        <v>10733</v>
+        <v>13000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="Q161" t="n">
         <v>50</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K162" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L162" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M162" t="n">
-        <v>11765</v>
+        <v>13231</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12084,41 +12084,41 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>2800</v>
+        <v>150</v>
       </c>
       <c r="K163" t="n">
-        <v>300</v>
+        <v>10500</v>
       </c>
       <c r="L163" t="n">
-        <v>300</v>
+        <v>11000</v>
       </c>
       <c r="M163" t="n">
-        <v>300</v>
+        <v>10733</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="Q163" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12156,25 +12156,25 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="K164" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L164" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M164" t="n">
-        <v>13545</v>
+        <v>11765</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12228,41 +12228,41 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>80</v>
+        <v>2800</v>
       </c>
       <c r="K165" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="L165" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="M165" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q165" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12300,25 +12300,25 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
         <v>110</v>
       </c>
       <c r="K166" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L166" t="n">
         <v>14000</v>
       </c>
-      <c r="L166" t="n">
-        <v>15000</v>
-      </c>
       <c r="M166" t="n">
-        <v>14455</v>
+        <v>13545</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="Q166" t="n">
         <v>30</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K167" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L167" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M167" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="Q167" t="n">
         <v>50</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K168" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L168" t="n">
         <v>15000</v>
       </c>
       <c r="M168" t="n">
-        <v>14750</v>
+        <v>14455</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,12 +12475,156 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="Q168" t="n">
         <v>30</v>
       </c>
       <c r="R168" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>3</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>60</v>
+      </c>
+      <c r="K169" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L169" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M169" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>50</v>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>3</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>120</v>
+      </c>
+      <c r="K170" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L170" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M170" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>30</v>
+      </c>
+      <c r="R170" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R170"/>
+  <dimension ref="A1:R172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K104" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L104" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="M104" t="n">
-        <v>14227</v>
+        <v>11250</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="Q104" t="n">
         <v>50</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="K105" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L105" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M105" t="n">
-        <v>14000</v>
+        <v>11746</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="Q105" t="n">
         <v>30</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K106" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L106" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M106" t="n">
-        <v>12762</v>
+        <v>14227</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q106" t="n">
         <v>50</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K107" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L107" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M107" t="n">
-        <v>13250</v>
+        <v>14000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="Q107" t="n">
         <v>30</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8136,13 +8136,13 @@
         <v>105</v>
       </c>
       <c r="K108" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L108" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M108" t="n">
-        <v>15476</v>
+        <v>12762</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="Q108" t="n">
         <v>50</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K109" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L109" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M109" t="n">
-        <v>15478</v>
+        <v>13250</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>516</v>
+        <v>442</v>
       </c>
       <c r="Q109" t="n">
         <v>30</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44426</v>
+        <v>44397</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K110" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L110" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M110" t="n">
-        <v>12739</v>
+        <v>15476</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="Q110" t="n">
         <v>50</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44426</v>
+        <v>44397</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
         <v>115</v>
       </c>
       <c r="K111" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L111" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M111" t="n">
-        <v>12761</v>
+        <v>15478</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="Q111" t="n">
         <v>30</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K112" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L112" t="n">
         <v>13000</v>
       </c>
-      <c r="L112" t="n">
-        <v>13500</v>
-      </c>
       <c r="M112" t="n">
-        <v>13238</v>
+        <v>12739</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q112" t="n">
         <v>50</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8496,13 +8496,13 @@
         <v>115</v>
       </c>
       <c r="K113" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L113" t="n">
         <v>13000</v>
       </c>
-      <c r="L113" t="n">
-        <v>14000</v>
-      </c>
       <c r="M113" t="n">
-        <v>13522</v>
+        <v>12761</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="Q113" t="n">
         <v>30</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K114" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L114" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M114" t="n">
-        <v>12731</v>
+        <v>13238</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q114" t="n">
         <v>50</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8643,10 +8643,10 @@
         <v>13000</v>
       </c>
       <c r="L115" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M115" t="n">
-        <v>13239</v>
+        <v>13522</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="Q115" t="n">
         <v>30</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K116" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L116" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M116" t="n">
-        <v>14520</v>
+        <v>12731</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="Q116" t="n">
         <v>50</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K117" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L117" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M117" t="n">
-        <v>15455</v>
+        <v>13239</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="Q117" t="n">
         <v>30</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K118" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L118" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M118" t="n">
-        <v>13231</v>
+        <v>14520</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="Q118" t="n">
         <v>50</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K119" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L119" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M119" t="n">
-        <v>13222</v>
+        <v>15455</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="Q119" t="n">
         <v>30</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8988,29 +8988,29 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="K120" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L120" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M120" t="n">
-        <v>14000</v>
+        <v>13231</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>467</v>
+        <v>265</v>
       </c>
       <c r="Q120" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="K121" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L121" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M121" t="n">
-        <v>11000</v>
+        <v>13222</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="Q121" t="n">
         <v>30</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44427</v>
+        <v>44348</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9132,29 +9132,29 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="K122" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L122" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M122" t="n">
-        <v>12739</v>
+        <v>14000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>255</v>
+        <v>467</v>
       </c>
       <c r="Q122" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K123" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L123" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M123" t="n">
-        <v>12760</v>
+        <v>11000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="Q123" t="n">
         <v>30</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K124" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L124" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M124" t="n">
-        <v>14000</v>
+        <v>12739</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q124" t="n">
         <v>50</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9348,16 +9348,16 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K125" t="n">
         <v>12500</v>
@@ -9366,11 +9366,11 @@
         <v>13000</v>
       </c>
       <c r="M125" t="n">
-        <v>12762</v>
+        <v>12760</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>255</v>
+        <v>425</v>
       </c>
       <c r="Q125" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9420,29 +9420,29 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K126" t="n">
         <v>14000</v>
       </c>
       <c r="L126" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="M126" t="n">
-        <v>14238</v>
+        <v>14000</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>475</v>
+        <v>280</v>
       </c>
       <c r="Q126" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9504,13 +9504,13 @@
         <v>105</v>
       </c>
       <c r="K127" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L127" t="n">
         <v>13000</v>
       </c>
-      <c r="L127" t="n">
-        <v>13500</v>
-      </c>
       <c r="M127" t="n">
-        <v>13238</v>
+        <v>12762</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q127" t="n">
         <v>50</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K128" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L128" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M128" t="n">
-        <v>13273</v>
+        <v>14238</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="Q128" t="n">
         <v>30</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K129" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L129" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M129" t="n">
-        <v>10520</v>
+        <v>13238</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9663,11 +9663,11 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Q129" t="n">
         <v>50</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K130" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L130" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="M130" t="n">
-        <v>12234</v>
+        <v>13273</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9735,11 +9735,11 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="Q130" t="n">
         <v>30</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K131" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L131" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="M131" t="n">
-        <v>12238</v>
+        <v>10520</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="Q131" t="n">
         <v>50</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K132" t="n">
         <v>12000</v>
@@ -9870,7 +9870,7 @@
         <v>12500</v>
       </c>
       <c r="M132" t="n">
-        <v>12250</v>
+        <v>12234</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P132" t="n">
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9924,29 +9924,29 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K133" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L133" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M133" t="n">
-        <v>14227</v>
+        <v>12238</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -9955,10 +9955,10 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>474</v>
+        <v>245</v>
       </c>
       <c r="Q133" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -9996,29 +9996,29 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>615</v>
+        <v>130</v>
       </c>
       <c r="K134" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L134" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M134" t="n">
-        <v>13951</v>
+        <v>12250</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>279</v>
+        <v>408</v>
       </c>
       <c r="Q134" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K135" t="n">
         <v>14000</v>
       </c>
       <c r="L135" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M135" t="n">
-        <v>14462</v>
+        <v>14227</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="Q135" t="n">
         <v>30</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44342</v>
+        <v>44369</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>50</v>
+        <v>615</v>
       </c>
       <c r="K136" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="L136" t="n">
         <v>14000</v>
       </c>
       <c r="M136" t="n">
-        <v>14000</v>
+        <v>13951</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q136" t="n">
         <v>50</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44379</v>
+        <v>44369</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10212,29 +10212,29 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K137" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L137" t="n">
         <v>15000</v>
       </c>
       <c r="M137" t="n">
-        <v>15000</v>
+        <v>14462</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="Q137" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10284,29 +10284,29 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K138" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L138" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="M138" t="n">
-        <v>16231</v>
+        <v>14000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>541</v>
+        <v>280</v>
       </c>
       <c r="Q138" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10365,7 +10365,7 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K139" t="n">
         <v>15000</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10437,20 +10437,20 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K140" t="n">
         <v>16000</v>
       </c>
       <c r="L140" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="M140" t="n">
-        <v>16545</v>
+        <v>16231</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>331</v>
+        <v>541</v>
       </c>
       <c r="Q140" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10512,13 +10512,13 @@
         <v>60</v>
       </c>
       <c r="K141" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L141" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M141" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="Q141" t="n">
         <v>50</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10584,17 +10584,17 @@
         <v>110</v>
       </c>
       <c r="K142" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L142" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="M142" t="n">
-        <v>12227</v>
+        <v>16545</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="Q142" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K143" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L143" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M143" t="n">
-        <v>12727</v>
+        <v>11000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="Q143" t="n">
         <v>50</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K144" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L144" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="M144" t="n">
-        <v>13500</v>
+        <v>12227</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="Q144" t="n">
         <v>30</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,20 +10797,20 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K145" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L145" t="n">
         <v>13000</v>
       </c>
       <c r="M145" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q145" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K146" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="L146" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M146" t="n">
-        <v>14778</v>
+        <v>13500</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10887,11 +10887,11 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="Q146" t="n">
         <v>30</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44449</v>
+        <v>44411</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,20 +10941,20 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="K147" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L147" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M147" t="n">
-        <v>10444</v>
+        <v>13000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>209</v>
+        <v>433</v>
       </c>
       <c r="Q147" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K148" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="L148" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M148" t="n">
-        <v>11760</v>
+        <v>14778</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>392</v>
+        <v>493</v>
       </c>
       <c r="Q148" t="n">
         <v>30</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11076,41 +11076,41 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>3800</v>
+        <v>135</v>
       </c>
       <c r="K149" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="L149" t="n">
-        <v>300</v>
+        <v>11000</v>
       </c>
       <c r="M149" t="n">
-        <v>300</v>
+        <v>10444</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="Q149" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11153,36 +11153,36 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>4200</v>
+        <v>125</v>
       </c>
       <c r="K150" t="n">
-        <v>200</v>
+        <v>11500</v>
       </c>
       <c r="L150" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="M150" t="n">
-        <v>200</v>
+        <v>11760</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>200</v>
+        <v>392</v>
       </c>
       <c r="Q150" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11220,41 +11220,41 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>140</v>
+        <v>3800</v>
       </c>
       <c r="K151" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="L151" t="n">
-        <v>11500</v>
+        <v>300</v>
       </c>
       <c r="M151" t="n">
-        <v>11286</v>
+        <v>300</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="Q151" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,36 +11297,36 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>130</v>
+        <v>4200</v>
       </c>
       <c r="K152" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L152" t="n">
-        <v>12500</v>
+        <v>200</v>
       </c>
       <c r="M152" t="n">
-        <v>12231</v>
+        <v>200</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>408</v>
+        <v>200</v>
       </c>
       <c r="Q152" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K153" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L153" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="M153" t="n">
-        <v>12738</v>
+        <v>11286</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="Q153" t="n">
         <v>50</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K154" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L154" t="n">
         <v>12500</v>
       </c>
-      <c r="L154" t="n">
-        <v>13000</v>
-      </c>
       <c r="M154" t="n">
-        <v>12740</v>
+        <v>12231</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K155" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L155" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M155" t="n">
-        <v>10741</v>
+        <v>12738</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="Q155" t="n">
         <v>50</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K156" t="n">
         <v>12500</v>
@@ -11598,7 +11598,7 @@
         <v>13000</v>
       </c>
       <c r="M156" t="n">
-        <v>12731</v>
+        <v>12740</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>555</v>
+        <v>145</v>
       </c>
       <c r="K157" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L157" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M157" t="n">
-        <v>12788</v>
+        <v>10741</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>610</v>
+        <v>130</v>
       </c>
       <c r="K158" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L158" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="M158" t="n">
-        <v>12906</v>
+        <v>12731</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q158" t="n">
         <v>30</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>60</v>
+        <v>555</v>
       </c>
       <c r="K159" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L159" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M159" t="n">
-        <v>15000</v>
+        <v>12788</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="Q159" t="n">
         <v>50</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>105</v>
+        <v>610</v>
       </c>
       <c r="K160" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L160" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="M160" t="n">
-        <v>16238</v>
+        <v>12906</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>541</v>
+        <v>430</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11952,13 +11952,13 @@
         <v>60</v>
       </c>
       <c r="K161" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L161" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M161" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q161" t="n">
         <v>50</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K162" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L162" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="M162" t="n">
-        <v>13231</v>
+        <v>16238</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>441</v>
+        <v>541</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K163" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="L163" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M163" t="n">
-        <v>10733</v>
+        <v>13000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="Q163" t="n">
         <v>50</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K164" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L164" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M164" t="n">
-        <v>11765</v>
+        <v>13231</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12228,41 +12228,41 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>2800</v>
+        <v>150</v>
       </c>
       <c r="K165" t="n">
-        <v>300</v>
+        <v>10500</v>
       </c>
       <c r="L165" t="n">
-        <v>300</v>
+        <v>11000</v>
       </c>
       <c r="M165" t="n">
-        <v>300</v>
+        <v>10733</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="Q165" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12300,25 +12300,25 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="K166" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L166" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M166" t="n">
-        <v>13545</v>
+        <v>11765</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="Q166" t="n">
         <v>30</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12372,41 +12372,41 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>80</v>
+        <v>2800</v>
       </c>
       <c r="K167" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="L167" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="M167" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q167" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12444,25 +12444,25 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
         <v>110</v>
       </c>
       <c r="K168" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L168" t="n">
         <v>14000</v>
       </c>
-      <c r="L168" t="n">
-        <v>15000</v>
-      </c>
       <c r="M168" t="n">
-        <v>14455</v>
+        <v>13545</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="Q168" t="n">
         <v>30</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K169" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L169" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M169" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="Q169" t="n">
         <v>50</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K170" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L170" t="n">
         <v>15000</v>
       </c>
       <c r="M170" t="n">
-        <v>14750</v>
+        <v>14455</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,12 +12619,156 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="Q170" t="n">
         <v>30</v>
       </c>
       <c r="R170" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>3</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>60</v>
+      </c>
+      <c r="K171" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L171" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M171" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>50</v>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>3</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>120</v>
+      </c>
+      <c r="K172" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L172" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M172" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>30</v>
+      </c>
+      <c r="R172" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R172"/>
+  <dimension ref="A1:R174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44162</v>
+        <v>44453</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,32 +3165,32 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>3800</v>
+        <v>85</v>
       </c>
       <c r="K39" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="L39" t="n">
-        <v>250</v>
+        <v>11500</v>
       </c>
       <c r="M39" t="n">
-        <v>250</v>
+        <v>11235</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44413</v>
+        <v>44453</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3228,29 +3228,29 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K40" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="L40" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M40" t="n">
-        <v>13762</v>
+        <v>11769</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>275</v>
+        <v>392</v>
       </c>
       <c r="Q40" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44413</v>
+        <v>44162</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3305,36 +3305,36 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>110</v>
+        <v>3800</v>
       </c>
       <c r="K41" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L41" t="n">
-        <v>14500</v>
+        <v>250</v>
       </c>
       <c r="M41" t="n">
-        <v>14227</v>
+        <v>250</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="Q41" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44165</v>
+        <v>44413</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3372,41 +3372,41 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>2000</v>
+        <v>105</v>
       </c>
       <c r="K42" t="n">
-        <v>300</v>
+        <v>13500</v>
       </c>
       <c r="L42" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="M42" t="n">
-        <v>300</v>
+        <v>13762</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44165</v>
+        <v>44413</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3449,36 +3449,36 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1800</v>
+        <v>110</v>
       </c>
       <c r="K43" t="n">
-        <v>220</v>
+        <v>14000</v>
       </c>
       <c r="L43" t="n">
-        <v>220</v>
+        <v>14500</v>
       </c>
       <c r="M43" t="n">
-        <v>220</v>
+        <v>14227</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>220</v>
+        <v>474</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44169</v>
+        <v>44165</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="K44" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L44" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M44" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44169</v>
+        <v>44165</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>3500</v>
+        <v>1800</v>
       </c>
       <c r="K45" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="L45" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="M45" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3615,11 +3615,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44405</v>
+        <v>44169</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3660,41 +3660,41 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>50</v>
+        <v>3800</v>
       </c>
       <c r="K46" t="n">
-        <v>13000</v>
+        <v>350</v>
       </c>
       <c r="L46" t="n">
-        <v>13000</v>
+        <v>350</v>
       </c>
       <c r="M46" t="n">
-        <v>13000</v>
+        <v>350</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44405</v>
+        <v>44169</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3737,36 +3737,36 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>105</v>
+        <v>3500</v>
       </c>
       <c r="K47" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L47" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M47" t="n">
-        <v>13762</v>
+        <v>250</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>459</v>
+        <v>250</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44363</v>
+        <v>44405</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K48" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="L48" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M48" t="n">
-        <v>13750</v>
+        <v>13000</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="Q48" t="n">
         <v>50</v>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44363</v>
+        <v>44405</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K49" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L49" t="n">
         <v>14000</v>
       </c>
-      <c r="L49" t="n">
-        <v>15000</v>
-      </c>
       <c r="M49" t="n">
-        <v>14500</v>
+        <v>13762</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="Q49" t="n">
         <v>30</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44431</v>
+        <v>44363</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K50" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L50" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M50" t="n">
-        <v>13237</v>
+        <v>13750</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="Q50" t="n">
         <v>50</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44431</v>
+        <v>44363</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4029,16 +4029,16 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K51" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L51" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M51" t="n">
-        <v>13262</v>
+        <v>14500</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="Q51" t="n">
         <v>30</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44355</v>
+        <v>44431</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="K52" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L52" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M52" t="n">
-        <v>14000</v>
+        <v>13237</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="Q52" t="n">
         <v>50</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44355</v>
+        <v>44431</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K53" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L53" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M53" t="n">
-        <v>14000</v>
+        <v>13262</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="Q53" t="n">
         <v>30</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L54" t="n">
         <v>14000</v>
       </c>
       <c r="M54" t="n">
-        <v>13522</v>
+        <v>14000</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q54" t="n">
         <v>50</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K55" t="n">
         <v>14000</v>
       </c>
       <c r="L55" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="M55" t="n">
-        <v>14261</v>
+        <v>14000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="Q55" t="n">
         <v>30</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44418</v>
+        <v>44372</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K56" t="n">
         <v>13000</v>
       </c>
       <c r="L56" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M56" t="n">
-        <v>13250</v>
+        <v>13522</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q56" t="n">
         <v>50</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44418</v>
+        <v>44372</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K57" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L57" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M57" t="n">
-        <v>13455</v>
+        <v>14261</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="Q57" t="n">
         <v>30</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44172</v>
+        <v>44418</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -4524,41 +4524,41 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>3500</v>
+        <v>120</v>
       </c>
       <c r="K58" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L58" t="n">
-        <v>300</v>
+        <v>13500</v>
       </c>
       <c r="M58" t="n">
-        <v>300</v>
+        <v>13250</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44172</v>
+        <v>44418</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
@@ -4601,36 +4601,36 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>3800</v>
+        <v>110</v>
       </c>
       <c r="K59" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="L59" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="M59" t="n">
-        <v>250</v>
+        <v>13455</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>250</v>
+        <v>448</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -4745,20 +4745,20 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="K61" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L61" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="M61" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44407</v>
+        <v>44174</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4821,32 +4821,32 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>105</v>
+        <v>3500</v>
       </c>
       <c r="K62" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L62" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="M62" t="n">
-        <v>13262</v>
+        <v>300</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Q62" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44407</v>
+        <v>44174</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -4889,36 +4889,36 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>60</v>
+        <v>3300</v>
       </c>
       <c r="K63" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="L63" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="M63" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="Q63" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -4965,7 +4965,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="K64" t="n">
         <v>13000</v>
@@ -4974,7 +4974,7 @@
         <v>13500</v>
       </c>
       <c r="M64" t="n">
-        <v>13240</v>
+        <v>13262</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K65" t="n">
         <v>13500</v>
       </c>
       <c r="L65" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M65" t="n">
-        <v>13750</v>
+        <v>13500</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q65" t="n">
         <v>30</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44284</v>
+        <v>44410</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K66" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L66" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M66" t="n">
-        <v>12808</v>
+        <v>13240</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q66" t="n">
         <v>50</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44159</v>
+        <v>44410</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5181,32 +5181,32 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>2800</v>
+        <v>120</v>
       </c>
       <c r="K67" t="n">
-        <v>270</v>
+        <v>13500</v>
       </c>
       <c r="L67" t="n">
-        <v>270</v>
+        <v>14000</v>
       </c>
       <c r="M67" t="n">
-        <v>270</v>
+        <v>13750</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>270</v>
+        <v>458</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44159</v>
+        <v>44284</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5253,32 +5253,32 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>3200</v>
+        <v>130</v>
       </c>
       <c r="K68" t="n">
-        <v>200</v>
+        <v>12500</v>
       </c>
       <c r="L68" t="n">
-        <v>200</v>
+        <v>13000</v>
       </c>
       <c r="M68" t="n">
-        <v>200</v>
+        <v>12808</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44330</v>
+        <v>44159</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5325,32 +5325,32 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>85</v>
+        <v>2800</v>
       </c>
       <c r="K69" t="n">
-        <v>14000</v>
+        <v>270</v>
       </c>
       <c r="L69" t="n">
-        <v>14500</v>
+        <v>270</v>
       </c>
       <c r="M69" t="n">
-        <v>14265</v>
+        <v>270</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>476</v>
+        <v>270</v>
       </c>
       <c r="Q69" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44343</v>
+        <v>44159</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,32 +5397,32 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>110</v>
+        <v>3200</v>
       </c>
       <c r="K70" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L70" t="n">
-        <v>14000</v>
+        <v>200</v>
       </c>
       <c r="M70" t="n">
-        <v>13455</v>
+        <v>200</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="Q70" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44343</v>
+        <v>44330</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -5465,24 +5465,24 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K71" t="n">
         <v>14000</v>
       </c>
       <c r="L71" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M71" t="n">
-        <v>14000</v>
+        <v>14265</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>280</v>
+        <v>476</v>
       </c>
       <c r="Q71" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K72" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L72" t="n">
         <v>14000</v>
       </c>
       <c r="M72" t="n">
-        <v>14000</v>
+        <v>13455</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="Q72" t="n">
         <v>50</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5609,24 +5609,24 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K73" t="n">
         <v>14000</v>
       </c>
       <c r="L73" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M73" t="n">
-        <v>14444</v>
+        <v>14000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>481</v>
+        <v>280</v>
       </c>
       <c r="Q73" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44195</v>
+        <v>44344</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -5676,29 +5676,29 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="K74" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L74" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M74" t="n">
-        <v>11471</v>
+        <v>14000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="Q74" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44396</v>
+        <v>44344</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -5748,41 +5748,41 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K75" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L75" t="n">
         <v>15000</v>
       </c>
-      <c r="L75" t="n">
-        <v>16000</v>
-      </c>
       <c r="M75" t="n">
-        <v>15524</v>
+        <v>14444</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>310</v>
+        <v>481</v>
       </c>
       <c r="Q75" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44396</v>
+        <v>44195</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="K76" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L76" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M76" t="n">
-        <v>15524</v>
+        <v>11471</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>517</v>
+        <v>382</v>
       </c>
       <c r="Q76" t="n">
         <v>30</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44406</v>
+        <v>44396</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="K77" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L77" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M77" t="n">
-        <v>13200</v>
+        <v>15524</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="Q77" t="n">
         <v>50</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44406</v>
+        <v>44396</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -5964,29 +5964,29 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K78" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L78" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M78" t="n">
-        <v>10000</v>
+        <v>15524</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>143</v>
+        <v>517</v>
       </c>
       <c r="Q78" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6036,16 +6036,16 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K79" t="n">
         <v>13000</v>
@@ -6054,11 +6054,11 @@
         <v>13500</v>
       </c>
       <c r="M79" t="n">
-        <v>13250</v>
+        <v>13200</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>442</v>
+        <v>264</v>
       </c>
       <c r="Q79" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6113,24 +6113,24 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K80" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L80" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M80" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>300</v>
+        <v>143</v>
       </c>
       <c r="Q80" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K81" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L81" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="M81" t="n">
-        <v>17538</v>
+        <v>13250</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>585</v>
+        <v>442</v>
       </c>
       <c r="Q81" t="n">
         <v>30</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44334</v>
+        <v>44385</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6257,36 +6257,36 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
+        <v>80</v>
+      </c>
+      <c r="K82" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L82" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M82" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q82" t="n">
         <v>50</v>
-      </c>
-      <c r="K82" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L82" t="n">
-        <v>14000</v>
-      </c>
-      <c r="M82" t="n">
-        <v>14000</v>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>467</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>30</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44340</v>
+        <v>44385</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K83" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L83" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M83" t="n">
-        <v>15000</v>
+        <v>17538</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>300</v>
+        <v>585</v>
       </c>
       <c r="Q83" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44340</v>
+        <v>44334</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K84" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L84" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M84" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q84" t="n">
         <v>30</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44371</v>
+        <v>44340</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K85" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L85" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M85" t="n">
-        <v>13474</v>
+        <v>15000</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Q85" t="n">
         <v>50</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44371</v>
+        <v>44340</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K86" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L86" t="n">
         <v>15000</v>
       </c>
       <c r="M86" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="Q86" t="n">
         <v>30</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K87" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="L87" t="n">
         <v>14000</v>
       </c>
       <c r="M87" t="n">
-        <v>13773</v>
+        <v>13474</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q87" t="n">
         <v>50</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44419</v>
+        <v>44371</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6696,13 +6696,13 @@
         <v>110</v>
       </c>
       <c r="K88" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L88" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M88" t="n">
-        <v>13273</v>
+        <v>14455</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Q88" t="n">
         <v>30</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K89" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L89" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M89" t="n">
-        <v>15000</v>
+        <v>13773</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Q89" t="n">
         <v>50</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44370</v>
+        <v>44419</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6840,13 +6840,13 @@
         <v>110</v>
       </c>
       <c r="K90" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L90" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M90" t="n">
-        <v>14455</v>
+        <v>13273</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="Q90" t="n">
         <v>30</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44447</v>
+        <v>44370</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K91" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L91" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M91" t="n">
-        <v>10559</v>
+        <v>15000</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="Q91" t="n">
         <v>50</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44447</v>
+        <v>44370</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="K92" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L92" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M92" t="n">
-        <v>12260</v>
+        <v>14455</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>409</v>
+        <v>482</v>
       </c>
       <c r="Q92" t="n">
         <v>30</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44392</v>
+        <v>44447</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K93" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L93" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M93" t="n">
-        <v>15000</v>
+        <v>10559</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="Q93" t="n">
         <v>50</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44392</v>
+        <v>44447</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="K94" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L94" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="M94" t="n">
-        <v>15524</v>
+        <v>12260</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>517</v>
+        <v>409</v>
       </c>
       <c r="Q94" t="n">
         <v>30</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44362</v>
+        <v>44392</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K95" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L95" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M95" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q95" t="n">
         <v>50</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44362</v>
+        <v>44392</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K96" t="n">
         <v>15000</v>
       </c>
       <c r="L96" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M96" t="n">
-        <v>15000</v>
+        <v>15524</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="Q96" t="n">
         <v>30</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44309</v>
+        <v>44362</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="K97" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L97" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M97" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="Q97" t="n">
         <v>50</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44384</v>
+        <v>44362</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7404,16 +7404,16 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K98" t="n">
         <v>15000</v>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q98" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44384</v>
+        <v>44309</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7476,29 +7476,29 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="K99" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L99" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M99" t="n">
-        <v>17524</v>
+        <v>11000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>584</v>
+        <v>220</v>
       </c>
       <c r="Q99" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7548,41 +7548,41 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>3800</v>
+        <v>60</v>
       </c>
       <c r="K100" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L100" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M100" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P100" t="n">
         <v>300</v>
       </c>
       <c r="Q100" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44168</v>
+        <v>44384</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7625,36 +7625,36 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>7000</v>
+        <v>105</v>
       </c>
       <c r="K101" t="n">
-        <v>230</v>
+        <v>17000</v>
       </c>
       <c r="L101" t="n">
-        <v>250</v>
+        <v>18000</v>
       </c>
       <c r="M101" t="n">
-        <v>240</v>
+        <v>17524</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>240</v>
+        <v>584</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44365</v>
+        <v>44168</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7692,41 +7692,41 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>100</v>
+        <v>3800</v>
       </c>
       <c r="K102" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L102" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="M102" t="n">
-        <v>14550</v>
+        <v>300</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q102" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44365</v>
+        <v>44168</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7769,36 +7769,36 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>135</v>
+        <v>7000</v>
       </c>
       <c r="K103" t="n">
-        <v>13000</v>
+        <v>230</v>
       </c>
       <c r="L103" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M103" t="n">
-        <v>13481</v>
+        <v>240</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>449</v>
+        <v>240</v>
       </c>
       <c r="Q103" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44452</v>
+        <v>44365</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K104" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L104" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="M104" t="n">
-        <v>11250</v>
+        <v>14550</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="Q104" t="n">
         <v>50</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44452</v>
+        <v>44365</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="K105" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L105" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M105" t="n">
-        <v>11746</v>
+        <v>13481</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="Q105" t="n">
         <v>30</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K106" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L106" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="M106" t="n">
-        <v>14227</v>
+        <v>11250</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="Q106" t="n">
         <v>50</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="K107" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L107" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M107" t="n">
-        <v>14000</v>
+        <v>11746</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="Q107" t="n">
         <v>30</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K108" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L108" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M108" t="n">
-        <v>12762</v>
+        <v>14227</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q108" t="n">
         <v>50</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44433</v>
+        <v>44358</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K109" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L109" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M109" t="n">
-        <v>13250</v>
+        <v>14000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="Q109" t="n">
         <v>30</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8280,13 +8280,13 @@
         <v>105</v>
       </c>
       <c r="K110" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L110" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M110" t="n">
-        <v>15476</v>
+        <v>12762</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="Q110" t="n">
         <v>50</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K111" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L111" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M111" t="n">
-        <v>15478</v>
+        <v>13250</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>516</v>
+        <v>442</v>
       </c>
       <c r="Q111" t="n">
         <v>30</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44426</v>
+        <v>44397</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K112" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L112" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M112" t="n">
-        <v>12739</v>
+        <v>15476</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="Q112" t="n">
         <v>50</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44426</v>
+        <v>44397</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
         <v>115</v>
       </c>
       <c r="K113" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L113" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M113" t="n">
-        <v>12761</v>
+        <v>15478</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="Q113" t="n">
         <v>30</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K114" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L114" t="n">
         <v>13000</v>
       </c>
-      <c r="L114" t="n">
-        <v>13500</v>
-      </c>
       <c r="M114" t="n">
-        <v>13238</v>
+        <v>12739</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q114" t="n">
         <v>50</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8640,13 +8640,13 @@
         <v>115</v>
       </c>
       <c r="K115" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L115" t="n">
         <v>13000</v>
       </c>
-      <c r="L115" t="n">
-        <v>14000</v>
-      </c>
       <c r="M115" t="n">
-        <v>13522</v>
+        <v>12761</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="Q115" t="n">
         <v>30</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K116" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L116" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M116" t="n">
-        <v>12731</v>
+        <v>13238</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q116" t="n">
         <v>50</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8787,10 +8787,10 @@
         <v>13000</v>
       </c>
       <c r="L117" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M117" t="n">
-        <v>13239</v>
+        <v>13522</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="Q117" t="n">
         <v>30</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K118" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L118" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M118" t="n">
-        <v>14520</v>
+        <v>12731</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="Q118" t="n">
         <v>50</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44398</v>
+        <v>44434</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K119" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L119" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M119" t="n">
-        <v>15455</v>
+        <v>13239</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="Q119" t="n">
         <v>30</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K120" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L120" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M120" t="n">
-        <v>13231</v>
+        <v>14520</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="Q120" t="n">
         <v>50</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K121" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L121" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M121" t="n">
-        <v>13222</v>
+        <v>15455</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="Q121" t="n">
         <v>30</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9132,29 +9132,29 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="K122" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L122" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M122" t="n">
-        <v>14000</v>
+        <v>13231</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>467</v>
+        <v>265</v>
       </c>
       <c r="Q122" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="K123" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L123" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M123" t="n">
-        <v>11000</v>
+        <v>13222</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="Q123" t="n">
         <v>30</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44427</v>
+        <v>44348</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9276,29 +9276,29 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="K124" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L124" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M124" t="n">
-        <v>12739</v>
+        <v>14000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>255</v>
+        <v>467</v>
       </c>
       <c r="Q124" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44427</v>
+        <v>44210</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K125" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L125" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M125" t="n">
-        <v>12760</v>
+        <v>11000</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="Q125" t="n">
         <v>30</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K126" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L126" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M126" t="n">
-        <v>14000</v>
+        <v>12739</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q126" t="n">
         <v>50</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9492,16 +9492,16 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K127" t="n">
         <v>12500</v>
@@ -9510,11 +9510,11 @@
         <v>13000</v>
       </c>
       <c r="M127" t="n">
-        <v>12762</v>
+        <v>12760</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>255</v>
+        <v>425</v>
       </c>
       <c r="Q127" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9564,29 +9564,29 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K128" t="n">
         <v>14000</v>
       </c>
       <c r="L128" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="M128" t="n">
-        <v>14238</v>
+        <v>14000</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>475</v>
+        <v>280</v>
       </c>
       <c r="Q128" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9648,13 +9648,13 @@
         <v>105</v>
       </c>
       <c r="K129" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L129" t="n">
         <v>13000</v>
       </c>
-      <c r="L129" t="n">
-        <v>13500</v>
-      </c>
       <c r="M129" t="n">
-        <v>13238</v>
+        <v>12762</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q129" t="n">
         <v>50</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K130" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L130" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M130" t="n">
-        <v>13273</v>
+        <v>14238</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="Q130" t="n">
         <v>30</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9789,16 +9789,16 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="K131" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L131" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M131" t="n">
-        <v>10520</v>
+        <v>13238</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9807,11 +9807,11 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="Q131" t="n">
         <v>50</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K132" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L132" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="M132" t="n">
-        <v>12234</v>
+        <v>13273</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="Q132" t="n">
         <v>30</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K133" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L133" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="M133" t="n">
-        <v>12238</v>
+        <v>10520</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="Q133" t="n">
         <v>50</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10005,7 +10005,7 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K134" t="n">
         <v>12000</v>
@@ -10014,7 +10014,7 @@
         <v>12500</v>
       </c>
       <c r="M134" t="n">
-        <v>12250</v>
+        <v>12234</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P134" t="n">
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10068,29 +10068,29 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K135" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L135" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M135" t="n">
-        <v>14227</v>
+        <v>12238</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>474</v>
+        <v>245</v>
       </c>
       <c r="Q135" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10140,29 +10140,29 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>615</v>
+        <v>130</v>
       </c>
       <c r="K136" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L136" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M136" t="n">
-        <v>13951</v>
+        <v>12250</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>279</v>
+        <v>408</v>
       </c>
       <c r="Q136" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K137" t="n">
         <v>14000</v>
       </c>
       <c r="L137" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M137" t="n">
-        <v>14462</v>
+        <v>14227</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="Q137" t="n">
         <v>30</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44342</v>
+        <v>44369</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>50</v>
+        <v>615</v>
       </c>
       <c r="K138" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="L138" t="n">
         <v>14000</v>
       </c>
       <c r="M138" t="n">
-        <v>14000</v>
+        <v>13951</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q138" t="n">
         <v>50</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44379</v>
+        <v>44369</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10356,29 +10356,29 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K139" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L139" t="n">
         <v>15000</v>
       </c>
       <c r="M139" t="n">
-        <v>15000</v>
+        <v>14462</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="Q139" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10428,29 +10428,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K140" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L140" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="M140" t="n">
-        <v>16231</v>
+        <v>14000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>541</v>
+        <v>280</v>
       </c>
       <c r="Q140" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K141" t="n">
         <v>15000</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44391</v>
+        <v>44379</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10581,20 +10581,20 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K142" t="n">
         <v>16000</v>
       </c>
       <c r="L142" t="n">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="M142" t="n">
-        <v>16545</v>
+        <v>16231</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>331</v>
+        <v>541</v>
       </c>
       <c r="Q142" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10656,13 +10656,13 @@
         <v>60</v>
       </c>
       <c r="K143" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L143" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M143" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="Q143" t="n">
         <v>50</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44446</v>
+        <v>44391</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10728,17 +10728,17 @@
         <v>110</v>
       </c>
       <c r="K144" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L144" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="M144" t="n">
-        <v>12227</v>
+        <v>16545</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>408</v>
+        <v>331</v>
       </c>
       <c r="Q144" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K145" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L145" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M145" t="n">
-        <v>12727</v>
+        <v>11000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="Q145" t="n">
         <v>50</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K146" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L146" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="M146" t="n">
-        <v>13500</v>
+        <v>12227</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="Q146" t="n">
         <v>30</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,20 +10941,20 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K147" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L147" t="n">
         <v>13000</v>
       </c>
       <c r="M147" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q147" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K148" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="L148" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M148" t="n">
-        <v>14778</v>
+        <v>13500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11031,11 +11031,11 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="Q148" t="n">
         <v>30</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44449</v>
+        <v>44411</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,20 +11085,20 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="K149" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L149" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M149" t="n">
-        <v>10444</v>
+        <v>13000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>209</v>
+        <v>433</v>
       </c>
       <c r="Q149" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K150" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="L150" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M150" t="n">
-        <v>11760</v>
+        <v>14778</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11175,11 +11175,11 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>392</v>
+        <v>493</v>
       </c>
       <c r="Q150" t="n">
         <v>30</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11220,41 +11220,41 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>3800</v>
+        <v>135</v>
       </c>
       <c r="K151" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="L151" t="n">
-        <v>300</v>
+        <v>11000</v>
       </c>
       <c r="M151" t="n">
-        <v>300</v>
+        <v>10444</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="Q151" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,36 +11297,36 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>4200</v>
+        <v>125</v>
       </c>
       <c r="K152" t="n">
-        <v>200</v>
+        <v>11500</v>
       </c>
       <c r="L152" t="n">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="M152" t="n">
-        <v>200</v>
+        <v>11760</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>200</v>
+        <v>392</v>
       </c>
       <c r="Q152" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11364,41 +11364,41 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>140</v>
+        <v>3800</v>
       </c>
       <c r="K153" t="n">
-        <v>11000</v>
+        <v>300</v>
       </c>
       <c r="L153" t="n">
-        <v>11500</v>
+        <v>300</v>
       </c>
       <c r="M153" t="n">
-        <v>11286</v>
+        <v>300</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="Q153" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11441,36 +11441,36 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>130</v>
+        <v>4200</v>
       </c>
       <c r="K154" t="n">
-        <v>12000</v>
+        <v>200</v>
       </c>
       <c r="L154" t="n">
-        <v>12500</v>
+        <v>200</v>
       </c>
       <c r="M154" t="n">
-        <v>12231</v>
+        <v>200</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>408</v>
+        <v>200</v>
       </c>
       <c r="Q154" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K155" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L155" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="M155" t="n">
-        <v>12738</v>
+        <v>11286</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="Q155" t="n">
         <v>50</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K156" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L156" t="n">
         <v>12500</v>
       </c>
-      <c r="L156" t="n">
-        <v>13000</v>
-      </c>
       <c r="M156" t="n">
-        <v>12740</v>
+        <v>12231</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K157" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="L157" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M157" t="n">
-        <v>10741</v>
+        <v>12738</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11733,7 +11733,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K158" t="n">
         <v>12500</v>
@@ -11742,7 +11742,7 @@
         <v>13000</v>
       </c>
       <c r="M158" t="n">
-        <v>12731</v>
+        <v>12740</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q158" t="n">
         <v>30</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>555</v>
+        <v>145</v>
       </c>
       <c r="K159" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="L159" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M159" t="n">
-        <v>12788</v>
+        <v>10741</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="Q159" t="n">
         <v>50</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>610</v>
+        <v>130</v>
       </c>
       <c r="K160" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="L160" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="M160" t="n">
-        <v>12906</v>
+        <v>12731</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>60</v>
+        <v>555</v>
       </c>
       <c r="K161" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L161" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M161" t="n">
-        <v>15000</v>
+        <v>12788</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="Q161" t="n">
         <v>50</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>105</v>
+        <v>610</v>
       </c>
       <c r="K162" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L162" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="M162" t="n">
-        <v>16238</v>
+        <v>12906</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>541</v>
+        <v>430</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12096,13 +12096,13 @@
         <v>60</v>
       </c>
       <c r="K163" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L163" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M163" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="Q163" t="n">
         <v>50</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K164" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L164" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="M164" t="n">
-        <v>13231</v>
+        <v>16238</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>441</v>
+        <v>541</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K165" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="L165" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M165" t="n">
-        <v>10733</v>
+        <v>13000</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="Q165" t="n">
         <v>50</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K166" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L166" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M166" t="n">
-        <v>11765</v>
+        <v>13231</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="Q166" t="n">
         <v>30</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12372,41 +12372,41 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>2800</v>
+        <v>150</v>
       </c>
       <c r="K167" t="n">
-        <v>300</v>
+        <v>10500</v>
       </c>
       <c r="L167" t="n">
-        <v>300</v>
+        <v>11000</v>
       </c>
       <c r="M167" t="n">
-        <v>300</v>
+        <v>10733</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="Q167" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12444,25 +12444,25 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="K168" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L168" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M168" t="n">
-        <v>13545</v>
+        <v>11765</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="Q168" t="n">
         <v>30</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12516,41 +12516,41 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>80</v>
+        <v>2800</v>
       </c>
       <c r="K169" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="L169" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="M169" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q169" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12588,25 +12588,25 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
         <v>110</v>
       </c>
       <c r="K170" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L170" t="n">
         <v>14000</v>
       </c>
-      <c r="L170" t="n">
-        <v>15000</v>
-      </c>
       <c r="M170" t="n">
-        <v>14455</v>
+        <v>13545</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="Q170" t="n">
         <v>30</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K171" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L171" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M171" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="Q171" t="n">
         <v>50</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K172" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L172" t="n">
         <v>15000</v>
       </c>
       <c r="M172" t="n">
-        <v>14750</v>
+        <v>14455</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,12 +12763,156 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="Q172" t="n">
         <v>30</v>
       </c>
       <c r="R172" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>3</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>60</v>
+      </c>
+      <c r="K173" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L173" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M173" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>280</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>50</v>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>3</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J174" t="n">
+        <v>120</v>
+      </c>
+      <c r="K174" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L174" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M174" t="n">
+        <v>14750</v>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>30</v>
+      </c>
+      <c r="R174" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R174"/>
+  <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44357</v>
+        <v>44413</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -492,29 +492,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K2" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L2" t="n">
         <v>14000</v>
       </c>
-      <c r="L2" t="n">
-        <v>15000</v>
-      </c>
       <c r="M2" t="n">
-        <v>14478</v>
+        <v>13762</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44424</v>
+        <v>44413</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
@@ -564,29 +564,29 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="M3" t="n">
-        <v>12234</v>
+        <v>14227</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>245</v>
+        <v>474</v>
       </c>
       <c r="Q3" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44424</v>
+        <v>44382</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -636,41 +636,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
+        <v>90</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15389</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>308</v>
+      </c>
+      <c r="Q4" t="n">
         <v>50</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13000</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>433</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>30</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -708,29 +708,29 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M5" t="n">
-        <v>14455</v>
+        <v>17556</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>289</v>
+        <v>585</v>
       </c>
       <c r="Q5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44377</v>
+        <v>44432</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -780,29 +780,29 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="M6" t="n">
-        <v>15483</v>
+        <v>12238</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>516</v>
+        <v>245</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44350</v>
+        <v>44432</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K7" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M7" t="n">
-        <v>13739</v>
+        <v>12250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,10 +883,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>275</v>
+        <v>408</v>
       </c>
       <c r="Q7" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44350</v>
+        <v>44403</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
@@ -924,29 +924,29 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>14261</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>475</v>
+        <v>260</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44356</v>
+        <v>44403</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -996,29 +996,29 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K9" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L9" t="n">
         <v>14000</v>
       </c>
-      <c r="L9" t="n">
-        <v>15000</v>
-      </c>
       <c r="M9" t="n">
-        <v>14474</v>
+        <v>13750</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>289</v>
+        <v>458</v>
       </c>
       <c r="Q9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44356</v>
+        <v>44174</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1073,36 +1073,36 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>95</v>
+        <v>3500</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="M10" t="n">
-        <v>14526</v>
+        <v>300</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>484</v>
+        <v>300</v>
       </c>
       <c r="Q10" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44326</v>
+        <v>44174</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1140,41 +1140,41 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>55</v>
+        <v>3300</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Q11" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1217,24 +1217,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44349</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1284,16 +1284,16 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K13" t="n">
         <v>14000</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>467</v>
+        <v>280</v>
       </c>
       <c r="Q13" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44327</v>
+        <v>44428</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
@@ -1356,29 +1356,29 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K14" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L14" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M14" t="n">
-        <v>15000</v>
+        <v>12738</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44383</v>
+        <v>44428</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
@@ -1428,29 +1428,29 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="K15" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L15" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M15" t="n">
-        <v>15000</v>
+        <v>12740</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="Q15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44383</v>
+        <v>44362</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
@@ -1500,29 +1500,29 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K16" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L16" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M16" t="n">
-        <v>17478</v>
+        <v>14000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>583</v>
+        <v>280</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44270</v>
+        <v>44362</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K17" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L17" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M17" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q17" t="n">
         <v>30</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44364</v>
+        <v>44454</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K18" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L18" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M18" t="n">
-        <v>13238</v>
+        <v>10731</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="Q18" t="n">
         <v>50</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44364</v>
+        <v>44454</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K19" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L19" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M19" t="n">
-        <v>14476</v>
+        <v>11761</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>483</v>
+        <v>392</v>
       </c>
       <c r="Q19" t="n">
         <v>30</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44336</v>
+        <v>44424</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="K20" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L20" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M20" t="n">
-        <v>15000</v>
+        <v>12234</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="Q20" t="n">
         <v>50</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44336</v>
+        <v>44424</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K21" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L21" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M21" t="n">
-        <v>14474</v>
+        <v>13000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="Q21" t="n">
         <v>30</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44389</v>
+        <v>44398</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="K22" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L22" t="n">
         <v>15000</v>
       </c>
       <c r="M22" t="n">
-        <v>15000</v>
+        <v>14520</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Q22" t="n">
         <v>50</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44389</v>
+        <v>44398</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2009,11 +2009,11 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="K23" t="n">
         <v>15000</v>
@@ -2022,7 +2022,7 @@
         <v>16000</v>
       </c>
       <c r="M23" t="n">
-        <v>15528</v>
+        <v>15455</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44382</v>
+        <v>44421</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K24" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L24" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M24" t="n">
-        <v>15389</v>
+        <v>13238</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="Q24" t="n">
         <v>50</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44382</v>
+        <v>44421</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="K25" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L25" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M25" t="n">
-        <v>17556</v>
+        <v>13522</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>585</v>
+        <v>451</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44160</v>
+        <v>44379</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,41 +2220,41 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>3200</v>
+        <v>80</v>
       </c>
       <c r="K26" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L26" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M26" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P26" t="n">
         <v>300</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44160</v>
+        <v>44379</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2297,36 +2297,36 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>3000</v>
+        <v>130</v>
       </c>
       <c r="K27" t="n">
-        <v>250</v>
+        <v>16000</v>
       </c>
       <c r="L27" t="n">
-        <v>250</v>
+        <v>16500</v>
       </c>
       <c r="M27" t="n">
-        <v>250</v>
+        <v>16231</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>250</v>
+        <v>541</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44160</v>
+        <v>44384</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2364,41 +2364,41 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>2800</v>
+        <v>60</v>
       </c>
       <c r="K28" t="n">
-        <v>180</v>
+        <v>15000</v>
       </c>
       <c r="L28" t="n">
-        <v>180</v>
+        <v>15000</v>
       </c>
       <c r="M28" t="n">
-        <v>180</v>
+        <v>15000</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44390</v>
+        <v>44384</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="K29" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L29" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M29" t="n">
-        <v>15000</v>
+        <v>17524</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>300</v>
+        <v>584</v>
       </c>
       <c r="Q29" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44445</v>
+        <v>44349</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,29 +2508,29 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="K30" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L30" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M30" t="n">
-        <v>11714</v>
+        <v>14000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>234</v>
+        <v>467</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44445</v>
+        <v>44396</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2580,41 +2580,41 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K31" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M31" t="n">
-        <v>12759</v>
+        <v>15524</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>425</v>
+        <v>310</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44425</v>
+        <v>44396</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K32" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L32" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M32" t="n">
-        <v>12773</v>
+        <v>15524</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>255</v>
+        <v>517</v>
       </c>
       <c r="Q32" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44425</v>
+        <v>44412</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2724,29 +2724,29 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K33" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L33" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="M33" t="n">
-        <v>12240</v>
+        <v>13000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>408</v>
+        <v>260</v>
       </c>
       <c r="Q33" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44386</v>
+        <v>44412</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2796,29 +2796,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="K34" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L34" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M34" t="n">
-        <v>15000</v>
+        <v>13231</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>300</v>
+        <v>441</v>
       </c>
       <c r="Q34" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44386</v>
+        <v>44329</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2877,16 +2877,16 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K35" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="L35" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M35" t="n">
-        <v>16529</v>
+        <v>14778</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>551</v>
+        <v>493</v>
       </c>
       <c r="Q35" t="n">
         <v>30</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44403</v>
+        <v>44364</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K36" t="n">
         <v>13000</v>
       </c>
       <c r="L36" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M36" t="n">
-        <v>13000</v>
+        <v>13238</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q36" t="n">
         <v>50</v>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44403</v>
+        <v>44364</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K37" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L37" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>13750</v>
+        <v>14476</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3093,32 +3093,32 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>45</v>
+        <v>2800</v>
       </c>
       <c r="K38" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="L38" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="M38" t="n">
-        <v>15000</v>
+        <v>270</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="Q38" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44453</v>
+        <v>44159</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3165,32 +3165,32 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>85</v>
+        <v>3200</v>
       </c>
       <c r="K39" t="n">
-        <v>11000</v>
+        <v>200</v>
       </c>
       <c r="L39" t="n">
-        <v>11500</v>
+        <v>200</v>
       </c>
       <c r="M39" t="n">
-        <v>11235</v>
+        <v>200</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q39" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44453</v>
+        <v>44330</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="K40" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L40" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="M40" t="n">
-        <v>11769</v>
+        <v>14265</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>392</v>
+        <v>476</v>
       </c>
       <c r="Q40" t="n">
         <v>30</v>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44162</v>
+        <v>44431</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,32 +3309,32 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>3800</v>
+        <v>95</v>
       </c>
       <c r="K41" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>250</v>
+        <v>13500</v>
       </c>
       <c r="M41" t="n">
-        <v>250</v>
+        <v>13237</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44413</v>
+        <v>44431</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3372,29 +3372,29 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J42" t="n">
         <v>105</v>
       </c>
       <c r="K42" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L42" t="n">
         <v>13500</v>
       </c>
-      <c r="L42" t="n">
-        <v>14000</v>
-      </c>
       <c r="M42" t="n">
-        <v>13762</v>
+        <v>13262</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3403,10 +3403,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>275</v>
+        <v>442</v>
       </c>
       <c r="Q42" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44413</v>
+        <v>44377</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3444,12 +3444,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -3459,14 +3459,14 @@
         <v>14000</v>
       </c>
       <c r="L43" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M43" t="n">
-        <v>14227</v>
+        <v>14455</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>474</v>
+        <v>289</v>
       </c>
       <c r="Q43" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44165</v>
+        <v>44377</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3525,32 +3525,32 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>2000</v>
+        <v>145</v>
       </c>
       <c r="K44" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L44" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="M44" t="n">
-        <v>300</v>
+        <v>15483</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>300</v>
+        <v>516</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44165</v>
+        <v>44348</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3593,36 +3593,36 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1800</v>
+        <v>55</v>
       </c>
       <c r="K45" t="n">
-        <v>220</v>
+        <v>14000</v>
       </c>
       <c r="L45" t="n">
-        <v>220</v>
+        <v>14000</v>
       </c>
       <c r="M45" t="n">
-        <v>220</v>
+        <v>14000</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>220</v>
+        <v>467</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44169</v>
+        <v>44435</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3660,41 +3660,41 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>3800</v>
+        <v>555</v>
       </c>
       <c r="K46" t="n">
-        <v>350</v>
+        <v>12000</v>
       </c>
       <c r="L46" t="n">
-        <v>350</v>
+        <v>13500</v>
       </c>
       <c r="M46" t="n">
-        <v>350</v>
+        <v>12788</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44169</v>
+        <v>44435</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3737,36 +3737,36 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>3500</v>
+        <v>610</v>
       </c>
       <c r="K47" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="L47" t="n">
-        <v>250</v>
+        <v>13500</v>
       </c>
       <c r="M47" t="n">
-        <v>250</v>
+        <v>12906</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44405</v>
+        <v>44195</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3804,29 +3804,29 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K48" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L48" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M48" t="n">
-        <v>13000</v>
+        <v>11471</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>260</v>
+        <v>382</v>
       </c>
       <c r="Q48" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44405</v>
+        <v>44169</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,32 +3885,32 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>105</v>
+        <v>3800</v>
       </c>
       <c r="K49" t="n">
-        <v>13500</v>
+        <v>350</v>
       </c>
       <c r="L49" t="n">
-        <v>14000</v>
+        <v>350</v>
       </c>
       <c r="M49" t="n">
-        <v>13762</v>
+        <v>350</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>459</v>
+        <v>350</v>
       </c>
       <c r="Q49" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44363</v>
+        <v>44169</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3957,32 +3957,32 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>120</v>
+        <v>3500</v>
       </c>
       <c r="K50" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L50" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M50" t="n">
-        <v>13750</v>
+        <v>250</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q50" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44363</v>
+        <v>44445</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4020,29 +4020,29 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K51" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L51" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M51" t="n">
-        <v>14500</v>
+        <v>11714</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4051,10 +4051,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>483</v>
+        <v>234</v>
       </c>
       <c r="Q51" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44431</v>
+        <v>44445</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4092,29 +4092,29 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="K52" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L52" t="n">
         <v>13000</v>
       </c>
-      <c r="L52" t="n">
-        <v>13500</v>
-      </c>
       <c r="M52" t="n">
-        <v>13237</v>
+        <v>12759</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4123,10 +4123,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>265</v>
+        <v>425</v>
       </c>
       <c r="Q52" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44431</v>
+        <v>44449</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="K53" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L53" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M53" t="n">
-        <v>13262</v>
+        <v>10444</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4195,10 +4195,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>442</v>
+        <v>209</v>
       </c>
       <c r="Q53" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44355</v>
+        <v>44449</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4236,29 +4236,29 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K54" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L54" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M54" t="n">
-        <v>14000</v>
+        <v>11760</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="Q54" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44355</v>
+        <v>44333</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K55" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L55" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M55" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q55" t="n">
         <v>30</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K56" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L56" t="n">
         <v>14000</v>
       </c>
       <c r="M56" t="n">
-        <v>13522</v>
+        <v>14000</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Q56" t="n">
         <v>50</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44372</v>
+        <v>44355</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K57" t="n">
         <v>14000</v>
       </c>
       <c r="L57" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="M57" t="n">
-        <v>14261</v>
+        <v>14000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="Q57" t="n">
         <v>30</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44418</v>
+        <v>44446</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K58" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L58" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M58" t="n">
-        <v>13250</v>
+        <v>11000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="Q58" t="n">
         <v>50</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44418</v>
+        <v>44446</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
@@ -4608,13 +4608,13 @@
         <v>110</v>
       </c>
       <c r="K59" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L59" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M59" t="n">
-        <v>13455</v>
+        <v>12227</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="Q59" t="n">
         <v>30</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44172</v>
+        <v>44406</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -4668,41 +4668,41 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>3500</v>
+        <v>150</v>
       </c>
       <c r="K60" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L60" t="n">
-        <v>300</v>
+        <v>13500</v>
       </c>
       <c r="M60" t="n">
-        <v>300</v>
+        <v>13200</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44172</v>
+        <v>44406</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -4740,41 +4740,41 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>3800</v>
+        <v>60</v>
       </c>
       <c r="K61" t="n">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="L61" t="n">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="M61" t="n">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>250</v>
+        <v>143</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44174</v>
+        <v>44406</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -4817,36 +4817,36 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>3500</v>
+        <v>120</v>
       </c>
       <c r="K62" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L62" t="n">
-        <v>300</v>
+        <v>13500</v>
       </c>
       <c r="M62" t="n">
-        <v>300</v>
+        <v>13250</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>300</v>
+        <v>442</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44174</v>
+        <v>44385</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -4884,41 +4884,41 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>3300</v>
+        <v>80</v>
       </c>
       <c r="K63" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="L63" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44407</v>
+        <v>44385</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -4956,29 +4956,29 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K64" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L64" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="M64" t="n">
-        <v>13262</v>
+        <v>17538</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>265</v>
+        <v>585</v>
       </c>
       <c r="Q64" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44407</v>
+        <v>44284</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K65" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L65" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="M65" t="n">
-        <v>13500</v>
+        <v>12808</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>450</v>
+        <v>256</v>
       </c>
       <c r="Q65" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44410</v>
+        <v>44391</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="K66" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L66" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M66" t="n">
-        <v>13240</v>
+        <v>15000</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Q66" t="n">
         <v>50</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44410</v>
+        <v>44391</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5181,20 +5181,20 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K67" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="L67" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M67" t="n">
-        <v>13750</v>
+        <v>16545</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>458</v>
+        <v>331</v>
       </c>
       <c r="Q67" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44284</v>
+        <v>44417</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K68" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L68" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M68" t="n">
-        <v>12808</v>
+        <v>13238</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q68" t="n">
         <v>50</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44159</v>
+        <v>44417</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5325,32 +5325,32 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>2800</v>
+        <v>110</v>
       </c>
       <c r="K69" t="n">
-        <v>270</v>
+        <v>13000</v>
       </c>
       <c r="L69" t="n">
-        <v>270</v>
+        <v>13500</v>
       </c>
       <c r="M69" t="n">
-        <v>270</v>
+        <v>13273</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>270</v>
+        <v>442</v>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44159</v>
+        <v>44340</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5397,32 +5397,32 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>3200</v>
+        <v>50</v>
       </c>
       <c r="K70" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="L70" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="M70" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="K71" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L71" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M71" t="n">
-        <v>14265</v>
+        <v>15000</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="Q71" t="n">
         <v>30</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44343</v>
+        <v>44334</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -5537,24 +5537,24 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K72" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L72" t="n">
         <v>14000</v>
       </c>
       <c r="M72" t="n">
-        <v>13455</v>
+        <v>14000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>269</v>
+        <v>467</v>
       </c>
       <c r="Q72" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44343</v>
+        <v>44419</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K73" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="L73" t="n">
         <v>14000</v>
       </c>
       <c r="M73" t="n">
-        <v>14000</v>
+        <v>13773</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q73" t="n">
         <v>50</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44344</v>
+        <v>44419</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -5676,29 +5676,29 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K74" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L74" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M74" t="n">
-        <v>14000</v>
+        <v>13273</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="Q74" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44344</v>
+        <v>44342</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -5748,29 +5748,29 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K75" t="n">
         <v>14000</v>
       </c>
       <c r="L75" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M75" t="n">
-        <v>14444</v>
+        <v>14000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>481</v>
+        <v>280</v>
       </c>
       <c r="Q75" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44195</v>
+        <v>44434</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -5820,29 +5820,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="K76" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L76" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M76" t="n">
-        <v>11471</v>
+        <v>12731</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>382</v>
+        <v>255</v>
       </c>
       <c r="Q76" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44396</v>
+        <v>44434</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -5892,41 +5892,41 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K77" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L77" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M77" t="n">
-        <v>15524</v>
+        <v>13239</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>310</v>
+        <v>441</v>
       </c>
       <c r="Q77" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44396</v>
+        <v>44327</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K78" t="n">
         <v>15000</v>
       </c>
       <c r="L78" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M78" t="n">
-        <v>15524</v>
+        <v>15000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="Q78" t="n">
         <v>30</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44406</v>
+        <v>44399</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6045,20 +6045,20 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="K79" t="n">
         <v>13000</v>
       </c>
       <c r="L79" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M79" t="n">
-        <v>13200</v>
+        <v>13545</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>264</v>
+        <v>452</v>
       </c>
       <c r="Q79" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44406</v>
+        <v>44399</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K80" t="n">
         <v>10000</v>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="Q80" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44406</v>
+        <v>44399</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K81" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L81" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M81" t="n">
-        <v>13250</v>
+        <v>14455</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Q81" t="n">
         <v>30</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44385</v>
+        <v>44452</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K82" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L82" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="M82" t="n">
-        <v>15000</v>
+        <v>11250</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="Q82" t="n">
         <v>50</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44385</v>
+        <v>44452</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K83" t="n">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="L83" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M83" t="n">
-        <v>17538</v>
+        <v>11746</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>585</v>
+        <v>392</v>
       </c>
       <c r="Q83" t="n">
         <v>30</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44334</v>
+        <v>44383</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6401,36 +6401,36 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
+        <v>90</v>
+      </c>
+      <c r="K84" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L84" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M84" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q84" t="n">
         <v>50</v>
-      </c>
-      <c r="K84" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L84" t="n">
-        <v>14000</v>
-      </c>
-      <c r="M84" t="n">
-        <v>14000</v>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>$/caja 30 unidades</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>467</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>30</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44340</v>
+        <v>44383</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -6468,29 +6468,29 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K85" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L85" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M85" t="n">
-        <v>15000</v>
+        <v>17478</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6499,10 +6499,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="Q85" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44340</v>
+        <v>44441</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -6540,41 +6540,41 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="K86" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L86" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M86" t="n">
-        <v>15000</v>
+        <v>10520</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="Q86" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44371</v>
+        <v>44441</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -6612,41 +6612,41 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="K87" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L87" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M87" t="n">
-        <v>13474</v>
+        <v>12234</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>269</v>
+        <v>408</v>
       </c>
       <c r="Q87" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44371</v>
+        <v>44405</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6684,29 +6684,29 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K88" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L88" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M88" t="n">
-        <v>14455</v>
+        <v>13000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6715,10 +6715,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>482</v>
+        <v>260</v>
       </c>
       <c r="Q88" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44419</v>
+        <v>44405</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6756,16 +6756,16 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K89" t="n">
         <v>13500</v>
@@ -6774,11 +6774,11 @@
         <v>14000</v>
       </c>
       <c r="M89" t="n">
-        <v>13773</v>
+        <v>13762</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6787,10 +6787,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>275</v>
+        <v>459</v>
       </c>
       <c r="Q89" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44419</v>
+        <v>44161</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6837,32 +6837,32 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>110</v>
+        <v>3800</v>
       </c>
       <c r="K90" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L90" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="M90" t="n">
-        <v>13273</v>
+        <v>300</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>442</v>
+        <v>300</v>
       </c>
       <c r="Q90" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44370</v>
+        <v>44161</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6909,32 +6909,32 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>80</v>
+        <v>4200</v>
       </c>
       <c r="K91" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="L91" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="M91" t="n">
-        <v>15000</v>
+        <v>200</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q91" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44370</v>
+        <v>44407</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6972,29 +6972,29 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K92" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L92" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M92" t="n">
-        <v>14455</v>
+        <v>13262</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>482</v>
+        <v>265</v>
       </c>
       <c r="Q92" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44447</v>
+        <v>44407</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7044,29 +7044,29 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K93" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="L93" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M93" t="n">
-        <v>10559</v>
+        <v>13500</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7075,10 +7075,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>211</v>
+        <v>450</v>
       </c>
       <c r="Q93" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44447</v>
+        <v>44336</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7116,29 +7116,29 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K94" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L94" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M94" t="n">
-        <v>12260</v>
+        <v>15000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="Q94" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44392</v>
+        <v>44336</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7188,29 +7188,29 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="K95" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L95" t="n">
         <v>15000</v>
       </c>
       <c r="M95" t="n">
-        <v>15000</v>
+        <v>14474</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7219,10 +7219,10 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="Q95" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44392</v>
+        <v>44341</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7260,29 +7260,29 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="K96" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L96" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M96" t="n">
-        <v>15524</v>
+        <v>14000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7291,10 +7291,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>517</v>
+        <v>280</v>
       </c>
       <c r="Q96" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44362</v>
+        <v>44426</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="K97" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L97" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M97" t="n">
-        <v>14000</v>
+        <v>12739</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q97" t="n">
         <v>50</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44362</v>
+        <v>44426</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="K98" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L98" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M98" t="n">
-        <v>15000</v>
+        <v>12761</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="Q98" t="n">
         <v>30</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K99" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L99" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M99" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="Q99" t="n">
         <v>50</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44384</v>
+        <v>44400</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7548,29 +7548,29 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K100" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="L100" t="n">
         <v>15000</v>
       </c>
       <c r="M100" t="n">
-        <v>15000</v>
+        <v>14750</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>300</v>
+        <v>492</v>
       </c>
       <c r="Q100" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44384</v>
+        <v>44392</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7620,29 +7620,29 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K101" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L101" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M101" t="n">
-        <v>17524</v>
+        <v>15000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>584</v>
+        <v>300</v>
       </c>
       <c r="Q101" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44168</v>
+        <v>44392</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7701,32 +7701,32 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>3800</v>
+        <v>105</v>
       </c>
       <c r="K102" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L102" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="M102" t="n">
-        <v>300</v>
+        <v>15524</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>300</v>
+        <v>517</v>
       </c>
       <c r="Q102" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44168</v>
+        <v>44442</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,32 +7773,32 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>7000</v>
+        <v>145</v>
       </c>
       <c r="K103" t="n">
-        <v>230</v>
+        <v>10500</v>
       </c>
       <c r="L103" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="M103" t="n">
-        <v>240</v>
+        <v>10741</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="Q103" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44365</v>
+        <v>44442</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7836,29 +7836,29 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K104" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L104" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M104" t="n">
-        <v>14550</v>
+        <v>12731</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>291</v>
+        <v>424</v>
       </c>
       <c r="Q104" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44365</v>
+        <v>44453</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7908,29 +7908,29 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="K105" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L105" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="M105" t="n">
-        <v>13481</v>
+        <v>11235</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -7939,10 +7939,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>449</v>
+        <v>225</v>
       </c>
       <c r="Q105" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R105" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7980,29 +7980,29 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K106" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="L106" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="M106" t="n">
-        <v>11250</v>
+        <v>11769</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8011,10 +8011,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>225</v>
+        <v>392</v>
       </c>
       <c r="Q106" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R106" t="inlineStr">
         <is>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44452</v>
+        <v>44309</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8052,29 +8052,29 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="K107" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L107" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M107" t="n">
-        <v>11746</v>
+        <v>11000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8083,10 +8083,10 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="Q107" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R107" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44358</v>
+        <v>44448</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K108" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="L108" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="M108" t="n">
-        <v>14227</v>
+        <v>10733</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="Q108" t="n">
         <v>50</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44358</v>
+        <v>44448</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="K109" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L109" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M109" t="n">
-        <v>14000</v>
+        <v>11765</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="Q109" t="n">
         <v>30</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44433</v>
+        <v>44420</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K110" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L110" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M110" t="n">
-        <v>12762</v>
+        <v>13231</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q110" t="n">
         <v>50</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44433</v>
+        <v>44420</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8349,7 +8349,7 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="K111" t="n">
         <v>13000</v>
@@ -8358,7 +8358,7 @@
         <v>13500</v>
       </c>
       <c r="M111" t="n">
-        <v>13250</v>
+        <v>13222</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q111" t="n">
         <v>30</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44397</v>
+        <v>44370</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K112" t="n">
         <v>15000</v>
       </c>
       <c r="L112" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M112" t="n">
-        <v>15476</v>
+        <v>15000</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q112" t="n">
         <v>50</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44397</v>
+        <v>44370</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K113" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L113" t="n">
         <v>15000</v>
       </c>
-      <c r="L113" t="n">
-        <v>16000</v>
-      </c>
       <c r="M113" t="n">
-        <v>15478</v>
+        <v>14455</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="Q113" t="n">
         <v>30</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44426</v>
+        <v>44167</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8556,41 +8556,41 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>115</v>
+        <v>2800</v>
       </c>
       <c r="K114" t="n">
-        <v>12500</v>
+        <v>300</v>
       </c>
       <c r="L114" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M114" t="n">
-        <v>12739</v>
+        <v>300</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="Q114" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44426</v>
+        <v>44210</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K115" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L115" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M115" t="n">
-        <v>12761</v>
+        <v>11000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="Q115" t="n">
         <v>30</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44421</v>
+        <v>44344</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K116" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L116" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M116" t="n">
-        <v>13238</v>
+        <v>14000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Q116" t="n">
         <v>50</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44421</v>
+        <v>44344</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K117" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L117" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M117" t="n">
-        <v>13522</v>
+        <v>14444</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="Q117" t="n">
         <v>30</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44434</v>
+        <v>44350</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K118" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L118" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M118" t="n">
-        <v>12731</v>
+        <v>13739</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="Q118" t="n">
         <v>50</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44434</v>
+        <v>44350</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8928,13 +8928,13 @@
         <v>115</v>
       </c>
       <c r="K119" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L119" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M119" t="n">
-        <v>13239</v>
+        <v>14261</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="Q119" t="n">
         <v>30</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44398</v>
+        <v>44418</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K120" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L120" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M120" t="n">
-        <v>14520</v>
+        <v>13250</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="Q120" t="n">
         <v>50</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44398</v>
+        <v>44418</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9072,13 +9072,13 @@
         <v>110</v>
       </c>
       <c r="K121" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L121" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M121" t="n">
-        <v>15455</v>
+        <v>13455</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="Q121" t="n">
         <v>30</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44420</v>
+        <v>44414</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K122" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L122" t="n">
         <v>13000</v>
       </c>
-      <c r="L122" t="n">
-        <v>13500</v>
-      </c>
       <c r="M122" t="n">
-        <v>13231</v>
+        <v>12762</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q122" t="n">
         <v>50</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44420</v>
+        <v>44414</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="K123" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L123" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M123" t="n">
-        <v>13222</v>
+        <v>14238</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="Q123" t="n">
         <v>30</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44348</v>
+        <v>44165</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9285,32 +9285,32 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>55</v>
+        <v>2000</v>
       </c>
       <c r="K124" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L124" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M124" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="Q124" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44210</v>
+        <v>44165</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9353,36 +9353,36 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="K125" t="n">
-        <v>11000</v>
+        <v>220</v>
       </c>
       <c r="L125" t="n">
-        <v>11000</v>
+        <v>220</v>
       </c>
       <c r="M125" t="n">
-        <v>11000</v>
+        <v>220</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>367</v>
+        <v>220</v>
       </c>
       <c r="Q125" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44341</v>
+        <v>44172</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9564,41 +9564,41 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>50</v>
+        <v>3500</v>
       </c>
       <c r="K128" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L128" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M128" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q128" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44414</v>
+        <v>44172</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,32 +9645,32 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>105</v>
+        <v>3800</v>
       </c>
       <c r="K129" t="n">
-        <v>12500</v>
+        <v>250</v>
       </c>
       <c r="L129" t="n">
-        <v>13000</v>
+        <v>250</v>
       </c>
       <c r="M129" t="n">
-        <v>12762</v>
+        <v>250</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q129" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44414</v>
+        <v>44389</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9708,29 +9708,29 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K130" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L130" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M130" t="n">
-        <v>14238</v>
+        <v>15000</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>475</v>
+        <v>300</v>
       </c>
       <c r="Q130" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44417</v>
+        <v>44389</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,20 +9789,20 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="K131" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L131" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M131" t="n">
-        <v>13238</v>
+        <v>15528</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>265</v>
+        <v>518</v>
       </c>
       <c r="Q131" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44417</v>
+        <v>44343</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9852,12 +9852,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
@@ -9867,14 +9867,14 @@
         <v>13000</v>
       </c>
       <c r="L132" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M132" t="n">
-        <v>13273</v>
+        <v>13455</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>442</v>
+        <v>269</v>
       </c>
       <c r="Q132" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44441</v>
+        <v>44343</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="K133" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L133" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M133" t="n">
-        <v>10520</v>
+        <v>14000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9951,11 +9951,11 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="Q133" t="n">
         <v>50</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44441</v>
+        <v>44447</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -9996,41 +9996,41 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="K134" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L134" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="M134" t="n">
-        <v>12234</v>
+        <v>10559</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>408</v>
+        <v>211</v>
       </c>
       <c r="Q134" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44432</v>
+        <v>44447</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10068,16 +10068,16 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="K135" t="n">
         <v>12000</v>
@@ -10086,11 +10086,11 @@
         <v>12500</v>
       </c>
       <c r="M135" t="n">
-        <v>12238</v>
+        <v>12260</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>245</v>
+        <v>409</v>
       </c>
       <c r="Q135" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44432</v>
+        <v>44270</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K136" t="n">
         <v>12000</v>
       </c>
       <c r="L136" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="M136" t="n">
-        <v>12250</v>
+        <v>12000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="Q136" t="n">
         <v>30</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44351</v>
+        <v>44390</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10212,29 +10212,29 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="K137" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L137" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M137" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>474</v>
+        <v>300</v>
       </c>
       <c r="Q137" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>615</v>
+        <v>55</v>
       </c>
       <c r="K138" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L138" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M138" t="n">
-        <v>13951</v>
+        <v>15000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Q138" t="n">
         <v>50</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44369</v>
+        <v>44386</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="K139" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L139" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M139" t="n">
-        <v>14462</v>
+        <v>16529</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="Q139" t="n">
         <v>30</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44342</v>
+        <v>44168</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10428,41 +10428,41 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>50</v>
+        <v>3800</v>
       </c>
       <c r="K140" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L140" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M140" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q140" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44379</v>
+        <v>44168</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,32 +10509,32 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>80</v>
+        <v>7000</v>
       </c>
       <c r="K141" t="n">
-        <v>15000</v>
+        <v>230</v>
       </c>
       <c r="L141" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M141" t="n">
-        <v>15000</v>
+        <v>240</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="Q141" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44379</v>
+        <v>44369</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10572,29 +10572,29 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>130</v>
+        <v>615</v>
       </c>
       <c r="K142" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="L142" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="M142" t="n">
-        <v>16231</v>
+        <v>13951</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>541</v>
+        <v>279</v>
       </c>
       <c r="Q142" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44391</v>
+        <v>44369</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10644,29 +10644,29 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K143" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L143" t="n">
         <v>15000</v>
       </c>
       <c r="M143" t="n">
-        <v>15000</v>
+        <v>14462</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>300</v>
+        <v>482</v>
       </c>
       <c r="Q143" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44391</v>
+        <v>44433</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10716,25 +10716,25 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K144" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L144" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M144" t="n">
-        <v>16545</v>
+        <v>12762</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>331</v>
+        <v>255</v>
       </c>
       <c r="Q144" t="n">
         <v>50</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44446</v>
+        <v>44433</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10788,29 +10788,29 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K145" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L145" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="M145" t="n">
-        <v>11000</v>
+        <v>13250</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>220</v>
+        <v>442</v>
       </c>
       <c r="Q145" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44446</v>
+        <v>44371</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10860,29 +10860,29 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K146" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L146" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M146" t="n">
-        <v>12227</v>
+        <v>13474</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>408</v>
+        <v>269</v>
       </c>
       <c r="Q146" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44411</v>
+        <v>44371</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10932,29 +10932,29 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J147" t="n">
         <v>110</v>
       </c>
       <c r="K147" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L147" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M147" t="n">
-        <v>12727</v>
+        <v>14455</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>255</v>
+        <v>482</v>
       </c>
       <c r="Q147" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44411</v>
+        <v>44397</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11004,29 +11004,29 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K148" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L148" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M148" t="n">
-        <v>13500</v>
+        <v>15476</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>450</v>
+        <v>310</v>
       </c>
       <c r="Q148" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44411</v>
+        <v>44397</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K149" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L149" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M149" t="n">
-        <v>13000</v>
+        <v>15478</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>433</v>
+        <v>516</v>
       </c>
       <c r="Q149" t="n">
         <v>30</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44329</v>
+        <v>44363</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11148,41 +11148,41 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K150" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="L150" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M150" t="n">
-        <v>14778</v>
+        <v>13750</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>493</v>
+        <v>275</v>
       </c>
       <c r="Q150" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44449</v>
+        <v>44363</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11220,29 +11220,29 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="K151" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L151" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M151" t="n">
-        <v>10444</v>
+        <v>14500</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>209</v>
+        <v>483</v>
       </c>
       <c r="Q151" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44449</v>
+        <v>44438</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11292,29 +11292,29 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K152" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L152" t="n">
         <v>11500</v>
       </c>
-      <c r="L152" t="n">
-        <v>12000</v>
-      </c>
       <c r="M152" t="n">
-        <v>11760</v>
+        <v>11286</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>392</v>
+        <v>226</v>
       </c>
       <c r="Q152" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44161</v>
+        <v>44438</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11373,32 +11373,32 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>3800</v>
+        <v>130</v>
       </c>
       <c r="K153" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="L153" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="M153" t="n">
-        <v>300</v>
+        <v>12231</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>300</v>
+        <v>408</v>
       </c>
       <c r="Q153" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44161</v>
+        <v>44372</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -11445,32 +11445,32 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>4200</v>
+        <v>115</v>
       </c>
       <c r="K154" t="n">
-        <v>200</v>
+        <v>13000</v>
       </c>
       <c r="L154" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="M154" t="n">
-        <v>200</v>
+        <v>13522</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="Q154" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44438</v>
+        <v>44372</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11508,29 +11508,29 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K155" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L155" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="M155" t="n">
-        <v>11286</v>
+        <v>14261</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11539,10 +11539,10 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="Q155" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44438</v>
+        <v>44356</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11580,29 +11580,29 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K156" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L156" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M156" t="n">
-        <v>12231</v>
+        <v>14474</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>408</v>
+        <v>289</v>
       </c>
       <c r="Q156" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44428</v>
+        <v>44356</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11652,29 +11652,29 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K157" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L157" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M157" t="n">
-        <v>12738</v>
+        <v>14526</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>255</v>
+        <v>484</v>
       </c>
       <c r="Q157" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44428</v>
+        <v>44160</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11733,32 +11733,32 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>125</v>
+        <v>3200</v>
       </c>
       <c r="K158" t="n">
-        <v>12500</v>
+        <v>300</v>
       </c>
       <c r="L158" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M158" t="n">
-        <v>12740</v>
+        <v>300</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>425</v>
+        <v>300</v>
       </c>
       <c r="Q158" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44442</v>
+        <v>44160</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11805,32 +11805,32 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>145</v>
+        <v>3000</v>
       </c>
       <c r="K159" t="n">
-        <v>10500</v>
+        <v>250</v>
       </c>
       <c r="L159" t="n">
-        <v>11000</v>
+        <v>250</v>
       </c>
       <c r="M159" t="n">
-        <v>10741</v>
+        <v>250</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="Q159" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44442</v>
+        <v>44160</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11873,36 +11873,36 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>130</v>
+        <v>2800</v>
       </c>
       <c r="K160" t="n">
-        <v>12500</v>
+        <v>180</v>
       </c>
       <c r="L160" t="n">
-        <v>13000</v>
+        <v>180</v>
       </c>
       <c r="M160" t="n">
-        <v>12731</v>
+        <v>180</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="Q160" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44435</v>
+        <v>44351</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11940,29 +11940,29 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>555</v>
+        <v>110</v>
       </c>
       <c r="K161" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L161" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M161" t="n">
-        <v>12788</v>
+        <v>14227</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -11971,10 +11971,10 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>256</v>
+        <v>474</v>
       </c>
       <c r="Q161" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44435</v>
+        <v>44365</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12012,29 +12012,29 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>610</v>
+        <v>100</v>
       </c>
       <c r="K162" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L162" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M162" t="n">
-        <v>12906</v>
+        <v>14550</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>430</v>
+        <v>291</v>
       </c>
       <c r="Q162" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44376</v>
+        <v>44365</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12084,29 +12084,29 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="K163" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L163" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M163" t="n">
-        <v>15000</v>
+        <v>13481</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>300</v>
+        <v>449</v>
       </c>
       <c r="Q163" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44376</v>
+        <v>44357</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K164" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L164" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="M164" t="n">
-        <v>16238</v>
+        <v>14478</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>541</v>
+        <v>483</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44412</v>
+        <v>44162</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,32 +12237,32 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>60</v>
+        <v>3800</v>
       </c>
       <c r="K165" t="n">
-        <v>13000</v>
+        <v>250</v>
       </c>
       <c r="L165" t="n">
-        <v>13000</v>
+        <v>250</v>
       </c>
       <c r="M165" t="n">
-        <v>13000</v>
+        <v>250</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q165" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12300,16 +12300,16 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="K166" t="n">
         <v>13000</v>
@@ -12318,11 +12318,11 @@
         <v>13500</v>
       </c>
       <c r="M166" t="n">
-        <v>13231</v>
+        <v>13240</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -12331,10 +12331,10 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>441</v>
+        <v>265</v>
       </c>
       <c r="Q166" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44448</v>
+        <v>44410</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12372,29 +12372,29 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K167" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="L167" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M167" t="n">
-        <v>10733</v>
+        <v>13750</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>215</v>
+        <v>458</v>
       </c>
       <c r="Q167" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44448</v>
+        <v>44411</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12444,29 +12444,29 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="K168" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L168" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M168" t="n">
-        <v>11765</v>
+        <v>12727</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>392</v>
+        <v>255</v>
       </c>
       <c r="Q168" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44167</v>
+        <v>44411</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12525,32 +12525,32 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>2800</v>
+        <v>60</v>
       </c>
       <c r="K169" t="n">
-        <v>300</v>
+        <v>13500</v>
       </c>
       <c r="L169" t="n">
-        <v>300</v>
+        <v>13500</v>
       </c>
       <c r="M169" t="n">
-        <v>300</v>
+        <v>13500</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q169" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44399</v>
+        <v>44411</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K170" t="n">
         <v>13000</v>
       </c>
       <c r="L170" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M170" t="n">
-        <v>13545</v>
+        <v>13000</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="Q170" t="n">
         <v>30</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44399</v>
+        <v>44376</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K171" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L171" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M171" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q171" t="n">
         <v>50</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44399</v>
+        <v>44376</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K172" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L172" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="M172" t="n">
-        <v>14455</v>
+        <v>16238</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="Q172" t="n">
         <v>30</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K173" t="n">
         <v>14000</v>
       </c>
       <c r="L173" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M173" t="n">
-        <v>14000</v>
+        <v>14227</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q173" t="n">
         <v>50</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44400</v>
+        <v>44358</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K174" t="n">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="L174" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M174" t="n">
-        <v>14750</v>
+        <v>14000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,12 +12907,156 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="Q174" t="n">
         <v>30</v>
       </c>
       <c r="R174" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>3</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>110</v>
+      </c>
+      <c r="K175" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L175" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M175" t="n">
+        <v>12773</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>50</v>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>3</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>125</v>
+      </c>
+      <c r="K176" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L176" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M176" t="n">
+        <v>12240</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>408</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>30</v>
+      </c>
+      <c r="R176" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R176"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8988,29 +8988,29 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K120" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L120" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="M120" t="n">
-        <v>13250</v>
+        <v>11739</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="Q120" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9060,29 +9060,29 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K121" t="n">
         <v>13000</v>
       </c>
       <c r="L121" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M121" t="n">
-        <v>13455</v>
+        <v>13250</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>448</v>
+        <v>265</v>
       </c>
       <c r="Q121" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9132,29 +9132,29 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K122" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L122" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M122" t="n">
-        <v>12762</v>
+        <v>13455</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>255</v>
+        <v>448</v>
       </c>
       <c r="Q122" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9204,29 +9204,29 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J123" t="n">
         <v>105</v>
       </c>
       <c r="K123" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L123" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="M123" t="n">
-        <v>14238</v>
+        <v>12762</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>475</v>
+        <v>255</v>
       </c>
       <c r="Q123" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9285,32 +9285,32 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>2000</v>
+        <v>105</v>
       </c>
       <c r="K124" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L124" t="n">
-        <v>300</v>
+        <v>14500</v>
       </c>
       <c r="M124" t="n">
-        <v>300</v>
+        <v>14238</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>300</v>
+        <v>475</v>
       </c>
       <c r="Q124" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="K125" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="L125" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="M125" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,32 +9429,32 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>115</v>
+        <v>1800</v>
       </c>
       <c r="K126" t="n">
-        <v>12500</v>
+        <v>220</v>
       </c>
       <c r="L126" t="n">
-        <v>13000</v>
+        <v>220</v>
       </c>
       <c r="M126" t="n">
-        <v>12739</v>
+        <v>220</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="Q126" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9492,16 +9492,16 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K127" t="n">
         <v>12500</v>
@@ -9510,11 +9510,11 @@
         <v>13000</v>
       </c>
       <c r="M127" t="n">
-        <v>12760</v>
+        <v>12739</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>425</v>
+        <v>255</v>
       </c>
       <c r="Q127" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9573,32 +9573,32 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>3500</v>
+        <v>125</v>
       </c>
       <c r="K128" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L128" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M128" t="n">
-        <v>300</v>
+        <v>12760</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="Q128" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K129" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L129" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M129" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,32 +9717,32 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>90</v>
+        <v>3800</v>
       </c>
       <c r="K130" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="L130" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M130" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q130" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9789,20 +9789,20 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="K131" t="n">
         <v>15000</v>
       </c>
       <c r="L131" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M131" t="n">
-        <v>15528</v>
+        <v>15000</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -9811,10 +9811,10 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>518</v>
+        <v>300</v>
       </c>
       <c r="Q131" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,20 +9861,20 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K132" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L132" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M132" t="n">
-        <v>13455</v>
+        <v>15528</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>269</v>
+        <v>518</v>
       </c>
       <c r="Q132" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K133" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L133" t="n">
         <v>14000</v>
       </c>
       <c r="M133" t="n">
-        <v>14000</v>
+        <v>13455</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="Q133" t="n">
         <v>50</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -10005,16 +10005,16 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K134" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L134" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M134" t="n">
-        <v>10559</v>
+        <v>14000</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>211</v>
+        <v>280</v>
       </c>
       <c r="Q134" t="n">
         <v>50</v>
@@ -10068,29 +10068,29 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K135" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L135" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="M135" t="n">
-        <v>12260</v>
+        <v>10559</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>409</v>
+        <v>211</v>
       </c>
       <c r="Q135" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="K136" t="n">
         <v>12000</v>
       </c>
       <c r="L136" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="M136" t="n">
-        <v>12000</v>
+        <v>12260</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Q136" t="n">
         <v>30</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44390</v>
+        <v>44270</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10212,29 +10212,29 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K137" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L137" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M137" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q137" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10293,7 +10293,7 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K138" t="n">
         <v>15000</v>
@@ -10356,29 +10356,29 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="K139" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L139" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M139" t="n">
-        <v>16529</v>
+        <v>15000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>551</v>
+        <v>300</v>
       </c>
       <c r="Q139" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44168</v>
+        <v>44386</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10437,32 +10437,32 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>3800</v>
+        <v>85</v>
       </c>
       <c r="K140" t="n">
-        <v>300</v>
+        <v>16000</v>
       </c>
       <c r="L140" t="n">
-        <v>300</v>
+        <v>17000</v>
       </c>
       <c r="M140" t="n">
-        <v>300</v>
+        <v>16529</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>300</v>
+        <v>551</v>
       </c>
       <c r="Q140" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="K141" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="L141" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M141" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10581,32 +10581,32 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>615</v>
+        <v>7000</v>
       </c>
       <c r="K142" t="n">
-        <v>13500</v>
+        <v>230</v>
       </c>
       <c r="L142" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M142" t="n">
-        <v>13951</v>
+        <v>240</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="Q142" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10644,29 +10644,29 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>130</v>
+        <v>615</v>
       </c>
       <c r="K143" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L143" t="n">
         <v>14000</v>
       </c>
-      <c r="L143" t="n">
-        <v>15000</v>
-      </c>
       <c r="M143" t="n">
-        <v>14462</v>
+        <v>13951</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>482</v>
+        <v>279</v>
       </c>
       <c r="Q143" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10716,29 +10716,29 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K144" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L144" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M144" t="n">
-        <v>12762</v>
+        <v>14462</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>255</v>
+        <v>482</v>
       </c>
       <c r="Q144" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10788,29 +10788,29 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K145" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L145" t="n">
         <v>13000</v>
       </c>
-      <c r="L145" t="n">
-        <v>13500</v>
-      </c>
       <c r="M145" t="n">
-        <v>13250</v>
+        <v>12762</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>442</v>
+        <v>255</v>
       </c>
       <c r="Q145" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10860,29 +10860,29 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="K146" t="n">
         <v>13000</v>
       </c>
       <c r="L146" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M146" t="n">
-        <v>13474</v>
+        <v>13250</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>269</v>
+        <v>442</v>
       </c>
       <c r="Q146" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10932,29 +10932,29 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K147" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L147" t="n">
         <v>14000</v>
       </c>
-      <c r="L147" t="n">
-        <v>15000</v>
-      </c>
       <c r="M147" t="n">
-        <v>14455</v>
+        <v>13474</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>482</v>
+        <v>269</v>
       </c>
       <c r="Q147" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11004,29 +11004,29 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K148" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L148" t="n">
         <v>15000</v>
       </c>
-      <c r="L148" t="n">
-        <v>16000</v>
-      </c>
       <c r="M148" t="n">
-        <v>15476</v>
+        <v>14455</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>310</v>
+        <v>482</v>
       </c>
       <c r="Q148" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,7 +11085,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K149" t="n">
         <v>15000</v>
@@ -11094,11 +11094,11 @@
         <v>16000</v>
       </c>
       <c r="M149" t="n">
-        <v>15478</v>
+        <v>15476</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>516</v>
+        <v>310</v>
       </c>
       <c r="Q149" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,20 +11157,20 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K150" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L150" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M150" t="n">
-        <v>13750</v>
+        <v>15478</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>275</v>
+        <v>516</v>
       </c>
       <c r="Q150" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11220,29 +11220,29 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
         <v>120</v>
       </c>
       <c r="K151" t="n">
+        <v>13500</v>
+      </c>
+      <c r="L151" t="n">
         <v>14000</v>
       </c>
-      <c r="L151" t="n">
-        <v>15000</v>
-      </c>
       <c r="M151" t="n">
-        <v>14500</v>
+        <v>13750</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>483</v>
+        <v>275</v>
       </c>
       <c r="Q151" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11292,29 +11292,29 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K152" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L152" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="M152" t="n">
-        <v>11286</v>
+        <v>14500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>226</v>
+        <v>483</v>
       </c>
       <c r="Q152" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11364,29 +11364,29 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K153" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L153" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="M153" t="n">
-        <v>12231</v>
+        <v>11286</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11395,10 +11395,10 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>408</v>
+        <v>226</v>
       </c>
       <c r="Q153" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11436,41 +11436,41 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K154" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L154" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M154" t="n">
-        <v>13522</v>
+        <v>12231</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>270</v>
+        <v>408</v>
       </c>
       <c r="Q154" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11508,41 +11508,41 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
         <v>115</v>
       </c>
       <c r="K155" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L155" t="n">
         <v>14000</v>
       </c>
-      <c r="L155" t="n">
-        <v>14500</v>
-      </c>
       <c r="M155" t="n">
-        <v>14261</v>
+        <v>13522</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>475</v>
+        <v>270</v>
       </c>
       <c r="Q155" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11580,29 +11580,29 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K156" t="n">
         <v>14000</v>
       </c>
       <c r="L156" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M156" t="n">
-        <v>14474</v>
+        <v>14261</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11611,10 +11611,10 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>289</v>
+        <v>475</v>
       </c>
       <c r="Q156" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11652,12 +11652,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J157" t="n">
@@ -11670,11 +11670,11 @@
         <v>15000</v>
       </c>
       <c r="M157" t="n">
-        <v>14526</v>
+        <v>14474</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11683,10 +11683,10 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>484</v>
+        <v>289</v>
       </c>
       <c r="Q157" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11733,32 +11733,32 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>3200</v>
+        <v>95</v>
       </c>
       <c r="K158" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L158" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M158" t="n">
-        <v>300</v>
+        <v>14526</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>300</v>
+        <v>484</v>
       </c>
       <c r="Q158" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="K159" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L159" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M159" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K160" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="L160" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M160" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11945,36 +11945,36 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>110</v>
+        <v>2800</v>
       </c>
       <c r="K161" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L161" t="n">
-        <v>14500</v>
+        <v>180</v>
       </c>
       <c r="M161" t="n">
-        <v>14227</v>
+        <v>180</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>474</v>
+        <v>180</v>
       </c>
       <c r="Q161" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12012,29 +12012,29 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K162" t="n">
         <v>14000</v>
       </c>
       <c r="L162" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M162" t="n">
-        <v>14550</v>
+        <v>14227</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12043,10 +12043,10 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>291</v>
+        <v>474</v>
       </c>
       <c r="Q162" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12084,29 +12084,29 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="K163" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L163" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M163" t="n">
-        <v>13481</v>
+        <v>14550</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -12115,10 +12115,10 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>449</v>
+        <v>291</v>
       </c>
       <c r="Q163" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="K164" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L164" t="n">
         <v>14000</v>
       </c>
-      <c r="L164" t="n">
-        <v>15000</v>
-      </c>
       <c r="M164" t="n">
-        <v>14478</v>
+        <v>13481</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12233,36 +12233,36 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>3800</v>
+        <v>115</v>
       </c>
       <c r="K165" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L165" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M165" t="n">
-        <v>250</v>
+        <v>14478</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>250</v>
+        <v>483</v>
       </c>
       <c r="Q165" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12309,32 +12309,32 @@
         </is>
       </c>
       <c r="J166" t="n">
+        <v>3800</v>
+      </c>
+      <c r="K166" t="n">
         <v>250</v>
       </c>
-      <c r="K166" t="n">
-        <v>13000</v>
-      </c>
       <c r="L166" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="M166" t="n">
-        <v>13240</v>
+        <v>250</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="Q166" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12372,29 +12372,29 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K167" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L167" t="n">
         <v>13500</v>
       </c>
-      <c r="L167" t="n">
-        <v>14000</v>
-      </c>
       <c r="M167" t="n">
-        <v>13750</v>
+        <v>13240</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>458</v>
+        <v>265</v>
       </c>
       <c r="Q167" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12444,29 +12444,29 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K168" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L168" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M168" t="n">
-        <v>12727</v>
+        <v>13750</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -12475,10 +12475,10 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>255</v>
+        <v>458</v>
       </c>
       <c r="Q168" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12516,29 +12516,29 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K169" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="L169" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="M169" t="n">
-        <v>13500</v>
+        <v>12727</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>450</v>
+        <v>255</v>
       </c>
       <c r="Q169" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J170" t="n">
         <v>60</v>
       </c>
       <c r="K170" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="L170" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M170" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="Q170" t="n">
         <v>30</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12672,17 +12672,17 @@
         <v>60</v>
       </c>
       <c r="K171" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L171" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M171" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>300</v>
+        <v>433</v>
       </c>
       <c r="Q171" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12732,29 +12732,29 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K172" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L172" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="M172" t="n">
-        <v>16238</v>
+        <v>15000</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12763,10 +12763,10 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>541</v>
+        <v>300</v>
       </c>
       <c r="Q172" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12804,29 +12804,29 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K173" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L173" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="M173" t="n">
-        <v>14227</v>
+        <v>16238</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>285</v>
+        <v>541</v>
       </c>
       <c r="Q173" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12876,29 +12876,29 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K174" t="n">
         <v>14000</v>
       </c>
       <c r="L174" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M174" t="n">
-        <v>14000</v>
+        <v>14227</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>467</v>
+        <v>285</v>
       </c>
       <c r="Q174" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12948,29 +12948,29 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K175" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L175" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M175" t="n">
-        <v>12773</v>
+        <v>14000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>255</v>
+        <v>467</v>
       </c>
       <c r="Q175" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13020,43 +13020,115 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>110</v>
+      </c>
+      <c r="K176" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L176" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M176" t="n">
+        <v>12773</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>50</v>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>3</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
           <t>Española</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
+      <c r="I177" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="J176" t="n">
+      <c r="J177" t="n">
         <v>125</v>
       </c>
-      <c r="K176" t="n">
+      <c r="K177" t="n">
         <v>12000</v>
       </c>
-      <c r="L176" t="n">
+      <c r="L177" t="n">
         <v>12500</v>
       </c>
-      <c r="M176" t="n">
+      <c r="M177" t="n">
         <v>12240</v>
       </c>
-      <c r="N176" t="inlineStr">
+      <c r="N177" t="inlineStr">
         <is>
           <t>$/caja 30 unidades</t>
         </is>
       </c>
-      <c r="O176" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P176" t="n">
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
         <v>408</v>
       </c>
-      <c r="Q176" t="n">
+      <c r="Q177" t="n">
         <v>30</v>
       </c>
-      <c r="R176" t="inlineStr">
+      <c r="R177" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44348</v>
+        <v>44459</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3588,29 +3588,29 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="K45" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L45" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M45" t="n">
-        <v>14000</v>
+        <v>10238</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>467</v>
+        <v>205</v>
       </c>
       <c r="Q45" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44435</v>
+        <v>44459</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3669,20 +3669,20 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>555</v>
+        <v>115</v>
       </c>
       <c r="K46" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L46" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="M46" t="n">
-        <v>12788</v>
+        <v>11261</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="Q46" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44435</v>
+        <v>44348</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3741,16 +3741,16 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>610</v>
+        <v>55</v>
       </c>
       <c r="K47" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L47" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M47" t="n">
-        <v>12906</v>
+        <v>14000</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="Q47" t="n">
         <v>30</v>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44195</v>
+        <v>44435</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3804,29 +3804,29 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>85</v>
+        <v>555</v>
       </c>
       <c r="K48" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L48" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M48" t="n">
-        <v>11471</v>
+        <v>12788</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>382</v>
+        <v>256</v>
       </c>
       <c r="Q48" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44169</v>
+        <v>44435</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,32 +3885,32 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>3800</v>
+        <v>610</v>
       </c>
       <c r="K49" t="n">
-        <v>350</v>
+        <v>12000</v>
       </c>
       <c r="L49" t="n">
-        <v>350</v>
+        <v>13500</v>
       </c>
       <c r="M49" t="n">
-        <v>350</v>
+        <v>12906</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44169</v>
+        <v>44195</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3953,36 +3953,36 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>3500</v>
+        <v>85</v>
       </c>
       <c r="K50" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="L50" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M50" t="n">
-        <v>250</v>
+        <v>11471</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44445</v>
+        <v>44169</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4020,41 +4020,41 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>140</v>
+        <v>3800</v>
       </c>
       <c r="K51" t="n">
-        <v>11500</v>
+        <v>350</v>
       </c>
       <c r="L51" t="n">
-        <v>12000</v>
+        <v>350</v>
       </c>
       <c r="M51" t="n">
-        <v>11714</v>
+        <v>350</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="Q51" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44445</v>
+        <v>44169</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4097,36 +4097,36 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>145</v>
+        <v>3500</v>
       </c>
       <c r="K52" t="n">
-        <v>12500</v>
+        <v>250</v>
       </c>
       <c r="L52" t="n">
-        <v>13000</v>
+        <v>250</v>
       </c>
       <c r="M52" t="n">
-        <v>12759</v>
+        <v>250</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="Q52" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44449</v>
+        <v>44445</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4173,16 +4173,16 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K53" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L53" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M53" t="n">
-        <v>10444</v>
+        <v>11714</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="Q53" t="n">
         <v>50</v>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44449</v>
+        <v>44445</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4245,16 +4245,16 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="K54" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L54" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M54" t="n">
-        <v>11760</v>
+        <v>12759</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="Q54" t="n">
         <v>30</v>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44333</v>
+        <v>44449</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
@@ -4308,29 +4308,29 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K55" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L55" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M55" t="n">
-        <v>15000</v>
+        <v>10444</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>500</v>
+        <v>209</v>
       </c>
       <c r="Q55" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44355</v>
+        <v>44449</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
@@ -4380,29 +4380,29 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K56" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L56" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M56" t="n">
-        <v>14000</v>
+        <v>11760</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="Q56" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44355</v>
+        <v>44333</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K57" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L57" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M57" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -4483,7 +4483,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q57" t="n">
         <v>30</v>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44446</v>
+        <v>44355</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K58" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L58" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M58" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="Q58" t="n">
         <v>50</v>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44446</v>
+        <v>44355</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K59" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L59" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M59" t="n">
-        <v>12227</v>
+        <v>14000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="Q59" t="n">
         <v>30</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44406</v>
+        <v>44446</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L60" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M60" t="n">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="Q60" t="n">
         <v>50</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44406</v>
+        <v>44446</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -4740,29 +4740,29 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K61" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L61" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M61" t="n">
-        <v>10000</v>
+        <v>12227</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>143</v>
+        <v>408</v>
       </c>
       <c r="Q61" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -4812,16 +4812,16 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K62" t="n">
         <v>13000</v>
@@ -4830,11 +4830,11 @@
         <v>13500</v>
       </c>
       <c r="M62" t="n">
-        <v>13250</v>
+        <v>13200</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>442</v>
+        <v>264</v>
       </c>
       <c r="Q62" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -4889,24 +4889,24 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K63" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L63" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M63" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>300</v>
+        <v>143</v>
       </c>
       <c r="Q63" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -4965,16 +4965,16 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K64" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L64" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="M64" t="n">
-        <v>17538</v>
+        <v>13250</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>585</v>
+        <v>442</v>
       </c>
       <c r="Q64" t="n">
         <v>30</v>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -5037,16 +5037,16 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K65" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L65" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M65" t="n">
-        <v>12808</v>
+        <v>15000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="Q65" t="n">
         <v>50</v>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -5100,29 +5100,29 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K66" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L66" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M66" t="n">
-        <v>15000</v>
+        <v>17538</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5131,10 +5131,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>300</v>
+        <v>585</v>
       </c>
       <c r="Q66" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5172,25 +5172,25 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K67" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L67" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M67" t="n">
-        <v>16545</v>
+        <v>12808</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="Q67" t="n">
         <v>50</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K68" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L68" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M68" t="n">
-        <v>13238</v>
+        <v>15000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Q68" t="n">
         <v>50</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5328,17 +5328,17 @@
         <v>110</v>
       </c>
       <c r="K69" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L69" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="M69" t="n">
-        <v>13273</v>
+        <v>16545</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>442</v>
+        <v>331</v>
       </c>
       <c r="Q69" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K70" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L70" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M70" t="n">
-        <v>15000</v>
+        <v>13238</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q70" t="n">
         <v>50</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="K71" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L71" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M71" t="n">
-        <v>15000</v>
+        <v>13273</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="Q71" t="n">
         <v>30</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44334</v>
+        <v>44340</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -5537,24 +5537,24 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J72" t="n">
         <v>50</v>
       </c>
       <c r="K72" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L72" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M72" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="Q72" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R72" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44419</v>
+        <v>44340</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5604,29 +5604,29 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K73" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L73" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M73" t="n">
-        <v>13773</v>
+        <v>15000</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="Q73" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K74" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L74" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M74" t="n">
-        <v>13273</v>
+        <v>14000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="Q74" t="n">
         <v>30</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44342</v>
+        <v>44419</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K75" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="L75" t="n">
         <v>14000</v>
       </c>
       <c r="M75" t="n">
-        <v>14000</v>
+        <v>13773</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q75" t="n">
         <v>50</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -5820,29 +5820,29 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K76" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L76" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M76" t="n">
-        <v>12731</v>
+        <v>13273</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="Q76" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -5892,29 +5892,29 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K77" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L77" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M77" t="n">
-        <v>13239</v>
+        <v>14000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="Q77" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -5964,29 +5964,29 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K78" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L78" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M78" t="n">
-        <v>15000</v>
+        <v>12731</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="Q78" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6036,25 +6036,25 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K79" t="n">
         <v>13000</v>
       </c>
       <c r="L79" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M79" t="n">
-        <v>13545</v>
+        <v>13239</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="Q79" t="n">
         <v>30</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44399</v>
+        <v>44327</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6108,29 +6108,29 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J80" t="n">
         <v>80</v>
       </c>
       <c r="K80" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L80" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M80" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q80" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6180,25 +6180,25 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
         <v>110</v>
       </c>
       <c r="K81" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L81" t="n">
         <v>14000</v>
       </c>
-      <c r="L81" t="n">
-        <v>15000</v>
-      </c>
       <c r="M81" t="n">
-        <v>14455</v>
+        <v>13545</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="Q81" t="n">
         <v>30</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K82" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L82" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M82" t="n">
-        <v>11250</v>
+        <v>10000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q82" t="n">
         <v>50</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6333,16 +6333,16 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K83" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L83" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M83" t="n">
-        <v>11746</v>
+        <v>14455</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>392</v>
+        <v>482</v>
       </c>
       <c r="Q83" t="n">
         <v>30</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K84" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L84" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="M84" t="n">
-        <v>15000</v>
+        <v>11250</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="Q84" t="n">
         <v>50</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K85" t="n">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="L85" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M85" t="n">
-        <v>17478</v>
+        <v>11746</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>583</v>
+        <v>392</v>
       </c>
       <c r="Q85" t="n">
         <v>30</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K86" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L86" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M86" t="n">
-        <v>10520</v>
+        <v>15000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6567,11 +6567,11 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="Q86" t="n">
         <v>50</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K87" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L87" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="M87" t="n">
-        <v>12234</v>
+        <v>17478</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>408</v>
+        <v>583</v>
       </c>
       <c r="Q87" t="n">
         <v>30</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K88" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L88" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M88" t="n">
-        <v>13000</v>
+        <v>10520</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="Q88" t="n">
         <v>50</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="K89" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L89" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M89" t="n">
-        <v>13762</v>
+        <v>12234</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="Q89" t="n">
         <v>30</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6828,41 +6828,41 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>3800</v>
+        <v>50</v>
       </c>
       <c r="K90" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L90" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M90" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6905,36 +6905,36 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>4200</v>
+        <v>105</v>
       </c>
       <c r="K91" t="n">
-        <v>200</v>
+        <v>13500</v>
       </c>
       <c r="L91" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="M91" t="n">
-        <v>200</v>
+        <v>13762</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>200</v>
+        <v>459</v>
       </c>
       <c r="Q91" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6972,41 +6972,41 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>105</v>
+        <v>3800</v>
       </c>
       <c r="K92" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L92" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="M92" t="n">
-        <v>13262</v>
+        <v>300</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Q92" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7049,36 +7049,36 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>60</v>
+        <v>4200</v>
       </c>
       <c r="K93" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="L93" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="M93" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="Q93" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K94" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L94" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M94" t="n">
-        <v>15000</v>
+        <v>13262</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q94" t="n">
         <v>50</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="K95" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="L95" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M95" t="n">
-        <v>14474</v>
+        <v>13500</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="Q95" t="n">
         <v>30</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7272,13 +7272,13 @@
         <v>50</v>
       </c>
       <c r="K96" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L96" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M96" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q96" t="n">
         <v>50</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7332,29 +7332,29 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="K97" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L97" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M97" t="n">
-        <v>12739</v>
+        <v>14474</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7363,10 +7363,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>255</v>
+        <v>482</v>
       </c>
       <c r="Q97" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7404,29 +7404,29 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K98" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L98" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M98" t="n">
-        <v>12761</v>
+        <v>14000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7435,10 +7435,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>425</v>
+        <v>280</v>
       </c>
       <c r="Q98" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K99" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L99" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M99" t="n">
-        <v>14000</v>
+        <v>12739</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q99" t="n">
         <v>50</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K100" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L100" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M100" t="n">
-        <v>14750</v>
+        <v>12761</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="Q100" t="n">
         <v>30</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7632,13 +7632,13 @@
         <v>60</v>
       </c>
       <c r="K101" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L101" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M101" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q101" t="n">
         <v>50</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K102" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L102" t="n">
         <v>15000</v>
       </c>
-      <c r="L102" t="n">
-        <v>16000</v>
-      </c>
       <c r="M102" t="n">
-        <v>15524</v>
+        <v>14750</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="Q102" t="n">
         <v>30</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="K103" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="L103" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M103" t="n">
-        <v>10741</v>
+        <v>15000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q103" t="n">
         <v>50</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K104" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L104" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M104" t="n">
-        <v>12731</v>
+        <v>15524</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>424</v>
+        <v>517</v>
       </c>
       <c r="Q104" t="n">
         <v>30</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="K105" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L105" t="n">
         <v>11000</v>
       </c>
-      <c r="L105" t="n">
-        <v>11500</v>
-      </c>
       <c r="M105" t="n">
-        <v>11235</v>
+        <v>10741</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Q105" t="n">
         <v>50</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7992,13 +7992,13 @@
         <v>130</v>
       </c>
       <c r="K106" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L106" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M106" t="n">
-        <v>11769</v>
+        <v>12731</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="Q106" t="n">
         <v>30</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K107" t="n">
         <v>11000</v>
       </c>
       <c r="L107" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M107" t="n">
-        <v>11000</v>
+        <v>11235</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q107" t="n">
         <v>50</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44448</v>
+        <v>44453</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8124,29 +8124,29 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K108" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L108" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M108" t="n">
-        <v>10733</v>
+        <v>11769</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="Q108" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8196,29 +8196,29 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="K109" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L109" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M109" t="n">
-        <v>11765</v>
+        <v>11000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="Q109" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R109" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K110" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L110" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M110" t="n">
-        <v>13231</v>
+        <v>10733</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="Q110" t="n">
         <v>50</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="K111" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L111" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="M111" t="n">
-        <v>13222</v>
+        <v>11765</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="Q111" t="n">
         <v>30</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K112" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L112" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M112" t="n">
-        <v>15000</v>
+        <v>13231</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q112" t="n">
         <v>50</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K113" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L113" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M113" t="n">
-        <v>14455</v>
+        <v>13222</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="Q113" t="n">
         <v>30</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44167</v>
+        <v>44370</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8556,41 +8556,41 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>2800</v>
+        <v>80</v>
       </c>
       <c r="K114" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L114" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M114" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P114" t="n">
         <v>300</v>
       </c>
       <c r="Q114" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44210</v>
+        <v>44370</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K115" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L115" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M115" t="n">
-        <v>11000</v>
+        <v>14455</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>367</v>
+        <v>482</v>
       </c>
       <c r="Q115" t="n">
         <v>30</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44344</v>
+        <v>44167</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8700,41 +8700,41 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>60</v>
+        <v>2800</v>
       </c>
       <c r="K116" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L116" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M116" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q116" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K117" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L117" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M117" t="n">
-        <v>14444</v>
+        <v>11000</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>481</v>
+        <v>367</v>
       </c>
       <c r="Q117" t="n">
         <v>30</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K118" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L118" t="n">
         <v>14000</v>
       </c>
       <c r="M118" t="n">
-        <v>13739</v>
+        <v>14000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q118" t="n">
         <v>50</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K119" t="n">
         <v>14000</v>
       </c>
       <c r="L119" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M119" t="n">
-        <v>14261</v>
+        <v>14444</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q119" t="n">
         <v>30</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8988,29 +8988,29 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
         <v>115</v>
       </c>
       <c r="K120" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="L120" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M120" t="n">
-        <v>11739</v>
+        <v>13739</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9019,10 +9019,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>391</v>
+        <v>275</v>
       </c>
       <c r="Q120" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9060,29 +9060,29 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K121" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L121" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M121" t="n">
-        <v>13250</v>
+        <v>14261</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>265</v>
+        <v>475</v>
       </c>
       <c r="Q121" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K122" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L122" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M122" t="n">
-        <v>13455</v>
+        <v>11739</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="Q122" t="n">
         <v>30</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K123" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L123" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M123" t="n">
-        <v>12762</v>
+        <v>13250</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q123" t="n">
         <v>50</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K124" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L124" t="n">
         <v>14000</v>
       </c>
-      <c r="L124" t="n">
-        <v>14500</v>
-      </c>
       <c r="M124" t="n">
-        <v>14238</v>
+        <v>13455</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="Q124" t="n">
         <v>30</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9348,41 +9348,41 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>2000</v>
+        <v>105</v>
       </c>
       <c r="K125" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L125" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M125" t="n">
-        <v>300</v>
+        <v>12762</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q125" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9425,36 +9425,36 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1800</v>
+        <v>105</v>
       </c>
       <c r="K126" t="n">
-        <v>220</v>
+        <v>14000</v>
       </c>
       <c r="L126" t="n">
-        <v>220</v>
+        <v>14500</v>
       </c>
       <c r="M126" t="n">
-        <v>220</v>
+        <v>14238</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>220</v>
+        <v>475</v>
       </c>
       <c r="Q126" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9492,41 +9492,41 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>115</v>
+        <v>2000</v>
       </c>
       <c r="K127" t="n">
-        <v>12500</v>
+        <v>300</v>
       </c>
       <c r="L127" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M127" t="n">
-        <v>12739</v>
+        <v>300</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="Q127" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9569,36 +9569,36 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>125</v>
+        <v>1800</v>
       </c>
       <c r="K128" t="n">
-        <v>12500</v>
+        <v>220</v>
       </c>
       <c r="L128" t="n">
-        <v>13000</v>
+        <v>220</v>
       </c>
       <c r="M128" t="n">
-        <v>12760</v>
+        <v>220</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>425</v>
+        <v>220</v>
       </c>
       <c r="Q128" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9636,41 +9636,41 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>3500</v>
+        <v>115</v>
       </c>
       <c r="K129" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L129" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M129" t="n">
-        <v>300</v>
+        <v>12739</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q129" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9713,36 +9713,36 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>3800</v>
+        <v>125</v>
       </c>
       <c r="K130" t="n">
-        <v>250</v>
+        <v>12500</v>
       </c>
       <c r="L130" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="M130" t="n">
-        <v>250</v>
+        <v>12760</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="Q130" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9780,41 +9780,41 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>90</v>
+        <v>3500</v>
       </c>
       <c r="K131" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="L131" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="M131" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P131" t="n">
         <v>300</v>
       </c>
       <c r="Q131" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9861,32 +9861,32 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>127</v>
+        <v>3800</v>
       </c>
       <c r="K132" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="L132" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="M132" t="n">
-        <v>15528</v>
+        <v>250</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>518</v>
+        <v>250</v>
       </c>
       <c r="Q132" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9933,16 +9933,16 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K133" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L133" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M133" t="n">
-        <v>13455</v>
+        <v>15000</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Q133" t="n">
         <v>50</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10005,20 +10005,20 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="K134" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L134" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M134" t="n">
-        <v>14000</v>
+        <v>15528</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>280</v>
+        <v>518</v>
       </c>
       <c r="Q134" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="K135" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L135" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M135" t="n">
-        <v>10559</v>
+        <v>13455</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="Q135" t="n">
         <v>50</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10145,24 +10145,24 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K136" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L136" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M136" t="n">
-        <v>12260</v>
+        <v>14000</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>409</v>
+        <v>280</v>
       </c>
       <c r="Q136" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10212,29 +10212,29 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K137" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L137" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M137" t="n">
-        <v>12000</v>
+        <v>10559</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10243,10 +10243,10 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="Q137" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10284,29 +10284,29 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K138" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L138" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M138" t="n">
-        <v>15000</v>
+        <v>12260</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="Q138" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44386</v>
+        <v>44270</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10356,29 +10356,29 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K139" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L139" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M139" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q139" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10428,29 +10428,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K140" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L140" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M140" t="n">
-        <v>16529</v>
+        <v>15000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>551</v>
+        <v>300</v>
       </c>
       <c r="Q140" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44168</v>
+        <v>44386</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10500,41 +10500,41 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>3800</v>
+        <v>55</v>
       </c>
       <c r="K141" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L141" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M141" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P141" t="n">
         <v>300</v>
       </c>
       <c r="Q141" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44168</v>
+        <v>44386</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10577,36 +10577,36 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>7000</v>
+        <v>85</v>
       </c>
       <c r="K142" t="n">
-        <v>230</v>
+        <v>16000</v>
       </c>
       <c r="L142" t="n">
-        <v>250</v>
+        <v>17000</v>
       </c>
       <c r="M142" t="n">
-        <v>240</v>
+        <v>16529</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>240</v>
+        <v>551</v>
       </c>
       <c r="Q142" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10644,41 +10644,41 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>615</v>
+        <v>3800</v>
       </c>
       <c r="K143" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="L143" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M143" t="n">
-        <v>13951</v>
+        <v>300</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Q143" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10721,36 +10721,36 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>130</v>
+        <v>7000</v>
       </c>
       <c r="K144" t="n">
-        <v>14000</v>
+        <v>230</v>
       </c>
       <c r="L144" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M144" t="n">
-        <v>14462</v>
+        <v>240</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="Q144" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>105</v>
+        <v>615</v>
       </c>
       <c r="K145" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L145" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M145" t="n">
-        <v>12762</v>
+        <v>13951</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Q145" t="n">
         <v>50</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K146" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L146" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M146" t="n">
-        <v>13250</v>
+        <v>14462</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Q146" t="n">
         <v>30</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K147" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L147" t="n">
         <v>13000</v>
       </c>
-      <c r="L147" t="n">
-        <v>14000</v>
-      </c>
       <c r="M147" t="n">
-        <v>13474</v>
+        <v>12762</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Q147" t="n">
         <v>50</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K148" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L148" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M148" t="n">
-        <v>14455</v>
+        <v>13250</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="Q148" t="n">
         <v>30</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K149" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L149" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M149" t="n">
-        <v>15476</v>
+        <v>13474</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="Q149" t="n">
         <v>50</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K150" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L150" t="n">
         <v>15000</v>
       </c>
-      <c r="L150" t="n">
-        <v>16000</v>
-      </c>
       <c r="M150" t="n">
-        <v>15478</v>
+        <v>14455</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="Q150" t="n">
         <v>30</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K151" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L151" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M151" t="n">
-        <v>13750</v>
+        <v>15476</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="Q151" t="n">
         <v>50</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K152" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L152" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M152" t="n">
-        <v>14500</v>
+        <v>15478</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="Q152" t="n">
         <v>30</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K153" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L153" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M153" t="n">
-        <v>11286</v>
+        <v>13750</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="Q153" t="n">
         <v>50</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K154" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L154" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M154" t="n">
-        <v>12231</v>
+        <v>14500</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K155" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L155" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="M155" t="n">
-        <v>13522</v>
+        <v>11286</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11535,11 +11535,11 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="Q155" t="n">
         <v>50</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K156" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L156" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M156" t="n">
-        <v>14261</v>
+        <v>12231</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K157" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L157" t="n">
         <v>14000</v>
       </c>
-      <c r="L157" t="n">
-        <v>15000</v>
-      </c>
       <c r="M157" t="n">
-        <v>14474</v>
+        <v>13522</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K158" t="n">
         <v>14000</v>
       </c>
       <c r="L158" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M158" t="n">
-        <v>14526</v>
+        <v>14261</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q158" t="n">
         <v>30</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11796,41 +11796,41 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>3200</v>
+        <v>95</v>
       </c>
       <c r="K159" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L159" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M159" t="n">
-        <v>300</v>
+        <v>14474</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q159" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11873,36 +11873,36 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>3000</v>
+        <v>95</v>
       </c>
       <c r="K160" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L160" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M160" t="n">
-        <v>250</v>
+        <v>14526</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="Q160" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K161" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L161" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M161" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12017,36 +12017,36 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>110</v>
+        <v>3000</v>
       </c>
       <c r="K162" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L162" t="n">
-        <v>14500</v>
+        <v>250</v>
       </c>
       <c r="M162" t="n">
-        <v>14227</v>
+        <v>250</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="Q162" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12084,41 +12084,41 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="K163" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L163" t="n">
-        <v>15000</v>
+        <v>180</v>
       </c>
       <c r="M163" t="n">
-        <v>14550</v>
+        <v>180</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="Q163" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K164" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L164" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M164" t="n">
-        <v>13481</v>
+        <v>14227</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12228,16 +12228,16 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K165" t="n">
         <v>14000</v>
@@ -12246,11 +12246,11 @@
         <v>15000</v>
       </c>
       <c r="M165" t="n">
-        <v>14478</v>
+        <v>14550</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12259,10 +12259,10 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>483</v>
+        <v>291</v>
       </c>
       <c r="Q165" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44162</v>
+        <v>44365</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12305,36 +12305,36 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>3800</v>
+        <v>135</v>
       </c>
       <c r="K166" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="L166" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="M166" t="n">
-        <v>250</v>
+        <v>13481</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>250</v>
+        <v>449</v>
       </c>
       <c r="Q166" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12372,29 +12372,29 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="K167" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L167" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M167" t="n">
-        <v>13240</v>
+        <v>14478</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>265</v>
+        <v>483</v>
       </c>
       <c r="Q167" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12449,36 +12449,36 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>120</v>
+        <v>3800</v>
       </c>
       <c r="K168" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L168" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M168" t="n">
-        <v>13750</v>
+        <v>250</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q168" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K169" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L169" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M169" t="n">
-        <v>12727</v>
+        <v>13240</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q169" t="n">
         <v>50</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K170" t="n">
         <v>13500</v>
       </c>
       <c r="L170" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M170" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Q170" t="n">
         <v>30</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12669,20 +12669,20 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K171" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L171" t="n">
         <v>13000</v>
       </c>
       <c r="M171" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q171" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12732,29 +12732,29 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J172" t="n">
         <v>60</v>
       </c>
       <c r="K172" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L172" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M172" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -12763,10 +12763,10 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q172" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K173" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L173" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M173" t="n">
-        <v>16238</v>
+        <v>13000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="Q173" t="n">
         <v>30</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K174" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L174" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M174" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q174" t="n">
         <v>50</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K175" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L175" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M175" t="n">
-        <v>14000</v>
+        <v>16238</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q175" t="n">
         <v>30</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13032,13 +13032,13 @@
         <v>110</v>
       </c>
       <c r="K176" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L176" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M176" t="n">
-        <v>12773</v>
+        <v>14227</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q176" t="n">
         <v>50</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K177" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L177" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M177" t="n">
-        <v>12240</v>
+        <v>14000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,12 +13123,156 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="Q177" t="n">
         <v>30</v>
       </c>
       <c r="R177" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>3</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>110</v>
+      </c>
+      <c r="K178" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L178" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M178" t="n">
+        <v>12773</v>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>50</v>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>3</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>125</v>
+      </c>
+      <c r="K179" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L179" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M179" t="n">
+        <v>12240</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>408</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>30</v>
+      </c>
+      <c r="R179" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R179"/>
+  <dimension ref="A1:R181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9360,13 +9360,13 @@
         <v>105</v>
       </c>
       <c r="K125" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L125" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M125" t="n">
-        <v>12762</v>
+        <v>10238</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="Q125" t="n">
         <v>50</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9432,13 +9432,13 @@
         <v>105</v>
       </c>
       <c r="K126" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L126" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="M126" t="n">
-        <v>14238</v>
+        <v>11262</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="Q126" t="n">
         <v>30</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9492,41 +9492,41 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>2000</v>
+        <v>105</v>
       </c>
       <c r="K127" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L127" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M127" t="n">
-        <v>300</v>
+        <v>12762</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q127" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9569,36 +9569,36 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1800</v>
+        <v>105</v>
       </c>
       <c r="K128" t="n">
-        <v>220</v>
+        <v>14000</v>
       </c>
       <c r="L128" t="n">
-        <v>220</v>
+        <v>14500</v>
       </c>
       <c r="M128" t="n">
-        <v>220</v>
+        <v>14238</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>220</v>
+        <v>475</v>
       </c>
       <c r="Q128" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R128" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9636,41 +9636,41 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>115</v>
+        <v>2000</v>
       </c>
       <c r="K129" t="n">
-        <v>12500</v>
+        <v>300</v>
       </c>
       <c r="L129" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M129" t="n">
-        <v>12739</v>
+        <v>300</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="Q129" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9713,36 +9713,36 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>125</v>
+        <v>1800</v>
       </c>
       <c r="K130" t="n">
-        <v>12500</v>
+        <v>220</v>
       </c>
       <c r="L130" t="n">
-        <v>13000</v>
+        <v>220</v>
       </c>
       <c r="M130" t="n">
-        <v>12760</v>
+        <v>220</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>425</v>
+        <v>220</v>
       </c>
       <c r="Q130" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9780,41 +9780,41 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>3500</v>
+        <v>115</v>
       </c>
       <c r="K131" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L131" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M131" t="n">
-        <v>300</v>
+        <v>12739</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q131" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9857,36 +9857,36 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>3800</v>
+        <v>125</v>
       </c>
       <c r="K132" t="n">
-        <v>250</v>
+        <v>12500</v>
       </c>
       <c r="L132" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="M132" t="n">
-        <v>250</v>
+        <v>12760</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="Q132" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9924,41 +9924,41 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>90</v>
+        <v>3500</v>
       </c>
       <c r="K133" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="L133" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="M133" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P133" t="n">
         <v>300</v>
       </c>
       <c r="Q133" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10005,32 +10005,32 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>127</v>
+        <v>3800</v>
       </c>
       <c r="K134" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="L134" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="M134" t="n">
-        <v>15528</v>
+        <v>250</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>518</v>
+        <v>250</v>
       </c>
       <c r="Q134" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K135" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L135" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M135" t="n">
-        <v>13455</v>
+        <v>15000</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Q135" t="n">
         <v>50</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10149,20 +10149,20 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="K136" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L136" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M136" t="n">
-        <v>14000</v>
+        <v>15528</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10171,10 +10171,10 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>280</v>
+        <v>518</v>
       </c>
       <c r="Q136" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="K137" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L137" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M137" t="n">
-        <v>10559</v>
+        <v>13455</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="Q137" t="n">
         <v>50</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10289,24 +10289,24 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K138" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L138" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M138" t="n">
-        <v>12260</v>
+        <v>14000</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>409</v>
+        <v>280</v>
       </c>
       <c r="Q138" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10356,29 +10356,29 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K139" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L139" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M139" t="n">
-        <v>12000</v>
+        <v>10559</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="Q139" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10428,29 +10428,29 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K140" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L140" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M140" t="n">
-        <v>15000</v>
+        <v>12260</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="Q140" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44386</v>
+        <v>44270</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10500,29 +10500,29 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K141" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L141" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M141" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q141" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10572,29 +10572,29 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K142" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L142" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M142" t="n">
-        <v>16529</v>
+        <v>15000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>551</v>
+        <v>300</v>
       </c>
       <c r="Q142" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44168</v>
+        <v>44386</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10644,41 +10644,41 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>3800</v>
+        <v>55</v>
       </c>
       <c r="K143" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L143" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M143" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P143" t="n">
         <v>300</v>
       </c>
       <c r="Q143" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44168</v>
+        <v>44386</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10721,36 +10721,36 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>7000</v>
+        <v>85</v>
       </c>
       <c r="K144" t="n">
-        <v>230</v>
+        <v>16000</v>
       </c>
       <c r="L144" t="n">
-        <v>250</v>
+        <v>17000</v>
       </c>
       <c r="M144" t="n">
-        <v>240</v>
+        <v>16529</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>240</v>
+        <v>551</v>
       </c>
       <c r="Q144" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10788,41 +10788,41 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>615</v>
+        <v>3800</v>
       </c>
       <c r="K145" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="L145" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M145" t="n">
-        <v>13951</v>
+        <v>300</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Q145" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10865,36 +10865,36 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>130</v>
+        <v>7000</v>
       </c>
       <c r="K146" t="n">
-        <v>14000</v>
+        <v>230</v>
       </c>
       <c r="L146" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M146" t="n">
-        <v>14462</v>
+        <v>240</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="Q146" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>105</v>
+        <v>615</v>
       </c>
       <c r="K147" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L147" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M147" t="n">
-        <v>12762</v>
+        <v>13951</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Q147" t="n">
         <v>50</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K148" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L148" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M148" t="n">
-        <v>13250</v>
+        <v>14462</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Q148" t="n">
         <v>30</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K149" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L149" t="n">
         <v>13000</v>
       </c>
-      <c r="L149" t="n">
-        <v>14000</v>
-      </c>
       <c r="M149" t="n">
-        <v>13474</v>
+        <v>12762</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Q149" t="n">
         <v>50</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K150" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L150" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M150" t="n">
-        <v>14455</v>
+        <v>13250</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="Q150" t="n">
         <v>30</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K151" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L151" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M151" t="n">
-        <v>15476</v>
+        <v>13474</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="Q151" t="n">
         <v>50</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K152" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L152" t="n">
         <v>15000</v>
       </c>
-      <c r="L152" t="n">
-        <v>16000</v>
-      </c>
       <c r="M152" t="n">
-        <v>15478</v>
+        <v>14455</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="Q152" t="n">
         <v>30</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K153" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L153" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M153" t="n">
-        <v>13750</v>
+        <v>15476</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="Q153" t="n">
         <v>50</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K154" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L154" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M154" t="n">
-        <v>14500</v>
+        <v>15478</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K155" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L155" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M155" t="n">
-        <v>11286</v>
+        <v>13750</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="Q155" t="n">
         <v>50</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K156" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L156" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M156" t="n">
-        <v>12231</v>
+        <v>14500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K157" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L157" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="M157" t="n">
-        <v>13522</v>
+        <v>11286</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11679,11 +11679,11 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K158" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L158" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M158" t="n">
-        <v>14261</v>
+        <v>12231</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="Q158" t="n">
         <v>30</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K159" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L159" t="n">
         <v>14000</v>
       </c>
-      <c r="L159" t="n">
-        <v>15000</v>
-      </c>
       <c r="M159" t="n">
-        <v>14474</v>
+        <v>13522</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="Q159" t="n">
         <v>50</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K160" t="n">
         <v>14000</v>
       </c>
       <c r="L160" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M160" t="n">
-        <v>14526</v>
+        <v>14261</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11940,41 +11940,41 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>3200</v>
+        <v>95</v>
       </c>
       <c r="K161" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L161" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M161" t="n">
-        <v>300</v>
+        <v>14474</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q161" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12017,36 +12017,36 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>3000</v>
+        <v>95</v>
       </c>
       <c r="K162" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L162" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M162" t="n">
-        <v>250</v>
+        <v>14526</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="Q162" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K163" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L163" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M163" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12161,36 +12161,36 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>110</v>
+        <v>3000</v>
       </c>
       <c r="K164" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L164" t="n">
-        <v>14500</v>
+        <v>250</v>
       </c>
       <c r="M164" t="n">
-        <v>14227</v>
+        <v>250</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="Q164" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12228,41 +12228,41 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="K165" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L165" t="n">
-        <v>15000</v>
+        <v>180</v>
       </c>
       <c r="M165" t="n">
-        <v>14550</v>
+        <v>180</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="Q165" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K166" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L166" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M166" t="n">
-        <v>13481</v>
+        <v>14227</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="Q166" t="n">
         <v>30</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12372,16 +12372,16 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K167" t="n">
         <v>14000</v>
@@ -12390,11 +12390,11 @@
         <v>15000</v>
       </c>
       <c r="M167" t="n">
-        <v>14478</v>
+        <v>14550</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -12403,10 +12403,10 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>483</v>
+        <v>291</v>
       </c>
       <c r="Q167" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44162</v>
+        <v>44365</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12449,36 +12449,36 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>3800</v>
+        <v>135</v>
       </c>
       <c r="K168" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="L168" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="M168" t="n">
-        <v>250</v>
+        <v>13481</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>250</v>
+        <v>449</v>
       </c>
       <c r="Q168" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12516,29 +12516,29 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="K169" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L169" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M169" t="n">
-        <v>13240</v>
+        <v>14478</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>265</v>
+        <v>483</v>
       </c>
       <c r="Q169" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12593,36 +12593,36 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>120</v>
+        <v>3800</v>
       </c>
       <c r="K170" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L170" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M170" t="n">
-        <v>13750</v>
+        <v>250</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q170" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K171" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L171" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M171" t="n">
-        <v>12727</v>
+        <v>13240</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q171" t="n">
         <v>50</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K172" t="n">
         <v>13500</v>
       </c>
       <c r="L172" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M172" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Q172" t="n">
         <v>30</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,20 +12813,20 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K173" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L173" t="n">
         <v>13000</v>
       </c>
       <c r="M173" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q173" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12876,29 +12876,29 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J174" t="n">
         <v>60</v>
       </c>
       <c r="K174" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L174" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M174" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -12907,10 +12907,10 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q174" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K175" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L175" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M175" t="n">
-        <v>16238</v>
+        <v>13000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="Q175" t="n">
         <v>30</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K176" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L176" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M176" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q176" t="n">
         <v>50</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K177" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L177" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M177" t="n">
-        <v>14000</v>
+        <v>16238</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q177" t="n">
         <v>30</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13176,13 +13176,13 @@
         <v>110</v>
       </c>
       <c r="K178" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L178" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M178" t="n">
-        <v>12773</v>
+        <v>14227</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q178" t="n">
         <v>50</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K179" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L179" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M179" t="n">
-        <v>12240</v>
+        <v>14000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,12 +13267,156 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="Q179" t="n">
         <v>30</v>
       </c>
       <c r="R179" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>3</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>110</v>
+      </c>
+      <c r="K180" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L180" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M180" t="n">
+        <v>12773</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>50</v>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>3</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>125</v>
+      </c>
+      <c r="K181" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L181" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M181" t="n">
+        <v>12240</v>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>408</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>30</v>
+      </c>
+      <c r="R181" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R181"/>
+  <dimension ref="A1:R183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12516,29 +12516,29 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K169" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L169" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M169" t="n">
-        <v>14478</v>
+        <v>10000</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -12547,10 +12547,10 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>483</v>
+        <v>200</v>
       </c>
       <c r="Q169" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12593,36 +12593,36 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>3800</v>
+        <v>95</v>
       </c>
       <c r="K170" t="n">
-        <v>250</v>
+        <v>11500</v>
       </c>
       <c r="L170" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M170" t="n">
-        <v>250</v>
+        <v>11737</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="Q170" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12660,29 +12660,29 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="K171" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L171" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M171" t="n">
-        <v>13240</v>
+        <v>14478</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>265</v>
+        <v>483</v>
       </c>
       <c r="Q171" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12737,36 +12737,36 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>120</v>
+        <v>3800</v>
       </c>
       <c r="K172" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L172" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M172" t="n">
-        <v>13750</v>
+        <v>250</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q172" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K173" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L173" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M173" t="n">
-        <v>12727</v>
+        <v>13240</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q173" t="n">
         <v>50</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K174" t="n">
         <v>13500</v>
       </c>
       <c r="L174" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M174" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Q174" t="n">
         <v>30</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,20 +12957,20 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K175" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L175" t="n">
         <v>13000</v>
       </c>
       <c r="M175" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q175" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13020,29 +13020,29 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J176" t="n">
         <v>60</v>
       </c>
       <c r="K176" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L176" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M176" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -13051,10 +13051,10 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q176" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K177" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L177" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M177" t="n">
-        <v>16238</v>
+        <v>13000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="Q177" t="n">
         <v>30</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K178" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L178" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M178" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q178" t="n">
         <v>50</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K179" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L179" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M179" t="n">
-        <v>14000</v>
+        <v>16238</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q179" t="n">
         <v>30</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13320,13 +13320,13 @@
         <v>110</v>
       </c>
       <c r="K180" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L180" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M180" t="n">
-        <v>12773</v>
+        <v>14227</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q180" t="n">
         <v>50</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K181" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L181" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M181" t="n">
-        <v>12240</v>
+        <v>14000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,12 +13411,156 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="Q181" t="n">
         <v>30</v>
       </c>
       <c r="R181" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>3</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J182" t="n">
+        <v>110</v>
+      </c>
+      <c r="K182" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L182" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M182" t="n">
+        <v>12773</v>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>50</v>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>3</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J183" t="n">
+        <v>125</v>
+      </c>
+      <c r="K183" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L183" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M183" t="n">
+        <v>12240</v>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>408</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>30</v>
+      </c>
+      <c r="R183" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R183"/>
+  <dimension ref="A1:R185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44421</v>
+        <v>44462</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="K24" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L24" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="M24" t="n">
-        <v>13238</v>
+        <v>9781</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="Q24" t="n">
         <v>50</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44421</v>
+        <v>44462</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L25" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M25" t="n">
-        <v>13522</v>
+        <v>10773</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>451</v>
+        <v>359</v>
       </c>
       <c r="Q25" t="n">
         <v>30</v>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44379</v>
+        <v>44421</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2229,16 +2229,16 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K26" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L26" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M26" t="n">
-        <v>15000</v>
+        <v>13238</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q26" t="n">
         <v>50</v>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44379</v>
+        <v>44421</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2301,16 +2301,16 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K27" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L27" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="M27" t="n">
-        <v>16231</v>
+        <v>13522</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>541</v>
+        <v>451</v>
       </c>
       <c r="Q27" t="n">
         <v>30</v>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44384</v>
+        <v>44379</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
         <v>15000</v>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44384</v>
+        <v>44379</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2445,16 +2445,16 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K29" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L29" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="M29" t="n">
-        <v>17524</v>
+        <v>16231</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>584</v>
+        <v>541</v>
       </c>
       <c r="Q29" t="n">
         <v>30</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44349</v>
+        <v>44384</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,29 +2508,29 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K30" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L30" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M30" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="Q30" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44396</v>
+        <v>44384</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2580,41 +2580,41 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J31" t="n">
         <v>105</v>
       </c>
       <c r="K31" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L31" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M31" t="n">
-        <v>15524</v>
+        <v>17524</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>310</v>
+        <v>584</v>
       </c>
       <c r="Q31" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44396</v>
+        <v>44349</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="K32" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L32" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M32" t="n">
-        <v>15524</v>
+        <v>14000</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>517</v>
+        <v>467</v>
       </c>
       <c r="Q32" t="n">
         <v>30</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44412</v>
+        <v>44396</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K33" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M33" t="n">
-        <v>13000</v>
+        <v>15524</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="Q33" t="n">
         <v>50</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44412</v>
+        <v>44396</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2805,16 +2805,16 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K34" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L34" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M34" t="n">
-        <v>13231</v>
+        <v>15524</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="Q34" t="n">
         <v>30</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44329</v>
+        <v>44412</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2868,41 +2868,41 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K35" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="L35" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M35" t="n">
-        <v>14778</v>
+        <v>13000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>493</v>
+        <v>260</v>
       </c>
       <c r="Q35" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44364</v>
+        <v>44412</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2940,16 +2940,16 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K36" t="n">
         <v>13000</v>
@@ -2958,11 +2958,11 @@
         <v>13500</v>
       </c>
       <c r="M36" t="n">
-        <v>13238</v>
+        <v>13231</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>265</v>
+        <v>441</v>
       </c>
       <c r="Q36" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44364</v>
+        <v>44329</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K37" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="L37" t="n">
         <v>15000</v>
       </c>
       <c r="M37" t="n">
-        <v>14476</v>
+        <v>14778</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44159</v>
+        <v>44364</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3084,41 +3084,41 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>2800</v>
+        <v>105</v>
       </c>
       <c r="K38" t="n">
-        <v>270</v>
+        <v>13000</v>
       </c>
       <c r="L38" t="n">
-        <v>270</v>
+        <v>13500</v>
       </c>
       <c r="M38" t="n">
-        <v>270</v>
+        <v>13238</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44159</v>
+        <v>44364</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3161,36 +3161,36 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>3200</v>
+        <v>105</v>
       </c>
       <c r="K39" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="L39" t="n">
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="M39" t="n">
-        <v>200</v>
+        <v>14476</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>200</v>
+        <v>483</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44330</v>
+        <v>44159</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3237,32 +3237,32 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>85</v>
+        <v>2800</v>
       </c>
       <c r="K40" t="n">
-        <v>14000</v>
+        <v>270</v>
       </c>
       <c r="L40" t="n">
-        <v>14500</v>
+        <v>270</v>
       </c>
       <c r="M40" t="n">
-        <v>14265</v>
+        <v>270</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>476</v>
+        <v>270</v>
       </c>
       <c r="Q40" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44431</v>
+        <v>44159</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,32 +3309,32 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>95</v>
+        <v>3200</v>
       </c>
       <c r="K41" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L41" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="M41" t="n">
-        <v>13237</v>
+        <v>200</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="Q41" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44431</v>
+        <v>44330</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="K42" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L42" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M42" t="n">
-        <v>13262</v>
+        <v>14265</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="Q42" t="n">
         <v>30</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44377</v>
+        <v>44431</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3453,16 +3453,16 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K43" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L43" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M43" t="n">
-        <v>14455</v>
+        <v>13237</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="Q43" t="n">
         <v>50</v>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44377</v>
+        <v>44431</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3525,16 +3525,16 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K44" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L44" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M44" t="n">
-        <v>15483</v>
+        <v>13262</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>516</v>
+        <v>442</v>
       </c>
       <c r="Q44" t="n">
         <v>30</v>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44459</v>
+        <v>44377</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3597,16 +3597,16 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K45" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L45" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M45" t="n">
-        <v>10238</v>
+        <v>14455</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="Q45" t="n">
         <v>50</v>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44459</v>
+        <v>44377</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3665,20 +3665,20 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="K46" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L46" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="M46" t="n">
-        <v>11261</v>
+        <v>15483</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>375</v>
+        <v>516</v>
       </c>
       <c r="Q46" t="n">
         <v>30</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44348</v>
+        <v>44459</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="K47" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L47" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="M47" t="n">
-        <v>14000</v>
+        <v>10238</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>467</v>
+        <v>205</v>
       </c>
       <c r="Q47" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44435</v>
+        <v>44459</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>555</v>
+        <v>115</v>
       </c>
       <c r="K48" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L48" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="M48" t="n">
-        <v>12788</v>
+        <v>11261</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="Q48" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44435</v>
+        <v>44348</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>610</v>
+        <v>55</v>
       </c>
       <c r="K49" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L49" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M49" t="n">
-        <v>12906</v>
+        <v>14000</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="Q49" t="n">
         <v>30</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44195</v>
+        <v>44435</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3948,29 +3948,29 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>85</v>
+        <v>555</v>
       </c>
       <c r="K50" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L50" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M50" t="n">
-        <v>11471</v>
+        <v>12788</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>382</v>
+        <v>256</v>
       </c>
       <c r="Q50" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44169</v>
+        <v>44435</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4029,32 +4029,32 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>3800</v>
+        <v>610</v>
       </c>
       <c r="K51" t="n">
-        <v>350</v>
+        <v>12000</v>
       </c>
       <c r="L51" t="n">
-        <v>350</v>
+        <v>13500</v>
       </c>
       <c r="M51" t="n">
-        <v>350</v>
+        <v>12906</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44169</v>
+        <v>44195</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4097,36 +4097,36 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>3500</v>
+        <v>85</v>
       </c>
       <c r="K52" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="L52" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M52" t="n">
-        <v>250</v>
+        <v>11471</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44445</v>
+        <v>44169</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4164,41 +4164,41 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>140</v>
+        <v>3800</v>
       </c>
       <c r="K53" t="n">
-        <v>11500</v>
+        <v>350</v>
       </c>
       <c r="L53" t="n">
-        <v>12000</v>
+        <v>350</v>
       </c>
       <c r="M53" t="n">
-        <v>11714</v>
+        <v>350</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="Q53" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44445</v>
+        <v>44169</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4241,36 +4241,36 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>145</v>
+        <v>3500</v>
       </c>
       <c r="K54" t="n">
-        <v>12500</v>
+        <v>250</v>
       </c>
       <c r="L54" t="n">
-        <v>13000</v>
+        <v>250</v>
       </c>
       <c r="M54" t="n">
-        <v>12759</v>
+        <v>250</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="Q54" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44449</v>
+        <v>44445</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K55" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="L55" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M55" t="n">
-        <v>10444</v>
+        <v>11714</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="Q55" t="n">
         <v>50</v>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44449</v>
+        <v>44445</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
@@ -4389,16 +4389,16 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="K56" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L56" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M56" t="n">
-        <v>11760</v>
+        <v>12759</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="Q56" t="n">
         <v>30</v>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44333</v>
+        <v>44449</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -4452,29 +4452,29 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="K57" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L57" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M57" t="n">
-        <v>15000</v>
+        <v>10444</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>500</v>
+        <v>209</v>
       </c>
       <c r="Q57" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44355</v>
+        <v>44449</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -4524,29 +4524,29 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K58" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L58" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M58" t="n">
-        <v>14000</v>
+        <v>11760</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="Q58" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44355</v>
+        <v>44333</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K59" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L59" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M59" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q59" t="n">
         <v>30</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44446</v>
+        <v>44355</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K60" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L60" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M60" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="Q60" t="n">
         <v>50</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44446</v>
+        <v>44355</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K61" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L61" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M61" t="n">
-        <v>12227</v>
+        <v>14000</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="Q61" t="n">
         <v>30</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44406</v>
+        <v>44446</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -4821,16 +4821,16 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K62" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L62" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M62" t="n">
-        <v>13200</v>
+        <v>11000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="Q62" t="n">
         <v>50</v>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44406</v>
+        <v>44446</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -4884,29 +4884,29 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K63" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L63" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="M63" t="n">
-        <v>10000</v>
+        <v>12227</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>143</v>
+        <v>408</v>
       </c>
       <c r="Q63" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4956,16 +4956,16 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K64" t="n">
         <v>13000</v>
@@ -4974,11 +4974,11 @@
         <v>13500</v>
       </c>
       <c r="M64" t="n">
-        <v>13250</v>
+        <v>13200</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>442</v>
+        <v>264</v>
       </c>
       <c r="Q64" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -5033,24 +5033,24 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K65" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L65" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M65" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>300</v>
+        <v>143</v>
       </c>
       <c r="Q65" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K66" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L66" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="M66" t="n">
-        <v>17538</v>
+        <v>13250</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>585</v>
+        <v>442</v>
       </c>
       <c r="Q66" t="n">
         <v>30</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K67" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L67" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M67" t="n">
-        <v>12808</v>
+        <v>15000</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="Q67" t="n">
         <v>50</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K68" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L68" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M68" t="n">
-        <v>15000</v>
+        <v>17538</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>300</v>
+        <v>585</v>
       </c>
       <c r="Q68" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5316,25 +5316,25 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K69" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L69" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M69" t="n">
-        <v>16545</v>
+        <v>12808</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="Q69" t="n">
         <v>50</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K70" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L70" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M70" t="n">
-        <v>13238</v>
+        <v>15000</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Q70" t="n">
         <v>50</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -5472,17 +5472,17 @@
         <v>110</v>
       </c>
       <c r="K71" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L71" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="M71" t="n">
-        <v>13273</v>
+        <v>16545</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>442</v>
+        <v>331</v>
       </c>
       <c r="Q71" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K72" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L72" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M72" t="n">
-        <v>15000</v>
+        <v>13238</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q72" t="n">
         <v>50</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5613,16 +5613,16 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="K73" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L73" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M73" t="n">
-        <v>15000</v>
+        <v>13273</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="Q73" t="n">
         <v>30</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44334</v>
+        <v>44340</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -5681,24 +5681,24 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J74" t="n">
         <v>50</v>
       </c>
       <c r="K74" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L74" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M74" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="Q74" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R74" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44419</v>
+        <v>44340</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -5748,29 +5748,29 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K75" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L75" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M75" t="n">
-        <v>13773</v>
+        <v>15000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="Q75" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5829,16 +5829,16 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K76" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L76" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M76" t="n">
-        <v>13273</v>
+        <v>14000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="Q76" t="n">
         <v>30</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44342</v>
+        <v>44419</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K77" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="L77" t="n">
         <v>14000</v>
       </c>
       <c r="M77" t="n">
-        <v>14000</v>
+        <v>13773</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q77" t="n">
         <v>50</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44434</v>
+        <v>44419</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -5964,29 +5964,29 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K78" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L78" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M78" t="n">
-        <v>12731</v>
+        <v>13273</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5995,10 +5995,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>255</v>
+        <v>442</v>
       </c>
       <c r="Q78" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R78" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6036,29 +6036,29 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K79" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L79" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M79" t="n">
-        <v>13239</v>
+        <v>14000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="Q79" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R79" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6108,29 +6108,29 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K80" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L80" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M80" t="n">
-        <v>15000</v>
+        <v>12731</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="Q80" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6180,25 +6180,25 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K81" t="n">
         <v>13000</v>
       </c>
       <c r="L81" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M81" t="n">
-        <v>13545</v>
+        <v>13239</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="Q81" t="n">
         <v>30</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44399</v>
+        <v>44327</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6252,29 +6252,29 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J82" t="n">
         <v>80</v>
       </c>
       <c r="K82" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L82" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M82" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q82" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
         <v>110</v>
       </c>
       <c r="K83" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L83" t="n">
         <v>14000</v>
       </c>
-      <c r="L83" t="n">
-        <v>15000</v>
-      </c>
       <c r="M83" t="n">
-        <v>14455</v>
+        <v>13545</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="Q83" t="n">
         <v>30</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6401,20 +6401,20 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K84" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L84" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M84" t="n">
-        <v>11250</v>
+        <v>10000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q84" t="n">
         <v>50</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -6477,16 +6477,16 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K85" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L85" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M85" t="n">
-        <v>11746</v>
+        <v>14455</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>392</v>
+        <v>482</v>
       </c>
       <c r="Q85" t="n">
         <v>30</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K86" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L86" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="M86" t="n">
-        <v>15000</v>
+        <v>11250</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="Q86" t="n">
         <v>50</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K87" t="n">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="L87" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M87" t="n">
-        <v>17478</v>
+        <v>11746</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>583</v>
+        <v>392</v>
       </c>
       <c r="Q87" t="n">
         <v>30</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K88" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L88" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M88" t="n">
-        <v>10520</v>
+        <v>15000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6711,11 +6711,11 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="Q88" t="n">
         <v>50</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K89" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L89" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="M89" t="n">
-        <v>12234</v>
+        <v>17478</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6783,11 +6783,11 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>408</v>
+        <v>583</v>
       </c>
       <c r="Q89" t="n">
         <v>30</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K90" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L90" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M90" t="n">
-        <v>13000</v>
+        <v>10520</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="Q90" t="n">
         <v>50</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="K91" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L91" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M91" t="n">
-        <v>13762</v>
+        <v>12234</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="Q91" t="n">
         <v>30</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6972,41 +6972,41 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>3800</v>
+        <v>50</v>
       </c>
       <c r="K92" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L92" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M92" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7049,36 +7049,36 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>4200</v>
+        <v>105</v>
       </c>
       <c r="K93" t="n">
-        <v>200</v>
+        <v>13500</v>
       </c>
       <c r="L93" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="M93" t="n">
-        <v>200</v>
+        <v>13762</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>200</v>
+        <v>459</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R93" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7116,41 +7116,41 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>105</v>
+        <v>3800</v>
       </c>
       <c r="K94" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L94" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="M94" t="n">
-        <v>13262</v>
+        <v>300</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Q94" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7193,36 +7193,36 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>60</v>
+        <v>4200</v>
       </c>
       <c r="K95" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="L95" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="M95" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="Q95" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K96" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L96" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M96" t="n">
-        <v>15000</v>
+        <v>13262</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q96" t="n">
         <v>50</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="K97" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="L97" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M97" t="n">
-        <v>14474</v>
+        <v>13500</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="Q97" t="n">
         <v>30</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7416,13 +7416,13 @@
         <v>50</v>
       </c>
       <c r="K98" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L98" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M98" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q98" t="n">
         <v>50</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7476,29 +7476,29 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="K99" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L99" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M99" t="n">
-        <v>12739</v>
+        <v>14474</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7507,10 +7507,10 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>255</v>
+        <v>482</v>
       </c>
       <c r="Q99" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7548,29 +7548,29 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K100" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L100" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M100" t="n">
-        <v>12761</v>
+        <v>14000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>425</v>
+        <v>280</v>
       </c>
       <c r="Q100" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R100" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K101" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L101" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M101" t="n">
-        <v>14000</v>
+        <v>12739</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q101" t="n">
         <v>50</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K102" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L102" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M102" t="n">
-        <v>14750</v>
+        <v>12761</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="Q102" t="n">
         <v>30</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7776,13 +7776,13 @@
         <v>60</v>
       </c>
       <c r="K103" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L103" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M103" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q103" t="n">
         <v>50</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K104" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L104" t="n">
         <v>15000</v>
       </c>
-      <c r="L104" t="n">
-        <v>16000</v>
-      </c>
       <c r="M104" t="n">
-        <v>15524</v>
+        <v>14750</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="Q104" t="n">
         <v>30</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="K105" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="L105" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M105" t="n">
-        <v>10741</v>
+        <v>15000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q105" t="n">
         <v>50</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K106" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L106" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M106" t="n">
-        <v>12731</v>
+        <v>15524</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>424</v>
+        <v>517</v>
       </c>
       <c r="Q106" t="n">
         <v>30</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="K107" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L107" t="n">
         <v>11000</v>
       </c>
-      <c r="L107" t="n">
-        <v>11500</v>
-      </c>
       <c r="M107" t="n">
-        <v>11235</v>
+        <v>10741</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Q107" t="n">
         <v>50</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8136,13 +8136,13 @@
         <v>130</v>
       </c>
       <c r="K108" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L108" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M108" t="n">
-        <v>11769</v>
+        <v>12731</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="Q108" t="n">
         <v>30</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K109" t="n">
         <v>11000</v>
       </c>
       <c r="L109" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M109" t="n">
-        <v>11000</v>
+        <v>11235</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q109" t="n">
         <v>50</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44448</v>
+        <v>44453</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8268,29 +8268,29 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K110" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L110" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M110" t="n">
-        <v>10733</v>
+        <v>11769</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8299,10 +8299,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="Q110" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R110" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8340,29 +8340,29 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="K111" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L111" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M111" t="n">
-        <v>11765</v>
+        <v>11000</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8371,10 +8371,10 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="Q111" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8421,16 +8421,16 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K112" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L112" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M112" t="n">
-        <v>13231</v>
+        <v>10733</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="Q112" t="n">
         <v>50</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="K113" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L113" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="M113" t="n">
-        <v>13222</v>
+        <v>11765</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="Q113" t="n">
         <v>30</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K114" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L114" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M114" t="n">
-        <v>15000</v>
+        <v>13231</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q114" t="n">
         <v>50</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K115" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L115" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M115" t="n">
-        <v>14455</v>
+        <v>13222</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="Q115" t="n">
         <v>30</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44167</v>
+        <v>44370</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8700,41 +8700,41 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>2800</v>
+        <v>80</v>
       </c>
       <c r="K116" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L116" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M116" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P116" t="n">
         <v>300</v>
       </c>
       <c r="Q116" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R116" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44210</v>
+        <v>44370</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K117" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L117" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M117" t="n">
-        <v>11000</v>
+        <v>14455</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>367</v>
+        <v>482</v>
       </c>
       <c r="Q117" t="n">
         <v>30</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44344</v>
+        <v>44167</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8844,41 +8844,41 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>60</v>
+        <v>2800</v>
       </c>
       <c r="K118" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L118" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M118" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q118" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K119" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L119" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M119" t="n">
-        <v>14444</v>
+        <v>11000</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>481</v>
+        <v>367</v>
       </c>
       <c r="Q119" t="n">
         <v>30</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K120" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L120" t="n">
         <v>14000</v>
       </c>
       <c r="M120" t="n">
-        <v>13739</v>
+        <v>14000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q120" t="n">
         <v>50</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K121" t="n">
         <v>14000</v>
       </c>
       <c r="L121" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M121" t="n">
-        <v>14261</v>
+        <v>14444</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q121" t="n">
         <v>30</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9132,29 +9132,29 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J122" t="n">
         <v>115</v>
       </c>
       <c r="K122" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="L122" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M122" t="n">
-        <v>11739</v>
+        <v>13739</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9163,10 +9163,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>391</v>
+        <v>275</v>
       </c>
       <c r="Q122" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9204,29 +9204,29 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K123" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L123" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M123" t="n">
-        <v>13250</v>
+        <v>14261</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>265</v>
+        <v>475</v>
       </c>
       <c r="Q123" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R123" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K124" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L124" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M124" t="n">
-        <v>13455</v>
+        <v>11739</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="Q124" t="n">
         <v>30</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K125" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L125" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="M125" t="n">
-        <v>10238</v>
+        <v>13250</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="Q125" t="n">
         <v>50</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K126" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L126" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M126" t="n">
-        <v>11262</v>
+        <v>13455</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="Q126" t="n">
         <v>30</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9504,13 +9504,13 @@
         <v>105</v>
       </c>
       <c r="K127" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L127" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M127" t="n">
-        <v>12762</v>
+        <v>10238</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="Q127" t="n">
         <v>50</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9576,13 +9576,13 @@
         <v>105</v>
       </c>
       <c r="K128" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L128" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="M128" t="n">
-        <v>14238</v>
+        <v>11262</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="Q128" t="n">
         <v>30</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9636,41 +9636,41 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>2000</v>
+        <v>105</v>
       </c>
       <c r="K129" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L129" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M129" t="n">
-        <v>300</v>
+        <v>12762</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q129" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R129" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9713,36 +9713,36 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1800</v>
+        <v>105</v>
       </c>
       <c r="K130" t="n">
-        <v>220</v>
+        <v>14000</v>
       </c>
       <c r="L130" t="n">
-        <v>220</v>
+        <v>14500</v>
       </c>
       <c r="M130" t="n">
-        <v>220</v>
+        <v>14238</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>220</v>
+        <v>475</v>
       </c>
       <c r="Q130" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R130" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9780,41 +9780,41 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>115</v>
+        <v>2000</v>
       </c>
       <c r="K131" t="n">
-        <v>12500</v>
+        <v>300</v>
       </c>
       <c r="L131" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M131" t="n">
-        <v>12739</v>
+        <v>300</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="Q131" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9857,36 +9857,36 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>125</v>
+        <v>1800</v>
       </c>
       <c r="K132" t="n">
-        <v>12500</v>
+        <v>220</v>
       </c>
       <c r="L132" t="n">
-        <v>13000</v>
+        <v>220</v>
       </c>
       <c r="M132" t="n">
-        <v>12760</v>
+        <v>220</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>425</v>
+        <v>220</v>
       </c>
       <c r="Q132" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9924,41 +9924,41 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>3500</v>
+        <v>115</v>
       </c>
       <c r="K133" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L133" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M133" t="n">
-        <v>300</v>
+        <v>12739</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q133" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10001,36 +10001,36 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>3800</v>
+        <v>125</v>
       </c>
       <c r="K134" t="n">
-        <v>250</v>
+        <v>12500</v>
       </c>
       <c r="L134" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="M134" t="n">
-        <v>250</v>
+        <v>12760</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="Q134" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10068,41 +10068,41 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>90</v>
+        <v>3500</v>
       </c>
       <c r="K135" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="L135" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="M135" t="n">
-        <v>15000</v>
+        <v>300</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P135" t="n">
         <v>300</v>
       </c>
       <c r="Q135" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10149,32 +10149,32 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>127</v>
+        <v>3800</v>
       </c>
       <c r="K136" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="L136" t="n">
-        <v>16000</v>
+        <v>250</v>
       </c>
       <c r="M136" t="n">
-        <v>15528</v>
+        <v>250</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>518</v>
+        <v>250</v>
       </c>
       <c r="Q136" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K137" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L137" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M137" t="n">
-        <v>13455</v>
+        <v>15000</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Q137" t="n">
         <v>50</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10293,20 +10293,20 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="K138" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L138" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M138" t="n">
-        <v>14000</v>
+        <v>15528</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10315,10 +10315,10 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>280</v>
+        <v>518</v>
       </c>
       <c r="Q138" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="K139" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L139" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M139" t="n">
-        <v>10559</v>
+        <v>13455</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="Q139" t="n">
         <v>50</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10433,24 +10433,24 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K140" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L140" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M140" t="n">
-        <v>12260</v>
+        <v>14000</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>409</v>
+        <v>280</v>
       </c>
       <c r="Q140" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10500,29 +10500,29 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K141" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L141" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M141" t="n">
-        <v>12000</v>
+        <v>10559</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10531,10 +10531,10 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="Q141" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R141" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10572,29 +10572,29 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K142" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L142" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M142" t="n">
-        <v>15000</v>
+        <v>12260</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="Q142" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44386</v>
+        <v>44270</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10644,29 +10644,29 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K143" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L143" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M143" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q143" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10716,29 +10716,29 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K144" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L144" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M144" t="n">
-        <v>16529</v>
+        <v>15000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>551</v>
+        <v>300</v>
       </c>
       <c r="Q144" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44168</v>
+        <v>44386</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10788,41 +10788,41 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>3800</v>
+        <v>55</v>
       </c>
       <c r="K145" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L145" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M145" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P145" t="n">
         <v>300</v>
       </c>
       <c r="Q145" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44168</v>
+        <v>44386</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10865,36 +10865,36 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>7000</v>
+        <v>85</v>
       </c>
       <c r="K146" t="n">
-        <v>230</v>
+        <v>16000</v>
       </c>
       <c r="L146" t="n">
-        <v>250</v>
+        <v>17000</v>
       </c>
       <c r="M146" t="n">
-        <v>240</v>
+        <v>16529</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>240</v>
+        <v>551</v>
       </c>
       <c r="Q146" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10932,41 +10932,41 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>615</v>
+        <v>3800</v>
       </c>
       <c r="K147" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="L147" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M147" t="n">
-        <v>13951</v>
+        <v>300</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Q147" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11009,36 +11009,36 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>130</v>
+        <v>7000</v>
       </c>
       <c r="K148" t="n">
-        <v>14000</v>
+        <v>230</v>
       </c>
       <c r="L148" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M148" t="n">
-        <v>14462</v>
+        <v>240</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="Q148" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>105</v>
+        <v>615</v>
       </c>
       <c r="K149" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L149" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M149" t="n">
-        <v>12762</v>
+        <v>13951</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Q149" t="n">
         <v>50</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K150" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L150" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M150" t="n">
-        <v>13250</v>
+        <v>14462</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Q150" t="n">
         <v>30</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K151" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L151" t="n">
         <v>13000</v>
       </c>
-      <c r="L151" t="n">
-        <v>14000</v>
-      </c>
       <c r="M151" t="n">
-        <v>13474</v>
+        <v>12762</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Q151" t="n">
         <v>50</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K152" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L152" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M152" t="n">
-        <v>14455</v>
+        <v>13250</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="Q152" t="n">
         <v>30</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K153" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L153" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M153" t="n">
-        <v>15476</v>
+        <v>13474</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="Q153" t="n">
         <v>50</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K154" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L154" t="n">
         <v>15000</v>
       </c>
-      <c r="L154" t="n">
-        <v>16000</v>
-      </c>
       <c r="M154" t="n">
-        <v>15478</v>
+        <v>14455</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K155" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L155" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M155" t="n">
-        <v>13750</v>
+        <v>15476</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="Q155" t="n">
         <v>50</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K156" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L156" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M156" t="n">
-        <v>14500</v>
+        <v>15478</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K157" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L157" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M157" t="n">
-        <v>11286</v>
+        <v>13750</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K158" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L158" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M158" t="n">
-        <v>12231</v>
+        <v>14500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="Q158" t="n">
         <v>30</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K159" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L159" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="M159" t="n">
-        <v>13522</v>
+        <v>11286</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11823,11 +11823,11 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="Q159" t="n">
         <v>50</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K160" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L160" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M160" t="n">
-        <v>14261</v>
+        <v>12231</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K161" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L161" t="n">
         <v>14000</v>
       </c>
-      <c r="L161" t="n">
-        <v>15000</v>
-      </c>
       <c r="M161" t="n">
-        <v>14474</v>
+        <v>13522</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="Q161" t="n">
         <v>50</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K162" t="n">
         <v>14000</v>
       </c>
       <c r="L162" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M162" t="n">
-        <v>14526</v>
+        <v>14261</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12084,41 +12084,41 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>3200</v>
+        <v>95</v>
       </c>
       <c r="K163" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L163" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M163" t="n">
-        <v>300</v>
+        <v>14474</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q163" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12161,36 +12161,36 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>3000</v>
+        <v>95</v>
       </c>
       <c r="K164" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L164" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M164" t="n">
-        <v>250</v>
+        <v>14526</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="Q164" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K165" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L165" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M165" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12305,36 +12305,36 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>110</v>
+        <v>3000</v>
       </c>
       <c r="K166" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L166" t="n">
-        <v>14500</v>
+        <v>250</v>
       </c>
       <c r="M166" t="n">
-        <v>14227</v>
+        <v>250</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="Q166" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12372,41 +12372,41 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="K167" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L167" t="n">
-        <v>15000</v>
+        <v>180</v>
       </c>
       <c r="M167" t="n">
-        <v>14550</v>
+        <v>180</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="Q167" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K168" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L168" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M168" t="n">
-        <v>13481</v>
+        <v>14227</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="Q168" t="n">
         <v>30</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K169" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L169" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M169" t="n">
-        <v>10000</v>
+        <v>14550</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="Q169" t="n">
         <v>50</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="K170" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L170" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M170" t="n">
-        <v>11737</v>
+        <v>13481</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="Q170" t="n">
         <v>30</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12660,29 +12660,29 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K171" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L171" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M171" t="n">
-        <v>14478</v>
+        <v>10000</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -12691,10 +12691,10 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>483</v>
+        <v>200</v>
       </c>
       <c r="Q171" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12737,36 +12737,36 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>3800</v>
+        <v>95</v>
       </c>
       <c r="K172" t="n">
-        <v>250</v>
+        <v>11500</v>
       </c>
       <c r="L172" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M172" t="n">
-        <v>250</v>
+        <v>11737</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="Q172" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12804,29 +12804,29 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="K173" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L173" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M173" t="n">
-        <v>13240</v>
+        <v>14478</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>265</v>
+        <v>483</v>
       </c>
       <c r="Q173" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12881,36 +12881,36 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>120</v>
+        <v>3800</v>
       </c>
       <c r="K174" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L174" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M174" t="n">
-        <v>13750</v>
+        <v>250</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q174" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K175" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L175" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M175" t="n">
-        <v>12727</v>
+        <v>13240</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q175" t="n">
         <v>50</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K176" t="n">
         <v>13500</v>
       </c>
       <c r="L176" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M176" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Q176" t="n">
         <v>30</v>
@@ -13092,7 +13092,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -13101,20 +13101,20 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K177" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L177" t="n">
         <v>13000</v>
       </c>
       <c r="M177" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q177" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13164,29 +13164,29 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J178" t="n">
         <v>60</v>
       </c>
       <c r="K178" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L178" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M178" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -13195,10 +13195,10 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q178" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K179" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L179" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M179" t="n">
-        <v>16238</v>
+        <v>13000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="Q179" t="n">
         <v>30</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K180" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L180" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M180" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q180" t="n">
         <v>50</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K181" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L181" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M181" t="n">
-        <v>14000</v>
+        <v>16238</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q181" t="n">
         <v>30</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13464,13 +13464,13 @@
         <v>110</v>
       </c>
       <c r="K182" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L182" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M182" t="n">
-        <v>12773</v>
+        <v>14227</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q182" t="n">
         <v>50</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K183" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L183" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M183" t="n">
-        <v>12240</v>
+        <v>14000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,12 +13555,156 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="Q183" t="n">
         <v>30</v>
       </c>
       <c r="R183" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>3</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>110</v>
+      </c>
+      <c r="K184" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L184" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M184" t="n">
+        <v>12773</v>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>50</v>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>3</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>125</v>
+      </c>
+      <c r="K185" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L185" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M185" t="n">
+        <v>12240</v>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>408</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>30</v>
+      </c>
+      <c r="R185" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R185"/>
+  <dimension ref="A1:R187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10932,41 +10932,41 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>3800</v>
+        <v>130</v>
       </c>
       <c r="K147" t="n">
-        <v>300</v>
+        <v>9500</v>
       </c>
       <c r="L147" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="M147" t="n">
-        <v>300</v>
+        <v>9731</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="Q147" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11009,36 +11009,36 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>7000</v>
+        <v>130</v>
       </c>
       <c r="K148" t="n">
-        <v>230</v>
+        <v>10500</v>
       </c>
       <c r="L148" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="M148" t="n">
-        <v>240</v>
+        <v>10731</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>240</v>
+        <v>358</v>
       </c>
       <c r="Q148" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11076,41 +11076,41 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>615</v>
+        <v>3800</v>
       </c>
       <c r="K149" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="L149" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M149" t="n">
-        <v>13951</v>
+        <v>300</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Q149" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11153,36 +11153,36 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>130</v>
+        <v>7000</v>
       </c>
       <c r="K150" t="n">
-        <v>14000</v>
+        <v>230</v>
       </c>
       <c r="L150" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M150" t="n">
-        <v>14462</v>
+        <v>240</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="Q150" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>105</v>
+        <v>615</v>
       </c>
       <c r="K151" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L151" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M151" t="n">
-        <v>12762</v>
+        <v>13951</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Q151" t="n">
         <v>50</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K152" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L152" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M152" t="n">
-        <v>13250</v>
+        <v>14462</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Q152" t="n">
         <v>30</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K153" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L153" t="n">
         <v>13000</v>
       </c>
-      <c r="L153" t="n">
-        <v>14000</v>
-      </c>
       <c r="M153" t="n">
-        <v>13474</v>
+        <v>12762</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Q153" t="n">
         <v>50</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K154" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L154" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M154" t="n">
-        <v>14455</v>
+        <v>13250</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K155" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L155" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M155" t="n">
-        <v>15476</v>
+        <v>13474</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="Q155" t="n">
         <v>50</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K156" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L156" t="n">
         <v>15000</v>
       </c>
-      <c r="L156" t="n">
-        <v>16000</v>
-      </c>
       <c r="M156" t="n">
-        <v>15478</v>
+        <v>14455</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K157" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L157" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M157" t="n">
-        <v>13750</v>
+        <v>15476</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K158" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L158" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M158" t="n">
-        <v>14500</v>
+        <v>15478</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="Q158" t="n">
         <v>30</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K159" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L159" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M159" t="n">
-        <v>11286</v>
+        <v>13750</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="Q159" t="n">
         <v>50</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K160" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L160" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M160" t="n">
-        <v>12231</v>
+        <v>14500</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K161" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L161" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="M161" t="n">
-        <v>13522</v>
+        <v>11286</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11967,11 +11967,11 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="Q161" t="n">
         <v>50</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K162" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L162" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M162" t="n">
-        <v>14261</v>
+        <v>12231</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K163" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L163" t="n">
         <v>14000</v>
       </c>
-      <c r="L163" t="n">
-        <v>15000</v>
-      </c>
       <c r="M163" t="n">
-        <v>14474</v>
+        <v>13522</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="Q163" t="n">
         <v>50</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K164" t="n">
         <v>14000</v>
       </c>
       <c r="L164" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M164" t="n">
-        <v>14526</v>
+        <v>14261</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12228,41 +12228,41 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>3200</v>
+        <v>95</v>
       </c>
       <c r="K165" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L165" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M165" t="n">
-        <v>300</v>
+        <v>14474</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q165" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12305,36 +12305,36 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>3000</v>
+        <v>95</v>
       </c>
       <c r="K166" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L166" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M166" t="n">
-        <v>250</v>
+        <v>14526</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="Q166" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K167" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L167" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M167" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12449,36 +12449,36 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>110</v>
+        <v>3000</v>
       </c>
       <c r="K168" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L168" t="n">
-        <v>14500</v>
+        <v>250</v>
       </c>
       <c r="M168" t="n">
-        <v>14227</v>
+        <v>250</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="Q168" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12516,41 +12516,41 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="K169" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L169" t="n">
-        <v>15000</v>
+        <v>180</v>
       </c>
       <c r="M169" t="n">
-        <v>14550</v>
+        <v>180</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="Q169" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K170" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L170" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M170" t="n">
-        <v>13481</v>
+        <v>14227</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="Q170" t="n">
         <v>30</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K171" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L171" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M171" t="n">
-        <v>10000</v>
+        <v>14550</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="Q171" t="n">
         <v>50</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="K172" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L172" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M172" t="n">
-        <v>11737</v>
+        <v>13481</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="Q172" t="n">
         <v>30</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12804,29 +12804,29 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K173" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L173" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M173" t="n">
-        <v>14478</v>
+        <v>10000</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -12835,10 +12835,10 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>483</v>
+        <v>200</v>
       </c>
       <c r="Q173" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12881,36 +12881,36 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>3800</v>
+        <v>95</v>
       </c>
       <c r="K174" t="n">
-        <v>250</v>
+        <v>11500</v>
       </c>
       <c r="L174" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M174" t="n">
-        <v>250</v>
+        <v>11737</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="Q174" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12948,29 +12948,29 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="K175" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L175" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M175" t="n">
-        <v>13240</v>
+        <v>14478</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>265</v>
+        <v>483</v>
       </c>
       <c r="Q175" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13025,36 +13025,36 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>120</v>
+        <v>3800</v>
       </c>
       <c r="K176" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L176" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M176" t="n">
-        <v>13750</v>
+        <v>250</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q176" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K177" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L177" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M177" t="n">
-        <v>12727</v>
+        <v>13240</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q177" t="n">
         <v>50</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K178" t="n">
         <v>13500</v>
       </c>
       <c r="L178" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M178" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Q178" t="n">
         <v>30</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,20 +13245,20 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K179" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L179" t="n">
         <v>13000</v>
       </c>
       <c r="M179" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q179" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13308,29 +13308,29 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J180" t="n">
         <v>60</v>
       </c>
       <c r="K180" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L180" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M180" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -13339,10 +13339,10 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q180" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K181" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L181" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M181" t="n">
-        <v>16238</v>
+        <v>13000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="Q181" t="n">
         <v>30</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K182" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L182" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M182" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q182" t="n">
         <v>50</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K183" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L183" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M183" t="n">
-        <v>14000</v>
+        <v>16238</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q183" t="n">
         <v>30</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -13608,13 +13608,13 @@
         <v>110</v>
       </c>
       <c r="K184" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L184" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M184" t="n">
-        <v>12773</v>
+        <v>14227</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q184" t="n">
         <v>50</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K185" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L185" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M185" t="n">
-        <v>12240</v>
+        <v>14000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,12 +13699,156 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="Q185" t="n">
         <v>30</v>
       </c>
       <c r="R185" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>3</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>110</v>
+      </c>
+      <c r="K186" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L186" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M186" t="n">
+        <v>12773</v>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>50</v>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>3</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>125</v>
+      </c>
+      <c r="K187" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L187" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M187" t="n">
+        <v>12240</v>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>408</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>30</v>
+      </c>
+      <c r="R187" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R187"/>
+  <dimension ref="A1:R189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10221,16 +10221,16 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K137" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L137" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M137" t="n">
-        <v>15000</v>
+        <v>9767</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="Q137" t="n">
         <v>50</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="K138" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="L138" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M138" t="n">
-        <v>15528</v>
+        <v>10767</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>518</v>
+        <v>359</v>
       </c>
       <c r="Q138" t="n">
         <v>30</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K139" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L139" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M139" t="n">
-        <v>13455</v>
+        <v>15000</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Q139" t="n">
         <v>50</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10437,20 +10437,20 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="K140" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L140" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M140" t="n">
-        <v>14000</v>
+        <v>15528</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10459,10 +10459,10 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>280</v>
+        <v>518</v>
       </c>
       <c r="Q140" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="K141" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L141" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M141" t="n">
-        <v>10559</v>
+        <v>13455</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="Q141" t="n">
         <v>50</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10577,24 +10577,24 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K142" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L142" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M142" t="n">
-        <v>12260</v>
+        <v>14000</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>409</v>
+        <v>280</v>
       </c>
       <c r="Q142" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10644,29 +10644,29 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K143" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L143" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M143" t="n">
-        <v>12000</v>
+        <v>10559</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10675,10 +10675,10 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="Q143" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R143" t="inlineStr">
         <is>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10716,29 +10716,29 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K144" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L144" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M144" t="n">
-        <v>15000</v>
+        <v>12260</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="Q144" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44386</v>
+        <v>44270</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10788,29 +10788,29 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K145" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L145" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M145" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q145" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10860,29 +10860,29 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K146" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L146" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M146" t="n">
-        <v>16529</v>
+        <v>15000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>551</v>
+        <v>300</v>
       </c>
       <c r="Q146" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="K147" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L147" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M147" t="n">
-        <v>9731</v>
+        <v>15000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="Q147" t="n">
         <v>50</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="K148" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L148" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M148" t="n">
-        <v>10731</v>
+        <v>16529</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>358</v>
+        <v>551</v>
       </c>
       <c r="Q148" t="n">
         <v>30</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11076,41 +11076,41 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>3800</v>
+        <v>130</v>
       </c>
       <c r="K149" t="n">
-        <v>300</v>
+        <v>9500</v>
       </c>
       <c r="L149" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="M149" t="n">
-        <v>300</v>
+        <v>9731</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="Q149" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11153,36 +11153,36 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>7000</v>
+        <v>130</v>
       </c>
       <c r="K150" t="n">
-        <v>230</v>
+        <v>10500</v>
       </c>
       <c r="L150" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="M150" t="n">
-        <v>240</v>
+        <v>10731</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>240</v>
+        <v>358</v>
       </c>
       <c r="Q150" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11220,41 +11220,41 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>615</v>
+        <v>3800</v>
       </c>
       <c r="K151" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="L151" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M151" t="n">
-        <v>13951</v>
+        <v>300</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Q151" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,36 +11297,36 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>130</v>
+        <v>7000</v>
       </c>
       <c r="K152" t="n">
-        <v>14000</v>
+        <v>230</v>
       </c>
       <c r="L152" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M152" t="n">
-        <v>14462</v>
+        <v>240</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="Q152" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>105</v>
+        <v>615</v>
       </c>
       <c r="K153" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L153" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M153" t="n">
-        <v>12762</v>
+        <v>13951</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Q153" t="n">
         <v>50</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K154" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L154" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M154" t="n">
-        <v>13250</v>
+        <v>14462</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K155" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L155" t="n">
         <v>13000</v>
       </c>
-      <c r="L155" t="n">
-        <v>14000</v>
-      </c>
       <c r="M155" t="n">
-        <v>13474</v>
+        <v>12762</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Q155" t="n">
         <v>50</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K156" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L156" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M156" t="n">
-        <v>14455</v>
+        <v>13250</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K157" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L157" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M157" t="n">
-        <v>15476</v>
+        <v>13474</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K158" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L158" t="n">
         <v>15000</v>
       </c>
-      <c r="L158" t="n">
-        <v>16000</v>
-      </c>
       <c r="M158" t="n">
-        <v>15478</v>
+        <v>14455</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="Q158" t="n">
         <v>30</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K159" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L159" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M159" t="n">
-        <v>13750</v>
+        <v>15476</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="Q159" t="n">
         <v>50</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K160" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L160" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M160" t="n">
-        <v>14500</v>
+        <v>15478</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K161" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L161" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M161" t="n">
-        <v>11286</v>
+        <v>13750</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="Q161" t="n">
         <v>50</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K162" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L162" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M162" t="n">
-        <v>12231</v>
+        <v>14500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K163" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L163" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="M163" t="n">
-        <v>13522</v>
+        <v>11286</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12111,11 +12111,11 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="Q163" t="n">
         <v>50</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K164" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L164" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M164" t="n">
-        <v>14261</v>
+        <v>12231</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K165" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L165" t="n">
         <v>14000</v>
       </c>
-      <c r="L165" t="n">
-        <v>15000</v>
-      </c>
       <c r="M165" t="n">
-        <v>14474</v>
+        <v>13522</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="Q165" t="n">
         <v>50</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K166" t="n">
         <v>14000</v>
       </c>
       <c r="L166" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M166" t="n">
-        <v>14526</v>
+        <v>14261</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q166" t="n">
         <v>30</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12372,41 +12372,41 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>3200</v>
+        <v>95</v>
       </c>
       <c r="K167" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L167" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M167" t="n">
-        <v>300</v>
+        <v>14474</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q167" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12449,36 +12449,36 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>3000</v>
+        <v>95</v>
       </c>
       <c r="K168" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L168" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M168" t="n">
-        <v>250</v>
+        <v>14526</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="Q168" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K169" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L169" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M169" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12593,36 +12593,36 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>110</v>
+        <v>3000</v>
       </c>
       <c r="K170" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L170" t="n">
-        <v>14500</v>
+        <v>250</v>
       </c>
       <c r="M170" t="n">
-        <v>14227</v>
+        <v>250</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="Q170" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12660,41 +12660,41 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="K171" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L171" t="n">
-        <v>15000</v>
+        <v>180</v>
       </c>
       <c r="M171" t="n">
-        <v>14550</v>
+        <v>180</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="Q171" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K172" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L172" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M172" t="n">
-        <v>13481</v>
+        <v>14227</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="Q172" t="n">
         <v>30</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K173" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L173" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M173" t="n">
-        <v>10000</v>
+        <v>14550</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="Q173" t="n">
         <v>50</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="K174" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L174" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M174" t="n">
-        <v>11737</v>
+        <v>13481</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="Q174" t="n">
         <v>30</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12948,29 +12948,29 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K175" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L175" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M175" t="n">
-        <v>14478</v>
+        <v>10000</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -12979,10 +12979,10 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>483</v>
+        <v>200</v>
       </c>
       <c r="Q175" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13025,36 +13025,36 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>3800</v>
+        <v>95</v>
       </c>
       <c r="K176" t="n">
-        <v>250</v>
+        <v>11500</v>
       </c>
       <c r="L176" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M176" t="n">
-        <v>250</v>
+        <v>11737</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="Q176" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13092,29 +13092,29 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="K177" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L177" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M177" t="n">
-        <v>13240</v>
+        <v>14478</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>265</v>
+        <v>483</v>
       </c>
       <c r="Q177" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13169,36 +13169,36 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>120</v>
+        <v>3800</v>
       </c>
       <c r="K178" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L178" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M178" t="n">
-        <v>13750</v>
+        <v>250</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q178" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K179" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L179" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M179" t="n">
-        <v>12727</v>
+        <v>13240</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q179" t="n">
         <v>50</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K180" t="n">
         <v>13500</v>
       </c>
       <c r="L180" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M180" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Q180" t="n">
         <v>30</v>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -13389,20 +13389,20 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K181" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L181" t="n">
         <v>13000</v>
       </c>
       <c r="M181" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q181" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13452,29 +13452,29 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J182" t="n">
         <v>60</v>
       </c>
       <c r="K182" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L182" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M182" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -13483,10 +13483,10 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q182" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K183" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L183" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M183" t="n">
-        <v>16238</v>
+        <v>13000</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="Q183" t="n">
         <v>30</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K184" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L184" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M184" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q184" t="n">
         <v>50</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K185" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L185" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M185" t="n">
-        <v>14000</v>
+        <v>16238</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q185" t="n">
         <v>30</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -13752,13 +13752,13 @@
         <v>110</v>
       </c>
       <c r="K186" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L186" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M186" t="n">
-        <v>12773</v>
+        <v>14227</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q186" t="n">
         <v>50</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K187" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L187" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M187" t="n">
-        <v>12240</v>
+        <v>14000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,12 +13843,156 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="Q187" t="n">
         <v>30</v>
       </c>
       <c r="R187" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>3</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>110</v>
+      </c>
+      <c r="K188" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L188" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M188" t="n">
+        <v>12773</v>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>50</v>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>3</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>125</v>
+      </c>
+      <c r="K189" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L189" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M189" t="n">
+        <v>12240</v>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>408</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>30</v>
+      </c>
+      <c r="R189" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R189"/>
+  <dimension ref="A1:R191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K79" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L79" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M79" t="n">
-        <v>14000</v>
+        <v>9385</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="Q79" t="n">
         <v>50</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44434</v>
+        <v>44467</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6108,29 +6108,29 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K80" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L80" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="M80" t="n">
-        <v>12731</v>
+        <v>11241</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6139,10 +6139,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="Q80" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R80" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6180,29 +6180,29 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K81" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L81" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M81" t="n">
-        <v>13239</v>
+        <v>14000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="Q81" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6252,29 +6252,29 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K82" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L82" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M82" t="n">
-        <v>15000</v>
+        <v>12731</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="Q82" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6324,25 +6324,25 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K83" t="n">
         <v>13000</v>
       </c>
       <c r="L83" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M83" t="n">
-        <v>13545</v>
+        <v>13239</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="Q83" t="n">
         <v>30</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44399</v>
+        <v>44327</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6396,29 +6396,29 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J84" t="n">
         <v>80</v>
       </c>
       <c r="K84" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L84" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M84" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q84" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6468,25 +6468,25 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J85" t="n">
         <v>110</v>
       </c>
       <c r="K85" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L85" t="n">
         <v>14000</v>
       </c>
-      <c r="L85" t="n">
-        <v>15000</v>
-      </c>
       <c r="M85" t="n">
-        <v>14455</v>
+        <v>13545</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="Q85" t="n">
         <v>30</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -6545,20 +6545,20 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J86" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K86" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L86" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M86" t="n">
-        <v>11250</v>
+        <v>10000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q86" t="n">
         <v>50</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -6621,16 +6621,16 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K87" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L87" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M87" t="n">
-        <v>11746</v>
+        <v>14455</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>392</v>
+        <v>482</v>
       </c>
       <c r="Q87" t="n">
         <v>30</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K88" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L88" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="M88" t="n">
-        <v>15000</v>
+        <v>11250</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="Q88" t="n">
         <v>50</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K89" t="n">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="L89" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M89" t="n">
-        <v>17478</v>
+        <v>11746</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>583</v>
+        <v>392</v>
       </c>
       <c r="Q89" t="n">
         <v>30</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K90" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L90" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M90" t="n">
-        <v>10520</v>
+        <v>15000</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6855,11 +6855,11 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="Q90" t="n">
         <v>50</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K91" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L91" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="M91" t="n">
-        <v>12234</v>
+        <v>17478</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6927,11 +6927,11 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>408</v>
+        <v>583</v>
       </c>
       <c r="Q91" t="n">
         <v>30</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K92" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L92" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M92" t="n">
-        <v>13000</v>
+        <v>10520</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="Q92" t="n">
         <v>50</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="K93" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L93" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M93" t="n">
-        <v>13762</v>
+        <v>12234</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="Q93" t="n">
         <v>30</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7116,41 +7116,41 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>3800</v>
+        <v>50</v>
       </c>
       <c r="K94" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L94" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M94" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7193,36 +7193,36 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>4200</v>
+        <v>105</v>
       </c>
       <c r="K95" t="n">
-        <v>200</v>
+        <v>13500</v>
       </c>
       <c r="L95" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="M95" t="n">
-        <v>200</v>
+        <v>13762</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>200</v>
+        <v>459</v>
       </c>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7260,41 +7260,41 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>105</v>
+        <v>3800</v>
       </c>
       <c r="K96" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L96" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="M96" t="n">
-        <v>13262</v>
+        <v>300</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Q96" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7337,36 +7337,36 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>60</v>
+        <v>4200</v>
       </c>
       <c r="K97" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="L97" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="M97" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="Q97" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7413,16 +7413,16 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K98" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L98" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M98" t="n">
-        <v>15000</v>
+        <v>13262</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q98" t="n">
         <v>50</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7485,16 +7485,16 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="K99" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="L99" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M99" t="n">
-        <v>14474</v>
+        <v>13500</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="Q99" t="n">
         <v>30</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7560,13 +7560,13 @@
         <v>50</v>
       </c>
       <c r="K100" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L100" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M100" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q100" t="n">
         <v>50</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7620,29 +7620,29 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="K101" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L101" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M101" t="n">
-        <v>12739</v>
+        <v>14474</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>255</v>
+        <v>482</v>
       </c>
       <c r="Q101" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R101" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7692,29 +7692,29 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K102" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L102" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M102" t="n">
-        <v>12761</v>
+        <v>14000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>425</v>
+        <v>280</v>
       </c>
       <c r="Q102" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R102" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K103" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L103" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M103" t="n">
-        <v>14000</v>
+        <v>12739</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q103" t="n">
         <v>50</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K104" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L104" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M104" t="n">
-        <v>14750</v>
+        <v>12761</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="Q104" t="n">
         <v>30</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7920,13 +7920,13 @@
         <v>60</v>
       </c>
       <c r="K105" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L105" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M105" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q105" t="n">
         <v>50</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K106" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L106" t="n">
         <v>15000</v>
       </c>
-      <c r="L106" t="n">
-        <v>16000</v>
-      </c>
       <c r="M106" t="n">
-        <v>15524</v>
+        <v>14750</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="Q106" t="n">
         <v>30</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8061,16 +8061,16 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="K107" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="L107" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M107" t="n">
-        <v>10741</v>
+        <v>15000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q107" t="n">
         <v>50</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K108" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L108" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M108" t="n">
-        <v>12731</v>
+        <v>15524</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>424</v>
+        <v>517</v>
       </c>
       <c r="Q108" t="n">
         <v>30</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="K109" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L109" t="n">
         <v>11000</v>
       </c>
-      <c r="L109" t="n">
-        <v>11500</v>
-      </c>
       <c r="M109" t="n">
-        <v>11235</v>
+        <v>10741</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Q109" t="n">
         <v>50</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8280,13 +8280,13 @@
         <v>130</v>
       </c>
       <c r="K110" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L110" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M110" t="n">
-        <v>11769</v>
+        <v>12731</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="Q110" t="n">
         <v>30</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K111" t="n">
         <v>11000</v>
       </c>
       <c r="L111" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M111" t="n">
-        <v>11000</v>
+        <v>11235</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q111" t="n">
         <v>50</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44448</v>
+        <v>44453</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8412,29 +8412,29 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K112" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L112" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M112" t="n">
-        <v>10733</v>
+        <v>11769</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8443,10 +8443,10 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="Q112" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R112" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8484,29 +8484,29 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="K113" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L113" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M113" t="n">
-        <v>11765</v>
+        <v>11000</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="Q113" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R113" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K114" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L114" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M114" t="n">
-        <v>13231</v>
+        <v>10733</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="Q114" t="n">
         <v>50</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="K115" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L115" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="M115" t="n">
-        <v>13222</v>
+        <v>11765</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="Q115" t="n">
         <v>30</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K116" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L116" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M116" t="n">
-        <v>15000</v>
+        <v>13231</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q116" t="n">
         <v>50</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K117" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L117" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M117" t="n">
-        <v>14455</v>
+        <v>13222</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="Q117" t="n">
         <v>30</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44167</v>
+        <v>44370</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8844,41 +8844,41 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>2800</v>
+        <v>80</v>
       </c>
       <c r="K118" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L118" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M118" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P118" t="n">
         <v>300</v>
       </c>
       <c r="Q118" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R118" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44210</v>
+        <v>44370</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K119" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L119" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M119" t="n">
-        <v>11000</v>
+        <v>14455</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>367</v>
+        <v>482</v>
       </c>
       <c r="Q119" t="n">
         <v>30</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44344</v>
+        <v>44167</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8988,41 +8988,41 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>60</v>
+        <v>2800</v>
       </c>
       <c r="K120" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L120" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M120" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q120" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K121" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L121" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M121" t="n">
-        <v>14444</v>
+        <v>11000</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>481</v>
+        <v>367</v>
       </c>
       <c r="Q121" t="n">
         <v>30</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K122" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L122" t="n">
         <v>14000</v>
       </c>
       <c r="M122" t="n">
-        <v>13739</v>
+        <v>14000</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q122" t="n">
         <v>50</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K123" t="n">
         <v>14000</v>
       </c>
       <c r="L123" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M123" t="n">
-        <v>14261</v>
+        <v>14444</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q123" t="n">
         <v>30</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9276,29 +9276,29 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J124" t="n">
         <v>115</v>
       </c>
       <c r="K124" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="L124" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M124" t="n">
-        <v>11739</v>
+        <v>13739</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9307,10 +9307,10 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>391</v>
+        <v>275</v>
       </c>
       <c r="Q124" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R124" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9348,29 +9348,29 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K125" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L125" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M125" t="n">
-        <v>13250</v>
+        <v>14261</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9379,10 +9379,10 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>265</v>
+        <v>475</v>
       </c>
       <c r="Q125" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R125" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K126" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L126" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M126" t="n">
-        <v>13455</v>
+        <v>11739</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="Q126" t="n">
         <v>30</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K127" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L127" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="M127" t="n">
-        <v>10238</v>
+        <v>13250</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="Q127" t="n">
         <v>50</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K128" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L128" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M128" t="n">
-        <v>11262</v>
+        <v>13455</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="Q128" t="n">
         <v>30</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9648,13 +9648,13 @@
         <v>105</v>
       </c>
       <c r="K129" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L129" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M129" t="n">
-        <v>12762</v>
+        <v>10238</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="Q129" t="n">
         <v>50</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9720,13 +9720,13 @@
         <v>105</v>
       </c>
       <c r="K130" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L130" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="M130" t="n">
-        <v>14238</v>
+        <v>11262</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="Q130" t="n">
         <v>30</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9780,41 +9780,41 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>2000</v>
+        <v>105</v>
       </c>
       <c r="K131" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L131" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M131" t="n">
-        <v>300</v>
+        <v>12762</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q131" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R131" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9857,36 +9857,36 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1800</v>
+        <v>105</v>
       </c>
       <c r="K132" t="n">
-        <v>220</v>
+        <v>14000</v>
       </c>
       <c r="L132" t="n">
-        <v>220</v>
+        <v>14500</v>
       </c>
       <c r="M132" t="n">
-        <v>220</v>
+        <v>14238</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>220</v>
+        <v>475</v>
       </c>
       <c r="Q132" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R132" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9924,41 +9924,41 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>115</v>
+        <v>2000</v>
       </c>
       <c r="K133" t="n">
-        <v>12500</v>
+        <v>300</v>
       </c>
       <c r="L133" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M133" t="n">
-        <v>12739</v>
+        <v>300</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="Q133" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10001,36 +10001,36 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>125</v>
+        <v>1800</v>
       </c>
       <c r="K134" t="n">
-        <v>12500</v>
+        <v>220</v>
       </c>
       <c r="L134" t="n">
-        <v>13000</v>
+        <v>220</v>
       </c>
       <c r="M134" t="n">
-        <v>12760</v>
+        <v>220</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>425</v>
+        <v>220</v>
       </c>
       <c r="Q134" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10068,41 +10068,41 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>3500</v>
+        <v>115</v>
       </c>
       <c r="K135" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L135" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M135" t="n">
-        <v>300</v>
+        <v>12739</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q135" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10145,36 +10145,36 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>3800</v>
+        <v>125</v>
       </c>
       <c r="K136" t="n">
-        <v>250</v>
+        <v>12500</v>
       </c>
       <c r="L136" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="M136" t="n">
-        <v>250</v>
+        <v>12760</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="Q136" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10212,41 +10212,41 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>150</v>
+        <v>3500</v>
       </c>
       <c r="K137" t="n">
-        <v>9500</v>
+        <v>300</v>
       </c>
       <c r="L137" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="M137" t="n">
-        <v>9767</v>
+        <v>300</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="Q137" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10289,36 +10289,36 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>150</v>
+        <v>3800</v>
       </c>
       <c r="K138" t="n">
-        <v>10500</v>
+        <v>250</v>
       </c>
       <c r="L138" t="n">
-        <v>11000</v>
+        <v>250</v>
       </c>
       <c r="M138" t="n">
-        <v>10767</v>
+        <v>250</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>359</v>
+        <v>250</v>
       </c>
       <c r="Q138" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K139" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L139" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M139" t="n">
-        <v>15000</v>
+        <v>9767</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="Q139" t="n">
         <v>50</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="K140" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="L140" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M140" t="n">
-        <v>15528</v>
+        <v>10767</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>518</v>
+        <v>359</v>
       </c>
       <c r="Q140" t="n">
         <v>30</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K141" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L141" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M141" t="n">
-        <v>13455</v>
+        <v>15000</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Q141" t="n">
         <v>50</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10581,20 +10581,20 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="K142" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L142" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M142" t="n">
-        <v>14000</v>
+        <v>15528</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10603,10 +10603,10 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>280</v>
+        <v>518</v>
       </c>
       <c r="Q142" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R142" t="inlineStr">
         <is>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="K143" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L143" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M143" t="n">
-        <v>10559</v>
+        <v>13455</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="Q143" t="n">
         <v>50</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10721,24 +10721,24 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K144" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L144" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M144" t="n">
-        <v>12260</v>
+        <v>14000</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>409</v>
+        <v>280</v>
       </c>
       <c r="Q144" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10788,29 +10788,29 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K145" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L145" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M145" t="n">
-        <v>12000</v>
+        <v>10559</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -10819,10 +10819,10 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="Q145" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R145" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44390</v>
+        <v>44447</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10860,29 +10860,29 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K146" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L146" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="M146" t="n">
-        <v>15000</v>
+        <v>12260</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="Q146" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44386</v>
+        <v>44270</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10932,29 +10932,29 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K147" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L147" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M147" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q147" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11004,29 +11004,29 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K148" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L148" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M148" t="n">
-        <v>16529</v>
+        <v>15000</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>551</v>
+        <v>300</v>
       </c>
       <c r="Q148" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="K149" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L149" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M149" t="n">
-        <v>9731</v>
+        <v>15000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="Q149" t="n">
         <v>50</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="K150" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L150" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M150" t="n">
-        <v>10731</v>
+        <v>16529</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>358</v>
+        <v>551</v>
       </c>
       <c r="Q150" t="n">
         <v>30</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11220,41 +11220,41 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>3800</v>
+        <v>130</v>
       </c>
       <c r="K151" t="n">
-        <v>300</v>
+        <v>9500</v>
       </c>
       <c r="L151" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="M151" t="n">
-        <v>300</v>
+        <v>9731</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="Q151" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,36 +11297,36 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>7000</v>
+        <v>130</v>
       </c>
       <c r="K152" t="n">
-        <v>230</v>
+        <v>10500</v>
       </c>
       <c r="L152" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="M152" t="n">
-        <v>240</v>
+        <v>10731</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>240</v>
+        <v>358</v>
       </c>
       <c r="Q152" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11364,41 +11364,41 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>615</v>
+        <v>3800</v>
       </c>
       <c r="K153" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="L153" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M153" t="n">
-        <v>13951</v>
+        <v>300</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Q153" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11441,36 +11441,36 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>130</v>
+        <v>7000</v>
       </c>
       <c r="K154" t="n">
-        <v>14000</v>
+        <v>230</v>
       </c>
       <c r="L154" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M154" t="n">
-        <v>14462</v>
+        <v>240</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="Q154" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11517,16 +11517,16 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>105</v>
+        <v>615</v>
       </c>
       <c r="K155" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L155" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M155" t="n">
-        <v>12762</v>
+        <v>13951</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Q155" t="n">
         <v>50</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K156" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L156" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M156" t="n">
-        <v>13250</v>
+        <v>14462</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Q156" t="n">
         <v>30</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K157" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L157" t="n">
         <v>13000</v>
       </c>
-      <c r="L157" t="n">
-        <v>14000</v>
-      </c>
       <c r="M157" t="n">
-        <v>13474</v>
+        <v>12762</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K158" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L158" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M158" t="n">
-        <v>14455</v>
+        <v>13250</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="Q158" t="n">
         <v>30</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K159" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L159" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M159" t="n">
-        <v>15476</v>
+        <v>13474</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="Q159" t="n">
         <v>50</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K160" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L160" t="n">
         <v>15000</v>
       </c>
-      <c r="L160" t="n">
-        <v>16000</v>
-      </c>
       <c r="M160" t="n">
-        <v>15478</v>
+        <v>14455</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K161" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L161" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M161" t="n">
-        <v>13750</v>
+        <v>15476</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="Q161" t="n">
         <v>50</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K162" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L162" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M162" t="n">
-        <v>14500</v>
+        <v>15478</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K163" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L163" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M163" t="n">
-        <v>11286</v>
+        <v>13750</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="Q163" t="n">
         <v>50</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K164" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L164" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M164" t="n">
-        <v>12231</v>
+        <v>14500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K165" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L165" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="M165" t="n">
-        <v>13522</v>
+        <v>11286</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12255,11 +12255,11 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="Q165" t="n">
         <v>50</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K166" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L166" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M166" t="n">
-        <v>14261</v>
+        <v>12231</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="Q166" t="n">
         <v>30</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K167" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L167" t="n">
         <v>14000</v>
       </c>
-      <c r="L167" t="n">
-        <v>15000</v>
-      </c>
       <c r="M167" t="n">
-        <v>14474</v>
+        <v>13522</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="Q167" t="n">
         <v>50</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K168" t="n">
         <v>14000</v>
       </c>
       <c r="L168" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M168" t="n">
-        <v>14526</v>
+        <v>14261</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q168" t="n">
         <v>30</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12516,41 +12516,41 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>3200</v>
+        <v>95</v>
       </c>
       <c r="K169" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L169" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M169" t="n">
-        <v>300</v>
+        <v>14474</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q169" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12593,36 +12593,36 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>3000</v>
+        <v>95</v>
       </c>
       <c r="K170" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L170" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M170" t="n">
-        <v>250</v>
+        <v>14526</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="Q170" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K171" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L171" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M171" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12737,36 +12737,36 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>110</v>
+        <v>3000</v>
       </c>
       <c r="K172" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L172" t="n">
-        <v>14500</v>
+        <v>250</v>
       </c>
       <c r="M172" t="n">
-        <v>14227</v>
+        <v>250</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="Q172" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12804,41 +12804,41 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="K173" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L173" t="n">
-        <v>15000</v>
+        <v>180</v>
       </c>
       <c r="M173" t="n">
-        <v>14550</v>
+        <v>180</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="Q173" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K174" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L174" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M174" t="n">
-        <v>13481</v>
+        <v>14227</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="Q174" t="n">
         <v>30</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K175" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L175" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M175" t="n">
-        <v>10000</v>
+        <v>14550</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="Q175" t="n">
         <v>50</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="K176" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L176" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M176" t="n">
-        <v>11737</v>
+        <v>13481</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="Q176" t="n">
         <v>30</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13092,29 +13092,29 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K177" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L177" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M177" t="n">
-        <v>14478</v>
+        <v>10000</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -13123,10 +13123,10 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>483</v>
+        <v>200</v>
       </c>
       <c r="Q177" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13169,36 +13169,36 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>3800</v>
+        <v>95</v>
       </c>
       <c r="K178" t="n">
-        <v>250</v>
+        <v>11500</v>
       </c>
       <c r="L178" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M178" t="n">
-        <v>250</v>
+        <v>11737</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="Q178" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13236,29 +13236,29 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="K179" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L179" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M179" t="n">
-        <v>13240</v>
+        <v>14478</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>265</v>
+        <v>483</v>
       </c>
       <c r="Q179" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13313,36 +13313,36 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>120</v>
+        <v>3800</v>
       </c>
       <c r="K180" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L180" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M180" t="n">
-        <v>13750</v>
+        <v>250</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q180" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K181" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L181" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M181" t="n">
-        <v>12727</v>
+        <v>13240</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q181" t="n">
         <v>50</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K182" t="n">
         <v>13500</v>
       </c>
       <c r="L182" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M182" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Q182" t="n">
         <v>30</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,20 +13533,20 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K183" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L183" t="n">
         <v>13000</v>
       </c>
       <c r="M183" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -13555,10 +13555,10 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q183" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -13596,29 +13596,29 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J184" t="n">
         <v>60</v>
       </c>
       <c r="K184" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L184" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M184" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -13627,10 +13627,10 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q184" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K185" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L185" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M185" t="n">
-        <v>16238</v>
+        <v>13000</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="Q185" t="n">
         <v>30</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K186" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L186" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M186" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q186" t="n">
         <v>50</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K187" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L187" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M187" t="n">
-        <v>14000</v>
+        <v>16238</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q187" t="n">
         <v>30</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -13896,13 +13896,13 @@
         <v>110</v>
       </c>
       <c r="K188" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L188" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M188" t="n">
-        <v>12773</v>
+        <v>14227</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q188" t="n">
         <v>50</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K189" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L189" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M189" t="n">
-        <v>12240</v>
+        <v>14000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,12 +13987,156 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="Q189" t="n">
         <v>30</v>
       </c>
       <c r="R189" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>3</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E190" t="n">
+        <v>5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>110</v>
+      </c>
+      <c r="K190" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L190" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M190" t="n">
+        <v>12773</v>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>50</v>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>3</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E191" t="n">
+        <v>5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>125</v>
+      </c>
+      <c r="K191" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L191" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M191" t="n">
+        <v>12240</v>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>408</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>30</v>
+      </c>
+      <c r="R191" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R191"/>
+  <dimension ref="A1:R193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="K148" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L148" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="M148" t="n">
-        <v>15000</v>
+        <v>9267</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="Q148" t="n">
         <v>50</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11076,29 +11076,29 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K149" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="L149" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M149" t="n">
-        <v>15000</v>
+        <v>10767</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11107,10 +11107,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="Q149" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R149" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11148,29 +11148,29 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K150" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L150" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M150" t="n">
-        <v>16529</v>
+        <v>15000</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11179,10 +11179,10 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>551</v>
+        <v>300</v>
       </c>
       <c r="Q150" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R150" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="K151" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L151" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M151" t="n">
-        <v>9731</v>
+        <v>15000</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="Q151" t="n">
         <v>50</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11301,16 +11301,16 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="K152" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L152" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M152" t="n">
-        <v>10731</v>
+        <v>16529</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>358</v>
+        <v>551</v>
       </c>
       <c r="Q152" t="n">
         <v>30</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11364,41 +11364,41 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>3800</v>
+        <v>130</v>
       </c>
       <c r="K153" t="n">
-        <v>300</v>
+        <v>9500</v>
       </c>
       <c r="L153" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="M153" t="n">
-        <v>300</v>
+        <v>9731</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="Q153" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R153" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11441,36 +11441,36 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>7000</v>
+        <v>130</v>
       </c>
       <c r="K154" t="n">
-        <v>230</v>
+        <v>10500</v>
       </c>
       <c r="L154" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="M154" t="n">
-        <v>240</v>
+        <v>10731</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>240</v>
+        <v>358</v>
       </c>
       <c r="Q154" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11508,41 +11508,41 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>615</v>
+        <v>3800</v>
       </c>
       <c r="K155" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="L155" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M155" t="n">
-        <v>13951</v>
+        <v>300</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Q155" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11585,36 +11585,36 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>130</v>
+        <v>7000</v>
       </c>
       <c r="K156" t="n">
-        <v>14000</v>
+        <v>230</v>
       </c>
       <c r="L156" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M156" t="n">
-        <v>14462</v>
+        <v>240</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="Q156" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>105</v>
+        <v>615</v>
       </c>
       <c r="K157" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L157" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M157" t="n">
-        <v>12762</v>
+        <v>13951</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Q157" t="n">
         <v>50</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K158" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L158" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M158" t="n">
-        <v>13250</v>
+        <v>14462</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Q158" t="n">
         <v>30</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K159" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L159" t="n">
         <v>13000</v>
       </c>
-      <c r="L159" t="n">
-        <v>14000</v>
-      </c>
       <c r="M159" t="n">
-        <v>13474</v>
+        <v>12762</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Q159" t="n">
         <v>50</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K160" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L160" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M160" t="n">
-        <v>14455</v>
+        <v>13250</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K161" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L161" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M161" t="n">
-        <v>15476</v>
+        <v>13474</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="Q161" t="n">
         <v>50</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K162" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L162" t="n">
         <v>15000</v>
       </c>
-      <c r="L162" t="n">
-        <v>16000</v>
-      </c>
       <c r="M162" t="n">
-        <v>15478</v>
+        <v>14455</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K163" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L163" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M163" t="n">
-        <v>13750</v>
+        <v>15476</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="Q163" t="n">
         <v>50</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K164" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L164" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M164" t="n">
-        <v>14500</v>
+        <v>15478</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K165" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L165" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M165" t="n">
-        <v>11286</v>
+        <v>13750</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="Q165" t="n">
         <v>50</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K166" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L166" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M166" t="n">
-        <v>12231</v>
+        <v>14500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="Q166" t="n">
         <v>30</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K167" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L167" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="M167" t="n">
-        <v>13522</v>
+        <v>11286</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12399,11 +12399,11 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="Q167" t="n">
         <v>50</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K168" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L168" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M168" t="n">
-        <v>14261</v>
+        <v>12231</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="Q168" t="n">
         <v>30</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K169" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L169" t="n">
         <v>14000</v>
       </c>
-      <c r="L169" t="n">
-        <v>15000</v>
-      </c>
       <c r="M169" t="n">
-        <v>14474</v>
+        <v>13522</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="Q169" t="n">
         <v>50</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K170" t="n">
         <v>14000</v>
       </c>
       <c r="L170" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M170" t="n">
-        <v>14526</v>
+        <v>14261</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q170" t="n">
         <v>30</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12660,41 +12660,41 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>3200</v>
+        <v>95</v>
       </c>
       <c r="K171" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L171" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M171" t="n">
-        <v>300</v>
+        <v>14474</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q171" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12737,36 +12737,36 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>3000</v>
+        <v>95</v>
       </c>
       <c r="K172" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L172" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M172" t="n">
-        <v>250</v>
+        <v>14526</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="Q172" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K173" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L173" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M173" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12881,36 +12881,36 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>110</v>
+        <v>3000</v>
       </c>
       <c r="K174" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L174" t="n">
-        <v>14500</v>
+        <v>250</v>
       </c>
       <c r="M174" t="n">
-        <v>14227</v>
+        <v>250</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="Q174" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12948,41 +12948,41 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="K175" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L175" t="n">
-        <v>15000</v>
+        <v>180</v>
       </c>
       <c r="M175" t="n">
-        <v>14550</v>
+        <v>180</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="Q175" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K176" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L176" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M176" t="n">
-        <v>13481</v>
+        <v>14227</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="Q176" t="n">
         <v>30</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K177" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L177" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M177" t="n">
-        <v>10000</v>
+        <v>14550</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="Q177" t="n">
         <v>50</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="K178" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L178" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M178" t="n">
-        <v>11737</v>
+        <v>13481</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="Q178" t="n">
         <v>30</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13236,29 +13236,29 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K179" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L179" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M179" t="n">
-        <v>14478</v>
+        <v>10000</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -13267,10 +13267,10 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>483</v>
+        <v>200</v>
       </c>
       <c r="Q179" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13313,36 +13313,36 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>3800</v>
+        <v>95</v>
       </c>
       <c r="K180" t="n">
-        <v>250</v>
+        <v>11500</v>
       </c>
       <c r="L180" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M180" t="n">
-        <v>250</v>
+        <v>11737</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="Q180" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13380,29 +13380,29 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="K181" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L181" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M181" t="n">
-        <v>13240</v>
+        <v>14478</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>265</v>
+        <v>483</v>
       </c>
       <c r="Q181" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13457,36 +13457,36 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>120</v>
+        <v>3800</v>
       </c>
       <c r="K182" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L182" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M182" t="n">
-        <v>13750</v>
+        <v>250</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q182" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K183" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L183" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M183" t="n">
-        <v>12727</v>
+        <v>13240</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q183" t="n">
         <v>50</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K184" t="n">
         <v>13500</v>
       </c>
       <c r="L184" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M184" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Q184" t="n">
         <v>30</v>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13677,20 +13677,20 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K185" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L185" t="n">
         <v>13000</v>
       </c>
       <c r="M185" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -13699,10 +13699,10 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q185" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R185" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -13740,29 +13740,29 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J186" t="n">
         <v>60</v>
       </c>
       <c r="K186" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L186" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M186" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -13771,10 +13771,10 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q186" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R186" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K187" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L187" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M187" t="n">
-        <v>16238</v>
+        <v>13000</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="Q187" t="n">
         <v>30</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K188" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L188" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M188" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q188" t="n">
         <v>50</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K189" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L189" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M189" t="n">
-        <v>14000</v>
+        <v>16238</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q189" t="n">
         <v>30</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -14040,13 +14040,13 @@
         <v>110</v>
       </c>
       <c r="K190" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L190" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M190" t="n">
-        <v>12773</v>
+        <v>14227</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q190" t="n">
         <v>50</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K191" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L191" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M191" t="n">
-        <v>12240</v>
+        <v>14000</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,12 +14131,156 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="Q191" t="n">
         <v>30</v>
       </c>
       <c r="R191" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>3</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J192" t="n">
+        <v>110</v>
+      </c>
+      <c r="K192" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L192" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M192" t="n">
+        <v>12773</v>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>50</v>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>3</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E193" t="n">
+        <v>5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J193" t="n">
+        <v>125</v>
+      </c>
+      <c r="K193" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L193" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M193" t="n">
+        <v>12240</v>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>408</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>30</v>
+      </c>
+      <c r="R193" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R193"/>
+  <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K67" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L67" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="M67" t="n">
-        <v>15000</v>
+        <v>9250</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="Q67" t="n">
         <v>50</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5253,16 +5253,16 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K68" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="L68" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="M68" t="n">
-        <v>17538</v>
+        <v>10750</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>585</v>
+        <v>358</v>
       </c>
       <c r="Q68" t="n">
         <v>30</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K69" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L69" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M69" t="n">
-        <v>12808</v>
+        <v>15000</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="Q69" t="n">
         <v>50</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5388,29 +5388,29 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K70" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L70" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M70" t="n">
-        <v>15000</v>
+        <v>17538</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>300</v>
+        <v>585</v>
       </c>
       <c r="Q70" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -5460,25 +5460,25 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K71" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="L71" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M71" t="n">
-        <v>16545</v>
+        <v>12808</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>331</v>
+        <v>256</v>
       </c>
       <c r="Q71" t="n">
         <v>50</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -5541,16 +5541,16 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K72" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L72" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M72" t="n">
-        <v>13238</v>
+        <v>15000</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Q72" t="n">
         <v>50</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5616,17 +5616,17 @@
         <v>110</v>
       </c>
       <c r="K73" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L73" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="M73" t="n">
-        <v>13273</v>
+        <v>16545</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>442</v>
+        <v>331</v>
       </c>
       <c r="Q73" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K74" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L74" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M74" t="n">
-        <v>15000</v>
+        <v>13238</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q74" t="n">
         <v>50</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="K75" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L75" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M75" t="n">
-        <v>15000</v>
+        <v>13273</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="Q75" t="n">
         <v>30</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44334</v>
+        <v>44340</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -5825,24 +5825,24 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J76" t="n">
         <v>50</v>
       </c>
       <c r="K76" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L76" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M76" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5851,10 +5851,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="Q76" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R76" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44419</v>
+        <v>44340</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -5892,29 +5892,29 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K77" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L77" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M77" t="n">
-        <v>13773</v>
+        <v>15000</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>275</v>
+        <v>500</v>
       </c>
       <c r="Q77" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K78" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L78" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M78" t="n">
-        <v>13273</v>
+        <v>14000</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="Q78" t="n">
         <v>30</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44467</v>
+        <v>44419</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="K79" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="L79" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M79" t="n">
-        <v>9385</v>
+        <v>13773</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="Q79" t="n">
         <v>50</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44467</v>
+        <v>44419</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K80" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L80" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="M80" t="n">
-        <v>11241</v>
+        <v>13273</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="Q80" t="n">
         <v>30</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6189,16 +6189,16 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K81" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L81" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M81" t="n">
-        <v>14000</v>
+        <v>9385</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="Q81" t="n">
         <v>50</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44434</v>
+        <v>44467</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6252,29 +6252,29 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K82" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L82" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="M82" t="n">
-        <v>12731</v>
+        <v>11241</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="Q82" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44434</v>
+        <v>44342</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K83" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L83" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M83" t="n">
-        <v>13239</v>
+        <v>14000</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="Q83" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6396,29 +6396,29 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K84" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L84" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M84" t="n">
-        <v>15000</v>
+        <v>12731</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="Q84" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R84" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -6468,25 +6468,25 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K85" t="n">
         <v>13000</v>
       </c>
       <c r="L85" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M85" t="n">
-        <v>13545</v>
+        <v>13239</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="Q85" t="n">
         <v>30</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44399</v>
+        <v>44327</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -6540,29 +6540,29 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J86" t="n">
         <v>80</v>
       </c>
       <c r="K86" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L86" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M86" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="Q86" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R86" t="inlineStr">
         <is>
@@ -6612,25 +6612,25 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J87" t="n">
         <v>110</v>
       </c>
       <c r="K87" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L87" t="n">
         <v>14000</v>
       </c>
-      <c r="L87" t="n">
-        <v>15000</v>
-      </c>
       <c r="M87" t="n">
-        <v>14455</v>
+        <v>13545</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="Q87" t="n">
         <v>30</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6689,20 +6689,20 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K88" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L88" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="M88" t="n">
-        <v>11250</v>
+        <v>10000</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="Q88" t="n">
         <v>50</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6765,16 +6765,16 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K89" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="L89" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M89" t="n">
-        <v>11746</v>
+        <v>14455</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>392</v>
+        <v>482</v>
       </c>
       <c r="Q89" t="n">
         <v>30</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6837,16 +6837,16 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K90" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L90" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="M90" t="n">
-        <v>15000</v>
+        <v>11250</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="Q90" t="n">
         <v>50</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44383</v>
+        <v>44452</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K91" t="n">
-        <v>17000</v>
+        <v>11500</v>
       </c>
       <c r="L91" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M91" t="n">
-        <v>17478</v>
+        <v>11746</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>583</v>
+        <v>392</v>
       </c>
       <c r="Q91" t="n">
         <v>30</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="K92" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L92" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M92" t="n">
-        <v>10520</v>
+        <v>15000</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="Q92" t="n">
         <v>50</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44441</v>
+        <v>44383</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="K93" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L93" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="M93" t="n">
-        <v>12234</v>
+        <v>17478</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7071,11 +7071,11 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>408</v>
+        <v>583</v>
       </c>
       <c r="Q93" t="n">
         <v>30</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="K94" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L94" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M94" t="n">
-        <v>13000</v>
+        <v>10520</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7143,11 +7143,11 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="Q94" t="n">
         <v>50</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="K95" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="L95" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="M95" t="n">
-        <v>13762</v>
+        <v>12234</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7215,11 +7215,11 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="Q95" t="n">
         <v>30</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7260,41 +7260,41 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>3800</v>
+        <v>50</v>
       </c>
       <c r="K96" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="L96" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M96" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Q96" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R96" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7337,36 +7337,36 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>4200</v>
+        <v>105</v>
       </c>
       <c r="K97" t="n">
-        <v>200</v>
+        <v>13500</v>
       </c>
       <c r="L97" t="n">
-        <v>200</v>
+        <v>14000</v>
       </c>
       <c r="M97" t="n">
-        <v>200</v>
+        <v>13762</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>200</v>
+        <v>459</v>
       </c>
       <c r="Q97" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R97" t="inlineStr">
         <is>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7404,41 +7404,41 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>105</v>
+        <v>3800</v>
       </c>
       <c r="K98" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="L98" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="M98" t="n">
-        <v>13262</v>
+        <v>300</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Q98" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7481,36 +7481,36 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>60</v>
+        <v>4200</v>
       </c>
       <c r="K99" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="L99" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="M99" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="Q99" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R99" t="inlineStr">
         <is>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7557,16 +7557,16 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="K100" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L100" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M100" t="n">
-        <v>15000</v>
+        <v>13262</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q100" t="n">
         <v>50</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44336</v>
+        <v>44407</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7629,16 +7629,16 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="K101" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="L101" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M101" t="n">
-        <v>14474</v>
+        <v>13500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="Q101" t="n">
         <v>30</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7704,13 +7704,13 @@
         <v>50</v>
       </c>
       <c r="K102" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L102" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M102" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q102" t="n">
         <v>50</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44426</v>
+        <v>44336</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7764,29 +7764,29 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="K103" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L103" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M103" t="n">
-        <v>12739</v>
+        <v>14474</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7795,10 +7795,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>255</v>
+        <v>482</v>
       </c>
       <c r="Q103" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7836,29 +7836,29 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="K104" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L104" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M104" t="n">
-        <v>12761</v>
+        <v>14000</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -7867,10 +7867,10 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>425</v>
+        <v>280</v>
       </c>
       <c r="Q104" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R104" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7917,16 +7917,16 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K105" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L105" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M105" t="n">
-        <v>14000</v>
+        <v>12739</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="Q105" t="n">
         <v>50</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K106" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="L106" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M106" t="n">
-        <v>14750</v>
+        <v>12761</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="Q106" t="n">
         <v>30</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8064,13 +8064,13 @@
         <v>60</v>
       </c>
       <c r="K107" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L107" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M107" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q107" t="n">
         <v>50</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8133,16 +8133,16 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K108" t="n">
+        <v>14500</v>
+      </c>
+      <c r="L108" t="n">
         <v>15000</v>
       </c>
-      <c r="L108" t="n">
-        <v>16000</v>
-      </c>
       <c r="M108" t="n">
-        <v>15524</v>
+        <v>14750</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="Q108" t="n">
         <v>30</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="K109" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="L109" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M109" t="n">
-        <v>10741</v>
+        <v>15000</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q109" t="n">
         <v>50</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8277,16 +8277,16 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K110" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="L110" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M110" t="n">
-        <v>12731</v>
+        <v>15524</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>424</v>
+        <v>517</v>
       </c>
       <c r="Q110" t="n">
         <v>30</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8349,16 +8349,16 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="K111" t="n">
+        <v>10500</v>
+      </c>
+      <c r="L111" t="n">
         <v>11000</v>
       </c>
-      <c r="L111" t="n">
-        <v>11500</v>
-      </c>
       <c r="M111" t="n">
-        <v>11235</v>
+        <v>10741</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="Q111" t="n">
         <v>50</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8424,13 +8424,13 @@
         <v>130</v>
       </c>
       <c r="K112" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="L112" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M112" t="n">
-        <v>11769</v>
+        <v>12731</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="Q112" t="n">
         <v>30</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K113" t="n">
         <v>11000</v>
       </c>
       <c r="L113" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="M113" t="n">
-        <v>11000</v>
+        <v>11235</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q113" t="n">
         <v>50</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44448</v>
+        <v>44453</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8556,29 +8556,29 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K114" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="L114" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M114" t="n">
-        <v>10733</v>
+        <v>11769</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8587,10 +8587,10 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="Q114" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R114" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44448</v>
+        <v>44309</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8628,29 +8628,29 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="K115" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L115" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M115" t="n">
-        <v>11765</v>
+        <v>11000</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8659,10 +8659,10 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>392</v>
+        <v>220</v>
       </c>
       <c r="Q115" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K116" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="L116" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="M116" t="n">
-        <v>13231</v>
+        <v>10733</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="Q116" t="n">
         <v>50</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44420</v>
+        <v>44448</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="K117" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L117" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="M117" t="n">
-        <v>13222</v>
+        <v>11765</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>441</v>
+        <v>392</v>
       </c>
       <c r="Q117" t="n">
         <v>30</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8853,16 +8853,16 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K118" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L118" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M118" t="n">
-        <v>15000</v>
+        <v>13231</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q118" t="n">
         <v>50</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="K119" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L119" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M119" t="n">
-        <v>14455</v>
+        <v>13222</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="Q119" t="n">
         <v>30</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44167</v>
+        <v>44370</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8988,41 +8988,41 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>2800</v>
+        <v>80</v>
       </c>
       <c r="K120" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="L120" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M120" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P120" t="n">
         <v>300</v>
       </c>
       <c r="Q120" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R120" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44210</v>
+        <v>44370</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9069,16 +9069,16 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K121" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L121" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M121" t="n">
-        <v>11000</v>
+        <v>14455</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>367</v>
+        <v>482</v>
       </c>
       <c r="Q121" t="n">
         <v>30</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44344</v>
+        <v>44167</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9132,41 +9132,41 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>60</v>
+        <v>2800</v>
       </c>
       <c r="K122" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="L122" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M122" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="Q122" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R122" t="inlineStr">
         <is>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K123" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L123" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M123" t="n">
-        <v>14444</v>
+        <v>11000</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>481</v>
+        <v>367</v>
       </c>
       <c r="Q123" t="n">
         <v>30</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9285,16 +9285,16 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="K124" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="L124" t="n">
         <v>14000</v>
       </c>
       <c r="M124" t="n">
-        <v>13739</v>
+        <v>14000</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q124" t="n">
         <v>50</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44350</v>
+        <v>44344</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9357,16 +9357,16 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="K125" t="n">
         <v>14000</v>
       </c>
       <c r="L125" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M125" t="n">
-        <v>14261</v>
+        <v>14444</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q125" t="n">
         <v>30</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9420,29 +9420,29 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J126" t="n">
         <v>115</v>
       </c>
       <c r="K126" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="L126" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M126" t="n">
-        <v>11739</v>
+        <v>13739</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>391</v>
+        <v>275</v>
       </c>
       <c r="Q126" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R126" t="inlineStr">
         <is>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9492,29 +9492,29 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K127" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L127" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="M127" t="n">
-        <v>13250</v>
+        <v>14261</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9523,10 +9523,10 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>265</v>
+        <v>475</v>
       </c>
       <c r="Q127" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R127" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K128" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="L128" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M128" t="n">
-        <v>13455</v>
+        <v>11739</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="Q128" t="n">
         <v>30</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="K129" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L129" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="M129" t="n">
-        <v>10238</v>
+        <v>13250</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="Q129" t="n">
         <v>50</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K130" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L130" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M130" t="n">
-        <v>11262</v>
+        <v>13455</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="Q130" t="n">
         <v>30</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9792,13 +9792,13 @@
         <v>105</v>
       </c>
       <c r="K131" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="L131" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="M131" t="n">
-        <v>12762</v>
+        <v>10238</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="Q131" t="n">
         <v>50</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9864,13 +9864,13 @@
         <v>105</v>
       </c>
       <c r="K132" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L132" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="M132" t="n">
-        <v>14238</v>
+        <v>11262</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="Q132" t="n">
         <v>30</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9924,41 +9924,41 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>2000</v>
+        <v>105</v>
       </c>
       <c r="K133" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L133" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M133" t="n">
-        <v>300</v>
+        <v>12762</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q133" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R133" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10001,36 +10001,36 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1800</v>
+        <v>105</v>
       </c>
       <c r="K134" t="n">
-        <v>220</v>
+        <v>14000</v>
       </c>
       <c r="L134" t="n">
-        <v>220</v>
+        <v>14500</v>
       </c>
       <c r="M134" t="n">
-        <v>220</v>
+        <v>14238</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>220</v>
+        <v>475</v>
       </c>
       <c r="Q134" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R134" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10068,41 +10068,41 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>115</v>
+        <v>2000</v>
       </c>
       <c r="K135" t="n">
-        <v>12500</v>
+        <v>300</v>
       </c>
       <c r="L135" t="n">
-        <v>13000</v>
+        <v>300</v>
       </c>
       <c r="M135" t="n">
-        <v>12739</v>
+        <v>300</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="Q135" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R135" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10145,36 +10145,36 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>125</v>
+        <v>1800</v>
       </c>
       <c r="K136" t="n">
-        <v>12500</v>
+        <v>220</v>
       </c>
       <c r="L136" t="n">
-        <v>13000</v>
+        <v>220</v>
       </c>
       <c r="M136" t="n">
-        <v>12760</v>
+        <v>220</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>425</v>
+        <v>220</v>
       </c>
       <c r="Q136" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R136" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10212,41 +10212,41 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>3500</v>
+        <v>115</v>
       </c>
       <c r="K137" t="n">
-        <v>300</v>
+        <v>12500</v>
       </c>
       <c r="L137" t="n">
-        <v>300</v>
+        <v>13000</v>
       </c>
       <c r="M137" t="n">
-        <v>300</v>
+        <v>12739</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q137" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R137" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10289,36 +10289,36 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>3800</v>
+        <v>125</v>
       </c>
       <c r="K138" t="n">
-        <v>250</v>
+        <v>12500</v>
       </c>
       <c r="L138" t="n">
-        <v>250</v>
+        <v>13000</v>
       </c>
       <c r="M138" t="n">
-        <v>250</v>
+        <v>12760</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="Q138" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R138" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10356,41 +10356,41 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>150</v>
+        <v>3500</v>
       </c>
       <c r="K139" t="n">
-        <v>9500</v>
+        <v>300</v>
       </c>
       <c r="L139" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="M139" t="n">
-        <v>9767</v>
+        <v>300</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="Q139" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R139" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10433,36 +10433,36 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>150</v>
+        <v>3800</v>
       </c>
       <c r="K140" t="n">
-        <v>10500</v>
+        <v>250</v>
       </c>
       <c r="L140" t="n">
-        <v>11000</v>
+        <v>250</v>
       </c>
       <c r="M140" t="n">
-        <v>10767</v>
+        <v>250</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>359</v>
+        <v>250</v>
       </c>
       <c r="Q140" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R140" t="inlineStr">
         <is>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K141" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L141" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M141" t="n">
-        <v>15000</v>
+        <v>9767</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="Q141" t="n">
         <v>50</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="K142" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="L142" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M142" t="n">
-        <v>15528</v>
+        <v>10767</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>518</v>
+        <v>359</v>
       </c>
       <c r="Q142" t="n">
         <v>30</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K143" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L143" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M143" t="n">
-        <v>13455</v>
+        <v>15000</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="Q143" t="n">
         <v>50</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10725,20 +10725,20 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="K144" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L144" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M144" t="n">
-        <v>14000</v>
+        <v>15528</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10747,10 +10747,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>280</v>
+        <v>518</v>
       </c>
       <c r="Q144" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R144" t="inlineStr">
         <is>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="K145" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L145" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M145" t="n">
-        <v>10559</v>
+        <v>13455</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="Q145" t="n">
         <v>50</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44447</v>
+        <v>44343</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10865,24 +10865,24 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="K146" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L146" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M146" t="n">
-        <v>12260</v>
+        <v>14000</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -10891,10 +10891,10 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>409</v>
+        <v>280</v>
       </c>
       <c r="Q146" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10932,29 +10932,29 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K147" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L147" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M147" t="n">
-        <v>12000</v>
+        <v>10559</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -10963,10 +10963,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>400</v>
+        <v>211</v>
       </c>
       <c r="Q147" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44468</v>
+        <v>44447</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11004,29 +11004,29 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="K148" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L148" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="M148" t="n">
-        <v>9267</v>
+        <v>12260</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11035,10 +11035,10 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>185</v>
+        <v>409</v>
       </c>
       <c r="Q148" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R148" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44468</v>
+        <v>44270</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K149" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="L149" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M149" t="n">
-        <v>10767</v>
+        <v>12000</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="Q149" t="n">
         <v>30</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44390</v>
+        <v>44468</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="K150" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L150" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="M150" t="n">
-        <v>15000</v>
+        <v>9267</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="Q150" t="n">
         <v>50</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11220,29 +11220,29 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K151" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="L151" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M151" t="n">
-        <v>15000</v>
+        <v>10767</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11251,10 +11251,10 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="Q151" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R151" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11292,29 +11292,29 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K152" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L152" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M152" t="n">
-        <v>16529</v>
+        <v>15000</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11323,10 +11323,10 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>551</v>
+        <v>300</v>
       </c>
       <c r="Q152" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R152" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11373,16 +11373,16 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="K153" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="L153" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M153" t="n">
-        <v>9731</v>
+        <v>15000</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="Q153" t="n">
         <v>50</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44463</v>
+        <v>44386</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="K154" t="n">
-        <v>10500</v>
+        <v>16000</v>
       </c>
       <c r="L154" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="M154" t="n">
-        <v>10731</v>
+        <v>16529</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>358</v>
+        <v>551</v>
       </c>
       <c r="Q154" t="n">
         <v>30</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11508,41 +11508,41 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>3800</v>
+        <v>130</v>
       </c>
       <c r="K155" t="n">
-        <v>300</v>
+        <v>9500</v>
       </c>
       <c r="L155" t="n">
-        <v>300</v>
+        <v>10000</v>
       </c>
       <c r="M155" t="n">
-        <v>300</v>
+        <v>9731</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="Q155" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44168</v>
+        <v>44463</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11585,36 +11585,36 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>7000</v>
+        <v>130</v>
       </c>
       <c r="K156" t="n">
-        <v>230</v>
+        <v>10500</v>
       </c>
       <c r="L156" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="M156" t="n">
-        <v>240</v>
+        <v>10731</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>240</v>
+        <v>358</v>
       </c>
       <c r="Q156" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11652,41 +11652,41 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>615</v>
+        <v>3800</v>
       </c>
       <c r="K157" t="n">
-        <v>13500</v>
+        <v>300</v>
       </c>
       <c r="L157" t="n">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="M157" t="n">
-        <v>13951</v>
+        <v>300</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="Q157" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11729,36 +11729,36 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>130</v>
+        <v>7000</v>
       </c>
       <c r="K158" t="n">
-        <v>14000</v>
+        <v>230</v>
       </c>
       <c r="L158" t="n">
-        <v>15000</v>
+        <v>250</v>
       </c>
       <c r="M158" t="n">
-        <v>14462</v>
+        <v>240</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="Q158" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11805,16 +11805,16 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>105</v>
+        <v>615</v>
       </c>
       <c r="K159" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="L159" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M159" t="n">
-        <v>12762</v>
+        <v>13951</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="Q159" t="n">
         <v>50</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K160" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L160" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M160" t="n">
-        <v>13250</v>
+        <v>14462</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="Q160" t="n">
         <v>30</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K161" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L161" t="n">
         <v>13000</v>
       </c>
-      <c r="L161" t="n">
-        <v>14000</v>
-      </c>
       <c r="M161" t="n">
-        <v>13474</v>
+        <v>12762</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="Q161" t="n">
         <v>50</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K162" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L162" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M162" t="n">
-        <v>14455</v>
+        <v>13250</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="Q162" t="n">
         <v>30</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12093,16 +12093,16 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K163" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L163" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M163" t="n">
-        <v>15476</v>
+        <v>13474</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="Q163" t="n">
         <v>50</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44397</v>
+        <v>44371</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K164" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L164" t="n">
         <v>15000</v>
       </c>
-      <c r="L164" t="n">
-        <v>16000</v>
-      </c>
       <c r="M164" t="n">
-        <v>15478</v>
+        <v>14455</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="Q164" t="n">
         <v>30</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K165" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L165" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M165" t="n">
-        <v>13750</v>
+        <v>15476</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="Q165" t="n">
         <v>50</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K166" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L166" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M166" t="n">
-        <v>14500</v>
+        <v>15478</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="Q166" t="n">
         <v>30</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K167" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L167" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M167" t="n">
-        <v>11286</v>
+        <v>13750</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="Q167" t="n">
         <v>50</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K168" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L168" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="M168" t="n">
-        <v>12231</v>
+        <v>14500</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="Q168" t="n">
         <v>30</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="K169" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L169" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="M169" t="n">
-        <v>13522</v>
+        <v>11286</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12543,11 +12543,11 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>Provincia de Quillota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="Q169" t="n">
         <v>50</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K170" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L170" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="M170" t="n">
-        <v>14261</v>
+        <v>12231</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="Q170" t="n">
         <v>30</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K171" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L171" t="n">
         <v>14000</v>
       </c>
-      <c r="L171" t="n">
-        <v>15000</v>
-      </c>
       <c r="M171" t="n">
-        <v>14474</v>
+        <v>13522</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12687,11 +12687,11 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Quillota</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="Q171" t="n">
         <v>50</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44356</v>
+        <v>44372</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="K172" t="n">
         <v>14000</v>
       </c>
       <c r="L172" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M172" t="n">
-        <v>14526</v>
+        <v>14261</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="Q172" t="n">
         <v>30</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12804,41 +12804,41 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>3200</v>
+        <v>95</v>
       </c>
       <c r="K173" t="n">
-        <v>300</v>
+        <v>14000</v>
       </c>
       <c r="L173" t="n">
-        <v>300</v>
+        <v>15000</v>
       </c>
       <c r="M173" t="n">
-        <v>300</v>
+        <v>14474</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q173" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12881,36 +12881,36 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>3000</v>
+        <v>95</v>
       </c>
       <c r="K174" t="n">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="L174" t="n">
-        <v>250</v>
+        <v>15000</v>
       </c>
       <c r="M174" t="n">
-        <v>250</v>
+        <v>14526</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="Q174" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="K175" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="L175" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="M175" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13025,36 +13025,36 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>110</v>
+        <v>3000</v>
       </c>
       <c r="K176" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="L176" t="n">
-        <v>14500</v>
+        <v>250</v>
       </c>
       <c r="M176" t="n">
-        <v>14227</v>
+        <v>250</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>474</v>
+        <v>250</v>
       </c>
       <c r="Q176" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13092,41 +13092,41 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>100</v>
+        <v>2800</v>
       </c>
       <c r="K177" t="n">
-        <v>14000</v>
+        <v>180</v>
       </c>
       <c r="L177" t="n">
-        <v>15000</v>
+        <v>180</v>
       </c>
       <c r="M177" t="n">
-        <v>14550</v>
+        <v>180</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="Q177" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K178" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L178" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="M178" t="n">
-        <v>13481</v>
+        <v>14227</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="Q178" t="n">
         <v>30</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K179" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L179" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M179" t="n">
-        <v>10000</v>
+        <v>14550</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="Q179" t="n">
         <v>50</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44461</v>
+        <v>44365</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="K180" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="L180" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M180" t="n">
-        <v>11737</v>
+        <v>13481</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="Q180" t="n">
         <v>30</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13380,29 +13380,29 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K181" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L181" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M181" t="n">
-        <v>14478</v>
+        <v>10000</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -13411,10 +13411,10 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>483</v>
+        <v>200</v>
       </c>
       <c r="Q181" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44162</v>
+        <v>44461</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13457,36 +13457,36 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>3800</v>
+        <v>95</v>
       </c>
       <c r="K182" t="n">
-        <v>250</v>
+        <v>11500</v>
       </c>
       <c r="L182" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="M182" t="n">
-        <v>250</v>
+        <v>11737</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="Q182" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44410</v>
+        <v>44357</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13524,29 +13524,29 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>250</v>
+        <v>115</v>
       </c>
       <c r="K183" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L183" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M183" t="n">
-        <v>13240</v>
+        <v>14478</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -13555,10 +13555,10 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>265</v>
+        <v>483</v>
       </c>
       <c r="Q183" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R183" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -13601,36 +13601,36 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>120</v>
+        <v>3800</v>
       </c>
       <c r="K184" t="n">
-        <v>13500</v>
+        <v>250</v>
       </c>
       <c r="L184" t="n">
-        <v>14000</v>
+        <v>250</v>
       </c>
       <c r="M184" t="n">
-        <v>13750</v>
+        <v>250</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P184" t="n">
-        <v>458</v>
+        <v>250</v>
       </c>
       <c r="Q184" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13677,16 +13677,16 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="K185" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="L185" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="M185" t="n">
-        <v>12727</v>
+        <v>13240</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Q185" t="n">
         <v>50</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K186" t="n">
         <v>13500</v>
       </c>
       <c r="L186" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M186" t="n">
-        <v>13500</v>
+        <v>13750</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Q186" t="n">
         <v>30</v>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -13821,20 +13821,20 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K187" t="n">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="L187" t="n">
         <v>13000</v>
       </c>
       <c r="M187" t="n">
-        <v>13000</v>
+        <v>12727</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -13843,10 +13843,10 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>433</v>
+        <v>255</v>
       </c>
       <c r="Q187" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R187" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -13884,29 +13884,29 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J188" t="n">
         <v>60</v>
       </c>
       <c r="K188" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="L188" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M188" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -13915,10 +13915,10 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q188" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R188" t="inlineStr">
         <is>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44376</v>
+        <v>44411</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K189" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L189" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="M189" t="n">
-        <v>16238</v>
+        <v>13000</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="Q189" t="n">
         <v>30</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K190" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L190" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M190" t="n">
-        <v>14227</v>
+        <v>15000</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q190" t="n">
         <v>50</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="K191" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L191" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M191" t="n">
-        <v>14000</v>
+        <v>16238</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q191" t="n">
         <v>30</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -14184,13 +14184,13 @@
         <v>110</v>
       </c>
       <c r="K192" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="L192" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="M192" t="n">
-        <v>12773</v>
+        <v>14227</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="Q192" t="n">
         <v>50</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="K193" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L193" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M193" t="n">
-        <v>12240</v>
+        <v>14000</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,12 +14275,156 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="Q193" t="n">
         <v>30</v>
       </c>
       <c r="R193" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>3</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Argentina(o)</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J194" t="n">
+        <v>110</v>
+      </c>
+      <c r="K194" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L194" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M194" t="n">
+        <v>12773</v>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>$/caja 50 unidades</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
+        <v>255</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>50</v>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>3</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E195" t="n">
+        <v>5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>100112013</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Alcachofa</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Española</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>125</v>
+      </c>
+      <c r="K195" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L195" t="n">
+        <v>12500</v>
+      </c>
+      <c r="M195" t="n">
+        <v>12240</v>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>$/caja 30 unidades</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>408</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>30</v>
+      </c>
+      <c r="R195" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Alcachofa.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R195"/>
+  <dimension ref="A1:R198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="K22" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="L22" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M22" t="n">
-        <v>14520</v>
+        <v>9765</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="Q22" t="n">
         <v>50</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44398</v>
+        <v>44473</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K23" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L23" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="M23" t="n">
-        <v>15455</v>
+        <v>10214</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>515</v>
+        <v>340</v>
       </c>
       <c r="Q23" t="n">
         <v>30</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44462</v>
+        <v>44473</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="L24" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M24" t="n">
-        <v>9781</v>
+        <v>9000</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="Q24" t="n">
         <v>50</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44462</v>
+        <v>44398</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -2148,29 +2148,29 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K25" t="n">
-        <v>10500</v>
+        <v>14000</v>
       </c>
       <c r="L25" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M25" t="n">
-        <v>10773</v>
+        <v>14520</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44421</v>
+        <v>44398</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K26" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L26" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M26" t="n">
-        <v>13238</v>
+        <v>15455</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>265</v>
+        <v>515</v>
       </c>
       <c r="Q26" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44421</v>
+        <v>44462</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
@@ -2292,29 +2292,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="K27" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="L27" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M27" t="n">
-        <v>13522</v>
+        <v>9781</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>451</v>
+        <v>196</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44379</v>
+        <v>44462</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -2364,29 +2364,29 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K28" t="n">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="L28" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M28" t="n">
-        <v>15000</v>
+        <v>10773</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="Q28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44379</v>
+        <v>44421</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K29" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L29" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="M29" t="n">
-        <v>16231</v>
+        <v>13238</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>541</v>
+        <v>265</v>
       </c>
       <c r="Q29" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44384</v>
+        <v>44421</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -2508,29 +2508,29 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K30" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L30" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M30" t="n">
-        <v>15000</v>
+        <v>13522</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2539,10 +2539,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>300</v>
+        <v>451</v>
       </c>
       <c r="Q30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44384</v>
+        <v>44379</v>
       </c>
       <c r="E31" t="n">
         <v>5</v>
@@ -2580,29 +2580,29 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="K31" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L31" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M31" t="n">
-        <v>17524</v>
+        <v>15000</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2611,10 +2611,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>584</v>
+        <v>300</v>
       </c>
       <c r="Q31" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44349</v>
+        <v>44379</v>
       </c>
       <c r="E32" t="n">
         <v>5</v>
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K32" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L32" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="M32" t="n">
-        <v>14000</v>
+        <v>16231</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="Q32" t="n">
         <v>30</v>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44396</v>
+        <v>44384</v>
       </c>
       <c r="E33" t="n">
         <v>5</v>
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K33" t="n">
         <v>15000</v>
       </c>
       <c r="L33" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M33" t="n">
-        <v>15524</v>
+        <v>15000</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q33" t="n">
         <v>50</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44396</v>
+        <v>44384</v>
       </c>
       <c r="E34" t="n">
         <v>5</v>
@@ -2808,13 +2808,13 @@
         <v>105</v>
       </c>
       <c r="K34" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L34" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M34" t="n">
-        <v>15524</v>
+        <v>17524</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="Q34" t="n">
         <v>30</v>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44412</v>
+        <v>44349</v>
       </c>
       <c r="E35" t="n">
         <v>5</v>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K35" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L35" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M35" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>260</v>
+        <v>467</v>
       </c>
       <c r="Q35" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44412</v>
+        <v>44396</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
@@ -2940,41 +2940,41 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K36" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L36" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="M36" t="n">
-        <v>13231</v>
+        <v>15524</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>441</v>
+        <v>310</v>
       </c>
       <c r="Q36" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44329</v>
+        <v>44396</v>
       </c>
       <c r="E37" t="n">
         <v>5</v>
@@ -3021,16 +3021,16 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K37" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="L37" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M37" t="n">
-        <v>14778</v>
+        <v>15524</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="Q37" t="n">
         <v>30</v>
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44364</v>
+        <v>44412</v>
       </c>
       <c r="E38" t="n">
         <v>5</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="K38" t="n">
         <v>13000</v>
       </c>
       <c r="L38" t="n">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="M38" t="n">
-        <v>13238</v>
+        <v>13000</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Q38" t="n">
         <v>50</v>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44364</v>
+        <v>44412</v>
       </c>
       <c r="E39" t="n">
         <v>5</v>
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K39" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L39" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M39" t="n">
-        <v>14476</v>
+        <v>13231</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="Q39" t="n">
         <v>30</v>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44159</v>
+        <v>44329</v>
       </c>
       <c r="E40" t="n">
         <v>5</v>
@@ -3237,20 +3237,20 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>2800</v>
+        <v>90</v>
       </c>
       <c r="K40" t="n">
-        <v>270</v>
+        <v>14500</v>
       </c>
       <c r="L40" t="n">
-        <v>270</v>
+        <v>15000</v>
       </c>
       <c r="M40" t="n">
-        <v>270</v>
+        <v>14778</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>270</v>
+        <v>493</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44159</v>
+        <v>44364</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3309,32 +3309,32 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>3200</v>
+        <v>105</v>
       </c>
       <c r="K41" t="n">
-        <v>200</v>
+        <v>13000</v>
       </c>
       <c r="L41" t="n">
-        <v>200</v>
+        <v>13500</v>
       </c>
       <c r="M41" t="n">
-        <v>200</v>
+        <v>13238</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44330</v>
+        <v>44364</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
@@ -3381,16 +3381,16 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K42" t="n">
         <v>14000</v>
       </c>
       <c r="L42" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="M42" t="n">
-        <v>14265</v>
+        <v>14476</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="Q42" t="n">
         <v>30</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44431</v>
+        <v>44159</v>
       </c>
       <c r="E43" t="n">
         <v>5</v>
@@ -3444,41 +3444,41 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>95</v>
+        <v>2800</v>
       </c>
       <c r="K43" t="n">
-        <v>13000</v>
+        <v>270</v>
       </c>
       <c r="L43" t="n">
-        <v>13500</v>
+        <v>270</v>
       </c>
       <c r="M43" t="n">
-        <v>13237</v>
+        <v>270</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q43" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44431</v>
+        <v>44159</v>
       </c>
       <c r="E44" t="n">
         <v>5</v>
@@ -3521,36 +3521,36 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>105</v>
+        <v>3200</v>
       </c>
       <c r="K44" t="n">
-        <v>13000</v>
+        <v>200</v>
       </c>
       <c r="L44" t="n">
-        <v>13500</v>
+        <v>200</v>
       </c>
       <c r="M44" t="n">
-        <v>13262</v>
+        <v>200</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>442</v>
+        <v>200</v>
       </c>
       <c r="Q44" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44377</v>
+        <v>44330</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
@@ -3588,29 +3588,29 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="K45" t="n">
         <v>14000</v>
       </c>
       <c r="L45" t="n">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="M45" t="n">
-        <v>14455</v>
+        <v>14265</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3619,10 +3619,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>289</v>
+        <v>476</v>
       </c>
       <c r="Q45" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44377</v>
+        <v>44431</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
@@ -3660,29 +3660,29 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="K46" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L46" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="M46" t="n">
-        <v>15483</v>
+        <v>13237</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3691,10 +3691,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>516</v>
+        <v>265</v>
       </c>
       <c r="Q46" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44459</v>
+        <v>44431</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J47" t="n">
         <v>105</v>
       </c>
       <c r="K47" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L47" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="M47" t="n">
-        <v>10238</v>
+        <v>13262</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>205</v>
+        <v>442</v>
       </c>
       <c r="Q47" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44459</v>
+        <v>44377</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3813,20 +3813,20 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K48" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L48" t="n">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="M48" t="n">
-        <v>11261</v>
+        <v>14455</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3835,10 +3835,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>375</v>
+        <v>289</v>
       </c>
       <c r="Q48" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44348</v>
+        <v>44377</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="K49" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L49" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M49" t="n">
-        <v>14000</v>
+        <v>15483</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="Q49" t="n">
         <v>30</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44435</v>
+        <v>44459</v>
       </c>
       <c r="E50" t="n">
         <v>5</v>
@@ -3957,16 +3957,16 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>555</v>
+        <v>105</v>
       </c>
       <c r="K50" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L50" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="M50" t="n">
-        <v>12788</v>
+        <v>10238</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="Q50" t="n">
         <v>50</v>
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44435</v>
+        <v>44459</v>
       </c>
       <c r="E51" t="n">
         <v>5</v>
@@ -4025,20 +4025,20 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>610</v>
+        <v>115</v>
       </c>
       <c r="K51" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L51" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="M51" t="n">
-        <v>12906</v>
+        <v>11261</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="Q51" t="n">
         <v>30</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44195</v>
+        <v>44348</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
@@ -4101,16 +4101,16 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="K52" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L52" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M52" t="n">
-        <v>11471</v>
+        <v>14000</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -4123,7 +4123,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>382</v>
+        <v>467</v>
       </c>
       <c r="Q52" t="n">
         <v>30</v>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44169</v>
+        <v>44435</v>
       </c>
       <c r="E53" t="n">
         <v>5</v>
@@ -4164,41 +4164,41 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>3800</v>
+        <v>555</v>
       </c>
       <c r="K53" t="n">
-        <v>350</v>
+        <v>12000</v>
       </c>
       <c r="L53" t="n">
-        <v>350</v>
+        <v>13500</v>
       </c>
       <c r="M53" t="n">
-        <v>350</v>
+        <v>12788</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44169</v>
+        <v>44435</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -4241,36 +4241,36 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>3500</v>
+        <v>610</v>
       </c>
       <c r="K54" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="L54" t="n">
-        <v>250</v>
+        <v>13500</v>
       </c>
       <c r="M54" t="n">
-        <v>250</v>
+        <v>12906</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>$/unidad</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Llay Llay</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>250</v>
+        <v>430</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44445</v>
+        <v>44195</v>
       </c>
       <c r="E55" t="n">
         <v>5</v>
@@ -4308,29 +4308,29 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="K55" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="L55" t="n">
         <v>12000</v>
       </c>
       <c r="M55" t="n">
-        <v>11714</v>
+        <v>11471</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4339,10 +4339,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>234</v>
+        <v>382</v>
       </c>
       <c r="Q55" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -4365,7 +4365,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44445</v>
+        <v>44169</v>
       </c>
       <c r="E56" t="n">
         <v>5</v>
@@ -4389,32 +4389,32 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>145</v>
+        <v>3800</v>
       </c>
       <c r="K56" t="n">
-        <v>12500</v>
+        <v>350</v>
       </c>
       <c r="L56" t="n">
-        <v>13000</v>
+        <v>350</v>
       </c>
       <c r="M56" t="n">
-        <v>12759</v>
+        <v>350</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="Q56" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44449</v>
+        <v>44169</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4461,32 +4461,32 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>135</v>
+        <v>3500</v>
       </c>
       <c r="K57" t="n">
-        <v>10000</v>
+        <v>250</v>
       </c>
       <c r="L57" t="n">
-        <v>11000</v>
+        <v>250</v>
       </c>
       <c r="M57" t="n">
-        <v>10444</v>
+        <v>250</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/unidad</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Llay Llay</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="Q57" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44449</v>
+        <v>44445</v>
       </c>
       <c r="E58" t="n">
         <v>5</v>
@@ -4524,16 +4524,16 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K58" t="n">
         <v>11500</v>
@@ -4542,11 +4542,11 @@
         <v>12000</v>
       </c>
       <c r="M58" t="n">
-        <v>11760</v>
+        <v>11714</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>392</v>
+        <v>234</v>
       </c>
       <c r="Q58" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44333</v>
+        <v>44445</v>
       </c>
       <c r="E59" t="n">
         <v>5</v>
@@ -4605,16 +4605,16 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="K59" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="L59" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M59" t="n">
-        <v>15000</v>
+        <v>12759</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="Q59" t="n">
         <v>30</v>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44355</v>
+        <v>44449</v>
       </c>
       <c r="E60" t="n">
         <v>5</v>
@@ -4677,16 +4677,16 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="K60" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L60" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M60" t="n">
-        <v>14000</v>
+        <v>10444</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="Q60" t="n">
         <v>50</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44355</v>
+        <v>44449</v>
       </c>
       <c r="E61" t="n">
         <v>5</v>
@@ -4749,16 +4749,16 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="K61" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="L61" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M61" t="n">
-        <v>14000</v>
+        <v>11760</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="Q61" t="n">
         <v>30</v>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44446</v>
+        <v>44333</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L62" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M62" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4843,10 +4843,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="Q62" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44446</v>
+        <v>44355</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -4884,29 +4884,29 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K63" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L63" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="M63" t="n">
-        <v>12227</v>
+        <v>14000</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>408</v>
+        <v>280</v>
       </c>
       <c r="Q63" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44406</v>
+        <v>44355</v>
       </c>
       <c r="E64" t="n">
         <v>5</v>
@@ -4956,29 +4956,29 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K64" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L64" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="M64" t="n">
-        <v>13200</v>
+        <v>14000</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>264</v>
+        <v>467</v>
       </c>
       <c r="Q64" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44406</v>
+        <v>44446</v>
       </c>
       <c r="E65" t="n">
         <v>5</v>
@@ -5033,24 +5033,24 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J65" t="n">
         <v>60</v>
       </c>
       <c r="K65" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L65" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M65" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>$/caja 70 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5059,10 +5059,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="Q65" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44406</v>
+        <v>44446</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -5109,16 +5109,16 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K66" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L66" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="M66" t="n">
-        <v>13250</v>
+        <v>12227</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="Q66" t="n">
         <v>30</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44469</v>
+        <v>44406</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K67" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L67" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="M67" t="n">
-        <v>9250</v>
+        <v>13200</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="Q67" t="n">
         <v>50</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44469</v>
+        <v>44406</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K68" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L68" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M68" t="n">
-        <v>10750</v>
+        <v>10000</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 70 unidades</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>358</v>
+        <v>143</v>
       </c>
       <c r="Q68" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="R68" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44385</v>
+        <v>44406</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5316,29 +5316,29 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K69" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L69" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M69" t="n">
-        <v>15000</v>
+        <v>13250</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>300</v>
+        <v>442</v>
       </c>
       <c r="Q69" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R69" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5388,29 +5388,29 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K70" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="L70" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="M70" t="n">
-        <v>17538</v>
+        <v>9250</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5419,10 +5419,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>585</v>
+        <v>185</v>
       </c>
       <c r="Q70" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R70" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44284</v>
+        <v>44469</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -5460,29 +5460,29 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K71" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="L71" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M71" t="n">
-        <v>12808</v>
+        <v>10750</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>256</v>
+        <v>358</v>
       </c>
       <c r="Q71" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R71" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K72" t="n">
         <v>15000</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44391</v>
+        <v>44385</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5613,20 +5613,20 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="K73" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L73" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="M73" t="n">
-        <v>16545</v>
+        <v>17538</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5635,10 +5635,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>331</v>
+        <v>585</v>
       </c>
       <c r="Q73" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R73" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44417</v>
+        <v>44284</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="K74" t="n">
+        <v>12500</v>
+      </c>
+      <c r="L74" t="n">
         <v>13000</v>
       </c>
-      <c r="L74" t="n">
-        <v>13500</v>
-      </c>
       <c r="M74" t="n">
-        <v>13238</v>
+        <v>12808</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Q74" t="n">
         <v>50</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -5748,29 +5748,29 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K75" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L75" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M75" t="n">
-        <v>13273</v>
+        <v>15000</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>442</v>
+        <v>300</v>
       </c>
       <c r="Q75" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R75" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44340</v>
+        <v>44391</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -5820,25 +5820,25 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K76" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L76" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M76" t="n">
-        <v>15000</v>
+        <v>16545</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="Q76" t="n">
         <v>50</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -5892,29 +5892,29 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="K77" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L77" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="M77" t="n">
-        <v>15000</v>
+        <v>13238</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>500</v>
+        <v>265</v>
       </c>
       <c r="Q77" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R77" t="inlineStr">
         <is>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44334</v>
+        <v>44417</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5973,16 +5973,16 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K78" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L78" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M78" t="n">
-        <v>14000</v>
+        <v>13273</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="Q78" t="n">
         <v>30</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44419</v>
+        <v>44340</v>
       </c>
       <c r="E79" t="n">
         <v>5</v>
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="K79" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="L79" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M79" t="n">
-        <v>13773</v>
+        <v>15000</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q79" t="n">
         <v>50</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44419</v>
+        <v>44340</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6117,16 +6117,16 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K80" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L80" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="M80" t="n">
-        <v>13273</v>
+        <v>15000</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="Q80" t="n">
         <v>30</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44467</v>
+        <v>44334</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6185,24 +6185,24 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K81" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L81" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M81" t="n">
-        <v>9385</v>
+        <v>14000</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6211,10 +6211,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>188</v>
+        <v>467</v>
       </c>
       <c r="Q81" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R81" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44467</v>
+        <v>44419</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6252,29 +6252,29 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Española</t>
+          <t>Argentina(o)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="K82" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="L82" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="M82" t="n">
-        <v>11241</v>
+        <v>13773</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>$/caja 30 unidades</t>
+          <t>$/caja 50 unidades</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="Q82" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44342</v>
+        <v>44419</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6324,29 +6324,29 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Argentina(o)</t>
+          <t>Española</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="K83" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L83" t="n">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="M83" t="n">
-        <v>14000</v>
+        <v>13273</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>$/caja 50 unidades</t>
+          <t>$/caja 30 unidades</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6355,10 +6355,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>280</v>
+        <v>442</v>
       </c>
       <c r="Q83" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R83" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44434</v>
+        <v>44467</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6408,13 +6408,13 @@
         <v>130</v>
       </c>
       <c r="K84" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="L84" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M84" t="n">
-        <v>12731</v>
+        <v>9385</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="Q84" t="n">
         <v>50</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
      